--- a/Outputs/1. Budget/Grid Search/Output Files/100000/Output_3_14.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/100000/Output_3_14.xlsx
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>412718.3701256484</v>
+        <v>436309.1313572978</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2589789.105914735</v>
+        <v>1207873.763444804</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>19958284.28136534</v>
+        <v>18603869.05421055</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>4840167.872053638</v>
+        <v>5529170.129877825</v>
       </c>
     </row>
     <row r="11">
@@ -701,31 +701,31 @@
         <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R2" t="n">
-        <v>38.87161743162455</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>172.8635119310596</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>207.6001488937379</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>207.6001488937379</v>
       </c>
       <c r="W2" t="n">
-        <v>44.13217237922859</v>
+        <v>207.6001488937379</v>
       </c>
       <c r="X2" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -735,16 +735,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>147.2847385201583</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -783,16 +783,16 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>44.13217237922859</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T3" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="U3" t="n">
-        <v>38.87161743162454</v>
+        <v>0</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -832,16 +832,16 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>22.65313100102799</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>44.13217237922859</v>
+        <v>133.186967585368</v>
       </c>
       <c r="J4" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -893,10 +893,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>38.87161743162455</v>
+        <v>207.6001488937379</v>
       </c>
       <c r="C5" t="n">
-        <v>44.13217237922859</v>
+        <v>207.6001488937379</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
@@ -905,7 +905,7 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
@@ -959,10 +959,10 @@
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>182.8542111456044</v>
       </c>
       <c r="Y5" t="n">
-        <v>44.13217237922859</v>
+        <v>207.6001488937379</v>
       </c>
     </row>
     <row r="6">
@@ -972,16 +972,16 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>38.87161743162455</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C6" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="F6" t="n">
         <v>0</v>
@@ -996,7 +996,7 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -1020,16 +1020,16 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S6" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T6" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U6" t="n">
-        <v>0</v>
+        <v>166.3691488993902</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -1069,16 +1069,16 @@
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>22.65313100102799</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>44.13217237922859</v>
+        <v>133.186967585368</v>
       </c>
       <c r="J7" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
@@ -1130,19 +1130,19 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>38.87161743162455</v>
+        <v>207.6001488937379</v>
       </c>
       <c r="C8" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>44.13217237922859</v>
+        <v>207.6001488937379</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>207.6001488937379</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
@@ -1178,10 +1178,10 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>32.98509320445466</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
@@ -1215,7 +1215,7 @@
         <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E9" t="n">
         <v>0</v>
@@ -1257,25 +1257,25 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>38.87161743162455</v>
+        <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="T9" t="n">
-        <v>44.13217237922859</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U9" t="n">
-        <v>44.13217237922859</v>
+        <v>44.67172947014224</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
       </c>
       <c r="W9" t="n">
-        <v>0</v>
+        <v>207.6001488937379</v>
       </c>
       <c r="X9" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y9" t="n">
         <v>0</v>
@@ -1309,13 +1309,13 @@
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>17.55829564281238</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K10" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -1330,16 +1330,16 @@
         <v>0</v>
       </c>
       <c r="P10" t="n">
-        <v>0.7904504476822691</v>
+        <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
@@ -1382,16 +1382,16 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>207.6001488937379</v>
       </c>
       <c r="H11" t="n">
-        <v>44.13217237922859</v>
+        <v>207.6001488937379</v>
       </c>
       <c r="I11" t="n">
-        <v>44.13217237922859</v>
+        <v>170.9049217909918</v>
       </c>
       <c r="J11" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K11" t="n">
         <v>0</v>
@@ -1415,10 +1415,10 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>38.87161743162455</v>
+        <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
         <v>0</v>
@@ -1433,7 +1433,7 @@
         <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>207.6001488937379</v>
       </c>
       <c r="Y11" t="n">
         <v>0</v>
@@ -1446,13 +1446,13 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C12" t="n">
-        <v>44.13217237922859</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D12" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E12" t="n">
         <v>0</v>
@@ -1467,7 +1467,7 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1497,7 +1497,7 @@
         <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>38.87161743162455</v>
+        <v>0</v>
       </c>
       <c r="T12" t="n">
         <v>0</v>
@@ -1509,13 +1509,13 @@
         <v>0</v>
       </c>
       <c r="W12" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="X12" t="n">
-        <v>44.13217237922859</v>
+        <v>23.88858099527685</v>
       </c>
       <c r="Y12" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="13">
@@ -1543,16 +1543,16 @@
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>22.65313100102799</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="K13" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L13" t="n">
         <v>0</v>
@@ -1567,10 +1567,10 @@
         <v>0</v>
       </c>
       <c r="P13" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q13" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -1585,7 +1585,7 @@
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>44.30348359856712</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
@@ -1616,19 +1616,19 @@
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>38.87161743162455</v>
+        <v>11.0451046352973</v>
       </c>
       <c r="G14" t="n">
-        <v>44.13217237922859</v>
+        <v>207.6001488937379</v>
       </c>
       <c r="H14" t="n">
-        <v>44.13217237922859</v>
+        <v>207.6001488937379</v>
       </c>
       <c r="I14" t="n">
-        <v>44.13217237922859</v>
+        <v>207.6001488937379</v>
       </c>
       <c r="J14" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K14" t="n">
         <v>0</v>
@@ -1649,10 +1649,10 @@
         <v>0</v>
       </c>
       <c r="Q14" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R14" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -1731,19 +1731,19 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>44.13217237922859</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S15" t="n">
-        <v>38.87161743162455</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T15" t="n">
-        <v>44.13217237922859</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U15" t="n">
-        <v>44.13217237922859</v>
+        <v>207.6001488937379</v>
       </c>
       <c r="V15" t="n">
-        <v>0</v>
+        <v>126.0487749817775</v>
       </c>
       <c r="W15" t="n">
         <v>0</v>
@@ -1777,7 +1777,7 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>17.55829564281238</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -1786,10 +1786,10 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>0</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K16" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L16" t="n">
         <v>0</v>
@@ -1804,16 +1804,16 @@
         <v>0</v>
       </c>
       <c r="P16" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>42.20118209180435</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -1844,7 +1844,7 @@
         <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>207.6001488937379</v>
       </c>
       <c r="D17" t="n">
         <v>0</v>
@@ -1853,7 +1853,7 @@
         <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="G17" t="n">
         <v>0</v>
@@ -1865,7 +1865,7 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K17" t="n">
         <v>0</v>
@@ -1886,19 +1886,19 @@
         <v>0</v>
       </c>
       <c r="Q17" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S17" t="n">
-        <v>44.13217237922859</v>
+        <v>207.6001488937379</v>
       </c>
       <c r="T17" t="n">
-        <v>44.13217237922859</v>
+        <v>207.6001488937379</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>11.0451046352973</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -1907,7 +1907,7 @@
         <v>0</v>
       </c>
       <c r="X17" t="n">
-        <v>38.87161743162454</v>
+        <v>0</v>
       </c>
       <c r="Y17" t="n">
         <v>0</v>
@@ -1923,16 +1923,16 @@
         <v>0</v>
       </c>
       <c r="C18" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="D18" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="E18" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="F18" t="n">
-        <v>38.87161743162454</v>
+        <v>0</v>
       </c>
       <c r="G18" t="n">
         <v>0</v>
@@ -1968,19 +1968,19 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>18.60646024068284</v>
       </c>
       <c r="S18" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T18" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U18" t="n">
-        <v>0</v>
+        <v>207.6001488937379</v>
       </c>
       <c r="V18" t="n">
-        <v>0</v>
+        <v>207.6001488937379</v>
       </c>
       <c r="W18" t="n">
         <v>0</v>
@@ -2005,7 +2005,7 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
@@ -2020,13 +2020,13 @@
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
       </c>
       <c r="K19" t="n">
-        <v>0.790450447682262</v>
+        <v>0</v>
       </c>
       <c r="L19" t="n">
         <v>0</v>
@@ -2056,10 +2056,10 @@
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="V19" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
@@ -2078,7 +2078,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0</v>
+        <v>40.47627913313511</v>
       </c>
       <c r="C20" t="n">
         <v>241.0142888776591</v>
@@ -2102,7 +2102,7 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K20" t="n">
         <v>0</v>
@@ -2123,19 +2123,19 @@
         <v>0</v>
       </c>
       <c r="Q20" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>212.285385643442</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
         <v>241.0142888776591</v>
@@ -2147,7 +2147,7 @@
         <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
     </row>
     <row r="21">
@@ -2157,22 +2157,22 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0</v>
+        <v>5.008233692897374</v>
       </c>
       <c r="C21" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D21" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E21" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F21" t="n">
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
@@ -2205,19 +2205,19 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>171.6831711038378</v>
       </c>
       <c r="T21" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U21" t="n">
-        <v>168.333920706505</v>
+        <v>0</v>
       </c>
       <c r="V21" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W21" t="n">
         <v>0</v>
@@ -2226,7 +2226,7 @@
         <v>0</v>
       </c>
       <c r="Y21" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="22">
@@ -2251,40 +2251,40 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
+        <v>0</v>
+      </c>
+      <c r="H22" t="n">
+        <v>0</v>
+      </c>
+      <c r="I22" t="n">
+        <v>0</v>
+      </c>
+      <c r="J22" t="n">
+        <v>0</v>
+      </c>
+      <c r="K22" t="n">
+        <v>0</v>
+      </c>
+      <c r="L22" t="n">
+        <v>0</v>
+      </c>
+      <c r="M22" t="n">
+        <v>0</v>
+      </c>
+      <c r="N22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O22" t="n">
+        <v>0</v>
+      </c>
+      <c r="P22" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q22" t="n">
+        <v>0</v>
+      </c>
+      <c r="R22" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="H22" t="n">
-        <v>0</v>
-      </c>
-      <c r="I22" t="n">
-        <v>0</v>
-      </c>
-      <c r="J22" t="n">
-        <v>0</v>
-      </c>
-      <c r="K22" t="n">
-        <v>0</v>
-      </c>
-      <c r="L22" t="n">
-        <v>0</v>
-      </c>
-      <c r="M22" t="n">
-        <v>0</v>
-      </c>
-      <c r="N22" t="n">
-        <v>0</v>
-      </c>
-      <c r="O22" t="n">
-        <v>0</v>
-      </c>
-      <c r="P22" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q22" t="n">
-        <v>0</v>
-      </c>
-      <c r="R22" t="n">
-        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -2324,22 +2324,22 @@
         <v>0</v>
       </c>
       <c r="E23" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="F23" t="n">
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>40.47627913313511</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K23" t="n">
         <v>0</v>
@@ -2363,7 +2363,7 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -2372,16 +2372,16 @@
         <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>202.2946864288972</v>
+        <v>0</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
       </c>
       <c r="W23" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X23" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="Y23" t="n">
         <v>0</v>
@@ -2394,13 +2394,13 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0</v>
+        <v>140.1845926095645</v>
       </c>
       <c r="C24" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D24" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E24" t="n">
         <v>0</v>
@@ -2409,7 +2409,7 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>23.82307707298864</v>
+        <v>0</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
@@ -2418,7 +2418,7 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K24" t="n">
         <v>0</v>
@@ -2442,16 +2442,16 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T24" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U24" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -2460,7 +2460,7 @@
         <v>241.0142888776591</v>
       </c>
       <c r="X24" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y24" t="n">
         <v>0</v>
@@ -2473,55 +2473,55 @@
         </is>
       </c>
       <c r="B25" t="n">
+        <v>0</v>
+      </c>
+      <c r="C25" t="n">
+        <v>0</v>
+      </c>
+      <c r="D25" t="n">
+        <v>0</v>
+      </c>
+      <c r="E25" t="n">
+        <v>0</v>
+      </c>
+      <c r="F25" t="n">
+        <v>0</v>
+      </c>
+      <c r="G25" t="n">
+        <v>0</v>
+      </c>
+      <c r="H25" t="n">
+        <v>0</v>
+      </c>
+      <c r="I25" t="n">
+        <v>0</v>
+      </c>
+      <c r="J25" t="n">
+        <v>0</v>
+      </c>
+      <c r="K25" t="n">
+        <v>0</v>
+      </c>
+      <c r="L25" t="n">
+        <v>0</v>
+      </c>
+      <c r="M25" t="n">
+        <v>0</v>
+      </c>
+      <c r="N25" t="n">
+        <v>0</v>
+      </c>
+      <c r="O25" t="n">
+        <v>0</v>
+      </c>
+      <c r="P25" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q25" t="n">
+        <v>0</v>
+      </c>
+      <c r="R25" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="C25" t="n">
-        <v>0</v>
-      </c>
-      <c r="D25" t="n">
-        <v>0</v>
-      </c>
-      <c r="E25" t="n">
-        <v>0</v>
-      </c>
-      <c r="F25" t="n">
-        <v>0</v>
-      </c>
-      <c r="G25" t="n">
-        <v>0</v>
-      </c>
-      <c r="H25" t="n">
-        <v>0</v>
-      </c>
-      <c r="I25" t="n">
-        <v>0</v>
-      </c>
-      <c r="J25" t="n">
-        <v>0</v>
-      </c>
-      <c r="K25" t="n">
-        <v>0</v>
-      </c>
-      <c r="L25" t="n">
-        <v>0</v>
-      </c>
-      <c r="M25" t="n">
-        <v>0</v>
-      </c>
-      <c r="N25" t="n">
-        <v>0</v>
-      </c>
-      <c r="O25" t="n">
-        <v>0</v>
-      </c>
-      <c r="P25" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q25" t="n">
-        <v>0</v>
-      </c>
-      <c r="R25" t="n">
-        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -2555,7 +2555,7 @@
         <v>0</v>
       </c>
       <c r="C26" t="n">
-        <v>241.0142888776591</v>
+        <v>80.33470701582003</v>
       </c>
       <c r="D26" t="n">
         <v>0</v>
@@ -2567,7 +2567,7 @@
         <v>241.0142888776591</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -2576,7 +2576,7 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K26" t="n">
         <v>0</v>
@@ -2597,16 +2597,16 @@
         <v>0</v>
       </c>
       <c r="Q26" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U26" t="n">
         <v>0</v>
@@ -2615,10 +2615,10 @@
         <v>0</v>
       </c>
       <c r="W26" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X26" t="n">
-        <v>190.3453970742848</v>
+        <v>0</v>
       </c>
       <c r="Y26" t="n">
         <v>0</v>
@@ -2634,7 +2634,7 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C27" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D27" t="n">
         <v>0</v>
@@ -2646,13 +2646,13 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>89.3681084119596</v>
       </c>
       <c r="J27" t="n">
         <v>0.7465913262578567</v>
@@ -2679,13 +2679,13 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
       </c>
       <c r="T27" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U27" t="n">
         <v>0</v>
@@ -2697,10 +2697,10 @@
         <v>241.0142888776591</v>
       </c>
       <c r="X27" t="n">
-        <v>148.6429936570149</v>
+        <v>0</v>
       </c>
       <c r="Y27" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28">
@@ -2752,16 +2752,16 @@
         <v>0</v>
       </c>
       <c r="P28" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q28" t="n">
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>130.4655268502615</v>
       </c>
       <c r="S28" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -2789,7 +2789,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="C29" t="n">
         <v>0</v>
@@ -2798,7 +2798,7 @@
         <v>0</v>
       </c>
       <c r="E29" t="n">
-        <v>11.19305615617957</v>
+        <v>0</v>
       </c>
       <c r="F29" t="n">
         <v>0</v>
@@ -2807,13 +2807,13 @@
         <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K29" t="n">
         <v>0</v>
@@ -2834,31 +2834,31 @@
         <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R29" t="n">
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U29" t="n">
+        <v>0</v>
+      </c>
+      <c r="V29" t="n">
+        <v>0</v>
+      </c>
+      <c r="W29" t="n">
+        <v>200.3360962888297</v>
+      </c>
+      <c r="X29" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y29" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="V29" t="n">
-        <v>0</v>
-      </c>
-      <c r="W29" t="n">
-        <v>0</v>
-      </c>
-      <c r="X29" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="Y29" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -2868,7 +2868,7 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C30" t="n">
         <v>0</v>
@@ -2877,22 +2877,22 @@
         <v>0</v>
       </c>
       <c r="E30" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F30" t="n">
-        <v>0</v>
+        <v>71.26307389894913</v>
       </c>
       <c r="G30" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H30" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K30" t="n">
         <v>0</v>
@@ -2919,19 +2919,19 @@
         <v>0</v>
       </c>
       <c r="S30" t="n">
-        <v>35.40726547353833</v>
+        <v>0</v>
       </c>
       <c r="T30" t="n">
         <v>200.1647286948216</v>
       </c>
       <c r="U30" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V30" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W30" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X30" t="n">
         <v>0</v>
@@ -2968,7 +2968,7 @@
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2989,16 +2989,16 @@
         <v>0</v>
       </c>
       <c r="P31" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q31" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>44.30348359856715</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -3035,64 +3035,64 @@
         <v>0</v>
       </c>
       <c r="E32" t="n">
+        <v>0</v>
+      </c>
+      <c r="F32" t="n">
+        <v>0</v>
+      </c>
+      <c r="G32" t="n">
+        <v>0</v>
+      </c>
+      <c r="H32" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="F32" t="n">
+      <c r="I32" t="n">
+        <v>0</v>
+      </c>
+      <c r="J32" t="n">
+        <v>0</v>
+      </c>
+      <c r="K32" t="n">
+        <v>0</v>
+      </c>
+      <c r="L32" t="n">
+        <v>0</v>
+      </c>
+      <c r="M32" t="n">
+        <v>0</v>
+      </c>
+      <c r="N32" t="n">
+        <v>0</v>
+      </c>
+      <c r="O32" t="n">
+        <v>0</v>
+      </c>
+      <c r="P32" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q32" t="n">
+        <v>0</v>
+      </c>
+      <c r="R32" t="n">
+        <v>0</v>
+      </c>
+      <c r="S32" t="n">
+        <v>0</v>
+      </c>
+      <c r="T32" t="n">
+        <v>0</v>
+      </c>
+      <c r="U32" t="n">
+        <v>212.285385643442</v>
+      </c>
+      <c r="V32" t="n">
+        <v>0</v>
+      </c>
+      <c r="W32" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="G32" t="n">
+      <c r="X32" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="H32" t="n">
-        <v>190.3453970742847</v>
-      </c>
-      <c r="I32" t="n">
-        <v>0</v>
-      </c>
-      <c r="J32" t="n">
-        <v>11.94928935461252</v>
-      </c>
-      <c r="K32" t="n">
-        <v>0</v>
-      </c>
-      <c r="L32" t="n">
-        <v>0</v>
-      </c>
-      <c r="M32" t="n">
-        <v>0</v>
-      </c>
-      <c r="N32" t="n">
-        <v>0</v>
-      </c>
-      <c r="O32" t="n">
-        <v>0</v>
-      </c>
-      <c r="P32" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q32" t="n">
-        <v>9.990699214544804</v>
-      </c>
-      <c r="R32" t="n">
-        <v>0</v>
-      </c>
-      <c r="S32" t="n">
-        <v>0</v>
-      </c>
-      <c r="T32" t="n">
-        <v>0</v>
-      </c>
-      <c r="U32" t="n">
-        <v>0</v>
-      </c>
-      <c r="V32" t="n">
-        <v>0</v>
-      </c>
-      <c r="W32" t="n">
-        <v>0</v>
-      </c>
-      <c r="X32" t="n">
-        <v>0</v>
       </c>
       <c r="Y32" t="n">
         <v>0</v>
@@ -3108,7 +3108,7 @@
         <v>0</v>
       </c>
       <c r="C33" t="n">
-        <v>131.8562746194806</v>
+        <v>0</v>
       </c>
       <c r="D33" t="n">
         <v>0</v>
@@ -3156,7 +3156,7 @@
         <v>0</v>
       </c>
       <c r="S33" t="n">
-        <v>171.6831711038378</v>
+        <v>70.64856914772007</v>
       </c>
       <c r="T33" t="n">
         <v>200.1647286948216</v>
@@ -3165,16 +3165,16 @@
         <v>225.9413820809748</v>
       </c>
       <c r="V33" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W33" t="n">
         <v>0</v>
       </c>
       <c r="X33" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y33" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34">
@@ -3193,7 +3193,7 @@
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
@@ -3241,7 +3241,7 @@
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -3263,11 +3263,11 @@
         </is>
       </c>
       <c r="B35" t="n">
+        <v>0</v>
+      </c>
+      <c r="C35" t="n">
         <v>212.2853856434421</v>
       </c>
-      <c r="C35" t="n">
-        <v>0</v>
-      </c>
       <c r="D35" t="n">
         <v>0</v>
       </c>
@@ -3278,7 +3278,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -3329,7 +3329,7 @@
         <v>0</v>
       </c>
       <c r="X35" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="Y35" t="n">
         <v>0</v>
@@ -3342,25 +3342,25 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C36" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D36" t="n">
         <v>0</v>
       </c>
       <c r="E36" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F36" t="n">
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>0</v>
+        <v>135.9049866160227</v>
       </c>
       <c r="H36" t="n">
-        <v>41.6227610156345</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I36" t="n">
         <v>89.39663285141508</v>
@@ -3390,16 +3390,16 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S36" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T36" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U36" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -3408,7 +3408,7 @@
         <v>0</v>
       </c>
       <c r="X36" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y36" t="n">
         <v>0</v>
@@ -3448,7 +3448,7 @@
         <v>0</v>
       </c>
       <c r="K37" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L37" t="n">
         <v>0</v>
@@ -3463,7 +3463,7 @@
         <v>0</v>
       </c>
       <c r="P37" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q37" t="n">
         <v>0</v>
@@ -3478,10 +3478,10 @@
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="V37" t="n">
-        <v>108.1960350243787</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
         <v>0</v>
@@ -3509,7 +3509,7 @@
         <v>241.0142888776591</v>
       </c>
       <c r="E38" t="n">
-        <v>241.0142888776591</v>
+        <v>230.2038249569697</v>
       </c>
       <c r="F38" t="n">
         <v>0</v>
@@ -3518,13 +3518,13 @@
         <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>7.778646031951277</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>210.4758895704059</v>
+        <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K38" t="n">
         <v>0</v>
@@ -3557,7 +3557,7 @@
         <v>223.0958495641314</v>
       </c>
       <c r="U38" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -3579,10 +3579,10 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C39" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D39" t="n">
         <v>0</v>
@@ -3627,16 +3627,16 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
-        <v>171.6831711038378</v>
+        <v>97.76646051984098</v>
       </c>
       <c r="T39" t="n">
         <v>200.1647286948216</v>
       </c>
       <c r="U39" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -3645,10 +3645,10 @@
         <v>0</v>
       </c>
       <c r="X39" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y39" t="n">
-        <v>124.0808356869335</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="40">
@@ -3667,7 +3667,7 @@
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
@@ -3721,7 +3721,7 @@
         <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
@@ -3743,25 +3743,25 @@
         <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="E41" t="n">
         <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="G41" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="H41" t="n">
-        <v>200.3360962888296</v>
+        <v>1.809496073036188</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J41" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K41" t="n">
         <v>0</v>
@@ -3816,7 +3816,7 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>0</v>
+        <v>145.5147652547677</v>
       </c>
       <c r="C42" t="n">
         <v>0</v>
@@ -3831,7 +3831,7 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
@@ -3873,10 +3873,10 @@
         <v>0</v>
       </c>
       <c r="U42" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V42" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W42" t="n">
         <v>241.0142888776591</v>
@@ -3885,7 +3885,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y42" t="n">
-        <v>29.79900896488263</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="43">
@@ -3952,10 +3952,10 @@
         <v>0</v>
       </c>
       <c r="U43" t="n">
+        <v>0</v>
+      </c>
+      <c r="V43" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="V43" t="n">
-        <v>0</v>
       </c>
       <c r="W43" t="n">
         <v>0</v>
@@ -3974,13 +3974,13 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="C44" t="n">
         <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>0</v>
+        <v>207.6001488937379</v>
       </c>
       <c r="E44" t="n">
         <v>0</v>
@@ -3989,13 +3989,13 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>207.6001488937379</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>207.6001488937379</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>172.8635119310595</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4034,16 +4034,16 @@
         <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="W44" t="n">
         <v>0</v>
       </c>
       <c r="X44" t="n">
-        <v>28.88091821707974</v>
+        <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -4077,7 +4077,7 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
         <v>0</v>
@@ -4101,25 +4101,25 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S45" t="n">
-        <v>44.13217237922859</v>
+        <v>84.52354068322154</v>
       </c>
       <c r="T45" t="n">
         <v>0</v>
       </c>
       <c r="U45" t="n">
-        <v>44.13217237922859</v>
+        <v>207.6001488937379</v>
       </c>
       <c r="V45" t="n">
-        <v>44.13217237922859</v>
+        <v>207.6001488937379</v>
       </c>
       <c r="W45" t="n">
-        <v>38.12502610536669</v>
+        <v>0</v>
       </c>
       <c r="X45" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y45" t="n">
         <v>0</v>
@@ -4147,10 +4147,10 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0.790450447682262</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4189,13 +4189,13 @@
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="W46" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
@@ -4304,76 +4304,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>3.530573790338288</v>
+        <v>16.60801191149903</v>
       </c>
       <c r="C2" t="n">
-        <v>3.530573790338288</v>
+        <v>16.60801191149903</v>
       </c>
       <c r="D2" t="n">
-        <v>3.530573790338288</v>
+        <v>16.60801191149903</v>
       </c>
       <c r="E2" t="n">
-        <v>3.530573790338288</v>
+        <v>16.60801191149903</v>
       </c>
       <c r="F2" t="n">
-        <v>3.530573790338288</v>
+        <v>16.60801191149903</v>
       </c>
       <c r="G2" t="n">
-        <v>3.530573790338288</v>
+        <v>16.60801191149903</v>
       </c>
       <c r="H2" t="n">
-        <v>3.530573790338288</v>
+        <v>16.60801191149903</v>
       </c>
       <c r="I2" t="n">
-        <v>3.530573790338288</v>
+        <v>16.60801191149903</v>
       </c>
       <c r="J2" t="n">
-        <v>3.530573790338288</v>
+        <v>16.60801191149903</v>
       </c>
       <c r="K2" t="n">
-        <v>3.530573790338288</v>
+        <v>16.60801191149903</v>
       </c>
       <c r="L2" t="n">
-        <v>45.45613755060546</v>
+        <v>196.6838634961576</v>
       </c>
       <c r="M2" t="n">
-        <v>89.14698820604177</v>
+        <v>402.2080109009581</v>
       </c>
       <c r="N2" t="n">
-        <v>132.8378388614781</v>
+        <v>607.7321583057586</v>
       </c>
       <c r="O2" t="n">
-        <v>176.5286895169144</v>
+        <v>756.9271084484067</v>
       </c>
       <c r="P2" t="n">
-        <v>176.5286895169144</v>
+        <v>830.4005955749516</v>
       </c>
       <c r="Q2" t="n">
-        <v>176.5286895169144</v>
+        <v>820.3089802067245</v>
       </c>
       <c r="R2" t="n">
-        <v>137.2644294849704</v>
+        <v>820.3089802067245</v>
       </c>
       <c r="S2" t="n">
-        <v>137.2644294849704</v>
+        <v>820.3089802067245</v>
       </c>
       <c r="T2" t="n">
-        <v>137.2644294849704</v>
+        <v>645.6993721955532</v>
       </c>
       <c r="U2" t="n">
-        <v>137.2644294849704</v>
+        <v>436.0022521008685</v>
       </c>
       <c r="V2" t="n">
-        <v>137.2644294849704</v>
+        <v>226.3051320061838</v>
       </c>
       <c r="W2" t="n">
-        <v>92.68647758675968</v>
+        <v>16.60801191149903</v>
       </c>
       <c r="X2" t="n">
-        <v>48.10852568854899</v>
+        <v>16.60801191149903</v>
       </c>
       <c r="Y2" t="n">
-        <v>3.530573790338288</v>
+        <v>16.60801191149903</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4383,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>3.530573790338288</v>
+        <v>488.7679140055524</v>
       </c>
       <c r="C3" t="n">
-        <v>3.530573790338288</v>
+        <v>314.3148847244254</v>
       </c>
       <c r="D3" t="n">
-        <v>3.530573790338288</v>
+        <v>165.3804750631741</v>
       </c>
       <c r="E3" t="n">
-        <v>3.530573790338288</v>
+        <v>16.60801191149903</v>
       </c>
       <c r="F3" t="n">
-        <v>3.530573790338288</v>
+        <v>16.60801191149903</v>
       </c>
       <c r="G3" t="n">
-        <v>3.530573790338288</v>
+        <v>16.60801191149903</v>
       </c>
       <c r="H3" t="n">
-        <v>3.530573790338288</v>
+        <v>16.60801191149903</v>
       </c>
       <c r="I3" t="n">
-        <v>3.530573790338288</v>
+        <v>16.60801191149903</v>
       </c>
       <c r="J3" t="n">
-        <v>3.530573790338288</v>
+        <v>16.60801191149903</v>
       </c>
       <c r="K3" t="n">
-        <v>3.530573790338288</v>
+        <v>141.9655719693364</v>
       </c>
       <c r="L3" t="n">
-        <v>45.45613755060546</v>
+        <v>347.4897193741369</v>
       </c>
       <c r="M3" t="n">
-        <v>89.14698820604177</v>
+        <v>553.0138667789374</v>
       </c>
       <c r="N3" t="n">
-        <v>132.8378388614781</v>
+        <v>758.5380141837379</v>
       </c>
       <c r="O3" t="n">
-        <v>132.8378388614781</v>
+        <v>758.5380141837379</v>
       </c>
       <c r="P3" t="n">
-        <v>132.8378388614781</v>
+        <v>761.0060370616222</v>
       </c>
       <c r="Q3" t="n">
-        <v>176.5286895169144</v>
+        <v>830.4005955749516</v>
       </c>
       <c r="R3" t="n">
-        <v>131.9507376187037</v>
+        <v>830.4005955749516</v>
       </c>
       <c r="S3" t="n">
-        <v>87.37278572049297</v>
+        <v>656.9832510256205</v>
       </c>
       <c r="T3" t="n">
-        <v>42.79483382228227</v>
+        <v>656.9832510256205</v>
       </c>
       <c r="U3" t="n">
-        <v>3.530573790338288</v>
+        <v>656.9832510256205</v>
       </c>
       <c r="V3" t="n">
-        <v>3.530573790338288</v>
+        <v>656.9832510256205</v>
       </c>
       <c r="W3" t="n">
-        <v>3.530573790338288</v>
+        <v>656.9832510256205</v>
       </c>
       <c r="X3" t="n">
-        <v>3.530573790338288</v>
+        <v>656.9832510256205</v>
       </c>
       <c r="Y3" t="n">
-        <v>3.530573790338288</v>
+        <v>656.9832510256205</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4462,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>138.062864280609</v>
+        <v>151.1403024017698</v>
       </c>
       <c r="C4" t="n">
-        <v>138.062864280609</v>
+        <v>151.1403024017698</v>
       </c>
       <c r="D4" t="n">
-        <v>138.062864280609</v>
+        <v>151.1403024017698</v>
       </c>
       <c r="E4" t="n">
-        <v>138.062864280609</v>
+        <v>151.1403024017698</v>
       </c>
       <c r="F4" t="n">
-        <v>138.062864280609</v>
+        <v>151.1403024017698</v>
       </c>
       <c r="G4" t="n">
-        <v>138.062864280609</v>
+        <v>151.1403024017698</v>
       </c>
       <c r="H4" t="n">
-        <v>115.1809137745201</v>
+        <v>151.1403024017698</v>
       </c>
       <c r="I4" t="n">
-        <v>70.60296187630945</v>
+        <v>16.60801191149903</v>
       </c>
       <c r="J4" t="n">
-        <v>26.02500997809875</v>
+        <v>16.60801191149903</v>
       </c>
       <c r="K4" t="n">
-        <v>3.530573790338288</v>
+        <v>16.60801191149903</v>
       </c>
       <c r="L4" t="n">
-        <v>30.84469879805127</v>
+        <v>43.92213691921201</v>
       </c>
       <c r="M4" t="n">
-        <v>70.03273699027345</v>
+        <v>83.11017511143419</v>
       </c>
       <c r="N4" t="n">
-        <v>113.7235876457098</v>
+        <v>126.8010257668705</v>
       </c>
       <c r="O4" t="n">
-        <v>138.062864280609</v>
+        <v>151.1403024017698</v>
       </c>
       <c r="P4" t="n">
-        <v>138.062864280609</v>
+        <v>151.1403024017698</v>
       </c>
       <c r="Q4" t="n">
-        <v>138.062864280609</v>
+        <v>151.1403024017698</v>
       </c>
       <c r="R4" t="n">
-        <v>138.062864280609</v>
+        <v>151.1403024017698</v>
       </c>
       <c r="S4" t="n">
-        <v>138.062864280609</v>
+        <v>151.1403024017698</v>
       </c>
       <c r="T4" t="n">
-        <v>138.062864280609</v>
+        <v>151.1403024017698</v>
       </c>
       <c r="U4" t="n">
-        <v>138.062864280609</v>
+        <v>151.1403024017698</v>
       </c>
       <c r="V4" t="n">
-        <v>138.062864280609</v>
+        <v>151.1403024017698</v>
       </c>
       <c r="W4" t="n">
-        <v>138.062864280609</v>
+        <v>151.1403024017698</v>
       </c>
       <c r="X4" t="n">
-        <v>138.062864280609</v>
+        <v>151.1403024017698</v>
       </c>
       <c r="Y4" t="n">
-        <v>138.062864280609</v>
+        <v>151.1403024017698</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4541,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>92.68647758675968</v>
+        <v>226.3051320061838</v>
       </c>
       <c r="C5" t="n">
-        <v>48.10852568854899</v>
+        <v>16.60801191149903</v>
       </c>
       <c r="D5" t="n">
-        <v>48.10852568854899</v>
+        <v>16.60801191149903</v>
       </c>
       <c r="E5" t="n">
-        <v>48.10852568854899</v>
+        <v>16.60801191149903</v>
       </c>
       <c r="F5" t="n">
-        <v>3.530573790338288</v>
+        <v>16.60801191149903</v>
       </c>
       <c r="G5" t="n">
-        <v>3.530573790338288</v>
+        <v>16.60801191149903</v>
       </c>
       <c r="H5" t="n">
-        <v>3.530573790338288</v>
+        <v>16.60801191149903</v>
       </c>
       <c r="I5" t="n">
-        <v>3.530573790338288</v>
+        <v>16.60801191149903</v>
       </c>
       <c r="J5" t="n">
-        <v>3.530573790338288</v>
+        <v>16.60801191149903</v>
       </c>
       <c r="K5" t="n">
-        <v>47.22142444577459</v>
+        <v>16.60801191149903</v>
       </c>
       <c r="L5" t="n">
-        <v>47.22142444577459</v>
+        <v>196.6838634961576</v>
       </c>
       <c r="M5" t="n">
-        <v>89.14698820604177</v>
+        <v>402.2080109009581</v>
       </c>
       <c r="N5" t="n">
-        <v>89.14698820604177</v>
+        <v>591.5455901402526</v>
       </c>
       <c r="O5" t="n">
-        <v>132.8378388614781</v>
+        <v>740.7405402829006</v>
       </c>
       <c r="P5" t="n">
-        <v>176.5286895169144</v>
+        <v>830.4005955749516</v>
       </c>
       <c r="Q5" t="n">
-        <v>176.5286895169144</v>
+        <v>830.4005955749516</v>
       </c>
       <c r="R5" t="n">
-        <v>176.5286895169144</v>
+        <v>830.4005955749516</v>
       </c>
       <c r="S5" t="n">
-        <v>176.5286895169144</v>
+        <v>830.4005955749516</v>
       </c>
       <c r="T5" t="n">
-        <v>176.5286895169144</v>
+        <v>830.4005955749516</v>
       </c>
       <c r="U5" t="n">
-        <v>176.5286895169144</v>
+        <v>830.4005955749516</v>
       </c>
       <c r="V5" t="n">
-        <v>176.5286895169144</v>
+        <v>830.4005955749516</v>
       </c>
       <c r="W5" t="n">
-        <v>176.5286895169144</v>
+        <v>830.4005955749516</v>
       </c>
       <c r="X5" t="n">
-        <v>176.5286895169144</v>
+        <v>645.6993721955532</v>
       </c>
       <c r="Y5" t="n">
-        <v>131.9507376187037</v>
+        <v>436.0022521008685</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4620,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>137.2644294849704</v>
+        <v>17.36214456428474</v>
       </c>
       <c r="C6" t="n">
-        <v>92.68647758675968</v>
+        <v>17.36214456428474</v>
       </c>
       <c r="D6" t="n">
-        <v>48.10852568854899</v>
+        <v>17.36214456428474</v>
       </c>
       <c r="E6" t="n">
-        <v>3.530573790338288</v>
+        <v>17.36214456428474</v>
       </c>
       <c r="F6" t="n">
-        <v>3.530573790338288</v>
+        <v>17.36214456428474</v>
       </c>
       <c r="G6" t="n">
-        <v>3.530573790338288</v>
+        <v>17.36214456428474</v>
       </c>
       <c r="H6" t="n">
-        <v>3.530573790338288</v>
+        <v>17.36214456428474</v>
       </c>
       <c r="I6" t="n">
-        <v>3.530573790338288</v>
+        <v>17.36214456428474</v>
       </c>
       <c r="J6" t="n">
-        <v>3.530573790338288</v>
+        <v>16.60801191149903</v>
       </c>
       <c r="K6" t="n">
-        <v>47.22142444577459</v>
+        <v>141.9655719693364</v>
       </c>
       <c r="L6" t="n">
-        <v>47.22142444577459</v>
+        <v>141.9655719693364</v>
       </c>
       <c r="M6" t="n">
-        <v>47.22142444577459</v>
+        <v>167.3142646386704</v>
       </c>
       <c r="N6" t="n">
-        <v>47.22142444577459</v>
+        <v>372.838412043471</v>
       </c>
       <c r="O6" t="n">
-        <v>89.14698820604177</v>
+        <v>578.3625594482714</v>
       </c>
       <c r="P6" t="n">
-        <v>132.8378388614781</v>
+        <v>761.0060370616222</v>
       </c>
       <c r="Q6" t="n">
-        <v>176.5286895169144</v>
+        <v>830.4005955749516</v>
       </c>
       <c r="R6" t="n">
-        <v>176.5286895169144</v>
+        <v>729.2310661278373</v>
       </c>
       <c r="S6" t="n">
-        <v>176.5286895169144</v>
+        <v>555.8137215785061</v>
       </c>
       <c r="T6" t="n">
-        <v>176.5286895169144</v>
+        <v>353.6271269372722</v>
       </c>
       <c r="U6" t="n">
-        <v>176.5286895169144</v>
+        <v>185.5774815843528</v>
       </c>
       <c r="V6" t="n">
-        <v>176.5286895169144</v>
+        <v>185.5774815843528</v>
       </c>
       <c r="W6" t="n">
-        <v>176.5286895169144</v>
+        <v>185.5774815843528</v>
       </c>
       <c r="X6" t="n">
-        <v>176.5286895169144</v>
+        <v>185.5774815843528</v>
       </c>
       <c r="Y6" t="n">
-        <v>176.5286895169144</v>
+        <v>185.5774815843528</v>
       </c>
     </row>
     <row r="7">
@@ -4699,76 +4699,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>138.062864280609</v>
+        <v>151.1403024017698</v>
       </c>
       <c r="C7" t="n">
-        <v>138.062864280609</v>
+        <v>151.1403024017698</v>
       </c>
       <c r="D7" t="n">
-        <v>138.062864280609</v>
+        <v>151.1403024017698</v>
       </c>
       <c r="E7" t="n">
-        <v>138.062864280609</v>
+        <v>151.1403024017698</v>
       </c>
       <c r="F7" t="n">
-        <v>138.062864280609</v>
+        <v>151.1403024017698</v>
       </c>
       <c r="G7" t="n">
-        <v>138.062864280609</v>
+        <v>151.1403024017698</v>
       </c>
       <c r="H7" t="n">
-        <v>115.1809137745201</v>
+        <v>151.1403024017698</v>
       </c>
       <c r="I7" t="n">
-        <v>70.60296187630945</v>
+        <v>16.60801191149903</v>
       </c>
       <c r="J7" t="n">
-        <v>26.02500997809875</v>
+        <v>16.60801191149903</v>
       </c>
       <c r="K7" t="n">
-        <v>3.530573790338288</v>
+        <v>16.60801191149903</v>
       </c>
       <c r="L7" t="n">
-        <v>30.84469879805127</v>
+        <v>43.92213691921201</v>
       </c>
       <c r="M7" t="n">
-        <v>70.03273699027345</v>
+        <v>83.11017511143419</v>
       </c>
       <c r="N7" t="n">
-        <v>113.7235876457098</v>
+        <v>126.8010257668705</v>
       </c>
       <c r="O7" t="n">
-        <v>138.062864280609</v>
+        <v>151.1403024017698</v>
       </c>
       <c r="P7" t="n">
-        <v>138.062864280609</v>
+        <v>151.1403024017698</v>
       </c>
       <c r="Q7" t="n">
-        <v>138.062864280609</v>
+        <v>151.1403024017698</v>
       </c>
       <c r="R7" t="n">
-        <v>138.062864280609</v>
+        <v>151.1403024017698</v>
       </c>
       <c r="S7" t="n">
-        <v>138.062864280609</v>
+        <v>151.1403024017698</v>
       </c>
       <c r="T7" t="n">
-        <v>138.062864280609</v>
+        <v>151.1403024017698</v>
       </c>
       <c r="U7" t="n">
-        <v>138.062864280609</v>
+        <v>151.1403024017698</v>
       </c>
       <c r="V7" t="n">
-        <v>138.062864280609</v>
+        <v>151.1403024017698</v>
       </c>
       <c r="W7" t="n">
-        <v>138.062864280609</v>
+        <v>151.1403024017698</v>
       </c>
       <c r="X7" t="n">
-        <v>138.062864280609</v>
+        <v>151.1403024017698</v>
       </c>
       <c r="Y7" t="n">
-        <v>138.062864280609</v>
+        <v>151.1403024017698</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4778,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>137.2644294849704</v>
+        <v>436.0022521008685</v>
       </c>
       <c r="C8" t="n">
-        <v>92.68647758675968</v>
+        <v>436.0022521008685</v>
       </c>
       <c r="D8" t="n">
-        <v>48.10852568854899</v>
+        <v>436.0022521008685</v>
       </c>
       <c r="E8" t="n">
-        <v>3.530573790338288</v>
+        <v>226.3051320061838</v>
       </c>
       <c r="F8" t="n">
-        <v>3.530573790338288</v>
+        <v>16.60801191149903</v>
       </c>
       <c r="G8" t="n">
-        <v>3.530573790338288</v>
+        <v>16.60801191149903</v>
       </c>
       <c r="H8" t="n">
-        <v>3.530573790338288</v>
+        <v>16.60801191149903</v>
       </c>
       <c r="I8" t="n">
-        <v>3.530573790338288</v>
+        <v>16.60801191149903</v>
       </c>
       <c r="J8" t="n">
-        <v>3.530573790338288</v>
+        <v>16.60801191149903</v>
       </c>
       <c r="K8" t="n">
-        <v>47.22142444577459</v>
+        <v>90.08149903804397</v>
       </c>
       <c r="L8" t="n">
-        <v>90.91227510121089</v>
+        <v>270.1573506227026</v>
       </c>
       <c r="M8" t="n">
-        <v>132.8378388614781</v>
+        <v>475.681498027503</v>
       </c>
       <c r="N8" t="n">
-        <v>132.8378388614781</v>
+        <v>681.2056454323035</v>
       </c>
       <c r="O8" t="n">
-        <v>132.8378388614781</v>
+        <v>830.4005955749516</v>
       </c>
       <c r="P8" t="n">
-        <v>176.5286895169144</v>
+        <v>830.4005955749516</v>
       </c>
       <c r="Q8" t="n">
-        <v>176.5286895169144</v>
+        <v>830.4005955749516</v>
       </c>
       <c r="R8" t="n">
-        <v>176.5286895169144</v>
+        <v>679.0176481596488</v>
       </c>
       <c r="S8" t="n">
-        <v>176.5286895169144</v>
+        <v>645.6993721955532</v>
       </c>
       <c r="T8" t="n">
-        <v>176.5286895169144</v>
+        <v>645.6993721955532</v>
       </c>
       <c r="U8" t="n">
-        <v>176.5286895169144</v>
+        <v>645.6993721955532</v>
       </c>
       <c r="V8" t="n">
-        <v>176.5286895169144</v>
+        <v>645.6993721955532</v>
       </c>
       <c r="W8" t="n">
-        <v>176.5286895169144</v>
+        <v>645.6993721955532</v>
       </c>
       <c r="X8" t="n">
-        <v>176.5286895169144</v>
+        <v>645.6993721955532</v>
       </c>
       <c r="Y8" t="n">
-        <v>176.5286895169144</v>
+        <v>645.6993721955532</v>
       </c>
     </row>
     <row r="9">
@@ -4857,76 +4857,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>3.530573790338288</v>
+        <v>165.5424215727503</v>
       </c>
       <c r="C9" t="n">
-        <v>3.530573790338288</v>
+        <v>165.5424215727503</v>
       </c>
       <c r="D9" t="n">
-        <v>3.530573790338288</v>
+        <v>16.60801191149903</v>
       </c>
       <c r="E9" t="n">
-        <v>3.530573790338288</v>
+        <v>16.60801191149903</v>
       </c>
       <c r="F9" t="n">
-        <v>3.530573790338288</v>
+        <v>16.60801191149903</v>
       </c>
       <c r="G9" t="n">
-        <v>3.530573790338288</v>
+        <v>16.60801191149903</v>
       </c>
       <c r="H9" t="n">
-        <v>3.530573790338288</v>
+        <v>16.60801191149903</v>
       </c>
       <c r="I9" t="n">
-        <v>3.530573790338288</v>
+        <v>16.60801191149903</v>
       </c>
       <c r="J9" t="n">
-        <v>3.530573790338288</v>
+        <v>16.60801191149903</v>
       </c>
       <c r="K9" t="n">
-        <v>3.530573790338288</v>
+        <v>141.9655719693364</v>
       </c>
       <c r="L9" t="n">
-        <v>45.45613755060546</v>
+        <v>141.9655719693364</v>
       </c>
       <c r="M9" t="n">
-        <v>89.14698820604177</v>
+        <v>347.4897193741369</v>
       </c>
       <c r="N9" t="n">
-        <v>132.8378388614781</v>
+        <v>553.0138667789374</v>
       </c>
       <c r="O9" t="n">
-        <v>132.8378388614781</v>
+        <v>647.7571179616007</v>
       </c>
       <c r="P9" t="n">
-        <v>132.8378388614781</v>
+        <v>830.4005955749516</v>
       </c>
       <c r="Q9" t="n">
-        <v>176.5286895169144</v>
+        <v>830.4005955749516</v>
       </c>
       <c r="R9" t="n">
-        <v>137.2644294849704</v>
+        <v>830.4005955749516</v>
       </c>
       <c r="S9" t="n">
-        <v>92.68647758675968</v>
+        <v>830.4005955749516</v>
       </c>
       <c r="T9" t="n">
-        <v>48.10852568854899</v>
+        <v>628.2140009337177</v>
       </c>
       <c r="U9" t="n">
-        <v>3.530573790338288</v>
+        <v>583.0910418729679</v>
       </c>
       <c r="V9" t="n">
-        <v>3.530573790338288</v>
+        <v>583.0910418729679</v>
       </c>
       <c r="W9" t="n">
-        <v>3.530573790338288</v>
+        <v>373.3939217782831</v>
       </c>
       <c r="X9" t="n">
-        <v>3.530573790338288</v>
+        <v>165.5424215727503</v>
       </c>
       <c r="Y9" t="n">
-        <v>3.530573790338288</v>
+        <v>165.5424215727503</v>
       </c>
     </row>
     <row r="10">
@@ -4936,76 +4936,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>3.530573790338288</v>
+        <v>151.1403024017698</v>
       </c>
       <c r="C10" t="n">
-        <v>3.530573790338288</v>
+        <v>151.1403024017698</v>
       </c>
       <c r="D10" t="n">
-        <v>3.530573790338288</v>
+        <v>151.1403024017698</v>
       </c>
       <c r="E10" t="n">
-        <v>3.530573790338288</v>
+        <v>151.1403024017698</v>
       </c>
       <c r="F10" t="n">
-        <v>3.530573790338288</v>
+        <v>151.1403024017698</v>
       </c>
       <c r="G10" t="n">
-        <v>3.530573790338288</v>
+        <v>151.1403024017698</v>
       </c>
       <c r="H10" t="n">
-        <v>3.530573790338288</v>
+        <v>151.1403024017698</v>
       </c>
       <c r="I10" t="n">
-        <v>3.530573790338288</v>
+        <v>133.4046502373128</v>
       </c>
       <c r="J10" t="n">
-        <v>3.530573790338288</v>
+        <v>39.10244809925949</v>
       </c>
       <c r="K10" t="n">
-        <v>3.530573790338288</v>
+        <v>16.60801191149903</v>
       </c>
       <c r="L10" t="n">
-        <v>30.84469879805127</v>
+        <v>43.92213691921201</v>
       </c>
       <c r="M10" t="n">
-        <v>70.03273699027345</v>
+        <v>83.11017511143419</v>
       </c>
       <c r="N10" t="n">
-        <v>113.7235876457098</v>
+        <v>126.8010257668705</v>
       </c>
       <c r="O10" t="n">
-        <v>138.062864280609</v>
+        <v>151.1403024017698</v>
       </c>
       <c r="P10" t="n">
-        <v>137.2644294849704</v>
+        <v>151.1403024017698</v>
       </c>
       <c r="Q10" t="n">
-        <v>92.68647758675968</v>
+        <v>151.1403024017698</v>
       </c>
       <c r="R10" t="n">
-        <v>48.10852568854899</v>
+        <v>151.1403024017698</v>
       </c>
       <c r="S10" t="n">
-        <v>3.530573790338288</v>
+        <v>151.1403024017698</v>
       </c>
       <c r="T10" t="n">
-        <v>3.530573790338288</v>
+        <v>151.1403024017698</v>
       </c>
       <c r="U10" t="n">
-        <v>3.530573790338288</v>
+        <v>151.1403024017698</v>
       </c>
       <c r="V10" t="n">
-        <v>3.530573790338288</v>
+        <v>151.1403024017698</v>
       </c>
       <c r="W10" t="n">
-        <v>3.530573790338288</v>
+        <v>151.1403024017698</v>
       </c>
       <c r="X10" t="n">
-        <v>3.530573790338288</v>
+        <v>151.1403024017698</v>
       </c>
       <c r="Y10" t="n">
-        <v>3.530573790338288</v>
+        <v>151.1403024017698</v>
       </c>
     </row>
     <row r="11">
@@ -5015,76 +5015,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>92.68647758675968</v>
+        <v>620.7034754802669</v>
       </c>
       <c r="C11" t="n">
-        <v>92.68647758675968</v>
+        <v>620.7034754802669</v>
       </c>
       <c r="D11" t="n">
-        <v>92.68647758675968</v>
+        <v>620.7034754802669</v>
       </c>
       <c r="E11" t="n">
-        <v>92.68647758675968</v>
+        <v>620.7034754802669</v>
       </c>
       <c r="F11" t="n">
-        <v>92.68647758675968</v>
+        <v>620.7034754802669</v>
       </c>
       <c r="G11" t="n">
-        <v>92.68647758675968</v>
+        <v>411.0063553855821</v>
       </c>
       <c r="H11" t="n">
-        <v>48.10852568854899</v>
+        <v>201.3092352908974</v>
       </c>
       <c r="I11" t="n">
-        <v>3.530573790338288</v>
+        <v>28.67800115858238</v>
       </c>
       <c r="J11" t="n">
-        <v>3.530573790338288</v>
+        <v>16.60801191149903</v>
       </c>
       <c r="K11" t="n">
-        <v>45.45613755060546</v>
+        <v>119.6230178224214</v>
       </c>
       <c r="L11" t="n">
-        <v>89.14698820604177</v>
+        <v>299.69886940708</v>
       </c>
       <c r="M11" t="n">
-        <v>132.8378388614781</v>
+        <v>386.0214427354521</v>
       </c>
       <c r="N11" t="n">
-        <v>132.8378388614781</v>
+        <v>591.5455901402526</v>
       </c>
       <c r="O11" t="n">
-        <v>176.5286895169144</v>
+        <v>740.7405402829006</v>
       </c>
       <c r="P11" t="n">
-        <v>176.5286895169144</v>
+        <v>830.4005955749516</v>
       </c>
       <c r="Q11" t="n">
-        <v>176.5286895169144</v>
+        <v>830.4005955749516</v>
       </c>
       <c r="R11" t="n">
-        <v>137.2644294849704</v>
+        <v>830.4005955749516</v>
       </c>
       <c r="S11" t="n">
-        <v>92.68647758675968</v>
+        <v>830.4005955749516</v>
       </c>
       <c r="T11" t="n">
-        <v>92.68647758675968</v>
+        <v>830.4005955749516</v>
       </c>
       <c r="U11" t="n">
-        <v>92.68647758675968</v>
+        <v>830.4005955749516</v>
       </c>
       <c r="V11" t="n">
-        <v>92.68647758675968</v>
+        <v>830.4005955749516</v>
       </c>
       <c r="W11" t="n">
-        <v>92.68647758675968</v>
+        <v>830.4005955749516</v>
       </c>
       <c r="X11" t="n">
-        <v>92.68647758675968</v>
+        <v>620.7034754802669</v>
       </c>
       <c r="Y11" t="n">
-        <v>92.68647758675968</v>
+        <v>620.7034754802669</v>
       </c>
     </row>
     <row r="12">
@@ -5094,76 +5094,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>48.10852568854899</v>
+        <v>430.2950799967208</v>
       </c>
       <c r="C12" t="n">
-        <v>3.530573790338288</v>
+        <v>255.8420507155938</v>
       </c>
       <c r="D12" t="n">
-        <v>3.530573790338288</v>
+        <v>106.9076410543425</v>
       </c>
       <c r="E12" t="n">
-        <v>3.530573790338288</v>
+        <v>106.9076410543425</v>
       </c>
       <c r="F12" t="n">
-        <v>3.530573790338288</v>
+        <v>106.9076410543425</v>
       </c>
       <c r="G12" t="n">
-        <v>3.530573790338288</v>
+        <v>106.9076410543425</v>
       </c>
       <c r="H12" t="n">
-        <v>3.530573790338288</v>
+        <v>106.9076410543425</v>
       </c>
       <c r="I12" t="n">
-        <v>3.530573790338288</v>
+        <v>16.60801191149903</v>
       </c>
       <c r="J12" t="n">
-        <v>3.530573790338288</v>
+        <v>16.60801191149903</v>
       </c>
       <c r="K12" t="n">
-        <v>47.22142444577459</v>
+        <v>141.9655719693364</v>
       </c>
       <c r="L12" t="n">
-        <v>47.22142444577459</v>
+        <v>141.9655719693364</v>
       </c>
       <c r="M12" t="n">
-        <v>47.22142444577459</v>
+        <v>347.4897193741369</v>
       </c>
       <c r="N12" t="n">
-        <v>47.22142444577459</v>
+        <v>553.0138667789374</v>
       </c>
       <c r="O12" t="n">
-        <v>90.91227510121089</v>
+        <v>578.3625594482714</v>
       </c>
       <c r="P12" t="n">
-        <v>132.8378388614781</v>
+        <v>761.0060370616222</v>
       </c>
       <c r="Q12" t="n">
-        <v>176.5286895169144</v>
+        <v>830.4005955749516</v>
       </c>
       <c r="R12" t="n">
-        <v>176.5286895169144</v>
+        <v>830.4005955749516</v>
       </c>
       <c r="S12" t="n">
-        <v>137.2644294849704</v>
+        <v>830.4005955749516</v>
       </c>
       <c r="T12" t="n">
-        <v>137.2644294849704</v>
+        <v>830.4005955749516</v>
       </c>
       <c r="U12" t="n">
-        <v>137.2644294849704</v>
+        <v>830.4005955749516</v>
       </c>
       <c r="V12" t="n">
-        <v>137.2644294849704</v>
+        <v>830.4005955749516</v>
       </c>
       <c r="W12" t="n">
-        <v>92.68647758675968</v>
+        <v>830.4005955749516</v>
       </c>
       <c r="X12" t="n">
-        <v>48.10852568854899</v>
+        <v>806.2707157817426</v>
       </c>
       <c r="Y12" t="n">
-        <v>48.10852568854899</v>
+        <v>598.5104170167888</v>
       </c>
     </row>
     <row r="13">
@@ -5173,76 +5173,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>138.062864280609</v>
+        <v>16.60801191149903</v>
       </c>
       <c r="C13" t="n">
-        <v>138.062864280609</v>
+        <v>16.60801191149903</v>
       </c>
       <c r="D13" t="n">
-        <v>138.062864280609</v>
+        <v>16.60801191149903</v>
       </c>
       <c r="E13" t="n">
-        <v>138.062864280609</v>
+        <v>16.60801191149903</v>
       </c>
       <c r="F13" t="n">
-        <v>138.062864280609</v>
+        <v>16.60801191149903</v>
       </c>
       <c r="G13" t="n">
-        <v>138.062864280609</v>
+        <v>16.60801191149903</v>
       </c>
       <c r="H13" t="n">
-        <v>115.1809137745201</v>
+        <v>16.60801191149903</v>
       </c>
       <c r="I13" t="n">
-        <v>70.60296187630945</v>
+        <v>16.60801191149903</v>
       </c>
       <c r="J13" t="n">
-        <v>26.02500997809875</v>
+        <v>16.60801191149903</v>
       </c>
       <c r="K13" t="n">
-        <v>3.530573790338288</v>
+        <v>16.60801191149903</v>
       </c>
       <c r="L13" t="n">
-        <v>30.84469879805127</v>
+        <v>43.92213691921201</v>
       </c>
       <c r="M13" t="n">
-        <v>70.03273699027345</v>
+        <v>83.11017511143419</v>
       </c>
       <c r="N13" t="n">
-        <v>113.7235876457098</v>
+        <v>126.8010257668705</v>
       </c>
       <c r="O13" t="n">
-        <v>138.062864280609</v>
+        <v>151.1403024017698</v>
       </c>
       <c r="P13" t="n">
-        <v>138.062864280609</v>
+        <v>148.3913723663086</v>
       </c>
       <c r="Q13" t="n">
-        <v>138.062864280609</v>
+        <v>61.35900544540522</v>
       </c>
       <c r="R13" t="n">
-        <v>138.062864280609</v>
+        <v>61.35900544540522</v>
       </c>
       <c r="S13" t="n">
-        <v>138.062864280609</v>
+        <v>61.35900544540522</v>
       </c>
       <c r="T13" t="n">
-        <v>138.062864280609</v>
+        <v>61.35900544540522</v>
       </c>
       <c r="U13" t="n">
-        <v>138.062864280609</v>
+        <v>61.35900544540522</v>
       </c>
       <c r="V13" t="n">
-        <v>138.062864280609</v>
+        <v>16.60801191149903</v>
       </c>
       <c r="W13" t="n">
-        <v>138.062864280609</v>
+        <v>16.60801191149903</v>
       </c>
       <c r="X13" t="n">
-        <v>138.062864280609</v>
+        <v>16.60801191149903</v>
       </c>
       <c r="Y13" t="n">
-        <v>138.062864280609</v>
+        <v>16.60801191149903</v>
       </c>
     </row>
     <row r="14">
@@ -5252,76 +5252,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>176.5286895169144</v>
+        <v>668.9260327914218</v>
       </c>
       <c r="C14" t="n">
-        <v>176.5286895169144</v>
+        <v>668.9260327914218</v>
       </c>
       <c r="D14" t="n">
-        <v>176.5286895169144</v>
+        <v>668.9260327914218</v>
       </c>
       <c r="E14" t="n">
-        <v>176.5286895169144</v>
+        <v>668.9260327914218</v>
       </c>
       <c r="F14" t="n">
-        <v>137.2644294849704</v>
+        <v>657.7693614426366</v>
       </c>
       <c r="G14" t="n">
-        <v>92.68647758675968</v>
+        <v>448.0722413479519</v>
       </c>
       <c r="H14" t="n">
-        <v>48.10852568854899</v>
+        <v>238.3751212532671</v>
       </c>
       <c r="I14" t="n">
-        <v>3.530573790338288</v>
+        <v>28.67800115858238</v>
       </c>
       <c r="J14" t="n">
-        <v>3.530573790338288</v>
+        <v>16.60801191149903</v>
       </c>
       <c r="K14" t="n">
-        <v>47.22142444577459</v>
+        <v>16.60801191149903</v>
       </c>
       <c r="L14" t="n">
-        <v>90.91227510121089</v>
+        <v>180.4972953306516</v>
       </c>
       <c r="M14" t="n">
-        <v>134.6031257566472</v>
+        <v>386.0214427354521</v>
       </c>
       <c r="N14" t="n">
-        <v>176.5286895169144</v>
+        <v>591.5455901402526</v>
       </c>
       <c r="O14" t="n">
-        <v>176.5286895169144</v>
+        <v>740.7405402829006</v>
       </c>
       <c r="P14" t="n">
-        <v>176.5286895169144</v>
+        <v>830.4005955749516</v>
       </c>
       <c r="Q14" t="n">
-        <v>176.5286895169144</v>
+        <v>820.3089802067245</v>
       </c>
       <c r="R14" t="n">
-        <v>176.5286895169144</v>
+        <v>668.9260327914218</v>
       </c>
       <c r="S14" t="n">
-        <v>176.5286895169144</v>
+        <v>668.9260327914218</v>
       </c>
       <c r="T14" t="n">
-        <v>176.5286895169144</v>
+        <v>668.9260327914218</v>
       </c>
       <c r="U14" t="n">
-        <v>176.5286895169144</v>
+        <v>668.9260327914218</v>
       </c>
       <c r="V14" t="n">
-        <v>176.5286895169144</v>
+        <v>668.9260327914218</v>
       </c>
       <c r="W14" t="n">
-        <v>176.5286895169144</v>
+        <v>668.9260327914218</v>
       </c>
       <c r="X14" t="n">
-        <v>176.5286895169144</v>
+        <v>668.9260327914218</v>
       </c>
       <c r="Y14" t="n">
-        <v>176.5286895169144</v>
+        <v>668.9260327914218</v>
       </c>
     </row>
     <row r="15">
@@ -5331,76 +5331,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>3.530573790338288</v>
+        <v>16.60801191149903</v>
       </c>
       <c r="C15" t="n">
-        <v>3.530573790338288</v>
+        <v>16.60801191149903</v>
       </c>
       <c r="D15" t="n">
-        <v>3.530573790338288</v>
+        <v>16.60801191149903</v>
       </c>
       <c r="E15" t="n">
-        <v>3.530573790338288</v>
+        <v>16.60801191149903</v>
       </c>
       <c r="F15" t="n">
-        <v>3.530573790338288</v>
+        <v>16.60801191149903</v>
       </c>
       <c r="G15" t="n">
-        <v>3.530573790338288</v>
+        <v>16.60801191149903</v>
       </c>
       <c r="H15" t="n">
-        <v>3.530573790338288</v>
+        <v>16.60801191149903</v>
       </c>
       <c r="I15" t="n">
-        <v>3.530573790338288</v>
+        <v>16.60801191149903</v>
       </c>
       <c r="J15" t="n">
-        <v>3.530573790338288</v>
+        <v>16.60801191149903</v>
       </c>
       <c r="K15" t="n">
-        <v>47.22142444577459</v>
+        <v>141.9655719693364</v>
       </c>
       <c r="L15" t="n">
-        <v>47.22142444577459</v>
+        <v>167.3142646386704</v>
       </c>
       <c r="M15" t="n">
-        <v>47.22142444577459</v>
+        <v>372.838412043471</v>
       </c>
       <c r="N15" t="n">
-        <v>47.22142444577459</v>
+        <v>372.838412043471</v>
       </c>
       <c r="O15" t="n">
-        <v>89.14698820604177</v>
+        <v>578.3625594482714</v>
       </c>
       <c r="P15" t="n">
-        <v>132.8378388614781</v>
+        <v>761.0060370616222</v>
       </c>
       <c r="Q15" t="n">
-        <v>176.5286895169144</v>
+        <v>830.4005955749516</v>
       </c>
       <c r="R15" t="n">
-        <v>131.9507376187037</v>
+        <v>729.2310661278373</v>
       </c>
       <c r="S15" t="n">
-        <v>92.68647758675968</v>
+        <v>555.8137215785061</v>
       </c>
       <c r="T15" t="n">
-        <v>48.10852568854899</v>
+        <v>353.6271269372722</v>
       </c>
       <c r="U15" t="n">
-        <v>3.530573790338288</v>
+        <v>143.9300068425874</v>
       </c>
       <c r="V15" t="n">
-        <v>3.530573790338288</v>
+        <v>16.60801191149903</v>
       </c>
       <c r="W15" t="n">
-        <v>3.530573790338288</v>
+        <v>16.60801191149903</v>
       </c>
       <c r="X15" t="n">
-        <v>3.530573790338288</v>
+        <v>16.60801191149903</v>
       </c>
       <c r="Y15" t="n">
-        <v>3.530573790338288</v>
+        <v>16.60801191149903</v>
       </c>
     </row>
     <row r="16">
@@ -5410,76 +5410,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>3.530573790338288</v>
+        <v>151.1403024017698</v>
       </c>
       <c r="C16" t="n">
-        <v>3.530573790338288</v>
+        <v>151.1403024017698</v>
       </c>
       <c r="D16" t="n">
-        <v>3.530573790338288</v>
+        <v>151.1403024017698</v>
       </c>
       <c r="E16" t="n">
-        <v>3.530573790338288</v>
+        <v>151.1403024017698</v>
       </c>
       <c r="F16" t="n">
-        <v>3.530573790338288</v>
+        <v>151.1403024017698</v>
       </c>
       <c r="G16" t="n">
-        <v>3.530573790338288</v>
+        <v>133.4046502373128</v>
       </c>
       <c r="H16" t="n">
-        <v>3.530573790338288</v>
+        <v>133.4046502373128</v>
       </c>
       <c r="I16" t="n">
-        <v>3.530573790338288</v>
+        <v>133.4046502373128</v>
       </c>
       <c r="J16" t="n">
-        <v>3.530573790338288</v>
+        <v>39.10244809925949</v>
       </c>
       <c r="K16" t="n">
-        <v>3.530573790338288</v>
+        <v>16.60801191149903</v>
       </c>
       <c r="L16" t="n">
-        <v>30.84469879805127</v>
+        <v>43.92213691921201</v>
       </c>
       <c r="M16" t="n">
-        <v>70.03273699027345</v>
+        <v>83.11017511143419</v>
       </c>
       <c r="N16" t="n">
-        <v>113.7235876457098</v>
+        <v>126.8010257668705</v>
       </c>
       <c r="O16" t="n">
-        <v>138.062864280609</v>
+        <v>151.1403024017698</v>
       </c>
       <c r="P16" t="n">
-        <v>135.3139342451479</v>
+        <v>151.1403024017698</v>
       </c>
       <c r="Q16" t="n">
-        <v>90.73598234693722</v>
+        <v>151.1403024017698</v>
       </c>
       <c r="R16" t="n">
-        <v>46.15803044872652</v>
+        <v>151.1403024017698</v>
       </c>
       <c r="S16" t="n">
-        <v>3.530573790338288</v>
+        <v>151.1403024017698</v>
       </c>
       <c r="T16" t="n">
-        <v>3.530573790338288</v>
+        <v>151.1403024017698</v>
       </c>
       <c r="U16" t="n">
-        <v>3.530573790338288</v>
+        <v>151.1403024017698</v>
       </c>
       <c r="V16" t="n">
-        <v>3.530573790338288</v>
+        <v>151.1403024017698</v>
       </c>
       <c r="W16" t="n">
-        <v>3.530573790338288</v>
+        <v>151.1403024017698</v>
       </c>
       <c r="X16" t="n">
-        <v>3.530573790338288</v>
+        <v>151.1403024017698</v>
       </c>
       <c r="Y16" t="n">
-        <v>3.530573790338288</v>
+        <v>151.1403024017698</v>
       </c>
     </row>
     <row r="17">
@@ -5489,76 +5489,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>48.10852568854899</v>
+        <v>238.3751212532671</v>
       </c>
       <c r="C17" t="n">
-        <v>48.10852568854899</v>
+        <v>28.67800115858238</v>
       </c>
       <c r="D17" t="n">
-        <v>48.10852568854899</v>
+        <v>28.67800115858238</v>
       </c>
       <c r="E17" t="n">
-        <v>48.10852568854899</v>
+        <v>28.67800115858238</v>
       </c>
       <c r="F17" t="n">
-        <v>3.530573790338288</v>
+        <v>28.67800115858238</v>
       </c>
       <c r="G17" t="n">
-        <v>3.530573790338288</v>
+        <v>28.67800115858238</v>
       </c>
       <c r="H17" t="n">
-        <v>3.530573790338288</v>
+        <v>28.67800115858238</v>
       </c>
       <c r="I17" t="n">
-        <v>3.530573790338288</v>
+        <v>28.67800115858238</v>
       </c>
       <c r="J17" t="n">
-        <v>3.530573790338288</v>
+        <v>16.60801191149903</v>
       </c>
       <c r="K17" t="n">
-        <v>3.530573790338288</v>
+        <v>16.60801191149903</v>
       </c>
       <c r="L17" t="n">
-        <v>47.22142444577459</v>
+        <v>196.6838634961576</v>
       </c>
       <c r="M17" t="n">
-        <v>90.91227510121089</v>
+        <v>402.2080109009581</v>
       </c>
       <c r="N17" t="n">
-        <v>134.6031257566472</v>
+        <v>607.7321583057586</v>
       </c>
       <c r="O17" t="n">
-        <v>176.5286895169144</v>
+        <v>756.9271084484067</v>
       </c>
       <c r="P17" t="n">
-        <v>176.5286895169144</v>
+        <v>830.4005955749516</v>
       </c>
       <c r="Q17" t="n">
-        <v>176.5286895169144</v>
+        <v>820.3089802067245</v>
       </c>
       <c r="R17" t="n">
-        <v>176.5286895169144</v>
+        <v>668.9260327914218</v>
       </c>
       <c r="S17" t="n">
-        <v>131.9507376187037</v>
+        <v>459.228912696737</v>
       </c>
       <c r="T17" t="n">
-        <v>87.37278572049297</v>
+        <v>249.5317926020523</v>
       </c>
       <c r="U17" t="n">
-        <v>87.37278572049297</v>
+        <v>238.3751212532671</v>
       </c>
       <c r="V17" t="n">
-        <v>87.37278572049297</v>
+        <v>238.3751212532671</v>
       </c>
       <c r="W17" t="n">
-        <v>87.37278572049297</v>
+        <v>238.3751212532671</v>
       </c>
       <c r="X17" t="n">
-        <v>48.10852568854899</v>
+        <v>238.3751212532671</v>
       </c>
       <c r="Y17" t="n">
-        <v>48.10852568854899</v>
+        <v>238.3751212532671</v>
       </c>
     </row>
     <row r="18">
@@ -5568,76 +5568,76 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>176.5286895169144</v>
+        <v>16.60801191149903</v>
       </c>
       <c r="C18" t="n">
-        <v>131.9507376187037</v>
+        <v>16.60801191149903</v>
       </c>
       <c r="D18" t="n">
-        <v>87.37278572049297</v>
+        <v>16.60801191149903</v>
       </c>
       <c r="E18" t="n">
-        <v>42.79483382228227</v>
+        <v>16.60801191149903</v>
       </c>
       <c r="F18" t="n">
-        <v>3.530573790338288</v>
+        <v>16.60801191149903</v>
       </c>
       <c r="G18" t="n">
-        <v>3.530573790338288</v>
+        <v>16.60801191149903</v>
       </c>
       <c r="H18" t="n">
-        <v>3.530573790338288</v>
+        <v>16.60801191149903</v>
       </c>
       <c r="I18" t="n">
-        <v>3.530573790338288</v>
+        <v>16.60801191149903</v>
       </c>
       <c r="J18" t="n">
-        <v>3.530573790338288</v>
+        <v>16.60801191149903</v>
       </c>
       <c r="K18" t="n">
-        <v>47.22142444577459</v>
+        <v>16.60801191149903</v>
       </c>
       <c r="L18" t="n">
-        <v>47.22142444577459</v>
+        <v>222.1321593162995</v>
       </c>
       <c r="M18" t="n">
-        <v>47.22142444577459</v>
+        <v>222.1321593162995</v>
       </c>
       <c r="N18" t="n">
-        <v>89.14698820604177</v>
+        <v>372.838412043471</v>
       </c>
       <c r="O18" t="n">
-        <v>132.8378388614781</v>
+        <v>578.3625594482714</v>
       </c>
       <c r="P18" t="n">
-        <v>176.5286895169144</v>
+        <v>761.0060370616222</v>
       </c>
       <c r="Q18" t="n">
-        <v>176.5286895169144</v>
+        <v>830.4005955749516</v>
       </c>
       <c r="R18" t="n">
-        <v>176.5286895169144</v>
+        <v>811.6061912914336</v>
       </c>
       <c r="S18" t="n">
-        <v>176.5286895169144</v>
+        <v>638.1888467421024</v>
       </c>
       <c r="T18" t="n">
-        <v>176.5286895169144</v>
+        <v>436.0022521008685</v>
       </c>
       <c r="U18" t="n">
-        <v>176.5286895169144</v>
+        <v>226.3051320061838</v>
       </c>
       <c r="V18" t="n">
-        <v>176.5286895169144</v>
+        <v>16.60801191149903</v>
       </c>
       <c r="W18" t="n">
-        <v>176.5286895169144</v>
+        <v>16.60801191149903</v>
       </c>
       <c r="X18" t="n">
-        <v>176.5286895169144</v>
+        <v>16.60801191149903</v>
       </c>
       <c r="Y18" t="n">
-        <v>176.5286895169144</v>
+        <v>16.60801191149903</v>
       </c>
     </row>
     <row r="19">
@@ -5647,76 +5647,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>93.48491238239833</v>
+        <v>16.60801191149903</v>
       </c>
       <c r="C19" t="n">
-        <v>93.48491238239833</v>
+        <v>16.60801191149903</v>
       </c>
       <c r="D19" t="n">
-        <v>48.90696048418764</v>
+        <v>16.60801191149903</v>
       </c>
       <c r="E19" t="n">
-        <v>48.90696048418764</v>
+        <v>16.60801191149903</v>
       </c>
       <c r="F19" t="n">
-        <v>48.90696048418764</v>
+        <v>16.60801191149903</v>
       </c>
       <c r="G19" t="n">
-        <v>48.90696048418764</v>
+        <v>16.60801191149903</v>
       </c>
       <c r="H19" t="n">
-        <v>48.90696048418764</v>
+        <v>16.60801191149903</v>
       </c>
       <c r="I19" t="n">
-        <v>4.329008585976936</v>
+        <v>16.60801191149903</v>
       </c>
       <c r="J19" t="n">
-        <v>4.329008585976936</v>
+        <v>16.60801191149903</v>
       </c>
       <c r="K19" t="n">
-        <v>3.530573790338288</v>
+        <v>16.60801191149903</v>
       </c>
       <c r="L19" t="n">
-        <v>30.84469879805127</v>
+        <v>43.92213691921201</v>
       </c>
       <c r="M19" t="n">
-        <v>70.03273699027345</v>
+        <v>83.11017511143419</v>
       </c>
       <c r="N19" t="n">
-        <v>113.7235876457098</v>
+        <v>126.8010257668705</v>
       </c>
       <c r="O19" t="n">
-        <v>138.062864280609</v>
+        <v>151.1403024017698</v>
       </c>
       <c r="P19" t="n">
-        <v>138.062864280609</v>
+        <v>151.1403024017698</v>
       </c>
       <c r="Q19" t="n">
-        <v>138.062864280609</v>
+        <v>151.1403024017698</v>
       </c>
       <c r="R19" t="n">
-        <v>138.062864280609</v>
+        <v>151.1403024017698</v>
       </c>
       <c r="S19" t="n">
-        <v>138.062864280609</v>
+        <v>151.1403024017698</v>
       </c>
       <c r="T19" t="n">
-        <v>138.062864280609</v>
+        <v>151.1403024017698</v>
       </c>
       <c r="U19" t="n">
-        <v>138.062864280609</v>
+        <v>16.60801191149903</v>
       </c>
       <c r="V19" t="n">
-        <v>93.48491238239833</v>
+        <v>16.60801191149903</v>
       </c>
       <c r="W19" t="n">
-        <v>93.48491238239833</v>
+        <v>16.60801191149903</v>
       </c>
       <c r="X19" t="n">
-        <v>93.48491238239833</v>
+        <v>16.60801191149903</v>
       </c>
       <c r="Y19" t="n">
-        <v>93.48491238239833</v>
+        <v>16.60801191149903</v>
       </c>
     </row>
     <row r="20">
@@ -5726,28 +5726,28 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>262.7299197543128</v>
+        <v>274.7999090013961</v>
       </c>
       <c r="C20" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="D20" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="E20" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="F20" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="G20" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="H20" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="I20" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="J20" t="n">
         <v>19.28114311021272</v>
@@ -5771,31 +5771,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q20" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R20" t="n">
-        <v>964.0571555106362</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="S20" t="n">
-        <v>964.0571555106362</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="T20" t="n">
-        <v>749.627473042513</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="U20" t="n">
-        <v>506.1786963984129</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="V20" t="n">
-        <v>262.7299197543128</v>
+        <v>559.1338160830064</v>
       </c>
       <c r="W20" t="n">
-        <v>262.7299197543128</v>
+        <v>559.1338160830064</v>
       </c>
       <c r="X20" t="n">
-        <v>262.7299197543128</v>
+        <v>559.1338160830064</v>
       </c>
       <c r="Y20" t="n">
-        <v>262.7299197543128</v>
+        <v>315.6850394389064</v>
       </c>
     </row>
     <row r="21">
@@ -5805,19 +5805,19 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>317.2494235330527</v>
+        <v>342.668582052591</v>
       </c>
       <c r="C21" t="n">
-        <v>317.2494235330527</v>
+        <v>168.215552771464</v>
       </c>
       <c r="D21" t="n">
-        <v>317.2494235330527</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E21" t="n">
-        <v>158.0119685275972</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F21" t="n">
-        <v>158.0119685275972</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G21" t="n">
         <v>19.28114311021272</v>
@@ -5835,46 +5835,46 @@
         <v>144.6387031680501</v>
       </c>
       <c r="L21" t="n">
-        <v>144.6387031680501</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M21" t="n">
-        <v>234.810827406191</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="N21" t="n">
-        <v>473.4149733950735</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="O21" t="n">
-        <v>712.019119383956</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P21" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q21" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R21" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S21" t="n">
-        <v>689.4702815141908</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="T21" t="n">
-        <v>487.2836868729568</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="U21" t="n">
-        <v>317.2494235330527</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="V21" t="n">
-        <v>317.2494235330527</v>
+        <v>555.4877027295624</v>
       </c>
       <c r="W21" t="n">
-        <v>317.2494235330527</v>
+        <v>555.4877027295624</v>
       </c>
       <c r="X21" t="n">
-        <v>317.2494235330527</v>
+        <v>555.4877027295624</v>
       </c>
       <c r="Y21" t="n">
-        <v>317.2494235330527</v>
+        <v>347.7274039646085</v>
       </c>
     </row>
     <row r="22">
@@ -5884,76 +5884,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>153.8134336004835</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="C22" t="n">
-        <v>153.8134336004835</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="D22" t="n">
-        <v>153.8134336004835</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="E22" t="n">
-        <v>153.8134336004835</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="F22" t="n">
-        <v>153.8134336004835</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="G22" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="H22" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="I22" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="J22" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="K22" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="L22" t="n">
-        <v>46.5952681179257</v>
+        <v>856.8389900280785</v>
       </c>
       <c r="M22" t="n">
-        <v>85.78330631014788</v>
+        <v>896.0270282203006</v>
       </c>
       <c r="N22" t="n">
-        <v>129.4741569655842</v>
+        <v>939.7178788757369</v>
       </c>
       <c r="O22" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P22" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q22" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R22" t="n">
-        <v>153.8134336004835</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="S22" t="n">
-        <v>153.8134336004835</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="T22" t="n">
-        <v>153.8134336004835</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="U22" t="n">
-        <v>153.8134336004835</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="V22" t="n">
-        <v>153.8134336004835</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="W22" t="n">
-        <v>153.8134336004835</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="X22" t="n">
-        <v>153.8134336004835</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="Y22" t="n">
-        <v>153.8134336004835</v>
+        <v>829.5248650203655</v>
       </c>
     </row>
     <row r="23">
@@ -5963,28 +5963,28 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>506.1786963984129</v>
+        <v>72.23626279480629</v>
       </c>
       <c r="C23" t="n">
-        <v>506.1786963984129</v>
+        <v>72.23626279480629</v>
       </c>
       <c r="D23" t="n">
-        <v>506.1786963984129</v>
+        <v>72.23626279480629</v>
       </c>
       <c r="E23" t="n">
-        <v>262.7299197543128</v>
+        <v>72.23626279480629</v>
       </c>
       <c r="F23" t="n">
-        <v>262.7299197543128</v>
+        <v>72.23626279480629</v>
       </c>
       <c r="G23" t="n">
-        <v>19.28114311021272</v>
+        <v>72.23626279480629</v>
       </c>
       <c r="H23" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="I23" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="J23" t="n">
         <v>19.28114311021272</v>
@@ -6011,28 +6011,28 @@
         <v>953.9655401424092</v>
       </c>
       <c r="R23" t="n">
-        <v>953.9655401424092</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="S23" t="n">
-        <v>953.9655401424092</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="T23" t="n">
-        <v>953.9655401424092</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="U23" t="n">
-        <v>749.627473042513</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="V23" t="n">
-        <v>749.627473042513</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="W23" t="n">
-        <v>749.627473042513</v>
+        <v>559.1338160830064</v>
       </c>
       <c r="X23" t="n">
-        <v>749.627473042513</v>
+        <v>315.6850394389064</v>
       </c>
       <c r="Y23" t="n">
-        <v>749.627473042513</v>
+        <v>315.6850394389064</v>
       </c>
     </row>
     <row r="24">
@@ -6042,46 +6042,46 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>217.7978866064798</v>
+        <v>168.9696854242497</v>
       </c>
       <c r="C24" t="n">
-        <v>43.34485732535276</v>
+        <v>168.9696854242497</v>
       </c>
       <c r="D24" t="n">
-        <v>43.34485732535276</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="E24" t="n">
-        <v>43.34485732535276</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="F24" t="n">
-        <v>43.34485732535276</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="G24" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="H24" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="I24" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J24" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="K24" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L24" t="n">
-        <v>249.2442489785619</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M24" t="n">
-        <v>487.8483949674443</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="N24" t="n">
-        <v>656.0584510084244</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="O24" t="n">
-        <v>894.6625969973069</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P24" t="n">
         <v>894.6625969973069</v>
@@ -6090,28 +6090,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R24" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S24" t="n">
-        <v>689.4702815141908</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T24" t="n">
-        <v>689.4702815141908</v>
+        <v>761.8705608694022</v>
       </c>
       <c r="U24" t="n">
-        <v>461.2466632505798</v>
+        <v>761.8705608694022</v>
       </c>
       <c r="V24" t="n">
-        <v>461.2466632505798</v>
+        <v>761.8705608694022</v>
       </c>
       <c r="W24" t="n">
-        <v>217.7978866064798</v>
+        <v>518.4217842253022</v>
       </c>
       <c r="X24" t="n">
-        <v>217.7978866064798</v>
+        <v>310.5702840197694</v>
       </c>
       <c r="Y24" t="n">
-        <v>217.7978866064798</v>
+        <v>310.5702840197694</v>
       </c>
     </row>
     <row r="25">
@@ -6121,76 +6121,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C25" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D25" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E25" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F25" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G25" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H25" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I25" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J25" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K25" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L25" t="n">
-        <v>856.8389900280785</v>
+        <v>46.5952681179257</v>
       </c>
       <c r="M25" t="n">
-        <v>896.0270282203006</v>
+        <v>85.78330631014788</v>
       </c>
       <c r="N25" t="n">
-        <v>939.7178788757369</v>
+        <v>129.4741569655842</v>
       </c>
       <c r="O25" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="P25" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q25" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R25" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="S25" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="T25" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="U25" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V25" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W25" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X25" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y25" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="26">
@@ -6200,28 +6200,28 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>518.2486856454962</v>
+        <v>587.3248651012614</v>
       </c>
       <c r="C26" t="n">
-        <v>274.7999090013961</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="D26" t="n">
-        <v>274.7999090013961</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="E26" t="n">
-        <v>274.7999090013961</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="F26" t="n">
-        <v>31.35113235729608</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="G26" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H26" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I26" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J26" t="n">
         <v>19.28114311021272</v>
@@ -6245,31 +6245,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q26" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R26" t="n">
-        <v>953.9655401424092</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="S26" t="n">
-        <v>953.9655401424092</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="T26" t="n">
-        <v>953.9655401424092</v>
+        <v>587.3248651012614</v>
       </c>
       <c r="U26" t="n">
-        <v>953.9655401424092</v>
+        <v>587.3248651012614</v>
       </c>
       <c r="V26" t="n">
-        <v>953.9655401424092</v>
+        <v>587.3248651012614</v>
       </c>
       <c r="W26" t="n">
-        <v>710.516763498309</v>
+        <v>587.3248651012614</v>
       </c>
       <c r="X26" t="n">
-        <v>518.2486856454962</v>
+        <v>587.3248651012614</v>
       </c>
       <c r="Y26" t="n">
-        <v>518.2486856454962</v>
+        <v>587.3248651012614</v>
       </c>
     </row>
     <row r="27">
@@ -6279,25 +6279,25 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>194.4883050441255</v>
+        <v>249.0369177581199</v>
       </c>
       <c r="C27" t="n">
-        <v>20.03527576299844</v>
+        <v>249.0369177581199</v>
       </c>
       <c r="D27" t="n">
-        <v>20.03527576299844</v>
+        <v>249.0369177581199</v>
       </c>
       <c r="E27" t="n">
-        <v>20.03527576299844</v>
+        <v>249.0369177581199</v>
       </c>
       <c r="F27" t="n">
-        <v>20.03527576299844</v>
+        <v>249.0369177581199</v>
       </c>
       <c r="G27" t="n">
-        <v>20.03527576299844</v>
+        <v>110.3060923407354</v>
       </c>
       <c r="H27" t="n">
-        <v>20.03527576299844</v>
+        <v>110.3060923407354</v>
       </c>
       <c r="I27" t="n">
         <v>20.03527576299844</v>
@@ -6309,46 +6309,46 @@
         <v>144.6387031680501</v>
       </c>
       <c r="L27" t="n">
-        <v>234.810827406191</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M27" t="n">
-        <v>473.4149733950735</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="N27" t="n">
-        <v>712.019119383956</v>
+        <v>542.809531908403</v>
       </c>
       <c r="O27" t="n">
-        <v>712.019119383956</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P27" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q27" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R27" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S27" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="T27" t="n">
-        <v>964.0571555106362</v>
+        <v>660.701031422288</v>
       </c>
       <c r="U27" t="n">
-        <v>964.0571555106362</v>
+        <v>660.701031422288</v>
       </c>
       <c r="V27" t="n">
-        <v>964.0571555106362</v>
+        <v>660.701031422288</v>
       </c>
       <c r="W27" t="n">
-        <v>720.6083788665362</v>
+        <v>417.2522547781879</v>
       </c>
       <c r="X27" t="n">
-        <v>570.4639408291474</v>
+        <v>417.2522547781879</v>
       </c>
       <c r="Y27" t="n">
-        <v>362.7036420641935</v>
+        <v>417.2522547781879</v>
       </c>
     </row>
     <row r="28">
@@ -6400,13 +6400,13 @@
         <v>153.8134336004835</v>
       </c>
       <c r="P28" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="Q28" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="R28" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="S28" t="n">
         <v>19.28114311021272</v>
@@ -6437,28 +6437,28 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>30.58726043968704</v>
+        <v>274.7999090013961</v>
       </c>
       <c r="C29" t="n">
-        <v>30.58726043968704</v>
+        <v>274.7999090013961</v>
       </c>
       <c r="D29" t="n">
-        <v>30.58726043968704</v>
+        <v>274.7999090013961</v>
       </c>
       <c r="E29" t="n">
-        <v>19.28114311021272</v>
+        <v>274.7999090013961</v>
       </c>
       <c r="F29" t="n">
-        <v>19.28114311021272</v>
+        <v>274.7999090013961</v>
       </c>
       <c r="G29" t="n">
-        <v>19.28114311021272</v>
+        <v>274.7999090013961</v>
       </c>
       <c r="H29" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="I29" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="J29" t="n">
         <v>19.28114311021272</v>
@@ -6482,31 +6482,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q29" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R29" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S29" t="n">
-        <v>742.8341567219593</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T29" t="n">
-        <v>517.4848137278872</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U29" t="n">
-        <v>274.0360370837871</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V29" t="n">
-        <v>274.0360370837871</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W29" t="n">
-        <v>274.0360370837871</v>
+        <v>761.6974622895962</v>
       </c>
       <c r="X29" t="n">
-        <v>30.58726043968704</v>
+        <v>761.6974622895962</v>
       </c>
       <c r="Y29" t="n">
-        <v>30.58726043968704</v>
+        <v>518.2486856454962</v>
       </c>
     </row>
     <row r="30">
@@ -6516,28 +6516,28 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>19.28114311021272</v>
+        <v>593.6552238493341</v>
       </c>
       <c r="C30" t="n">
-        <v>19.28114311021272</v>
+        <v>593.6552238493341</v>
       </c>
       <c r="D30" t="n">
-        <v>19.28114311021272</v>
+        <v>593.6552238493341</v>
       </c>
       <c r="E30" t="n">
-        <v>19.28114311021272</v>
+        <v>434.4177688438786</v>
       </c>
       <c r="F30" t="n">
-        <v>19.28114311021272</v>
+        <v>362.4348659156472</v>
       </c>
       <c r="G30" t="n">
-        <v>19.28114311021272</v>
+        <v>223.7040404982626</v>
       </c>
       <c r="H30" t="n">
-        <v>19.28114311021272</v>
+        <v>110.334904905842</v>
       </c>
       <c r="I30" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J30" t="n">
         <v>19.28114311021272</v>
@@ -6546,16 +6546,16 @@
         <v>144.6387031680501</v>
       </c>
       <c r="L30" t="n">
-        <v>144.6387031680501</v>
+        <v>304.2053859195205</v>
       </c>
       <c r="M30" t="n">
-        <v>383.2428491569326</v>
+        <v>542.809531908403</v>
       </c>
       <c r="N30" t="n">
-        <v>621.8469951458151</v>
+        <v>542.809531908403</v>
       </c>
       <c r="O30" t="n">
-        <v>860.4511411346975</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P30" t="n">
         <v>964.0571555106362</v>
@@ -6567,25 +6567,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S30" t="n">
-        <v>928.2922408909005</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T30" t="n">
-        <v>726.1056462496665</v>
+        <v>761.8705608694022</v>
       </c>
       <c r="U30" t="n">
-        <v>497.8820279860555</v>
+        <v>761.8705608694022</v>
       </c>
       <c r="V30" t="n">
-        <v>262.7299197543128</v>
+        <v>761.8705608694022</v>
       </c>
       <c r="W30" t="n">
-        <v>19.28114311021272</v>
+        <v>761.8705608694022</v>
       </c>
       <c r="X30" t="n">
-        <v>19.28114311021272</v>
+        <v>761.8705608694022</v>
       </c>
       <c r="Y30" t="n">
-        <v>19.28114311021272</v>
+        <v>761.8705608694022</v>
       </c>
     </row>
     <row r="31">
@@ -6595,25 +6595,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="C31" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="D31" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="E31" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="F31" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="G31" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="H31" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="I31" t="n">
         <v>19.28114311021272</v>
@@ -6637,34 +6637,34 @@
         <v>153.8134336004835</v>
       </c>
       <c r="P31" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q31" t="n">
-        <v>64.03213664411894</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R31" t="n">
-        <v>64.03213664411894</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S31" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T31" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U31" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V31" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W31" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="X31" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Y31" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
     </row>
     <row r="32">
@@ -6674,28 +6674,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>953.9655401424092</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="C32" t="n">
-        <v>953.9655401424092</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="D32" t="n">
-        <v>953.9655401424092</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="E32" t="n">
-        <v>710.516763498309</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="F32" t="n">
-        <v>467.067986854209</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="G32" t="n">
-        <v>223.6192102101089</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="H32" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I32" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J32" t="n">
         <v>19.28114311021272</v>
@@ -6719,31 +6719,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q32" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R32" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S32" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T32" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U32" t="n">
-        <v>953.9655401424092</v>
+        <v>749.627473042513</v>
       </c>
       <c r="V32" t="n">
-        <v>953.9655401424092</v>
+        <v>749.627473042513</v>
       </c>
       <c r="W32" t="n">
-        <v>953.9655401424092</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="X32" t="n">
-        <v>953.9655401424092</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="Y32" t="n">
-        <v>953.9655401424092</v>
+        <v>262.7299197543128</v>
       </c>
     </row>
     <row r="33">
@@ -6753,7 +6753,7 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>152.4692992915062</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C33" t="n">
         <v>19.28114311021272</v>
@@ -6783,19 +6783,19 @@
         <v>19.28114311021272</v>
       </c>
       <c r="L33" t="n">
-        <v>249.2442489785619</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="M33" t="n">
-        <v>486.8488635328713</v>
+        <v>234.810827406191</v>
       </c>
       <c r="N33" t="n">
-        <v>725.4530095217538</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="O33" t="n">
-        <v>964.0571555106362</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P33" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q33" t="n">
         <v>964.0571555106362</v>
@@ -6804,25 +6804,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S33" t="n">
-        <v>790.6398109613051</v>
+        <v>892.6949644523331</v>
       </c>
       <c r="T33" t="n">
-        <v>588.4532163200711</v>
+        <v>690.5083698110992</v>
       </c>
       <c r="U33" t="n">
-        <v>360.2295980564601</v>
+        <v>462.2847515474883</v>
       </c>
       <c r="V33" t="n">
-        <v>360.2295980564601</v>
+        <v>227.1326433157456</v>
       </c>
       <c r="W33" t="n">
-        <v>360.2295980564601</v>
+        <v>227.1326433157456</v>
       </c>
       <c r="X33" t="n">
-        <v>360.2295980564601</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y33" t="n">
-        <v>152.4692992915062</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="34">
@@ -6832,13 +6832,13 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>829.5248650203655</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="C34" t="n">
-        <v>829.5248650203655</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="D34" t="n">
-        <v>829.5248650203655</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="E34" t="n">
         <v>829.5248650203655</v>
@@ -6889,19 +6889,19 @@
         <v>964.0571555106362</v>
       </c>
       <c r="U34" t="n">
-        <v>829.5248650203655</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V34" t="n">
-        <v>829.5248650203655</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W34" t="n">
-        <v>829.5248650203655</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X34" t="n">
-        <v>829.5248650203655</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Y34" t="n">
-        <v>829.5248650203655</v>
+        <v>964.0571555106362</v>
       </c>
     </row>
     <row r="35">
@@ -6911,19 +6911,19 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>262.7299197543128</v>
+        <v>233.7108255783361</v>
       </c>
       <c r="C35" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D35" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E35" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F35" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G35" t="n">
         <v>19.28114311021272</v>
@@ -6977,10 +6977,10 @@
         <v>477.1596022224361</v>
       </c>
       <c r="X35" t="n">
-        <v>477.1596022224361</v>
+        <v>233.7108255783361</v>
       </c>
       <c r="Y35" t="n">
-        <v>477.1596022224361</v>
+        <v>233.7108255783361</v>
       </c>
     </row>
     <row r="36">
@@ -6990,22 +6990,22 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>152.3780978509273</v>
+        <v>694.6722890434539</v>
       </c>
       <c r="C36" t="n">
-        <v>152.3780978509273</v>
+        <v>520.2192597623269</v>
       </c>
       <c r="D36" t="n">
-        <v>152.3780978509273</v>
+        <v>520.2192597623269</v>
       </c>
       <c r="E36" t="n">
-        <v>152.3780978509273</v>
+        <v>360.9818047568714</v>
       </c>
       <c r="F36" t="n">
-        <v>152.3780978509273</v>
+        <v>360.9818047568714</v>
       </c>
       <c r="G36" t="n">
-        <v>152.3780978509273</v>
+        <v>223.7040404982626</v>
       </c>
       <c r="H36" t="n">
         <v>110.334904905842</v>
@@ -7017,10 +7017,10 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K36" t="n">
-        <v>74.24228005117135</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L36" t="n">
-        <v>304.2053859195205</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="M36" t="n">
         <v>304.2053859195205</v>
@@ -7038,28 +7038,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R36" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S36" t="n">
-        <v>790.6398109613051</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="T36" t="n">
-        <v>588.4532163200711</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="U36" t="n">
-        <v>360.2295980564601</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="V36" t="n">
-        <v>360.2295980564601</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="W36" t="n">
-        <v>360.2295980564601</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="X36" t="n">
-        <v>152.3780978509273</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="Y36" t="n">
-        <v>152.3780978509273</v>
+        <v>862.8876260635219</v>
       </c>
     </row>
     <row r="37">
@@ -7069,31 +7069,31 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C37" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D37" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E37" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F37" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G37" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H37" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I37" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J37" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K37" t="n">
         <v>19.28114311021272</v>
@@ -7111,34 +7111,34 @@
         <v>153.8134336004835</v>
       </c>
       <c r="P37" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q37" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R37" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S37" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T37" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U37" t="n">
-        <v>151.0645035650224</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V37" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W37" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X37" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y37" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="38">
@@ -7148,28 +7148,28 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>738.7078125165641</v>
+        <v>495.259035872464</v>
       </c>
       <c r="C38" t="n">
-        <v>738.7078125165641</v>
+        <v>495.259035872464</v>
       </c>
       <c r="D38" t="n">
-        <v>495.259035872464</v>
+        <v>251.810259228364</v>
       </c>
       <c r="E38" t="n">
-        <v>251.810259228364</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F38" t="n">
-        <v>251.810259228364</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G38" t="n">
-        <v>251.810259228364</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H38" t="n">
-        <v>243.9530410142718</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I38" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J38" t="n">
         <v>19.28114311021272</v>
@@ -7205,19 +7205,19 @@
         <v>738.7078125165641</v>
       </c>
       <c r="U38" t="n">
-        <v>738.7078125165641</v>
+        <v>495.259035872464</v>
       </c>
       <c r="V38" t="n">
-        <v>738.7078125165641</v>
+        <v>495.259035872464</v>
       </c>
       <c r="W38" t="n">
-        <v>738.7078125165641</v>
+        <v>495.259035872464</v>
       </c>
       <c r="X38" t="n">
-        <v>738.7078125165641</v>
+        <v>495.259035872464</v>
       </c>
       <c r="Y38" t="n">
-        <v>738.7078125165641</v>
+        <v>495.259035872464</v>
       </c>
     </row>
     <row r="39">
@@ -7227,7 +7227,7 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>193.7341723913397</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C39" t="n">
         <v>19.28114311021272</v>
@@ -7254,49 +7254,49 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K39" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L39" t="n">
-        <v>249.2442489785619</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="M39" t="n">
-        <v>487.8483949674443</v>
+        <v>304.2053859195205</v>
       </c>
       <c r="N39" t="n">
-        <v>656.0584510084244</v>
+        <v>542.809531908403</v>
       </c>
       <c r="O39" t="n">
-        <v>894.6625969973069</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P39" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q39" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R39" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S39" t="n">
-        <v>689.4702815141908</v>
+        <v>865.3031549855443</v>
       </c>
       <c r="T39" t="n">
-        <v>487.2836868729568</v>
+        <v>663.1165603443104</v>
       </c>
       <c r="U39" t="n">
-        <v>487.2836868729568</v>
+        <v>434.8929420806995</v>
       </c>
       <c r="V39" t="n">
-        <v>487.2836868729568</v>
+        <v>434.8929420806995</v>
       </c>
       <c r="W39" t="n">
-        <v>487.2836868729568</v>
+        <v>434.8929420806995</v>
       </c>
       <c r="X39" t="n">
-        <v>487.2836868729568</v>
+        <v>227.0414418751666</v>
       </c>
       <c r="Y39" t="n">
-        <v>361.9495094114078</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="40">
@@ -7306,76 +7306,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="C40" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="D40" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="E40" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="F40" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="G40" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="H40" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="I40" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="J40" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="K40" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="L40" t="n">
-        <v>46.5952681179257</v>
+        <v>856.8389900280785</v>
       </c>
       <c r="M40" t="n">
-        <v>85.78330631014788</v>
+        <v>896.0270282203006</v>
       </c>
       <c r="N40" t="n">
-        <v>129.4741569655842</v>
+        <v>939.7178788757369</v>
       </c>
       <c r="O40" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P40" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q40" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R40" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S40" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T40" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U40" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V40" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W40" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X40" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Y40" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
     </row>
     <row r="41">
@@ -7391,10 +7391,10 @@
         <v>720.6083788665362</v>
       </c>
       <c r="D41" t="n">
-        <v>720.6083788665362</v>
+        <v>477.1596022224361</v>
       </c>
       <c r="E41" t="n">
-        <v>720.6083788665362</v>
+        <v>477.1596022224361</v>
       </c>
       <c r="F41" t="n">
         <v>477.1596022224361</v>
@@ -7403,10 +7403,10 @@
         <v>233.7108255783361</v>
       </c>
       <c r="H41" t="n">
-        <v>31.35113235729608</v>
+        <v>231.8830517671884</v>
       </c>
       <c r="I41" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J41" t="n">
         <v>19.28114311021272</v>
@@ -7464,19 +7464,19 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>19.28114311021272</v>
+        <v>158.0119685275972</v>
       </c>
       <c r="C42" t="n">
-        <v>19.28114311021272</v>
+        <v>158.0119685275972</v>
       </c>
       <c r="D42" t="n">
-        <v>19.28114311021272</v>
+        <v>158.0119685275972</v>
       </c>
       <c r="E42" t="n">
-        <v>19.28114311021272</v>
+        <v>158.0119685275972</v>
       </c>
       <c r="F42" t="n">
-        <v>19.28114311021272</v>
+        <v>158.0119685275972</v>
       </c>
       <c r="G42" t="n">
         <v>19.28114311021272</v>
@@ -7497,16 +7497,16 @@
         <v>374.6018090363993</v>
       </c>
       <c r="M42" t="n">
-        <v>613.2059550252818</v>
+        <v>417.4543050195419</v>
       </c>
       <c r="N42" t="n">
-        <v>851.8101010141643</v>
+        <v>656.0584510084244</v>
       </c>
       <c r="O42" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="P42" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q42" t="n">
         <v>964.0571555106362</v>
@@ -7521,19 +7521,19 @@
         <v>964.0571555106362</v>
       </c>
       <c r="U42" t="n">
-        <v>735.8335372470253</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V42" t="n">
-        <v>500.6814290152826</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W42" t="n">
-        <v>257.2326523711826</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="X42" t="n">
-        <v>49.38115216564972</v>
+        <v>512.7568786610034</v>
       </c>
       <c r="Y42" t="n">
-        <v>19.28114311021272</v>
+        <v>304.9965798960495</v>
       </c>
     </row>
     <row r="43">
@@ -7600,7 +7600,7 @@
         <v>153.8134336004835</v>
       </c>
       <c r="U43" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V43" t="n">
         <v>19.28114311021272</v>
@@ -7622,76 +7622,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>3.530573790338288</v>
+        <v>820.3089802067245</v>
       </c>
       <c r="C44" t="n">
-        <v>3.530573790338288</v>
+        <v>820.3089802067245</v>
       </c>
       <c r="D44" t="n">
-        <v>3.530573790338288</v>
+        <v>610.6118601120397</v>
       </c>
       <c r="E44" t="n">
-        <v>3.530573790338288</v>
+        <v>610.6118601120397</v>
       </c>
       <c r="F44" t="n">
-        <v>3.530573790338288</v>
+        <v>610.6118601120397</v>
       </c>
       <c r="G44" t="n">
-        <v>3.530573790338288</v>
+        <v>400.914740017355</v>
       </c>
       <c r="H44" t="n">
-        <v>3.530573790338288</v>
+        <v>191.2176199226702</v>
       </c>
       <c r="I44" t="n">
-        <v>3.530573790338288</v>
+        <v>16.60801191149903</v>
       </c>
       <c r="J44" t="n">
-        <v>3.530573790338288</v>
+        <v>16.60801191149903</v>
       </c>
       <c r="K44" t="n">
-        <v>47.22142444577459</v>
+        <v>16.60801191149903</v>
       </c>
       <c r="L44" t="n">
-        <v>89.14698820604177</v>
+        <v>196.6838634961576</v>
       </c>
       <c r="M44" t="n">
-        <v>132.8378388614781</v>
+        <v>402.2080109009581</v>
       </c>
       <c r="N44" t="n">
-        <v>132.8378388614781</v>
+        <v>607.7321583057586</v>
       </c>
       <c r="O44" t="n">
-        <v>132.8378388614781</v>
+        <v>756.9271084484067</v>
       </c>
       <c r="P44" t="n">
-        <v>176.5286895169144</v>
+        <v>830.4005955749516</v>
       </c>
       <c r="Q44" t="n">
-        <v>166.4370741486873</v>
+        <v>820.3089802067245</v>
       </c>
       <c r="R44" t="n">
-        <v>166.4370741486873</v>
+        <v>820.3089802067245</v>
       </c>
       <c r="S44" t="n">
-        <v>166.4370741486873</v>
+        <v>820.3089802067245</v>
       </c>
       <c r="T44" t="n">
-        <v>166.4370741486873</v>
+        <v>820.3089802067245</v>
       </c>
       <c r="U44" t="n">
-        <v>166.4370741486873</v>
+        <v>820.3089802067245</v>
       </c>
       <c r="V44" t="n">
-        <v>121.8591222504766</v>
+        <v>820.3089802067245</v>
       </c>
       <c r="W44" t="n">
-        <v>121.8591222504766</v>
+        <v>820.3089802067245</v>
       </c>
       <c r="X44" t="n">
-        <v>92.68647758675968</v>
+        <v>820.3089802067245</v>
       </c>
       <c r="Y44" t="n">
-        <v>48.10852568854899</v>
+        <v>820.3089802067245</v>
       </c>
     </row>
     <row r="45">
@@ -7701,76 +7701,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>4.284706443124001</v>
+        <v>16.60801191149903</v>
       </c>
       <c r="C45" t="n">
-        <v>4.284706443124001</v>
+        <v>16.60801191149903</v>
       </c>
       <c r="D45" t="n">
-        <v>4.284706443124001</v>
+        <v>16.60801191149903</v>
       </c>
       <c r="E45" t="n">
-        <v>4.284706443124001</v>
+        <v>16.60801191149903</v>
       </c>
       <c r="F45" t="n">
-        <v>4.284706443124001</v>
+        <v>16.60801191149903</v>
       </c>
       <c r="G45" t="n">
-        <v>4.284706443124001</v>
+        <v>16.60801191149903</v>
       </c>
       <c r="H45" t="n">
-        <v>4.284706443124001</v>
+        <v>16.60801191149903</v>
       </c>
       <c r="I45" t="n">
-        <v>4.284706443124001</v>
+        <v>16.60801191149903</v>
       </c>
       <c r="J45" t="n">
-        <v>3.530573790338288</v>
+        <v>16.60801191149903</v>
       </c>
       <c r="K45" t="n">
-        <v>47.22142444577459</v>
+        <v>141.9655719693364</v>
       </c>
       <c r="L45" t="n">
-        <v>47.22142444577459</v>
+        <v>141.9655719693364</v>
       </c>
       <c r="M45" t="n">
-        <v>47.22142444577459</v>
+        <v>347.4897193741369</v>
       </c>
       <c r="N45" t="n">
-        <v>47.22142444577459</v>
+        <v>553.0138667789374</v>
       </c>
       <c r="O45" t="n">
-        <v>89.14698820604177</v>
+        <v>578.3625594482714</v>
       </c>
       <c r="P45" t="n">
-        <v>132.8378388614781</v>
+        <v>761.0060370616222</v>
       </c>
       <c r="Q45" t="n">
-        <v>176.5286895169144</v>
+        <v>830.4005955749516</v>
       </c>
       <c r="R45" t="n">
-        <v>176.5286895169144</v>
+        <v>729.2310661278373</v>
       </c>
       <c r="S45" t="n">
-        <v>131.9507376187037</v>
+        <v>643.8537523064014</v>
       </c>
       <c r="T45" t="n">
-        <v>131.9507376187037</v>
+        <v>643.8537523064014</v>
       </c>
       <c r="U45" t="n">
-        <v>87.37278572049297</v>
+        <v>434.1566322117166</v>
       </c>
       <c r="V45" t="n">
-        <v>42.79483382228227</v>
+        <v>224.4595121170319</v>
       </c>
       <c r="W45" t="n">
-        <v>4.284706443124001</v>
+        <v>224.4595121170319</v>
       </c>
       <c r="X45" t="n">
-        <v>4.284706443124001</v>
+        <v>16.60801191149903</v>
       </c>
       <c r="Y45" t="n">
-        <v>4.284706443124001</v>
+        <v>16.60801191149903</v>
       </c>
     </row>
     <row r="46">
@@ -7780,76 +7780,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>48.90696048418764</v>
+        <v>16.60801191149903</v>
       </c>
       <c r="C46" t="n">
-        <v>48.90696048418764</v>
+        <v>16.60801191149903</v>
       </c>
       <c r="D46" t="n">
-        <v>48.90696048418764</v>
+        <v>16.60801191149903</v>
       </c>
       <c r="E46" t="n">
-        <v>48.90696048418764</v>
+        <v>16.60801191149903</v>
       </c>
       <c r="F46" t="n">
-        <v>48.90696048418764</v>
+        <v>16.60801191149903</v>
       </c>
       <c r="G46" t="n">
-        <v>48.10852568854899</v>
+        <v>16.60801191149903</v>
       </c>
       <c r="H46" t="n">
-        <v>3.530573790338288</v>
+        <v>16.60801191149903</v>
       </c>
       <c r="I46" t="n">
-        <v>3.530573790338288</v>
+        <v>16.60801191149903</v>
       </c>
       <c r="J46" t="n">
-        <v>3.530573790338288</v>
+        <v>16.60801191149903</v>
       </c>
       <c r="K46" t="n">
-        <v>3.530573790338288</v>
+        <v>16.60801191149903</v>
       </c>
       <c r="L46" t="n">
-        <v>30.84469879805127</v>
+        <v>43.92213691921201</v>
       </c>
       <c r="M46" t="n">
-        <v>70.03273699027345</v>
+        <v>83.11017511143419</v>
       </c>
       <c r="N46" t="n">
-        <v>113.7235876457098</v>
+        <v>126.8010257668705</v>
       </c>
       <c r="O46" t="n">
-        <v>138.062864280609</v>
+        <v>151.1403024017698</v>
       </c>
       <c r="P46" t="n">
-        <v>138.062864280609</v>
+        <v>151.1403024017698</v>
       </c>
       <c r="Q46" t="n">
-        <v>138.062864280609</v>
+        <v>151.1403024017698</v>
       </c>
       <c r="R46" t="n">
-        <v>138.062864280609</v>
+        <v>151.1403024017698</v>
       </c>
       <c r="S46" t="n">
-        <v>138.062864280609</v>
+        <v>151.1403024017698</v>
       </c>
       <c r="T46" t="n">
-        <v>138.062864280609</v>
+        <v>151.1403024017698</v>
       </c>
       <c r="U46" t="n">
-        <v>93.48491238239833</v>
+        <v>151.1403024017698</v>
       </c>
       <c r="V46" t="n">
-        <v>93.48491238239833</v>
+        <v>16.60801191149903</v>
       </c>
       <c r="W46" t="n">
-        <v>48.90696048418764</v>
+        <v>16.60801191149903</v>
       </c>
       <c r="X46" t="n">
-        <v>48.90696048418764</v>
+        <v>16.60801191149903</v>
       </c>
       <c r="Y46" t="n">
-        <v>48.90696048418764</v>
+        <v>16.60801191149903</v>
       </c>
     </row>
   </sheetData>
@@ -7982,19 +7982,19 @@
         <v>220.0898510449805</v>
       </c>
       <c r="L2" t="n">
-        <v>278.1154692732874</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M2" t="n">
-        <v>274.4784056065013</v>
+        <v>437.9463821210106</v>
       </c>
       <c r="N2" t="n">
-        <v>273.5452359758195</v>
+        <v>437.0132124903288</v>
       </c>
       <c r="O2" t="n">
-        <v>274.2303838009153</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P2" t="n">
-        <v>231.2329957552695</v>
+        <v>305.4486393174361</v>
       </c>
       <c r="Q2" t="n">
         <v>212.3149906599047</v>
@@ -8058,25 +8058,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L3" t="n">
-        <v>180.9034340831744</v>
+        <v>346.154528673612</v>
       </c>
       <c r="M3" t="n">
-        <v>186.2662063012469</v>
+        <v>349.7341828157562</v>
       </c>
       <c r="N3" t="n">
-        <v>175.4738844625619</v>
+        <v>338.9418609770712</v>
       </c>
       <c r="O3" t="n">
         <v>142.5962444444444</v>
       </c>
       <c r="P3" t="n">
-        <v>133.9744074143302</v>
+        <v>136.4673598162336</v>
       </c>
       <c r="Q3" t="n">
-        <v>184.1139464652501</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8216,22 +8216,22 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K5" t="n">
-        <v>264.2220234242092</v>
+        <v>220.0898510449805</v>
       </c>
       <c r="L5" t="n">
-        <v>235.7664149699872</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M5" t="n">
-        <v>272.6952875305729</v>
+        <v>437.9463821210106</v>
       </c>
       <c r="N5" t="n">
-        <v>229.4130635965909</v>
+        <v>420.6631436362823</v>
       </c>
       <c r="O5" t="n">
-        <v>274.2303838009153</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P5" t="n">
-        <v>275.3651681344982</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q5" t="n">
         <v>212.3149906599047</v>
@@ -8295,25 +8295,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
-        <v>181.9736113535876</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L6" t="n">
         <v>138.5543797798742</v>
       </c>
       <c r="M6" t="n">
-        <v>142.1340339220183</v>
+        <v>167.7387739920527</v>
       </c>
       <c r="N6" t="n">
-        <v>131.3417120833333</v>
+        <v>338.9418609770712</v>
       </c>
       <c r="O6" t="n">
-        <v>184.9452987477446</v>
+        <v>350.1963933381824</v>
       </c>
       <c r="P6" t="n">
-        <v>178.1065797935588</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>184.1139464652501</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8453,22 +8453,22 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K8" t="n">
-        <v>264.2220234242092</v>
+        <v>294.3054946071471</v>
       </c>
       <c r="L8" t="n">
-        <v>279.8985873492159</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M8" t="n">
-        <v>272.6952875305729</v>
+        <v>437.9463821210106</v>
       </c>
       <c r="N8" t="n">
-        <v>229.4130635965909</v>
+        <v>437.0132124903288</v>
       </c>
       <c r="O8" t="n">
-        <v>230.0982114216867</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P8" t="n">
-        <v>275.3651681344982</v>
+        <v>231.2329957552695</v>
       </c>
       <c r="Q8" t="n">
         <v>212.3149906599047</v>
@@ -8532,25 +8532,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L9" t="n">
-        <v>180.9034340831744</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M9" t="n">
-        <v>186.2662063012469</v>
+        <v>349.7341828157562</v>
       </c>
       <c r="N9" t="n">
-        <v>175.4738844625619</v>
+        <v>338.9418609770712</v>
       </c>
       <c r="O9" t="n">
-        <v>142.5962444444444</v>
+        <v>238.2964981643063</v>
       </c>
       <c r="P9" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>184.1139464652501</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8690,22 +8690,22 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K11" t="n">
-        <v>262.4389053482807</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L11" t="n">
-        <v>279.8985873492159</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M11" t="n">
-        <v>274.4784056065013</v>
+        <v>317.5407517407799</v>
       </c>
       <c r="N11" t="n">
-        <v>229.4130635965909</v>
+        <v>437.0132124903288</v>
       </c>
       <c r="O11" t="n">
-        <v>274.2303838009153</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P11" t="n">
-        <v>231.2329957552695</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q11" t="n">
         <v>212.3149906599047</v>
@@ -8769,25 +8769,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K12" t="n">
-        <v>181.9736113535876</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L12" t="n">
         <v>138.5543797798742</v>
       </c>
       <c r="M12" t="n">
-        <v>142.1340339220183</v>
+        <v>349.7341828157562</v>
       </c>
       <c r="N12" t="n">
-        <v>131.3417120833333</v>
+        <v>338.9418609770712</v>
       </c>
       <c r="O12" t="n">
-        <v>186.728416823673</v>
+        <v>168.2009845144788</v>
       </c>
       <c r="P12" t="n">
-        <v>176.3234617176304</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q12" t="n">
-        <v>184.1139464652501</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R12" t="n">
         <v>45.52166981132082</v>
@@ -8927,22 +8927,22 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K14" t="n">
-        <v>264.2220234242092</v>
+        <v>220.0898510449805</v>
       </c>
       <c r="L14" t="n">
-        <v>279.8985873492159</v>
+        <v>401.3111456964039</v>
       </c>
       <c r="M14" t="n">
-        <v>274.4784056065013</v>
+        <v>437.9463821210106</v>
       </c>
       <c r="N14" t="n">
-        <v>271.7621178998911</v>
+        <v>437.0132124903288</v>
       </c>
       <c r="O14" t="n">
-        <v>230.0982114216867</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P14" t="n">
-        <v>231.2329957552695</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q14" t="n">
         <v>212.3149906599047</v>
@@ -9006,25 +9006,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K15" t="n">
-        <v>181.9736113535876</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L15" t="n">
-        <v>138.5543797798742</v>
+        <v>164.1591198499085</v>
       </c>
       <c r="M15" t="n">
-        <v>142.1340339220183</v>
+        <v>349.7341828157562</v>
       </c>
       <c r="N15" t="n">
         <v>131.3417120833333</v>
       </c>
       <c r="O15" t="n">
-        <v>184.9452987477446</v>
+        <v>350.1963933381824</v>
       </c>
       <c r="P15" t="n">
-        <v>178.1065797935588</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q15" t="n">
-        <v>184.1139464652501</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R15" t="n">
         <v>45.52166981132082</v>
@@ -9167,19 +9167,19 @@
         <v>220.0898510449805</v>
       </c>
       <c r="L17" t="n">
-        <v>279.8985873492159</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M17" t="n">
-        <v>274.4784056065013</v>
+        <v>437.9463821210106</v>
       </c>
       <c r="N17" t="n">
-        <v>273.5452359758195</v>
+        <v>437.0132124903288</v>
       </c>
       <c r="O17" t="n">
-        <v>272.4472657249869</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P17" t="n">
-        <v>231.2329957552695</v>
+        <v>305.4486393174361</v>
       </c>
       <c r="Q17" t="n">
         <v>212.3149906599047</v>
@@ -9243,25 +9243,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K18" t="n">
-        <v>181.9736113535876</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L18" t="n">
-        <v>138.5543797798742</v>
+        <v>346.154528673612</v>
       </c>
       <c r="M18" t="n">
         <v>142.1340339220183</v>
       </c>
       <c r="N18" t="n">
-        <v>173.6907663866335</v>
+        <v>283.5702501915873</v>
       </c>
       <c r="O18" t="n">
-        <v>186.728416823673</v>
+        <v>350.1963933381824</v>
       </c>
       <c r="P18" t="n">
-        <v>178.1065797935588</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q18" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R18" t="n">
         <v>45.52166981132082</v>
@@ -9483,22 +9483,22 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L21" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M21" t="n">
-        <v>233.2169876979182</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N21" t="n">
-        <v>372.3560009609923</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O21" t="n">
-        <v>383.6105333221035</v>
+        <v>312.5030352242461</v>
       </c>
       <c r="P21" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q21" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R21" t="n">
         <v>45.52166981132082</v>
@@ -9717,22 +9717,22 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K24" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L24" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M24" t="n">
-        <v>383.1483227996774</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N24" t="n">
-        <v>301.2508595994748</v>
+        <v>231.1529892133073</v>
       </c>
       <c r="O24" t="n">
         <v>383.6105333221035</v>
       </c>
       <c r="P24" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q24" t="n">
         <v>210.0772877358491</v>
@@ -9957,22 +9957,22 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L27" t="n">
-        <v>229.6373335557741</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M27" t="n">
-        <v>383.1483227996774</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N27" t="n">
-        <v>372.3560009609923</v>
+        <v>301.248502863135</v>
       </c>
       <c r="O27" t="n">
-        <v>142.5962444444444</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P27" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q27" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R27" t="n">
         <v>45.52166981132082</v>
@@ -10194,19 +10194,19 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L30" t="n">
-        <v>138.5543797798742</v>
+        <v>299.7328472056018</v>
       </c>
       <c r="M30" t="n">
         <v>383.1483227996774</v>
       </c>
       <c r="N30" t="n">
-        <v>372.3560009609923</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O30" t="n">
         <v>383.6105333221035</v>
       </c>
       <c r="P30" t="n">
-        <v>238.6269471880057</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q30" t="n">
         <v>139.9817740860215</v>
@@ -10431,10 +10431,10 @@
         <v>137.841438974359</v>
       </c>
       <c r="L33" t="n">
-        <v>370.8403453034592</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M33" t="n">
-        <v>382.1386950879875</v>
+        <v>359.8407857361378</v>
       </c>
       <c r="N33" t="n">
         <v>372.3560009609923</v>
@@ -10443,10 +10443,10 @@
         <v>383.6105333221035</v>
       </c>
       <c r="P33" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q33" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R33" t="n">
         <v>45.52166981132082</v>
@@ -10665,13 +10665,13 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K36" t="n">
-        <v>193.3577389147212</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L36" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M36" t="n">
-        <v>142.1340339220183</v>
+        <v>197.6503338623806</v>
       </c>
       <c r="N36" t="n">
         <v>372.3560009609923</v>
@@ -10902,25 +10902,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K39" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L39" t="n">
-        <v>370.8403453034592</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M39" t="n">
-        <v>383.1483227996774</v>
+        <v>303.312501347746</v>
       </c>
       <c r="N39" t="n">
-        <v>301.2508595994748</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O39" t="n">
         <v>383.6105333221035</v>
       </c>
       <c r="P39" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q39" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
         <v>45.52166981132082</v>
@@ -11060,7 +11060,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K41" t="n">
-        <v>324.1454125711648</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L41" t="n">
         <v>417.6612145504504</v>
@@ -11145,19 +11145,19 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M42" t="n">
-        <v>383.1483227996774</v>
+        <v>185.4193833999402</v>
       </c>
       <c r="N42" t="n">
         <v>372.3560009609923</v>
       </c>
       <c r="O42" t="n">
-        <v>255.9771075721939</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P42" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R42" t="n">
         <v>45.52166981132082</v>
@@ -11297,22 +11297,22 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K44" t="n">
-        <v>264.2220234242092</v>
+        <v>220.0898510449805</v>
       </c>
       <c r="L44" t="n">
-        <v>278.1154692732874</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M44" t="n">
-        <v>274.4784056065013</v>
+        <v>437.9463821210106</v>
       </c>
       <c r="N44" t="n">
-        <v>229.4130635965909</v>
+        <v>437.0132124903288</v>
       </c>
       <c r="O44" t="n">
-        <v>230.0982114216867</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P44" t="n">
-        <v>275.3651681344982</v>
+        <v>305.4486393174361</v>
       </c>
       <c r="Q44" t="n">
         <v>212.3149906599047</v>
@@ -11376,25 +11376,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K45" t="n">
-        <v>181.9736113535876</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L45" t="n">
         <v>138.5543797798742</v>
       </c>
       <c r="M45" t="n">
-        <v>142.1340339220183</v>
+        <v>349.7341828157562</v>
       </c>
       <c r="N45" t="n">
-        <v>131.3417120833333</v>
+        <v>338.9418609770712</v>
       </c>
       <c r="O45" t="n">
-        <v>184.9452987477446</v>
+        <v>168.2009845144788</v>
       </c>
       <c r="P45" t="n">
-        <v>178.1065797935588</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q45" t="n">
-        <v>184.1139464652501</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R45" t="n">
         <v>45.52166981132082</v>
@@ -22589,31 +22589,31 @@
         <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>110.9975005095251</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S2" t="n">
         <v>209.0200695862453</v>
       </c>
       <c r="T2" t="n">
-        <v>223.0958495641314</v>
+        <v>50.23233763307178</v>
       </c>
       <c r="U2" t="n">
-        <v>251.3456529078365</v>
+        <v>43.7455040140986</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>120.152109576397</v>
       </c>
       <c r="W2" t="n">
-        <v>305.1087963381844</v>
+        <v>141.6408198236751</v>
       </c>
       <c r="X2" t="n">
-        <v>325.5989282992405</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>342.105766276825</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -22623,16 +22623,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>157.6450804554009</v>
+        <v>10.36034193524262</v>
       </c>
       <c r="F3" t="n">
         <v>145.0692123933839</v>
@@ -22671,16 +22671,16 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>56.02566177341454</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S3" t="n">
-        <v>127.5509987246092</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>156.032556315593</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U3" t="n">
-        <v>187.0697646493503</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V3" t="n">
         <v>232.8005871494253</v>
@@ -22720,16 +22720,16 @@
         <v>167.9909793584588</v>
       </c>
       <c r="H4" t="n">
-        <v>139.5740415064116</v>
+        <v>162.2271725074396</v>
       </c>
       <c r="I4" t="n">
-        <v>111.3183025480297</v>
+        <v>22.26350734189029</v>
       </c>
       <c r="J4" t="n">
-        <v>49.22700773744418</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -22781,10 +22781,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>343.862224231856</v>
+        <v>175.1336927697427</v>
       </c>
       <c r="C5" t="n">
-        <v>321.1407193917789</v>
+        <v>157.6727428772697</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
@@ -22793,7 +22793,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>362.7438733624829</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
         <v>415.302737515135</v>
@@ -22847,10 +22847,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>186.8768895328647</v>
       </c>
       <c r="Y5" t="n">
-        <v>342.105766276825</v>
+        <v>178.6377897623157</v>
       </c>
     </row>
     <row r="6">
@@ -22860,16 +22860,16 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>127.6615662182428</v>
+        <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>128.5763266090871</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D6" t="n">
-        <v>103.3128931854102</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E6" t="n">
-        <v>113.5129080761724</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F6" t="n">
         <v>145.0692123933839</v>
@@ -22884,7 +22884,7 @@
         <v>89.39663285141508</v>
       </c>
       <c r="J6" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -22908,16 +22908,16 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U6" t="n">
-        <v>225.9413820809748</v>
+        <v>59.57223318158461</v>
       </c>
       <c r="V6" t="n">
         <v>232.8005871494253</v>
@@ -22957,16 +22957,16 @@
         <v>167.9909793584588</v>
       </c>
       <c r="H7" t="n">
-        <v>139.5740415064116</v>
+        <v>162.2271725074396</v>
       </c>
       <c r="I7" t="n">
-        <v>111.3183025480297</v>
+        <v>22.26350734189029</v>
       </c>
       <c r="J7" t="n">
-        <v>49.22700773744418</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K7" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
@@ -23018,19 +23018,19 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>343.862224231856</v>
+        <v>175.1336927697427</v>
       </c>
       <c r="C8" t="n">
-        <v>321.1407193917789</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>310.5508692414544</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>337.7981976930332</v>
+        <v>174.3302211785239</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>199.2758968479735</v>
       </c>
       <c r="G8" t="n">
         <v>415.302737515135</v>
@@ -23066,10 +23066,10 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R8" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>209.0200695862453</v>
+        <v>176.0349763817907</v>
       </c>
       <c r="T8" t="n">
         <v>223.0958495641314</v>
@@ -23103,7 +23103,7 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D9" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E9" t="n">
         <v>157.6450804554009</v>
@@ -23145,25 +23145,25 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>61.28621672101858</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S9" t="n">
-        <v>127.5509987246092</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T9" t="n">
-        <v>156.032556315593</v>
+        <v>0</v>
       </c>
       <c r="U9" t="n">
-        <v>181.8092097017462</v>
+        <v>181.2696526108326</v>
       </c>
       <c r="V9" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W9" t="n">
-        <v>251.6949831609196</v>
+        <v>44.09483426718171</v>
       </c>
       <c r="X9" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y9" t="n">
         <v>205.6826957773044</v>
@@ -23197,13 +23197,13 @@
         <v>162.2271725074396</v>
       </c>
       <c r="I10" t="n">
-        <v>155.4504749272583</v>
+        <v>137.8921792844459</v>
       </c>
       <c r="J10" t="n">
-        <v>93.35918011667277</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -23218,16 +23218,16 @@
         <v>0</v>
       </c>
       <c r="P10" t="n">
-        <v>1.930990287424243</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q10" t="n">
-        <v>42.02987087246579</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R10" t="n">
-        <v>133.1612189979409</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S10" t="n">
-        <v>179.8844256577437</v>
+        <v>224.0165980369723</v>
       </c>
       <c r="T10" t="n">
         <v>227.9455894282815</v>
@@ -23270,16 +23270,16 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>415.302737515135</v>
+        <v>207.7025886213972</v>
       </c>
       <c r="H11" t="n">
-        <v>295.3426297365386</v>
+        <v>131.8746532220293</v>
       </c>
       <c r="I11" t="n">
-        <v>166.3437171911773</v>
+        <v>39.57096777941408</v>
       </c>
       <c r="J11" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K11" t="n">
         <v>0</v>
@@ -23303,10 +23303,10 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R11" t="n">
-        <v>110.9975005095251</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S11" t="n">
-        <v>164.8878972070167</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T11" t="n">
         <v>223.0958495641314</v>
@@ -23321,7 +23321,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
-        <v>369.731100678469</v>
+        <v>162.1309517847311</v>
       </c>
       <c r="Y11" t="n">
         <v>386.2379386560536</v>
@@ -23334,13 +23334,13 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C12" t="n">
-        <v>128.5763266090871</v>
+        <v>0</v>
       </c>
       <c r="D12" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E12" t="n">
         <v>157.6450804554009</v>
@@ -23355,7 +23355,7 @@
         <v>112.2354442364965</v>
       </c>
       <c r="I12" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
         <v>0.7465913262578567</v>
@@ -23385,7 +23385,7 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S12" t="n">
-        <v>132.8115536722133</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T12" t="n">
         <v>200.1647286948216</v>
@@ -23397,13 +23397,13 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W12" t="n">
-        <v>207.562810781691</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X12" t="n">
-        <v>161.6408128242489</v>
+        <v>181.8844042082006</v>
       </c>
       <c r="Y12" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13">
@@ -23431,16 +23431,16 @@
         <v>167.9909793584588</v>
       </c>
       <c r="H13" t="n">
-        <v>139.5740415064116</v>
+        <v>162.2271725074396</v>
       </c>
       <c r="I13" t="n">
-        <v>111.3183025480297</v>
+        <v>155.4504749272583</v>
       </c>
       <c r="J13" t="n">
-        <v>49.22700773744418</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K13" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L13" t="n">
         <v>0</v>
@@ -23455,10 +23455,10 @@
         <v>0</v>
       </c>
       <c r="P13" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R13" t="n">
         <v>177.2933913771695</v>
@@ -23473,7 +23473,7 @@
         <v>286.3190293564909</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>207.8341597252609</v>
       </c>
       <c r="W13" t="n">
         <v>286.522998336591</v>
@@ -23504,19 +23504,19 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
-        <v>368.0044283100869</v>
+        <v>395.8309411064141</v>
       </c>
       <c r="G14" t="n">
-        <v>371.1705651359065</v>
+        <v>207.7025886213972</v>
       </c>
       <c r="H14" t="n">
-        <v>295.3426297365386</v>
+        <v>131.8746532220293</v>
       </c>
       <c r="I14" t="n">
-        <v>166.3437171911773</v>
+        <v>2.875740676668016</v>
       </c>
       <c r="J14" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K14" t="n">
         <v>0</v>
@@ -23537,10 +23537,10 @@
         <v>0</v>
       </c>
       <c r="Q14" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S14" t="n">
         <v>209.0200695862453</v>
@@ -23619,19 +23619,19 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>56.02566177341454</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>132.8115536722133</v>
+        <v>0</v>
       </c>
       <c r="T15" t="n">
-        <v>156.032556315593</v>
+        <v>0</v>
       </c>
       <c r="U15" t="n">
-        <v>181.8092097017462</v>
+        <v>18.34123318723692</v>
       </c>
       <c r="V15" t="n">
-        <v>232.8005871494253</v>
+        <v>106.7518121676478</v>
       </c>
       <c r="W15" t="n">
         <v>251.6949831609196</v>
@@ -23665,7 +23665,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>167.9909793584588</v>
+        <v>150.4326837156464</v>
       </c>
       <c r="H16" t="n">
         <v>162.2271725074396</v>
@@ -23674,10 +23674,10 @@
         <v>155.4504749272583</v>
       </c>
       <c r="J16" t="n">
-        <v>93.35918011667277</v>
+        <v>0</v>
       </c>
       <c r="K16" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L16" t="n">
         <v>0</v>
@@ -23692,16 +23692,16 @@
         <v>0</v>
       </c>
       <c r="P16" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q16" t="n">
-        <v>42.02987087246579</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R16" t="n">
-        <v>133.1612189979409</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S16" t="n">
-        <v>181.8154159451679</v>
+        <v>224.0165980369723</v>
       </c>
       <c r="T16" t="n">
         <v>227.9455894282815</v>
@@ -23732,7 +23732,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C17" t="n">
-        <v>365.2728917710076</v>
+        <v>157.6727428772697</v>
       </c>
       <c r="D17" t="n">
         <v>354.683041620683</v>
@@ -23741,7 +23741,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
-        <v>362.7438733624829</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
         <v>415.302737515135</v>
@@ -23753,7 +23753,7 @@
         <v>210.4758895704059</v>
       </c>
       <c r="J17" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K17" t="n">
         <v>0</v>
@@ -23774,19 +23774,19 @@
         <v>0</v>
       </c>
       <c r="Q17" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>164.8878972070167</v>
+        <v>1.419920692507446</v>
       </c>
       <c r="T17" t="n">
-        <v>178.9636771849028</v>
+        <v>15.49570067039346</v>
       </c>
       <c r="U17" t="n">
-        <v>251.3456529078365</v>
+        <v>240.3005482725392</v>
       </c>
       <c r="V17" t="n">
         <v>327.7522584701349</v>
@@ -23795,7 +23795,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X17" t="n">
-        <v>330.8594832468445</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y17" t="n">
         <v>386.2379386560536</v>
@@ -23811,16 +23811,16 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C18" t="n">
-        <v>128.5763266090871</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D18" t="n">
-        <v>103.3128931854102</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E18" t="n">
-        <v>113.5129080761724</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F18" t="n">
-        <v>106.1975949617593</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G18" t="n">
         <v>137.3435171632106</v>
@@ -23856,19 +23856,19 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>100.1578341526431</v>
+        <v>81.5513739119603</v>
       </c>
       <c r="S18" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T18" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U18" t="n">
-        <v>225.9413820809748</v>
+        <v>18.34123318723692</v>
       </c>
       <c r="V18" t="n">
-        <v>232.8005871494253</v>
+        <v>25.20043825568737</v>
       </c>
       <c r="W18" t="n">
         <v>251.6949831609196</v>
@@ -23893,7 +23893,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>104.4833006389838</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
         <v>146.4339626465692</v>
@@ -23908,13 +23908,13 @@
         <v>162.2271725074396</v>
       </c>
       <c r="I19" t="n">
-        <v>111.3183025480297</v>
+        <v>155.4504749272583</v>
       </c>
       <c r="J19" t="n">
         <v>93.35918011667277</v>
       </c>
       <c r="K19" t="n">
-        <v>21.47904137820059</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L19" t="n">
         <v>0</v>
@@ -23944,10 +23944,10 @@
         <v>227.9455894282815</v>
       </c>
       <c r="U19" t="n">
-        <v>286.3190293564909</v>
+        <v>153.1320617711229</v>
       </c>
       <c r="V19" t="n">
-        <v>208.0054709445994</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
         <v>286.522998336591</v>
@@ -23966,7 +23966,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>382.7338416634806</v>
+        <v>342.2575625303455</v>
       </c>
       <c r="C20" t="n">
         <v>124.2586028933485</v>
@@ -23990,7 +23990,7 @@
         <v>210.4758895704059</v>
       </c>
       <c r="J20" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K20" t="n">
         <v>0</v>
@@ -24011,19 +24011,19 @@
         <v>0</v>
       </c>
       <c r="Q20" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S20" t="n">
         <v>209.0200695862453</v>
       </c>
       <c r="T20" t="n">
-        <v>10.81046392068936</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U20" t="n">
-        <v>10.33136403017744</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V20" t="n">
         <v>86.73796959247585</v>
@@ -24035,7 +24035,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y20" t="n">
-        <v>386.2379386560536</v>
+        <v>145.2236497783945</v>
       </c>
     </row>
     <row r="21">
@@ -24045,22 +24045,22 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>166.5331836498673</v>
+        <v>161.52494995697</v>
       </c>
       <c r="C21" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D21" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E21" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F21" t="n">
         <v>145.0692123933839</v>
       </c>
       <c r="G21" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H21" t="n">
         <v>112.2354442364965</v>
@@ -24093,19 +24093,19 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
       </c>
       <c r="T21" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U21" t="n">
-        <v>57.60746137446978</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V21" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W21" t="n">
         <v>251.6949831609196</v>
@@ -24114,7 +24114,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y21" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22">
@@ -24139,7 +24139,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>34.80401177309074</v>
+        <v>167.9909793584588</v>
       </c>
       <c r="H22" t="n">
         <v>162.2271725074396</v>
@@ -24172,7 +24172,7 @@
         <v>86.16204325169439</v>
       </c>
       <c r="R22" t="n">
-        <v>177.2933913771695</v>
+        <v>44.10642379180149</v>
       </c>
       <c r="S22" t="n">
         <v>224.0165980369723</v>
@@ -24212,22 +24212,22 @@
         <v>354.683041620683</v>
       </c>
       <c r="E23" t="n">
-        <v>140.9160811946027</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F23" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
-        <v>174.288448637476</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H23" t="n">
-        <v>339.4748021157671</v>
+        <v>298.998522982632</v>
       </c>
       <c r="I23" t="n">
         <v>210.4758895704059</v>
       </c>
       <c r="J23" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K23" t="n">
         <v>0</v>
@@ -24251,7 +24251,7 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S23" t="n">
         <v>209.0200695862453</v>
@@ -24260,16 +24260,16 @@
         <v>223.0958495641314</v>
       </c>
       <c r="U23" t="n">
-        <v>49.05096647893927</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V23" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W23" t="n">
-        <v>349.240968717413</v>
+        <v>108.226679839754</v>
       </c>
       <c r="X23" t="n">
-        <v>369.731100678469</v>
+        <v>128.71681180081</v>
       </c>
       <c r="Y23" t="n">
         <v>386.2379386560536</v>
@@ -24282,13 +24282,13 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>166.5331836498673</v>
+        <v>26.34859104030286</v>
       </c>
       <c r="C24" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D24" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E24" t="n">
         <v>157.6450804554009</v>
@@ -24297,7 +24297,7 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G24" t="n">
-        <v>113.520440090222</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H24" t="n">
         <v>112.2354442364965</v>
@@ -24306,7 +24306,7 @@
         <v>89.39663285141508</v>
       </c>
       <c r="J24" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
         <v>0</v>
@@ -24330,16 +24330,16 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S24" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T24" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U24" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V24" t="n">
         <v>232.8005871494253</v>
@@ -24348,7 +24348,7 @@
         <v>10.68069428326055</v>
       </c>
       <c r="X24" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y24" t="n">
         <v>205.6826957773044</v>
@@ -24361,7 +24361,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>46.6450125965693</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
         <v>167.2468210986278</v>
@@ -24409,7 +24409,7 @@
         <v>86.16204325169439</v>
       </c>
       <c r="R25" t="n">
-        <v>177.2933913771695</v>
+        <v>44.10642379180146</v>
       </c>
       <c r="S25" t="n">
         <v>224.0165980369723</v>
@@ -24443,7 +24443,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C26" t="n">
-        <v>124.2586028933485</v>
+        <v>284.9381847551875</v>
       </c>
       <c r="D26" t="n">
         <v>354.683041620683</v>
@@ -24455,7 +24455,7 @@
         <v>165.8617568640524</v>
       </c>
       <c r="G26" t="n">
-        <v>415.302737515135</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H26" t="n">
         <v>339.4748021157671</v>
@@ -24464,7 +24464,7 @@
         <v>210.4758895704059</v>
       </c>
       <c r="J26" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K26" t="n">
         <v>0</v>
@@ -24485,16 +24485,16 @@
         <v>0</v>
       </c>
       <c r="Q26" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R26" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S26" t="n">
         <v>209.0200695862453</v>
       </c>
       <c r="T26" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U26" t="n">
         <v>251.3456529078365</v>
@@ -24503,10 +24503,10 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W26" t="n">
-        <v>108.226679839754</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X26" t="n">
-        <v>179.3857036041843</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y26" t="n">
         <v>386.2379386560536</v>
@@ -24522,7 +24522,7 @@
         <v>0</v>
       </c>
       <c r="C27" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D27" t="n">
         <v>147.4450655646388</v>
@@ -24534,13 +24534,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G27" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H27" t="n">
         <v>112.2354442364965</v>
       </c>
       <c r="I27" t="n">
-        <v>89.39663285141508</v>
+        <v>0.02852443945548089</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -24567,13 +24567,13 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>171.6831711038378</v>
       </c>
       <c r="T27" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U27" t="n">
         <v>225.9413820809748</v>
@@ -24585,10 +24585,10 @@
         <v>10.68069428326055</v>
       </c>
       <c r="X27" t="n">
-        <v>57.12999154646258</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y27" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="28">
@@ -24640,16 +24640,16 @@
         <v>0</v>
       </c>
       <c r="P28" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q28" t="n">
         <v>86.16204325169439</v>
       </c>
       <c r="R28" t="n">
-        <v>177.2933913771695</v>
+        <v>46.82786452690794</v>
       </c>
       <c r="S28" t="n">
-        <v>90.82963045160423</v>
+        <v>224.0165980369723</v>
       </c>
       <c r="T28" t="n">
         <v>227.9455894282815</v>
@@ -24677,7 +24677,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>382.7338416634806</v>
+        <v>141.7195527858215</v>
       </c>
       <c r="C29" t="n">
         <v>365.2728917710076</v>
@@ -24686,7 +24686,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E29" t="n">
-        <v>370.7373139160822</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F29" t="n">
         <v>406.8760457417114</v>
@@ -24695,13 +24695,13 @@
         <v>415.302737515135</v>
       </c>
       <c r="H29" t="n">
-        <v>339.4748021157671</v>
+        <v>98.46051323810809</v>
       </c>
       <c r="I29" t="n">
         <v>210.4758895704059</v>
       </c>
       <c r="J29" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K29" t="n">
         <v>0</v>
@@ -24722,31 +24722,31 @@
         <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R29" t="n">
         <v>149.8691179411497</v>
       </c>
       <c r="S29" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T29" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U29" t="n">
-        <v>10.33136403017744</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V29" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W29" t="n">
-        <v>349.240968717413</v>
+        <v>148.9048724285834</v>
       </c>
       <c r="X29" t="n">
-        <v>128.71681180081</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y29" t="n">
-        <v>386.2379386560536</v>
+        <v>145.2236497783945</v>
       </c>
     </row>
     <row r="30">
@@ -24756,7 +24756,7 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C30" t="n">
         <v>172.7084989883157</v>
@@ -24765,22 +24765,22 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E30" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F30" t="n">
-        <v>145.0692123933839</v>
+        <v>73.80613849443475</v>
       </c>
       <c r="G30" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H30" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
         <v>0</v>
@@ -24807,19 +24807,19 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S30" t="n">
-        <v>136.2759056302995</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T30" t="n">
         <v>0</v>
       </c>
       <c r="U30" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V30" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W30" t="n">
-        <v>10.68069428326055</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X30" t="n">
         <v>205.7729852034775</v>
@@ -24856,7 +24856,7 @@
         <v>162.2271725074396</v>
       </c>
       <c r="I31" t="n">
-        <v>155.4504749272583</v>
+        <v>22.26350734189026</v>
       </c>
       <c r="J31" t="n">
         <v>93.35918011667277</v>
@@ -24877,16 +24877,16 @@
         <v>0</v>
       </c>
       <c r="P31" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q31" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R31" t="n">
         <v>177.2933913771695</v>
       </c>
       <c r="S31" t="n">
-        <v>179.7131144384051</v>
+        <v>224.0165980369723</v>
       </c>
       <c r="T31" t="n">
         <v>227.9455894282815</v>
@@ -24923,22 +24923,22 @@
         <v>354.683041620683</v>
       </c>
       <c r="E32" t="n">
-        <v>140.9160811946027</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F32" t="n">
-        <v>165.8617568640524</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
-        <v>174.288448637476</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H32" t="n">
-        <v>149.1294050414824</v>
+        <v>98.46051323810809</v>
       </c>
       <c r="I32" t="n">
         <v>210.4758895704059</v>
       </c>
       <c r="J32" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K32" t="n">
         <v>0</v>
@@ -24959,7 +24959,7 @@
         <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R32" t="n">
         <v>149.8691179411497</v>
@@ -24971,16 +24971,16 @@
         <v>223.0958495641314</v>
       </c>
       <c r="U32" t="n">
-        <v>251.3456529078365</v>
+        <v>39.0602672643945</v>
       </c>
       <c r="V32" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W32" t="n">
-        <v>349.240968717413</v>
+        <v>108.226679839754</v>
       </c>
       <c r="X32" t="n">
-        <v>369.731100678469</v>
+        <v>128.71681180081</v>
       </c>
       <c r="Y32" t="n">
         <v>386.2379386560536</v>
@@ -24996,7 +24996,7 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C33" t="n">
-        <v>40.85222436883518</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D33" t="n">
         <v>147.4450655646388</v>
@@ -25044,7 +25044,7 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S33" t="n">
-        <v>0</v>
+        <v>101.0346019561178</v>
       </c>
       <c r="T33" t="n">
         <v>0</v>
@@ -25053,16 +25053,16 @@
         <v>0</v>
       </c>
       <c r="V33" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W33" t="n">
         <v>251.6949831609196</v>
       </c>
       <c r="X33" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y33" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="34">
@@ -25081,7 +25081,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>13.24699506120118</v>
       </c>
       <c r="F34" t="n">
         <v>145.4210480229312</v>
@@ -25129,7 +25129,7 @@
         <v>227.9455894282815</v>
       </c>
       <c r="U34" t="n">
-        <v>153.1320617711229</v>
+        <v>286.3190293564909</v>
       </c>
       <c r="V34" t="n">
         <v>252.137643323828</v>
@@ -25151,10 +25151,10 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>170.4484560200385</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C35" t="n">
-        <v>365.2728917710076</v>
+        <v>152.9875061275654</v>
       </c>
       <c r="D35" t="n">
         <v>354.683041620683</v>
@@ -25166,7 +25166,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>174.288448637476</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H35" t="n">
         <v>339.4748021157671</v>
@@ -25217,7 +25217,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X35" t="n">
-        <v>369.731100678469</v>
+        <v>128.71681180081</v>
       </c>
       <c r="Y35" t="n">
         <v>386.2379386560536</v>
@@ -25230,25 +25230,25 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C36" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D36" t="n">
         <v>147.4450655646388</v>
       </c>
       <c r="E36" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F36" t="n">
         <v>145.0692123933839</v>
       </c>
       <c r="G36" t="n">
-        <v>137.3435171632106</v>
+        <v>1.438530547187924</v>
       </c>
       <c r="H36" t="n">
-        <v>70.61268322086197</v>
+        <v>0</v>
       </c>
       <c r="I36" t="n">
         <v>0</v>
@@ -25278,16 +25278,16 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T36" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U36" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V36" t="n">
         <v>232.8005871494253</v>
@@ -25296,7 +25296,7 @@
         <v>251.6949831609196</v>
       </c>
       <c r="X36" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y36" t="n">
         <v>205.6826957773044</v>
@@ -25336,7 +25336,7 @@
         <v>93.35918011667277</v>
       </c>
       <c r="K37" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L37" t="n">
         <v>0</v>
@@ -25351,7 +25351,7 @@
         <v>0</v>
       </c>
       <c r="P37" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q37" t="n">
         <v>86.16204325169439</v>
@@ -25366,10 +25366,10 @@
         <v>227.9455894282815</v>
       </c>
       <c r="U37" t="n">
-        <v>286.3190293564909</v>
+        <v>153.1320617711229</v>
       </c>
       <c r="V37" t="n">
-        <v>143.9416082994493</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
         <v>286.522998336591</v>
@@ -25397,7 +25397,7 @@
         <v>113.6687527430239</v>
       </c>
       <c r="E38" t="n">
-        <v>140.9160811946027</v>
+        <v>151.7265451152921</v>
       </c>
       <c r="F38" t="n">
         <v>406.8760457417114</v>
@@ -25406,13 +25406,13 @@
         <v>415.302737515135</v>
       </c>
       <c r="H38" t="n">
-        <v>331.6961560838159</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I38" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J38" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K38" t="n">
         <v>0</v>
@@ -25445,7 +25445,7 @@
         <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>251.3456529078365</v>
+        <v>10.33136403017744</v>
       </c>
       <c r="V38" t="n">
         <v>327.7522584701349</v>
@@ -25467,10 +25467,10 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C39" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D39" t="n">
         <v>147.4450655646388</v>
@@ -25515,16 +25515,16 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S39" t="n">
-        <v>0</v>
+        <v>73.91671058399685</v>
       </c>
       <c r="T39" t="n">
         <v>0</v>
       </c>
       <c r="U39" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V39" t="n">
         <v>232.8005871494253</v>
@@ -25533,10 +25533,10 @@
         <v>251.6949831609196</v>
       </c>
       <c r="X39" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y39" t="n">
-        <v>81.60186009037083</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40">
@@ -25555,7 +25555,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>13.24699506120118</v>
       </c>
       <c r="F40" t="n">
         <v>145.4210480229312</v>
@@ -25609,7 +25609,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>153.336030751223</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
         <v>225.7096553890372</v>
@@ -25631,25 +25631,25 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D41" t="n">
-        <v>354.683041620683</v>
+        <v>113.6687527430239</v>
       </c>
       <c r="E41" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F41" t="n">
-        <v>165.8617568640524</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
         <v>174.288448637476</v>
       </c>
       <c r="H41" t="n">
-        <v>139.1387058269376</v>
+        <v>337.6653060427309</v>
       </c>
       <c r="I41" t="n">
-        <v>210.4758895704059</v>
+        <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K41" t="n">
         <v>0</v>
@@ -25704,7 +25704,7 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>166.5331836498673</v>
+        <v>21.01841839509962</v>
       </c>
       <c r="C42" t="n">
         <v>172.7084989883157</v>
@@ -25719,7 +25719,7 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G42" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H42" t="n">
         <v>112.2354442364965</v>
@@ -25761,10 +25761,10 @@
         <v>200.1647286948216</v>
       </c>
       <c r="U42" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V42" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W42" t="n">
         <v>10.68069428326055</v>
@@ -25773,7 +25773,7 @@
         <v>0</v>
       </c>
       <c r="Y42" t="n">
-        <v>175.8836868124217</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43">
@@ -25840,10 +25840,10 @@
         <v>227.9455894282815</v>
       </c>
       <c r="U43" t="n">
-        <v>153.1320617711229</v>
+        <v>286.3190293564909</v>
       </c>
       <c r="V43" t="n">
-        <v>252.137643323828</v>
+        <v>118.95067573846</v>
       </c>
       <c r="W43" t="n">
         <v>286.522998336591</v>
@@ -25862,13 +25862,13 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>338.601669284252</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C44" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D44" t="n">
-        <v>354.683041620683</v>
+        <v>147.0828927269451</v>
       </c>
       <c r="E44" t="n">
         <v>381.9303700722618</v>
@@ -25877,13 +25877,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G44" t="n">
-        <v>415.302737515135</v>
+        <v>207.7025886213972</v>
       </c>
       <c r="H44" t="n">
-        <v>339.4748021157671</v>
+        <v>131.8746532220293</v>
       </c>
       <c r="I44" t="n">
-        <v>210.4758895704059</v>
+        <v>37.61237763934645</v>
       </c>
       <c r="J44" t="n">
         <v>11.94928935461252</v>
@@ -25922,16 +25922,16 @@
         <v>251.3456529078365</v>
       </c>
       <c r="V44" t="n">
-        <v>283.6200860909063</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W44" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X44" t="n">
-        <v>340.8501824613893</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y44" t="n">
-        <v>342.105766276825</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="45">
@@ -25965,7 +25965,7 @@
         <v>89.39663285141508</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K45" t="n">
         <v>0</v>
@@ -25989,25 +25989,25 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
-        <v>127.5509987246092</v>
+        <v>87.15963042061628</v>
       </c>
       <c r="T45" t="n">
         <v>200.1647286948216</v>
       </c>
       <c r="U45" t="n">
-        <v>181.8092097017462</v>
+        <v>18.34123318723692</v>
       </c>
       <c r="V45" t="n">
-        <v>188.6684147701967</v>
+        <v>25.20043825568737</v>
       </c>
       <c r="W45" t="n">
-        <v>213.5699570555529</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X45" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y45" t="n">
         <v>205.6826957773044</v>
@@ -26035,10 +26035,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>167.2005289107765</v>
+        <v>167.9909793584588</v>
       </c>
       <c r="H46" t="n">
-        <v>118.095000128211</v>
+        <v>162.2271725074396</v>
       </c>
       <c r="I46" t="n">
         <v>155.4504749272583</v>
@@ -26077,13 +26077,13 @@
         <v>227.9455894282815</v>
       </c>
       <c r="U46" t="n">
-        <v>242.1868569772623</v>
+        <v>286.3190293564909</v>
       </c>
       <c r="V46" t="n">
-        <v>252.137643323828</v>
+        <v>118.95067573846</v>
       </c>
       <c r="W46" t="n">
-        <v>242.3908259573624</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
         <v>225.7096553890372</v>
@@ -26123,7 +26123,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>352718.0519562866</v>
+        <v>466993.76445354</v>
       </c>
     </row>
     <row r="3">
@@ -26131,7 +26131,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>352718.0519562866</v>
+        <v>466993.76445354</v>
       </c>
     </row>
     <row r="4">
@@ -26139,7 +26139,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>352718.0519562867</v>
+        <v>466993.7644535401</v>
       </c>
     </row>
     <row r="5">
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>352718.0519562866</v>
+        <v>466993.7644535401</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>352718.0519562867</v>
+        <v>466993.7644535401</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26163,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>352718.0519562865</v>
+        <v>466993.7644535401</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26171,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>490352.6188026462</v>
+        <v>490352.6188026464</v>
       </c>
     </row>
     <row r="9">
@@ -26179,7 +26179,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>490352.6188026461</v>
+        <v>490352.6188026464</v>
       </c>
     </row>
     <row r="10">
@@ -26187,7 +26187,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>490352.6188026464</v>
+        <v>490352.6188026462</v>
       </c>
     </row>
     <row r="11">
@@ -26203,7 +26203,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>490352.6188026464</v>
+        <v>490352.6188026462</v>
       </c>
     </row>
     <row r="13">
@@ -26211,7 +26211,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>490352.6188026462</v>
+        <v>490352.6188026464</v>
       </c>
     </row>
     <row r="14">
@@ -26219,7 +26219,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>490352.6188026464</v>
+        <v>490352.6188026462</v>
       </c>
     </row>
     <row r="15">
@@ -26227,7 +26227,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>490352.6188026462</v>
+        <v>490352.6188026464</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26235,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>352718.0519562866</v>
+        <v>466993.76445354</v>
       </c>
     </row>
   </sheetData>
@@ -26311,22 +26311,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>83687.10374583915</v>
+        <v>110775.4082889347</v>
       </c>
       <c r="C2" t="n">
-        <v>83687.10374583914</v>
+        <v>110775.4082889347</v>
       </c>
       <c r="D2" t="n">
-        <v>83687.10374583914</v>
+        <v>110775.4082889347</v>
       </c>
       <c r="E2" t="n">
-        <v>83687.10374583912</v>
+        <v>110775.4082889347</v>
       </c>
       <c r="F2" t="n">
-        <v>83687.10374583912</v>
+        <v>110775.4082889347</v>
       </c>
       <c r="G2" t="n">
-        <v>83687.10374583912</v>
+        <v>110775.4082889347</v>
       </c>
       <c r="H2" t="n">
         <v>116312.4707719327</v>
@@ -26353,7 +26353,7 @@
         <v>116312.4707719327</v>
       </c>
       <c r="P2" t="n">
-        <v>83687.10374583914</v>
+        <v>110775.4082889347</v>
       </c>
     </row>
     <row r="3">
@@ -26363,7 +26363,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>14789.70600424422</v>
+        <v>69571.58469771611</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26381,13 +26381,13 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>53120.56697032503</v>
+        <v>9015.435694921785</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>11546.91810999089</v>
+        <v>54317.33335715316</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26415,49 +26415,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>20174.06318849646</v>
+        <v>24047.45170716255</v>
       </c>
       <c r="C4" t="n">
-        <v>20174.06318849646</v>
+        <v>24047.45170716255</v>
       </c>
       <c r="D4" t="n">
-        <v>20174.06318849646</v>
+        <v>24047.45170716255</v>
       </c>
       <c r="E4" t="n">
-        <v>20174.06318849646</v>
+        <v>24047.45170716255</v>
       </c>
       <c r="F4" t="n">
-        <v>20174.06318849646</v>
+        <v>24047.45170716255</v>
       </c>
       <c r="G4" t="n">
-        <v>20174.06318849646</v>
+        <v>24047.45170716255</v>
       </c>
       <c r="H4" t="n">
-        <v>28310.24133100991</v>
+        <v>25282.26821261927</v>
       </c>
       <c r="I4" t="n">
-        <v>28310.24133100992</v>
+        <v>25282.26821261927</v>
       </c>
       <c r="J4" t="n">
-        <v>28310.24133100992</v>
+        <v>25282.26821261927</v>
       </c>
       <c r="K4" t="n">
-        <v>28310.24133100992</v>
+        <v>25282.26821261927</v>
       </c>
       <c r="L4" t="n">
-        <v>28310.24133100992</v>
+        <v>25282.26821261927</v>
       </c>
       <c r="M4" t="n">
-        <v>28310.24133100992</v>
+        <v>25282.26821261927</v>
       </c>
       <c r="N4" t="n">
-        <v>28310.24133100992</v>
+        <v>25282.26821261927</v>
       </c>
       <c r="O4" t="n">
-        <v>28310.24133100992</v>
+        <v>25282.26821261927</v>
       </c>
       <c r="P4" t="n">
-        <v>20174.06318849646</v>
+        <v>24047.45170716255</v>
       </c>
     </row>
     <row r="5">
@@ -26467,22 +26467,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>36310.8360806571</v>
+        <v>46249.68905273926</v>
       </c>
       <c r="C5" t="n">
-        <v>36310.8360806571</v>
+        <v>46249.68905273926</v>
       </c>
       <c r="D5" t="n">
-        <v>36310.8360806571</v>
+        <v>46249.68905273926</v>
       </c>
       <c r="E5" t="n">
-        <v>2683.236080657098</v>
+        <v>12622.08905273926</v>
       </c>
       <c r="F5" t="n">
-        <v>2683.236080657098</v>
+        <v>12622.08905273926</v>
       </c>
       <c r="G5" t="n">
-        <v>2683.236080657098</v>
+        <v>12622.08905273926</v>
       </c>
       <c r="H5" t="n">
         <v>14653.66876376167</v>
@@ -26509,7 +26509,7 @@
         <v>14653.66876376167</v>
       </c>
       <c r="P5" t="n">
-        <v>2683.236080657098</v>
+        <v>12622.08905273926</v>
       </c>
     </row>
     <row r="6">
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>12412.49847244137</v>
+        <v>-29093.31716868321</v>
       </c>
       <c r="C6" t="n">
-        <v>27202.20447668558</v>
+        <v>40478.26752903291</v>
       </c>
       <c r="D6" t="n">
-        <v>27202.20447668558</v>
+        <v>40478.26752903288</v>
       </c>
       <c r="E6" t="n">
-        <v>60829.80447668556</v>
+        <v>74105.8675290329</v>
       </c>
       <c r="F6" t="n">
-        <v>60829.80447668557</v>
+        <v>74105.86752903288</v>
       </c>
       <c r="G6" t="n">
-        <v>60829.80447668556</v>
+        <v>74105.86752903288</v>
       </c>
       <c r="H6" t="n">
-        <v>20227.99370683605</v>
+        <v>67361.09810062996</v>
       </c>
       <c r="I6" t="n">
-        <v>73348.56067716111</v>
+        <v>76376.53379555179</v>
       </c>
       <c r="J6" t="n">
-        <v>61801.64256717022</v>
+        <v>22059.20043839858</v>
       </c>
       <c r="K6" t="n">
-        <v>73348.56067716109</v>
+        <v>76376.53379555178</v>
       </c>
       <c r="L6" t="n">
-        <v>73348.56067716109</v>
+        <v>76376.53379555173</v>
       </c>
       <c r="M6" t="n">
-        <v>73348.56067716108</v>
+        <v>76376.53379555176</v>
       </c>
       <c r="N6" t="n">
-        <v>73348.56067716109</v>
+        <v>76376.53379555175</v>
       </c>
       <c r="O6" t="n">
-        <v>73348.56067716111</v>
+        <v>76376.53379555178</v>
       </c>
       <c r="P6" t="n">
-        <v>60829.80447668557</v>
+        <v>74105.8675290329</v>
       </c>
     </row>
   </sheetData>
@@ -26787,22 +26787,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>44.13217237922859</v>
+        <v>207.6001488937379</v>
       </c>
       <c r="C4" t="n">
-        <v>44.13217237922859</v>
+        <v>207.6001488937379</v>
       </c>
       <c r="D4" t="n">
-        <v>44.13217237922859</v>
+        <v>207.6001488937379</v>
       </c>
       <c r="E4" t="n">
-        <v>44.13217237922859</v>
+        <v>207.6001488937379</v>
       </c>
       <c r="F4" t="n">
-        <v>44.13217237922859</v>
+        <v>207.6001488937379</v>
       </c>
       <c r="G4" t="n">
-        <v>44.13217237922859</v>
+        <v>207.6001488937379</v>
       </c>
       <c r="H4" t="n">
         <v>241.0142888776591</v>
@@ -26829,7 +26829,7 @@
         <v>241.0142888776591</v>
       </c>
       <c r="P4" t="n">
-        <v>44.13217237922859</v>
+        <v>207.6001488937379</v>
       </c>
     </row>
   </sheetData>
@@ -27009,7 +27009,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>44.13217237922859</v>
+        <v>207.6001488937379</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27027,13 +27027,13 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>196.8821164984305</v>
+        <v>33.41413998392116</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>44.13217237922859</v>
+        <v>207.6001488937379</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27255,7 +27255,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>44.13217237922859</v>
+        <v>207.6001488937379</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27273,7 +27273,7 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>196.8821164984305</v>
+        <v>33.41413998392116</v>
       </c>
     </row>
   </sheetData>
@@ -34702,19 +34702,19 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>42.34905430330018</v>
+        <v>181.8947995804632</v>
       </c>
       <c r="M2" t="n">
-        <v>44.13217237922859</v>
+        <v>207.6001488937379</v>
       </c>
       <c r="N2" t="n">
-        <v>44.13217237922859</v>
+        <v>207.6001488937379</v>
       </c>
       <c r="O2" t="n">
-        <v>44.13217237922859</v>
+        <v>150.7019698410586</v>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>74.21564356216658</v>
       </c>
       <c r="Q2" t="n">
         <v>0</v>
@@ -34778,25 +34778,25 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L3" t="n">
-        <v>42.34905430330018</v>
+        <v>207.6001488937379</v>
       </c>
       <c r="M3" t="n">
-        <v>44.13217237922859</v>
+        <v>207.6001488937379</v>
       </c>
       <c r="N3" t="n">
-        <v>44.13217237922859</v>
+        <v>207.6001488937379</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>2.492952401903357</v>
       </c>
       <c r="Q3" t="n">
-        <v>44.13217237922859</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34936,22 +34936,22 @@
         <v>0</v>
       </c>
       <c r="K5" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="L5" t="n">
-        <v>0</v>
+        <v>181.8947995804632</v>
       </c>
       <c r="M5" t="n">
-        <v>42.34905430330018</v>
+        <v>207.6001488937379</v>
       </c>
       <c r="N5" t="n">
-        <v>0</v>
+        <v>191.2500800396913</v>
       </c>
       <c r="O5" t="n">
-        <v>44.13217237922859</v>
+        <v>150.7019698410586</v>
       </c>
       <c r="P5" t="n">
-        <v>44.13217237922859</v>
+        <v>90.5657124162131</v>
       </c>
       <c r="Q5" t="n">
         <v>0</v>
@@ -35015,25 +35015,25 @@
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>44.13217237922859</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
       </c>
       <c r="M6" t="n">
-        <v>0</v>
+        <v>25.60474007003436</v>
       </c>
       <c r="N6" t="n">
-        <v>0</v>
+        <v>207.6001488937379</v>
       </c>
       <c r="O6" t="n">
-        <v>42.34905430330018</v>
+        <v>207.6001488937379</v>
       </c>
       <c r="P6" t="n">
-        <v>44.13217237922859</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q6" t="n">
-        <v>44.13217237922859</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35173,22 +35173,22 @@
         <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>44.13217237922859</v>
+        <v>74.2156435621666</v>
       </c>
       <c r="L8" t="n">
-        <v>44.13217237922859</v>
+        <v>181.8947995804632</v>
       </c>
       <c r="M8" t="n">
-        <v>42.34905430330019</v>
+        <v>207.6001488937379</v>
       </c>
       <c r="N8" t="n">
-        <v>0</v>
+        <v>207.6001488937379</v>
       </c>
       <c r="O8" t="n">
-        <v>0</v>
+        <v>150.7019698410586</v>
       </c>
       <c r="P8" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="Q8" t="n">
         <v>0</v>
@@ -35252,25 +35252,25 @@
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L9" t="n">
-        <v>42.34905430330018</v>
+        <v>0</v>
       </c>
       <c r="M9" t="n">
-        <v>44.13217237922859</v>
+        <v>207.6001488937379</v>
       </c>
       <c r="N9" t="n">
-        <v>44.13217237922859</v>
+        <v>207.6001488937379</v>
       </c>
       <c r="O9" t="n">
-        <v>0</v>
+        <v>95.70025371986186</v>
       </c>
       <c r="P9" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q9" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35410,22 +35410,22 @@
         <v>0</v>
       </c>
       <c r="K11" t="n">
-        <v>42.34905430330018</v>
+        <v>104.0555615261842</v>
       </c>
       <c r="L11" t="n">
-        <v>44.13217237922859</v>
+        <v>181.8947995804632</v>
       </c>
       <c r="M11" t="n">
-        <v>44.13217237922859</v>
+        <v>87.19451851350715</v>
       </c>
       <c r="N11" t="n">
-        <v>0</v>
+        <v>207.6001488937379</v>
       </c>
       <c r="O11" t="n">
-        <v>44.13217237922859</v>
+        <v>150.7019698410586</v>
       </c>
       <c r="P11" t="n">
-        <v>0</v>
+        <v>90.5657124162131</v>
       </c>
       <c r="Q11" t="n">
         <v>0</v>
@@ -35489,25 +35489,25 @@
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>44.13217237922859</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>207.6001488937379</v>
       </c>
       <c r="N12" t="n">
-        <v>0</v>
+        <v>207.6001488937379</v>
       </c>
       <c r="O12" t="n">
-        <v>44.13217237922859</v>
+        <v>25.60474007003436</v>
       </c>
       <c r="P12" t="n">
-        <v>42.34905430330019</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q12" t="n">
-        <v>44.13217237922859</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35647,22 +35647,22 @@
         <v>0</v>
       </c>
       <c r="K14" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="L14" t="n">
-        <v>44.13217237922859</v>
+        <v>165.5447307264167</v>
       </c>
       <c r="M14" t="n">
-        <v>44.13217237922859</v>
+        <v>207.6001488937379</v>
       </c>
       <c r="N14" t="n">
-        <v>42.34905430330016</v>
+        <v>207.6001488937379</v>
       </c>
       <c r="O14" t="n">
-        <v>0</v>
+        <v>150.7019698410586</v>
       </c>
       <c r="P14" t="n">
-        <v>0</v>
+        <v>90.5657124162131</v>
       </c>
       <c r="Q14" t="n">
         <v>0</v>
@@ -35726,25 +35726,25 @@
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>44.13217237922859</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>25.60474007003436</v>
       </c>
       <c r="M15" t="n">
-        <v>0</v>
+        <v>207.6001488937379</v>
       </c>
       <c r="N15" t="n">
         <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>42.34905430330018</v>
+        <v>207.6001488937379</v>
       </c>
       <c r="P15" t="n">
-        <v>44.13217237922859</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q15" t="n">
-        <v>44.13217237922859</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35887,19 +35887,19 @@
         <v>0</v>
       </c>
       <c r="L17" t="n">
-        <v>44.13217237922859</v>
+        <v>181.8947995804632</v>
       </c>
       <c r="M17" t="n">
-        <v>44.13217237922859</v>
+        <v>207.6001488937379</v>
       </c>
       <c r="N17" t="n">
-        <v>44.13217237922859</v>
+        <v>207.6001488937379</v>
       </c>
       <c r="O17" t="n">
-        <v>42.34905430330016</v>
+        <v>150.7019698410586</v>
       </c>
       <c r="P17" t="n">
-        <v>0</v>
+        <v>74.21564356216658</v>
       </c>
       <c r="Q17" t="n">
         <v>0</v>
@@ -35963,25 +35963,25 @@
         <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>207.6001488937379</v>
       </c>
       <c r="M18" t="n">
         <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>42.34905430330018</v>
+        <v>152.228538108254</v>
       </c>
       <c r="O18" t="n">
-        <v>44.13217237922859</v>
+        <v>207.6001488937379</v>
       </c>
       <c r="P18" t="n">
-        <v>44.13217237922859</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36203,22 +36203,22 @@
         <v>126.6237980382196</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M21" t="n">
-        <v>91.0829537758999</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N21" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>241.0142888776591</v>
+        <v>169.9067907798016</v>
       </c>
       <c r="P21" t="n">
         <v>184.4883612256069</v>
       </c>
       <c r="Q21" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36437,22 +36437,22 @@
         <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L24" t="n">
         <v>232.285965523585</v>
       </c>
       <c r="M24" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>169.9091475161415</v>
+        <v>99.81127712997396</v>
       </c>
       <c r="O24" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q24" t="n">
         <v>70.09551364982758</v>
@@ -36677,22 +36677,22 @@
         <v>126.6237980382196</v>
       </c>
       <c r="L27" t="n">
-        <v>91.0829537758999</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M27" t="n">
+        <v>0</v>
+      </c>
+      <c r="N27" t="n">
+        <v>169.9067907798017</v>
+      </c>
+      <c r="O27" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="N27" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="O27" t="n">
-        <v>0</v>
       </c>
       <c r="P27" t="n">
         <v>184.4883612256069</v>
       </c>
       <c r="Q27" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36914,19 +36914,19 @@
         <v>126.6237980382196</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>161.1784674257276</v>
       </c>
       <c r="M30" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="N30" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="P30" t="n">
-        <v>104.6525397736754</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q30" t="n">
         <v>0</v>
@@ -37151,10 +37151,10 @@
         <v>0</v>
       </c>
       <c r="L33" t="n">
-        <v>232.285965523585</v>
+        <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>240.0046611659691</v>
+        <v>217.7067518141195</v>
       </c>
       <c r="N33" t="n">
         <v>241.0142888776591</v>
@@ -37163,10 +37163,10 @@
         <v>241.0142888776591</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37385,13 +37385,13 @@
         <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>55.51629994036225</v>
+        <v>0</v>
       </c>
       <c r="L36" t="n">
         <v>232.285965523585</v>
       </c>
       <c r="M36" t="n">
-        <v>0</v>
+        <v>55.51629994036225</v>
       </c>
       <c r="N36" t="n">
         <v>241.0142888776591</v>
@@ -37555,7 +37555,7 @@
         <v>207.9338608153932</v>
       </c>
       <c r="O38" t="n">
-        <v>150.7019698410587</v>
+        <v>150.7019698410586</v>
       </c>
       <c r="P38" t="n">
         <v>90.5657124162131</v>
@@ -37622,25 +37622,25 @@
         <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L39" t="n">
-        <v>232.285965523585</v>
+        <v>0</v>
       </c>
       <c r="M39" t="n">
+        <v>161.1784674257276</v>
+      </c>
+      <c r="N39" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="N39" t="n">
-        <v>169.9091475161415</v>
       </c>
       <c r="O39" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q39" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37865,19 +37865,19 @@
         <v>232.285965523585</v>
       </c>
       <c r="M42" t="n">
-        <v>241.0142888776591</v>
+        <v>43.28534947792188</v>
       </c>
       <c r="N42" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="O42" t="n">
-        <v>113.3808631277494</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="P42" t="n">
         <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -38017,22 +38017,22 @@
         <v>0</v>
       </c>
       <c r="K44" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="L44" t="n">
-        <v>42.34905430330018</v>
+        <v>181.8947995804632</v>
       </c>
       <c r="M44" t="n">
-        <v>44.13217237922859</v>
+        <v>207.6001488937379</v>
       </c>
       <c r="N44" t="n">
-        <v>0</v>
+        <v>207.6001488937379</v>
       </c>
       <c r="O44" t="n">
-        <v>0</v>
+        <v>150.7019698410586</v>
       </c>
       <c r="P44" t="n">
-        <v>44.13217237922859</v>
+        <v>74.21564356216658</v>
       </c>
       <c r="Q44" t="n">
         <v>0</v>
@@ -38096,25 +38096,25 @@
         <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>44.13217237922859</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
       </c>
       <c r="M45" t="n">
-        <v>0</v>
+        <v>207.6001488937379</v>
       </c>
       <c r="N45" t="n">
-        <v>0</v>
+        <v>207.6001488937379</v>
       </c>
       <c r="O45" t="n">
-        <v>42.34905430330018</v>
+        <v>25.60474007003436</v>
       </c>
       <c r="P45" t="n">
-        <v>44.13217237922859</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q45" t="n">
-        <v>44.13217237922859</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/100000/Output_3_14.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/100000/Output_3_14.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>436309.1313572978</v>
+        <v>437318.3119170755</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>1207873.763444804</v>
+        <v>1151840.918742178</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>18603869.05421055</v>
+        <v>18548951.26311751</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>5529170.129877825</v>
+        <v>5538930.577904548</v>
       </c>
     </row>
     <row r="11">
@@ -701,25 +703,25 @@
         <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>47.13383555196372</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>53.51252900994975</v>
       </c>
       <c r="T2" t="n">
-        <v>172.8635119310596</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>207.6001488937379</v>
+        <v>53.51252900994975</v>
       </c>
       <c r="V2" t="n">
-        <v>207.6001488937379</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>207.6001488937379</v>
+        <v>53.51252900994975</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
@@ -735,16 +737,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>166.5331836498673</v>
+        <v>53.51252900994975</v>
       </c>
       <c r="C3" t="n">
-        <v>172.7084989883157</v>
+        <v>53.51252900994975</v>
       </c>
       <c r="D3" t="n">
-        <v>147.4450655646388</v>
+        <v>47.13383555196375</v>
       </c>
       <c r="E3" t="n">
-        <v>147.2847385201583</v>
+        <v>53.51252900994975</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -786,7 +788,7 @@
         <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
         <v>0</v>
@@ -832,16 +834,16 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>1.170977004479167</v>
       </c>
       <c r="I4" t="n">
-        <v>133.186967585368</v>
+        <v>53.51252900994975</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>53.51252900994975</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -856,7 +858,7 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q4" t="n">
         <v>0</v>
@@ -893,10 +895,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>207.6001488937379</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="C5" t="n">
-        <v>207.6001488937379</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
@@ -959,10 +961,10 @@
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>182.8542111456044</v>
+        <v>212.285385643442</v>
       </c>
       <c r="Y5" t="n">
-        <v>207.6001488937379</v>
+        <v>241.0142888776591</v>
       </c>
     </row>
     <row r="6">
@@ -975,13 +977,13 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>71.27563719245528</v>
       </c>
       <c r="F6" t="n">
         <v>0</v>
@@ -996,7 +998,7 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -1020,16 +1022,16 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
         <v>171.6831711038378</v>
       </c>
       <c r="T6" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U6" t="n">
-        <v>166.3691488993902</v>
+        <v>0</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -1041,7 +1043,7 @@
         <v>0</v>
       </c>
       <c r="Y6" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="7">
@@ -1072,40 +1074,40 @@
         <v>0</v>
       </c>
       <c r="I7" t="n">
+        <v>0</v>
+      </c>
+      <c r="J7" t="n">
+        <v>0</v>
+      </c>
+      <c r="K7" t="n">
+        <v>0</v>
+      </c>
+      <c r="L7" t="n">
+        <v>0</v>
+      </c>
+      <c r="M7" t="n">
+        <v>0</v>
+      </c>
+      <c r="N7" t="n">
+        <v>0</v>
+      </c>
+      <c r="O7" t="n">
+        <v>0</v>
+      </c>
+      <c r="P7" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>0</v>
+      </c>
+      <c r="R7" t="n">
+        <v>0</v>
+      </c>
+      <c r="S7" t="n">
+        <v>0</v>
+      </c>
+      <c r="T7" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="J7" t="n">
-        <v>0</v>
-      </c>
-      <c r="K7" t="n">
-        <v>0</v>
-      </c>
-      <c r="L7" t="n">
-        <v>0</v>
-      </c>
-      <c r="M7" t="n">
-        <v>0</v>
-      </c>
-      <c r="N7" t="n">
-        <v>0</v>
-      </c>
-      <c r="O7" t="n">
-        <v>0</v>
-      </c>
-      <c r="P7" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q7" t="n">
-        <v>0</v>
-      </c>
-      <c r="R7" t="n">
-        <v>0</v>
-      </c>
-      <c r="S7" t="n">
-        <v>0</v>
-      </c>
-      <c r="T7" t="n">
-        <v>0</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
@@ -1130,7 +1132,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>207.6001488937379</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
@@ -1139,10 +1141,10 @@
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>207.6001488937379</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>207.6001488937379</v>
+        <v>52.42556848774763</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
@@ -1175,13 +1177,13 @@
         <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R8" t="n">
         <v>149.8691179411497</v>
       </c>
       <c r="S8" t="n">
-        <v>32.98509320445466</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
@@ -1193,13 +1195,13 @@
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
     </row>
     <row r="9">
@@ -1209,16 +1211,16 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C9" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D9" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E9" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F9" t="n">
         <v>0</v>
@@ -1263,22 +1265,22 @@
         <v>0</v>
       </c>
       <c r="T9" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U9" t="n">
-        <v>44.67172947014224</v>
+        <v>0</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
       </c>
       <c r="W9" t="n">
-        <v>207.6001488937379</v>
+        <v>26.98580820205342</v>
       </c>
       <c r="X9" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y9" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="10">
@@ -1309,13 +1311,13 @@
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>17.55829564281238</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>93.35918011667277</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -1357,7 +1359,7 @@
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
     </row>
     <row r="11">
@@ -1367,13 +1369,13 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
@@ -1382,16 +1384,16 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>207.6001488937379</v>
+        <v>212.2853856434421</v>
       </c>
       <c r="H11" t="n">
-        <v>207.6001488937379</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>170.9049217909918</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K11" t="n">
         <v>0</v>
@@ -1433,7 +1435,7 @@
         <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>207.6001488937379</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
         <v>0</v>
@@ -1449,25 +1451,25 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C12" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D12" t="n">
         <v>147.4450655646388</v>
       </c>
       <c r="E12" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F12" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G12" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I12" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1512,10 +1514,10 @@
         <v>0</v>
       </c>
       <c r="X12" t="n">
-        <v>23.88858099527685</v>
+        <v>0</v>
       </c>
       <c r="Y12" t="n">
-        <v>205.6826957773044</v>
+        <v>69.05674881342119</v>
       </c>
     </row>
     <row r="13">
@@ -1528,7 +1530,7 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
@@ -1567,10 +1569,10 @@
         <v>0</v>
       </c>
       <c r="P13" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -1585,7 +1587,7 @@
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>44.30348359856712</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
@@ -1616,19 +1618,19 @@
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>11.0451046352973</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="G14" t="n">
-        <v>207.6001488937379</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="H14" t="n">
-        <v>207.6001488937379</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="I14" t="n">
-        <v>207.6001488937379</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J14" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K14" t="n">
         <v>0</v>
@@ -1649,16 +1651,16 @@
         <v>0</v>
       </c>
       <c r="Q14" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>1.809496073036132</v>
       </c>
       <c r="U14" t="n">
         <v>0</v>
@@ -1731,28 +1733,28 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
         <v>171.6831711038378</v>
       </c>
       <c r="T15" t="n">
-        <v>200.1647286948216</v>
+        <v>126.2480181108247</v>
       </c>
       <c r="U15" t="n">
-        <v>207.6001488937379</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V15" t="n">
-        <v>126.0487749817775</v>
+        <v>0</v>
       </c>
       <c r="W15" t="n">
         <v>0</v>
       </c>
       <c r="X15" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y15" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="16">
@@ -1777,13 +1779,13 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>17.55829564281238</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>14.83685490770591</v>
       </c>
       <c r="J16" t="n">
         <v>93.35918011667277</v>
@@ -1804,7 +1806,7 @@
         <v>0</v>
       </c>
       <c r="P16" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q16" t="n">
         <v>0</v>
@@ -1844,28 +1846,28 @@
         <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>207.6001488937379</v>
+        <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="E17" t="n">
         <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="G17" t="n">
         <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>202.2946864288972</v>
       </c>
       <c r="J17" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K17" t="n">
         <v>0</v>
@@ -1889,16 +1891,16 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R17" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>207.6001488937379</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>207.6001488937379</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>11.0451046352973</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -1923,7 +1925,7 @@
         <v>0</v>
       </c>
       <c r="C18" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D18" t="n">
         <v>0</v>
@@ -1968,28 +1970,28 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>18.60646024068284</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S18" t="n">
         <v>171.6831711038378</v>
       </c>
       <c r="T18" t="n">
-        <v>200.1647286948216</v>
+        <v>79.32306705084062</v>
       </c>
       <c r="U18" t="n">
-        <v>207.6001488937379</v>
+        <v>0</v>
       </c>
       <c r="V18" t="n">
-        <v>207.6001488937379</v>
+        <v>0</v>
       </c>
       <c r="W18" t="n">
         <v>0</v>
       </c>
       <c r="X18" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y18" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="19">
@@ -2044,19 +2046,19 @@
         <v>0</v>
       </c>
       <c r="Q19" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>47.02492433367365</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -2078,7 +2080,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>40.47627913313511</v>
+        <v>0</v>
       </c>
       <c r="C20" t="n">
         <v>241.0142888776591</v>
@@ -2102,7 +2104,7 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K20" t="n">
         <v>0</v>
@@ -2123,19 +2125,19 @@
         <v>0</v>
       </c>
       <c r="Q20" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>212.285385643442</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="V20" t="n">
         <v>241.0142888776591</v>
@@ -2147,7 +2149,7 @@
         <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -2157,22 +2159,22 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>5.008233692897374</v>
+        <v>0</v>
       </c>
       <c r="C21" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D21" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E21" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F21" t="n">
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
@@ -2181,7 +2183,7 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
@@ -2205,19 +2207,19 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S21" t="n">
         <v>171.6831711038378</v>
       </c>
       <c r="T21" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U21" t="n">
-        <v>0</v>
+        <v>167.5873293802472</v>
       </c>
       <c r="V21" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W21" t="n">
         <v>0</v>
@@ -2226,7 +2228,7 @@
         <v>0</v>
       </c>
       <c r="Y21" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22">
@@ -2284,19 +2286,19 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
+        <v>0</v>
+      </c>
+      <c r="S22" t="n">
+        <v>0</v>
+      </c>
+      <c r="T22" t="n">
+        <v>0</v>
+      </c>
+      <c r="U22" t="n">
+        <v>0</v>
+      </c>
+      <c r="V22" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="S22" t="n">
-        <v>0</v>
-      </c>
-      <c r="T22" t="n">
-        <v>0</v>
-      </c>
-      <c r="U22" t="n">
-        <v>0</v>
-      </c>
-      <c r="V22" t="n">
-        <v>0</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
@@ -2324,22 +2326,22 @@
         <v>0</v>
       </c>
       <c r="E23" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="F23" t="n">
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="H23" t="n">
-        <v>40.47627913313511</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K23" t="n">
         <v>0</v>
@@ -2360,10 +2362,10 @@
         <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -2372,16 +2374,16 @@
         <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>0</v>
+        <v>212.285385643442</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
       </c>
       <c r="W23" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X23" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="Y23" t="n">
         <v>0</v>
@@ -2394,13 +2396,13 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>140.1845926095645</v>
+        <v>0</v>
       </c>
       <c r="C24" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D24" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E24" t="n">
         <v>0</v>
@@ -2409,7 +2411,7 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>0</v>
+        <v>23.82307707298864</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
@@ -2418,7 +2420,7 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
         <v>0</v>
@@ -2442,16 +2444,16 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S24" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T24" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U24" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -2460,7 +2462,7 @@
         <v>241.0142888776591</v>
       </c>
       <c r="X24" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y24" t="n">
         <v>0</v>
@@ -2473,7 +2475,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
@@ -2521,7 +2523,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -2555,7 +2557,7 @@
         <v>0</v>
       </c>
       <c r="C26" t="n">
-        <v>80.33470701582003</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="D26" t="n">
         <v>0</v>
@@ -2567,7 +2569,7 @@
         <v>241.0142888776591</v>
       </c>
       <c r="G26" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -2597,7 +2599,7 @@
         <v>0</v>
       </c>
       <c r="Q26" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R26" t="n">
         <v>149.8691179411497</v>
@@ -2606,7 +2608,7 @@
         <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U26" t="n">
         <v>0</v>
@@ -2615,10 +2617,10 @@
         <v>0</v>
       </c>
       <c r="W26" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X26" t="n">
-        <v>0</v>
+        <v>52.42556848774763</v>
       </c>
       <c r="Y26" t="n">
         <v>0</v>
@@ -2631,7 +2633,7 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C27" t="n">
         <v>0</v>
@@ -2646,16 +2648,16 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>89.3681084119596</v>
+        <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
         <v>0</v>
@@ -2685,22 +2687,22 @@
         <v>0</v>
       </c>
       <c r="T27" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U27" t="n">
         <v>0</v>
       </c>
       <c r="V27" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W27" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="X27" t="n">
-        <v>0</v>
+        <v>155.6728463193873</v>
       </c>
       <c r="Y27" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="28">
@@ -2752,16 +2754,16 @@
         <v>0</v>
       </c>
       <c r="P28" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q28" t="n">
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>130.4655268502615</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -2789,76 +2791,76 @@
         </is>
       </c>
       <c r="B29" t="n">
+        <v>0</v>
+      </c>
+      <c r="C29" t="n">
+        <v>0</v>
+      </c>
+      <c r="D29" t="n">
+        <v>0</v>
+      </c>
+      <c r="E29" t="n">
+        <v>0</v>
+      </c>
+      <c r="F29" t="n">
+        <v>0</v>
+      </c>
+      <c r="G29" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="C29" t="n">
-        <v>0</v>
-      </c>
-      <c r="D29" t="n">
-        <v>0</v>
-      </c>
-      <c r="E29" t="n">
-        <v>0</v>
-      </c>
-      <c r="F29" t="n">
-        <v>0</v>
-      </c>
-      <c r="G29" t="n">
-        <v>0</v>
-      </c>
       <c r="H29" t="n">
+        <v>0</v>
+      </c>
+      <c r="I29" t="n">
+        <v>0</v>
+      </c>
+      <c r="J29" t="n">
+        <v>0</v>
+      </c>
+      <c r="K29" t="n">
+        <v>0</v>
+      </c>
+      <c r="L29" t="n">
+        <v>0</v>
+      </c>
+      <c r="M29" t="n">
+        <v>0</v>
+      </c>
+      <c r="N29" t="n">
+        <v>0</v>
+      </c>
+      <c r="O29" t="n">
+        <v>0</v>
+      </c>
+      <c r="P29" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q29" t="n">
+        <v>9.990699214544804</v>
+      </c>
+      <c r="R29" t="n">
+        <v>149.8691179411497</v>
+      </c>
+      <c r="S29" t="n">
+        <v>209.0200695862453</v>
+      </c>
+      <c r="T29" t="n">
+        <v>84.41978777916125</v>
+      </c>
+      <c r="U29" t="n">
+        <v>0</v>
+      </c>
+      <c r="V29" t="n">
+        <v>0</v>
+      </c>
+      <c r="W29" t="n">
+        <v>0</v>
+      </c>
+      <c r="X29" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="I29" t="n">
-        <v>0</v>
-      </c>
-      <c r="J29" t="n">
-        <v>11.94928935461252</v>
-      </c>
-      <c r="K29" t="n">
-        <v>0</v>
-      </c>
-      <c r="L29" t="n">
-        <v>0</v>
-      </c>
-      <c r="M29" t="n">
-        <v>0</v>
-      </c>
-      <c r="N29" t="n">
-        <v>0</v>
-      </c>
-      <c r="O29" t="n">
-        <v>0</v>
-      </c>
-      <c r="P29" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q29" t="n">
-        <v>0</v>
-      </c>
-      <c r="R29" t="n">
-        <v>0</v>
-      </c>
-      <c r="S29" t="n">
-        <v>0</v>
-      </c>
-      <c r="T29" t="n">
-        <v>0</v>
-      </c>
-      <c r="U29" t="n">
-        <v>0</v>
-      </c>
-      <c r="V29" t="n">
-        <v>0</v>
-      </c>
-      <c r="W29" t="n">
-        <v>200.3360962888297</v>
-      </c>
-      <c r="X29" t="n">
-        <v>0</v>
-      </c>
       <c r="Y29" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -2868,7 +2870,7 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C30" t="n">
         <v>0</v>
@@ -2877,22 +2879,22 @@
         <v>0</v>
       </c>
       <c r="E30" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F30" t="n">
-        <v>71.26307389894913</v>
+        <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H30" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
         <v>0</v>
@@ -2922,19 +2924,19 @@
         <v>0</v>
       </c>
       <c r="T30" t="n">
-        <v>200.1647286948216</v>
+        <v>29.79900896488251</v>
       </c>
       <c r="U30" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V30" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W30" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X30" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y30" t="n">
         <v>0</v>
@@ -2968,7 +2970,7 @@
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2992,13 +2994,13 @@
         <v>0</v>
       </c>
       <c r="Q31" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>47.02492433367365</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -3038,13 +3040,13 @@
         <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="H32" t="n">
-        <v>241.0142888776591</v>
+        <v>230.2038249569697</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -3080,19 +3082,19 @@
         <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U32" t="n">
-        <v>212.285385643442</v>
+        <v>0</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
       </c>
       <c r="W32" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X32" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="Y32" t="n">
         <v>0</v>
@@ -3105,7 +3107,7 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C33" t="n">
         <v>0</v>
@@ -3114,7 +3116,7 @@
         <v>0</v>
       </c>
       <c r="E33" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F33" t="n">
         <v>0</v>
@@ -3129,7 +3131,7 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K33" t="n">
         <v>0</v>
@@ -3153,10 +3155,10 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>12.6141149652589</v>
       </c>
       <c r="S33" t="n">
-        <v>70.64856914772007</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T33" t="n">
         <v>200.1647286948216</v>
@@ -3165,13 +3167,13 @@
         <v>225.9413820809748</v>
       </c>
       <c r="V33" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W33" t="n">
         <v>0</v>
       </c>
       <c r="X33" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y33" t="n">
         <v>0</v>
@@ -3193,61 +3195,61 @@
         <v>0</v>
       </c>
       <c r="E34" t="n">
+        <v>0</v>
+      </c>
+      <c r="F34" t="n">
+        <v>0</v>
+      </c>
+      <c r="G34" t="n">
+        <v>0</v>
+      </c>
+      <c r="H34" t="n">
+        <v>0</v>
+      </c>
+      <c r="I34" t="n">
+        <v>0</v>
+      </c>
+      <c r="J34" t="n">
+        <v>0</v>
+      </c>
+      <c r="K34" t="n">
+        <v>0</v>
+      </c>
+      <c r="L34" t="n">
+        <v>0</v>
+      </c>
+      <c r="M34" t="n">
+        <v>0</v>
+      </c>
+      <c r="N34" t="n">
+        <v>0</v>
+      </c>
+      <c r="O34" t="n">
+        <v>0</v>
+      </c>
+      <c r="P34" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q34" t="n">
+        <v>0</v>
+      </c>
+      <c r="R34" t="n">
+        <v>0</v>
+      </c>
+      <c r="S34" t="n">
+        <v>0</v>
+      </c>
+      <c r="T34" t="n">
+        <v>0</v>
+      </c>
+      <c r="U34" t="n">
+        <v>0</v>
+      </c>
+      <c r="V34" t="n">
+        <v>0</v>
+      </c>
+      <c r="W34" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="F34" t="n">
-        <v>0</v>
-      </c>
-      <c r="G34" t="n">
-        <v>0</v>
-      </c>
-      <c r="H34" t="n">
-        <v>0</v>
-      </c>
-      <c r="I34" t="n">
-        <v>0</v>
-      </c>
-      <c r="J34" t="n">
-        <v>0</v>
-      </c>
-      <c r="K34" t="n">
-        <v>0</v>
-      </c>
-      <c r="L34" t="n">
-        <v>0</v>
-      </c>
-      <c r="M34" t="n">
-        <v>0</v>
-      </c>
-      <c r="N34" t="n">
-        <v>0</v>
-      </c>
-      <c r="O34" t="n">
-        <v>0</v>
-      </c>
-      <c r="P34" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q34" t="n">
-        <v>0</v>
-      </c>
-      <c r="R34" t="n">
-        <v>0</v>
-      </c>
-      <c r="S34" t="n">
-        <v>0</v>
-      </c>
-      <c r="T34" t="n">
-        <v>0</v>
-      </c>
-      <c r="U34" t="n">
-        <v>0</v>
-      </c>
-      <c r="V34" t="n">
-        <v>0</v>
-      </c>
-      <c r="W34" t="n">
-        <v>0</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
@@ -3263,10 +3265,10 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="C35" t="n">
-        <v>212.2853856434421</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="D35" t="n">
         <v>0</v>
@@ -3284,7 +3286,7 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>0</v>
+        <v>202.2946864288972</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3308,7 +3310,7 @@
         <v>0</v>
       </c>
       <c r="Q35" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R35" t="n">
         <v>0</v>
@@ -3320,10 +3322,10 @@
         <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="V35" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="W35" t="n">
         <v>0</v>
@@ -3342,31 +3344,31 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C36" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D36" t="n">
         <v>0</v>
       </c>
       <c r="E36" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F36" t="n">
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>135.9049866160227</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H36" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
         <v>0</v>
@@ -3390,25 +3392,25 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
       </c>
       <c r="T36" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U36" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V36" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W36" t="n">
         <v>0</v>
       </c>
       <c r="X36" t="n">
-        <v>0</v>
+        <v>139.0780371879869</v>
       </c>
       <c r="Y36" t="n">
         <v>0</v>
@@ -3478,13 +3480,13 @@
         <v>0</v>
       </c>
       <c r="U37" t="n">
+        <v>0</v>
+      </c>
+      <c r="V37" t="n">
+        <v>0</v>
+      </c>
+      <c r="W37" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="V37" t="n">
-        <v>0</v>
-      </c>
-      <c r="W37" t="n">
-        <v>0</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
@@ -3509,13 +3511,13 @@
         <v>241.0142888776591</v>
       </c>
       <c r="E38" t="n">
-        <v>230.2038249569697</v>
+        <v>0</v>
       </c>
       <c r="F38" t="n">
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -3554,7 +3556,7 @@
         <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>223.0958495641314</v>
+        <v>212.285385643442</v>
       </c>
       <c r="U38" t="n">
         <v>241.0142888776591</v>
@@ -3582,25 +3584,25 @@
         <v>0</v>
       </c>
       <c r="C39" t="n">
-        <v>0</v>
+        <v>46.03546545923035</v>
       </c>
       <c r="D39" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E39" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F39" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G39" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H39" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3627,16 +3629,16 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S39" t="n">
-        <v>97.76646051984098</v>
+        <v>0</v>
       </c>
       <c r="T39" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U39" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -3645,10 +3647,10 @@
         <v>0</v>
       </c>
       <c r="X39" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y39" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40">
@@ -3667,61 +3669,61 @@
         <v>0</v>
       </c>
       <c r="E40" t="n">
+        <v>0</v>
+      </c>
+      <c r="F40" t="n">
+        <v>0</v>
+      </c>
+      <c r="G40" t="n">
+        <v>0</v>
+      </c>
+      <c r="H40" t="n">
+        <v>0</v>
+      </c>
+      <c r="I40" t="n">
+        <v>0</v>
+      </c>
+      <c r="J40" t="n">
+        <v>0</v>
+      </c>
+      <c r="K40" t="n">
+        <v>0</v>
+      </c>
+      <c r="L40" t="n">
+        <v>0</v>
+      </c>
+      <c r="M40" t="n">
+        <v>0</v>
+      </c>
+      <c r="N40" t="n">
+        <v>0</v>
+      </c>
+      <c r="O40" t="n">
+        <v>0</v>
+      </c>
+      <c r="P40" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q40" t="n">
+        <v>0</v>
+      </c>
+      <c r="R40" t="n">
+        <v>0</v>
+      </c>
+      <c r="S40" t="n">
+        <v>0</v>
+      </c>
+      <c r="T40" t="n">
+        <v>0</v>
+      </c>
+      <c r="U40" t="n">
+        <v>0</v>
+      </c>
+      <c r="V40" t="n">
+        <v>0</v>
+      </c>
+      <c r="W40" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="F40" t="n">
-        <v>0</v>
-      </c>
-      <c r="G40" t="n">
-        <v>0</v>
-      </c>
-      <c r="H40" t="n">
-        <v>0</v>
-      </c>
-      <c r="I40" t="n">
-        <v>0</v>
-      </c>
-      <c r="J40" t="n">
-        <v>0</v>
-      </c>
-      <c r="K40" t="n">
-        <v>0</v>
-      </c>
-      <c r="L40" t="n">
-        <v>0</v>
-      </c>
-      <c r="M40" t="n">
-        <v>0</v>
-      </c>
-      <c r="N40" t="n">
-        <v>0</v>
-      </c>
-      <c r="O40" t="n">
-        <v>0</v>
-      </c>
-      <c r="P40" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q40" t="n">
-        <v>0</v>
-      </c>
-      <c r="R40" t="n">
-        <v>0</v>
-      </c>
-      <c r="S40" t="n">
-        <v>0</v>
-      </c>
-      <c r="T40" t="n">
-        <v>0</v>
-      </c>
-      <c r="U40" t="n">
-        <v>0</v>
-      </c>
-      <c r="V40" t="n">
-        <v>0</v>
-      </c>
-      <c r="W40" t="n">
-        <v>0</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
@@ -3737,7 +3739,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="C41" t="n">
         <v>0</v>
@@ -3752,49 +3754,49 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
+        <v>0</v>
+      </c>
+      <c r="H41" t="n">
+        <v>0</v>
+      </c>
+      <c r="I41" t="n">
+        <v>0</v>
+      </c>
+      <c r="J41" t="n">
+        <v>11.94928935461252</v>
+      </c>
+      <c r="K41" t="n">
+        <v>0</v>
+      </c>
+      <c r="L41" t="n">
+        <v>0</v>
+      </c>
+      <c r="M41" t="n">
+        <v>0</v>
+      </c>
+      <c r="N41" t="n">
+        <v>0</v>
+      </c>
+      <c r="O41" t="n">
+        <v>0</v>
+      </c>
+      <c r="P41" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q41" t="n">
+        <v>9.990699214544804</v>
+      </c>
+      <c r="R41" t="n">
+        <v>0</v>
+      </c>
+      <c r="S41" t="n">
+        <v>208.2638363878125</v>
+      </c>
+      <c r="T41" t="n">
+        <v>223.0958495641314</v>
+      </c>
+      <c r="U41" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="H41" t="n">
-        <v>1.809496073036188</v>
-      </c>
-      <c r="I41" t="n">
-        <v>210.4758895704059</v>
-      </c>
-      <c r="J41" t="n">
-        <v>0</v>
-      </c>
-      <c r="K41" t="n">
-        <v>0</v>
-      </c>
-      <c r="L41" t="n">
-        <v>0</v>
-      </c>
-      <c r="M41" t="n">
-        <v>0</v>
-      </c>
-      <c r="N41" t="n">
-        <v>0</v>
-      </c>
-      <c r="O41" t="n">
-        <v>0</v>
-      </c>
-      <c r="P41" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q41" t="n">
-        <v>0</v>
-      </c>
-      <c r="R41" t="n">
-        <v>0</v>
-      </c>
-      <c r="S41" t="n">
-        <v>0</v>
-      </c>
-      <c r="T41" t="n">
-        <v>0</v>
-      </c>
-      <c r="U41" t="n">
-        <v>0</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -3816,10 +3818,10 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>145.5147652547677</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C42" t="n">
-        <v>0</v>
+        <v>164.7412283381771</v>
       </c>
       <c r="D42" t="n">
         <v>0</v>
@@ -3831,7 +3833,7 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
@@ -3840,7 +3842,7 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K42" t="n">
         <v>0</v>
@@ -3867,22 +3869,22 @@
         <v>0</v>
       </c>
       <c r="S42" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T42" t="n">
         <v>0</v>
       </c>
       <c r="U42" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
       </c>
       <c r="W42" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X42" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y42" t="n">
         <v>205.6826957773044</v>
@@ -3916,7 +3918,7 @@
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3955,7 +3957,7 @@
         <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
         <v>0</v>
@@ -3974,28 +3976,28 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="C44" t="n">
         <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>207.6001488937379</v>
+        <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="F44" t="n">
-        <v>0</v>
+        <v>202.2946864288972</v>
       </c>
       <c r="G44" t="n">
-        <v>207.6001488937379</v>
+        <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>207.6001488937379</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>172.8635119310595</v>
+        <v>0</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4043,7 +4045,7 @@
         <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
     </row>
     <row r="45">
@@ -4062,7 +4064,7 @@
         <v>0</v>
       </c>
       <c r="E45" t="n">
-        <v>0</v>
+        <v>99.52914681518099</v>
       </c>
       <c r="F45" t="n">
         <v>0</v>
@@ -4074,10 +4076,10 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K45" t="n">
         <v>0</v>
@@ -4104,22 +4106,22 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S45" t="n">
-        <v>84.52354068322154</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T45" t="n">
         <v>0</v>
       </c>
       <c r="U45" t="n">
-        <v>207.6001488937379</v>
+        <v>0</v>
       </c>
       <c r="V45" t="n">
-        <v>207.6001488937379</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W45" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X45" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y45" t="n">
         <v>0</v>
@@ -4304,76 +4306,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>16.60801191149903</v>
+        <v>4.28100232079598</v>
       </c>
       <c r="C2" t="n">
-        <v>16.60801191149903</v>
+        <v>4.28100232079598</v>
       </c>
       <c r="D2" t="n">
-        <v>16.60801191149903</v>
+        <v>4.28100232079598</v>
       </c>
       <c r="E2" t="n">
-        <v>16.60801191149903</v>
+        <v>4.28100232079598</v>
       </c>
       <c r="F2" t="n">
-        <v>16.60801191149903</v>
+        <v>4.28100232079598</v>
       </c>
       <c r="G2" t="n">
-        <v>16.60801191149903</v>
+        <v>4.28100232079598</v>
       </c>
       <c r="H2" t="n">
-        <v>16.60801191149903</v>
+        <v>4.28100232079598</v>
       </c>
       <c r="I2" t="n">
-        <v>16.60801191149903</v>
+        <v>4.28100232079598</v>
       </c>
       <c r="J2" t="n">
-        <v>16.60801191149903</v>
+        <v>4.28100232079598</v>
       </c>
       <c r="K2" t="n">
-        <v>16.60801191149903</v>
+        <v>4.28100232079598</v>
       </c>
       <c r="L2" t="n">
-        <v>196.6838634961576</v>
+        <v>57.25840604064623</v>
       </c>
       <c r="M2" t="n">
-        <v>402.2080109009581</v>
+        <v>57.25840604064623</v>
       </c>
       <c r="N2" t="n">
-        <v>607.7321583057586</v>
+        <v>108.0953086000985</v>
       </c>
       <c r="O2" t="n">
-        <v>756.9271084484067</v>
+        <v>161.0727123199487</v>
       </c>
       <c r="P2" t="n">
-        <v>830.4005955749516</v>
+        <v>214.050116039799</v>
       </c>
       <c r="Q2" t="n">
-        <v>820.3089802067245</v>
+        <v>214.050116039799</v>
       </c>
       <c r="R2" t="n">
-        <v>820.3089802067245</v>
+        <v>166.4401811388256</v>
       </c>
       <c r="S2" t="n">
-        <v>820.3089802067245</v>
+        <v>112.3871215328157</v>
       </c>
       <c r="T2" t="n">
-        <v>645.6993721955532</v>
+        <v>112.3871215328157</v>
       </c>
       <c r="U2" t="n">
-        <v>436.0022521008685</v>
+        <v>58.33406192680583</v>
       </c>
       <c r="V2" t="n">
-        <v>226.3051320061838</v>
+        <v>58.33406192680583</v>
       </c>
       <c r="W2" t="n">
-        <v>16.60801191149903</v>
+        <v>4.28100232079598</v>
       </c>
       <c r="X2" t="n">
-        <v>16.60801191149903</v>
+        <v>4.28100232079598</v>
       </c>
       <c r="Y2" t="n">
-        <v>16.60801191149903</v>
+        <v>4.28100232079598</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>488.7679140055524</v>
+        <v>159.9970564337892</v>
       </c>
       <c r="C3" t="n">
-        <v>314.3148847244254</v>
+        <v>105.9439968277793</v>
       </c>
       <c r="D3" t="n">
-        <v>165.3804750631741</v>
+        <v>58.33406192680583</v>
       </c>
       <c r="E3" t="n">
-        <v>16.60801191149903</v>
+        <v>4.28100232079598</v>
       </c>
       <c r="F3" t="n">
-        <v>16.60801191149903</v>
+        <v>4.28100232079598</v>
       </c>
       <c r="G3" t="n">
-        <v>16.60801191149903</v>
+        <v>4.28100232079598</v>
       </c>
       <c r="H3" t="n">
-        <v>16.60801191149903</v>
+        <v>4.28100232079598</v>
       </c>
       <c r="I3" t="n">
-        <v>16.60801191149903</v>
+        <v>4.28100232079598</v>
       </c>
       <c r="J3" t="n">
-        <v>16.60801191149903</v>
+        <v>4.28100232079598</v>
       </c>
       <c r="K3" t="n">
-        <v>141.9655719693364</v>
+        <v>4.28100232079598</v>
       </c>
       <c r="L3" t="n">
-        <v>347.4897193741369</v>
+        <v>4.28100232079598</v>
       </c>
       <c r="M3" t="n">
-        <v>553.0138667789374</v>
+        <v>4.28100232079598</v>
       </c>
       <c r="N3" t="n">
-        <v>758.5380141837379</v>
+        <v>55.11790488024824</v>
       </c>
       <c r="O3" t="n">
-        <v>758.5380141837379</v>
+        <v>108.0953086000985</v>
       </c>
       <c r="P3" t="n">
-        <v>761.0060370616222</v>
+        <v>161.0727123199487</v>
       </c>
       <c r="Q3" t="n">
-        <v>830.4005955749516</v>
+        <v>214.050116039799</v>
       </c>
       <c r="R3" t="n">
-        <v>830.4005955749516</v>
+        <v>214.050116039799</v>
       </c>
       <c r="S3" t="n">
-        <v>656.9832510256205</v>
+        <v>214.050116039799</v>
       </c>
       <c r="T3" t="n">
-        <v>656.9832510256205</v>
+        <v>214.050116039799</v>
       </c>
       <c r="U3" t="n">
-        <v>656.9832510256205</v>
+        <v>214.050116039799</v>
       </c>
       <c r="V3" t="n">
-        <v>656.9832510256205</v>
+        <v>214.050116039799</v>
       </c>
       <c r="W3" t="n">
-        <v>656.9832510256205</v>
+        <v>214.050116039799</v>
       </c>
       <c r="X3" t="n">
-        <v>656.9832510256205</v>
+        <v>214.050116039799</v>
       </c>
       <c r="Y3" t="n">
-        <v>656.9832510256205</v>
+        <v>214.050116039799</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>151.1403024017698</v>
+        <v>136.0643627756056</v>
       </c>
       <c r="C4" t="n">
-        <v>151.1403024017698</v>
+        <v>136.0643627756056</v>
       </c>
       <c r="D4" t="n">
-        <v>151.1403024017698</v>
+        <v>136.0643627756056</v>
       </c>
       <c r="E4" t="n">
-        <v>151.1403024017698</v>
+        <v>136.0643627756056</v>
       </c>
       <c r="F4" t="n">
-        <v>151.1403024017698</v>
+        <v>136.0643627756056</v>
       </c>
       <c r="G4" t="n">
-        <v>151.1403024017698</v>
+        <v>136.0643627756056</v>
       </c>
       <c r="H4" t="n">
-        <v>151.1403024017698</v>
+        <v>134.8815577205762</v>
       </c>
       <c r="I4" t="n">
-        <v>16.60801191149903</v>
+        <v>80.82849811456629</v>
       </c>
       <c r="J4" t="n">
-        <v>16.60801191149903</v>
+        <v>26.77543850855644</v>
       </c>
       <c r="K4" t="n">
-        <v>16.60801191149903</v>
+        <v>4.28100232079598</v>
       </c>
       <c r="L4" t="n">
-        <v>43.92213691921201</v>
+        <v>31.59512732850896</v>
       </c>
       <c r="M4" t="n">
-        <v>83.11017511143419</v>
+        <v>70.78316552073113</v>
       </c>
       <c r="N4" t="n">
-        <v>126.8010257668705</v>
+        <v>114.4740161761674</v>
       </c>
       <c r="O4" t="n">
-        <v>151.1403024017698</v>
+        <v>138.8132928110667</v>
       </c>
       <c r="P4" t="n">
-        <v>151.1403024017698</v>
+        <v>136.0643627756056</v>
       </c>
       <c r="Q4" t="n">
-        <v>151.1403024017698</v>
+        <v>136.0643627756056</v>
       </c>
       <c r="R4" t="n">
-        <v>151.1403024017698</v>
+        <v>136.0643627756056</v>
       </c>
       <c r="S4" t="n">
-        <v>151.1403024017698</v>
+        <v>136.0643627756056</v>
       </c>
       <c r="T4" t="n">
-        <v>151.1403024017698</v>
+        <v>136.0643627756056</v>
       </c>
       <c r="U4" t="n">
-        <v>151.1403024017698</v>
+        <v>136.0643627756056</v>
       </c>
       <c r="V4" t="n">
-        <v>151.1403024017698</v>
+        <v>136.0643627756056</v>
       </c>
       <c r="W4" t="n">
-        <v>151.1403024017698</v>
+        <v>136.0643627756056</v>
       </c>
       <c r="X4" t="n">
-        <v>151.1403024017698</v>
+        <v>136.0643627756056</v>
       </c>
       <c r="Y4" t="n">
-        <v>151.1403024017698</v>
+        <v>136.0643627756056</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>226.3051320061838</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="C5" t="n">
-        <v>16.60801191149903</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D5" t="n">
-        <v>16.60801191149903</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E5" t="n">
-        <v>16.60801191149903</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F5" t="n">
-        <v>16.60801191149903</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G5" t="n">
-        <v>16.60801191149903</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H5" t="n">
-        <v>16.60801191149903</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I5" t="n">
-        <v>16.60801191149903</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J5" t="n">
-        <v>16.60801191149903</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K5" t="n">
-        <v>16.60801191149903</v>
+        <v>122.2961490211351</v>
       </c>
       <c r="L5" t="n">
-        <v>196.6838634961576</v>
+        <v>302.3720006057937</v>
       </c>
       <c r="M5" t="n">
-        <v>402.2080109009581</v>
+        <v>519.3476278686978</v>
       </c>
       <c r="N5" t="n">
-        <v>591.5455901402526</v>
+        <v>725.2021500759372</v>
       </c>
       <c r="O5" t="n">
-        <v>740.7405402829006</v>
+        <v>874.3971002185853</v>
       </c>
       <c r="P5" t="n">
-        <v>830.4005955749516</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q5" t="n">
-        <v>830.4005955749516</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R5" t="n">
-        <v>830.4005955749516</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S5" t="n">
-        <v>830.4005955749516</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T5" t="n">
-        <v>830.4005955749516</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U5" t="n">
-        <v>830.4005955749516</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V5" t="n">
-        <v>830.4005955749516</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W5" t="n">
-        <v>830.4005955749516</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X5" t="n">
-        <v>645.6993721955532</v>
+        <v>749.627473042513</v>
       </c>
       <c r="Y5" t="n">
-        <v>436.0022521008685</v>
+        <v>506.1786963984129</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4622,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>17.36214456428474</v>
+        <v>414.6641751762832</v>
       </c>
       <c r="C6" t="n">
-        <v>17.36214456428474</v>
+        <v>240.2111458951562</v>
       </c>
       <c r="D6" t="n">
-        <v>17.36214456428474</v>
+        <v>91.27673623390493</v>
       </c>
       <c r="E6" t="n">
-        <v>17.36214456428474</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F6" t="n">
-        <v>17.36214456428474</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G6" t="n">
-        <v>17.36214456428474</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H6" t="n">
-        <v>17.36214456428474</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I6" t="n">
-        <v>17.36214456428474</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J6" t="n">
-        <v>16.60801191149903</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K6" t="n">
-        <v>141.9655719693364</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L6" t="n">
-        <v>141.9655719693364</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="M6" t="n">
-        <v>167.3142646386704</v>
+        <v>383.2428491569326</v>
       </c>
       <c r="N6" t="n">
-        <v>372.838412043471</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="O6" t="n">
-        <v>578.3625594482714</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P6" t="n">
-        <v>761.0060370616222</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q6" t="n">
-        <v>830.4005955749516</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R6" t="n">
-        <v>729.2310661278373</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S6" t="n">
-        <v>555.8137215785061</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="T6" t="n">
-        <v>353.6271269372722</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="U6" t="n">
-        <v>185.5774815843528</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="V6" t="n">
-        <v>185.5774815843528</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="W6" t="n">
-        <v>185.5774815843528</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="X6" t="n">
-        <v>185.5774815843528</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="Y6" t="n">
-        <v>185.5774815843528</v>
+        <v>582.8795121963512</v>
       </c>
     </row>
     <row r="7">
@@ -4699,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>151.1403024017698</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C7" t="n">
-        <v>151.1403024017698</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D7" t="n">
-        <v>151.1403024017698</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E7" t="n">
-        <v>151.1403024017698</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F7" t="n">
-        <v>151.1403024017698</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G7" t="n">
-        <v>151.1403024017698</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H7" t="n">
-        <v>151.1403024017698</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I7" t="n">
-        <v>16.60801191149903</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J7" t="n">
-        <v>16.60801191149903</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K7" t="n">
-        <v>16.60801191149903</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L7" t="n">
-        <v>43.92213691921201</v>
+        <v>46.5952681179257</v>
       </c>
       <c r="M7" t="n">
-        <v>83.11017511143419</v>
+        <v>85.78330631014788</v>
       </c>
       <c r="N7" t="n">
-        <v>126.8010257668705</v>
+        <v>129.4741569655842</v>
       </c>
       <c r="O7" t="n">
-        <v>151.1403024017698</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="P7" t="n">
-        <v>151.1403024017698</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q7" t="n">
-        <v>151.1403024017698</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R7" t="n">
-        <v>151.1403024017698</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S7" t="n">
-        <v>151.1403024017698</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T7" t="n">
-        <v>151.1403024017698</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="U7" t="n">
-        <v>151.1403024017698</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V7" t="n">
-        <v>151.1403024017698</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W7" t="n">
-        <v>151.1403024017698</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X7" t="n">
-        <v>151.1403024017698</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y7" t="n">
-        <v>151.1403024017698</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>436.0022521008685</v>
+        <v>72.23626279480629</v>
       </c>
       <c r="C8" t="n">
-        <v>436.0022521008685</v>
+        <v>72.23626279480629</v>
       </c>
       <c r="D8" t="n">
-        <v>436.0022521008685</v>
+        <v>72.23626279480629</v>
       </c>
       <c r="E8" t="n">
-        <v>226.3051320061838</v>
+        <v>72.23626279480629</v>
       </c>
       <c r="F8" t="n">
-        <v>16.60801191149903</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G8" t="n">
-        <v>16.60801191149903</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H8" t="n">
-        <v>16.60801191149903</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I8" t="n">
-        <v>16.60801191149903</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J8" t="n">
-        <v>16.60801191149903</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K8" t="n">
-        <v>90.08149903804397</v>
+        <v>122.2961490211351</v>
       </c>
       <c r="L8" t="n">
-        <v>270.1573506227026</v>
+        <v>302.3720006057937</v>
       </c>
       <c r="M8" t="n">
-        <v>475.681498027503</v>
+        <v>519.3476278686978</v>
       </c>
       <c r="N8" t="n">
-        <v>681.2056454323035</v>
+        <v>725.2021500759372</v>
       </c>
       <c r="O8" t="n">
-        <v>830.4005955749516</v>
+        <v>874.3971002185853</v>
       </c>
       <c r="P8" t="n">
-        <v>830.4005955749516</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q8" t="n">
-        <v>830.4005955749516</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R8" t="n">
-        <v>679.0176481596488</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="S8" t="n">
-        <v>645.6993721955532</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="T8" t="n">
-        <v>645.6993721955532</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="U8" t="n">
-        <v>645.6993721955532</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="V8" t="n">
-        <v>645.6993721955532</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="W8" t="n">
-        <v>645.6993721955532</v>
+        <v>559.1338160830064</v>
       </c>
       <c r="X8" t="n">
-        <v>645.6993721955532</v>
+        <v>559.1338160830064</v>
       </c>
       <c r="Y8" t="n">
-        <v>645.6993721955532</v>
+        <v>315.6850394389064</v>
       </c>
     </row>
     <row r="9">
@@ -4857,76 +4859,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>165.5424215727503</v>
+        <v>352.9716273967953</v>
       </c>
       <c r="C9" t="n">
-        <v>165.5424215727503</v>
+        <v>178.5185981156682</v>
       </c>
       <c r="D9" t="n">
-        <v>16.60801191149903</v>
+        <v>178.5185981156682</v>
       </c>
       <c r="E9" t="n">
-        <v>16.60801191149903</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F9" t="n">
-        <v>16.60801191149903</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G9" t="n">
-        <v>16.60801191149903</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H9" t="n">
-        <v>16.60801191149903</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I9" t="n">
-        <v>16.60801191149903</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J9" t="n">
-        <v>16.60801191149903</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K9" t="n">
-        <v>141.9655719693364</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L9" t="n">
-        <v>141.9655719693364</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="M9" t="n">
-        <v>347.4897193741369</v>
+        <v>234.810827406191</v>
       </c>
       <c r="N9" t="n">
-        <v>553.0138667789374</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="O9" t="n">
-        <v>647.7571179616007</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P9" t="n">
-        <v>830.4005955749516</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q9" t="n">
-        <v>830.4005955749516</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R9" t="n">
-        <v>830.4005955749516</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S9" t="n">
-        <v>830.4005955749516</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T9" t="n">
-        <v>628.2140009337177</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U9" t="n">
-        <v>583.0910418729679</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V9" t="n">
-        <v>583.0910418729679</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W9" t="n">
-        <v>373.3939217782831</v>
+        <v>936.7987633873499</v>
       </c>
       <c r="X9" t="n">
-        <v>165.5424215727503</v>
+        <v>728.9472631818171</v>
       </c>
       <c r="Y9" t="n">
-        <v>165.5424215727503</v>
+        <v>521.1869644168632</v>
       </c>
     </row>
     <row r="10">
@@ -4936,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>151.1403024017698</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C10" t="n">
-        <v>151.1403024017698</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D10" t="n">
-        <v>151.1403024017698</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E10" t="n">
-        <v>151.1403024017698</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F10" t="n">
-        <v>151.1403024017698</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G10" t="n">
-        <v>151.1403024017698</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H10" t="n">
-        <v>151.1403024017698</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I10" t="n">
-        <v>133.4046502373128</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J10" t="n">
-        <v>39.10244809925949</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K10" t="n">
-        <v>16.60801191149903</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L10" t="n">
-        <v>43.92213691921201</v>
+        <v>46.5952681179257</v>
       </c>
       <c r="M10" t="n">
-        <v>83.11017511143419</v>
+        <v>85.78330631014788</v>
       </c>
       <c r="N10" t="n">
-        <v>126.8010257668705</v>
+        <v>129.4741569655842</v>
       </c>
       <c r="O10" t="n">
-        <v>151.1403024017698</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="P10" t="n">
-        <v>151.1403024017698</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q10" t="n">
-        <v>151.1403024017698</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R10" t="n">
-        <v>151.1403024017698</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S10" t="n">
-        <v>151.1403024017698</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T10" t="n">
-        <v>151.1403024017698</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U10" t="n">
-        <v>151.1403024017698</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V10" t="n">
-        <v>151.1403024017698</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W10" t="n">
-        <v>151.1403024017698</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="X10" t="n">
-        <v>151.1403024017698</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Y10" t="n">
-        <v>151.1403024017698</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="11">
@@ -5015,76 +5017,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>620.7034754802669</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="C11" t="n">
-        <v>620.7034754802669</v>
+        <v>477.1596022224361</v>
       </c>
       <c r="D11" t="n">
-        <v>620.7034754802669</v>
+        <v>233.7108255783361</v>
       </c>
       <c r="E11" t="n">
-        <v>620.7034754802669</v>
+        <v>233.7108255783361</v>
       </c>
       <c r="F11" t="n">
-        <v>620.7034754802669</v>
+        <v>233.7108255783361</v>
       </c>
       <c r="G11" t="n">
-        <v>411.0063553855821</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H11" t="n">
-        <v>201.3092352908974</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I11" t="n">
-        <v>28.67800115858238</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J11" t="n">
-        <v>16.60801191149903</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K11" t="n">
-        <v>119.6230178224214</v>
+        <v>122.2961490211351</v>
       </c>
       <c r="L11" t="n">
-        <v>299.69886940708</v>
+        <v>302.3720006057937</v>
       </c>
       <c r="M11" t="n">
-        <v>386.0214427354521</v>
+        <v>519.3476278686978</v>
       </c>
       <c r="N11" t="n">
-        <v>591.5455901402526</v>
+        <v>725.2021500759372</v>
       </c>
       <c r="O11" t="n">
-        <v>740.7405402829006</v>
+        <v>874.3971002185853</v>
       </c>
       <c r="P11" t="n">
-        <v>830.4005955749516</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q11" t="n">
-        <v>830.4005955749516</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R11" t="n">
-        <v>830.4005955749516</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S11" t="n">
-        <v>830.4005955749516</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T11" t="n">
-        <v>830.4005955749516</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U11" t="n">
-        <v>830.4005955749516</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V11" t="n">
-        <v>830.4005955749516</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W11" t="n">
-        <v>830.4005955749516</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X11" t="n">
-        <v>620.7034754802669</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Y11" t="n">
-        <v>620.7034754802669</v>
+        <v>964.0571555106362</v>
       </c>
     </row>
     <row r="12">
@@ -5094,76 +5096,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>430.2950799967208</v>
+        <v>726.0875267598396</v>
       </c>
       <c r="C12" t="n">
-        <v>255.8420507155938</v>
+        <v>726.0875267598396</v>
       </c>
       <c r="D12" t="n">
-        <v>106.9076410543425</v>
+        <v>577.1531170985884</v>
       </c>
       <c r="E12" t="n">
-        <v>106.9076410543425</v>
+        <v>417.9156620931329</v>
       </c>
       <c r="F12" t="n">
-        <v>106.9076410543425</v>
+        <v>271.3811041200179</v>
       </c>
       <c r="G12" t="n">
-        <v>106.9076410543425</v>
+        <v>132.6502787026334</v>
       </c>
       <c r="H12" t="n">
-        <v>106.9076410543425</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I12" t="n">
-        <v>16.60801191149903</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J12" t="n">
-        <v>16.60801191149903</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K12" t="n">
-        <v>141.9655719693364</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L12" t="n">
-        <v>141.9655719693364</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="M12" t="n">
-        <v>347.4897193741369</v>
+        <v>487.8483949674443</v>
       </c>
       <c r="N12" t="n">
-        <v>553.0138667789374</v>
+        <v>726.4525409563269</v>
       </c>
       <c r="O12" t="n">
-        <v>578.3625594482714</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P12" t="n">
-        <v>761.0060370616222</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q12" t="n">
-        <v>830.4005955749516</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R12" t="n">
-        <v>830.4005955749516</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S12" t="n">
-        <v>830.4005955749516</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T12" t="n">
-        <v>830.4005955749516</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U12" t="n">
-        <v>830.4005955749516</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V12" t="n">
-        <v>830.4005955749516</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W12" t="n">
-        <v>830.4005955749516</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X12" t="n">
-        <v>806.2707157817426</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Y12" t="n">
-        <v>598.5104170167888</v>
+        <v>894.3028637799077</v>
       </c>
     </row>
     <row r="13">
@@ -5173,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>16.60801191149903</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="C13" t="n">
-        <v>16.60801191149903</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D13" t="n">
-        <v>16.60801191149903</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E13" t="n">
-        <v>16.60801191149903</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F13" t="n">
-        <v>16.60801191149903</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G13" t="n">
-        <v>16.60801191149903</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H13" t="n">
-        <v>16.60801191149903</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I13" t="n">
-        <v>16.60801191149903</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J13" t="n">
-        <v>16.60801191149903</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K13" t="n">
-        <v>16.60801191149903</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L13" t="n">
-        <v>43.92213691921201</v>
+        <v>46.5952681179257</v>
       </c>
       <c r="M13" t="n">
-        <v>83.11017511143419</v>
+        <v>85.78330631014788</v>
       </c>
       <c r="N13" t="n">
-        <v>126.8010257668705</v>
+        <v>129.4741569655842</v>
       </c>
       <c r="O13" t="n">
-        <v>151.1403024017698</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="P13" t="n">
-        <v>148.3913723663086</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q13" t="n">
-        <v>61.35900544540522</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R13" t="n">
-        <v>61.35900544540522</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S13" t="n">
-        <v>61.35900544540522</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T13" t="n">
-        <v>61.35900544540522</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U13" t="n">
-        <v>61.35900544540522</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V13" t="n">
-        <v>16.60801191149903</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W13" t="n">
-        <v>16.60801191149903</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="X13" t="n">
-        <v>16.60801191149903</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Y13" t="n">
-        <v>16.60801191149903</v>
+        <v>153.8134336004835</v>
       </c>
     </row>
     <row r="14">
@@ -5252,76 +5254,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>668.9260327914218</v>
+        <v>962.2293816994886</v>
       </c>
       <c r="C14" t="n">
-        <v>668.9260327914218</v>
+        <v>962.2293816994886</v>
       </c>
       <c r="D14" t="n">
-        <v>668.9260327914218</v>
+        <v>962.2293816994886</v>
       </c>
       <c r="E14" t="n">
-        <v>668.9260327914218</v>
+        <v>962.2293816994886</v>
       </c>
       <c r="F14" t="n">
-        <v>657.7693614426366</v>
+        <v>718.7806050553886</v>
       </c>
       <c r="G14" t="n">
-        <v>448.0722413479519</v>
+        <v>475.3318284112885</v>
       </c>
       <c r="H14" t="n">
-        <v>238.3751212532671</v>
+        <v>231.8830517671884</v>
       </c>
       <c r="I14" t="n">
-        <v>28.67800115858238</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J14" t="n">
-        <v>16.60801191149903</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K14" t="n">
-        <v>16.60801191149903</v>
+        <v>122.2961490211351</v>
       </c>
       <c r="L14" t="n">
-        <v>180.4972953306516</v>
+        <v>302.3720006057937</v>
       </c>
       <c r="M14" t="n">
-        <v>386.0214427354521</v>
+        <v>519.3476278686978</v>
       </c>
       <c r="N14" t="n">
-        <v>591.5455901402526</v>
+        <v>725.2021500759372</v>
       </c>
       <c r="O14" t="n">
-        <v>740.7405402829006</v>
+        <v>874.3971002185853</v>
       </c>
       <c r="P14" t="n">
-        <v>830.4005955749516</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q14" t="n">
-        <v>820.3089802067245</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R14" t="n">
-        <v>668.9260327914218</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S14" t="n">
-        <v>668.9260327914218</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T14" t="n">
-        <v>668.9260327914218</v>
+        <v>962.2293816994886</v>
       </c>
       <c r="U14" t="n">
-        <v>668.9260327914218</v>
+        <v>962.2293816994886</v>
       </c>
       <c r="V14" t="n">
-        <v>668.9260327914218</v>
+        <v>962.2293816994886</v>
       </c>
       <c r="W14" t="n">
-        <v>668.9260327914218</v>
+        <v>962.2293816994886</v>
       </c>
       <c r="X14" t="n">
-        <v>668.9260327914218</v>
+        <v>962.2293816994886</v>
       </c>
       <c r="Y14" t="n">
-        <v>668.9260327914218</v>
+        <v>962.2293816994886</v>
       </c>
     </row>
     <row r="15">
@@ -5331,76 +5333,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>16.60801191149903</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C15" t="n">
-        <v>16.60801191149903</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D15" t="n">
-        <v>16.60801191149903</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E15" t="n">
-        <v>16.60801191149903</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F15" t="n">
-        <v>16.60801191149903</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G15" t="n">
-        <v>16.60801191149903</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H15" t="n">
-        <v>16.60801191149903</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I15" t="n">
-        <v>16.60801191149903</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J15" t="n">
-        <v>16.60801191149903</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K15" t="n">
-        <v>141.9655719693364</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L15" t="n">
-        <v>167.3142646386704</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M15" t="n">
-        <v>372.838412043471</v>
+        <v>542.809531908403</v>
       </c>
       <c r="N15" t="n">
-        <v>372.838412043471</v>
+        <v>542.809531908403</v>
       </c>
       <c r="O15" t="n">
-        <v>578.3625594482714</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P15" t="n">
-        <v>761.0060370616222</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q15" t="n">
-        <v>830.4005955749516</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R15" t="n">
-        <v>729.2310661278373</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S15" t="n">
-        <v>555.8137215785061</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="T15" t="n">
-        <v>353.6271269372722</v>
+        <v>663.1165603443104</v>
       </c>
       <c r="U15" t="n">
-        <v>143.9300068425874</v>
+        <v>434.8929420806995</v>
       </c>
       <c r="V15" t="n">
-        <v>16.60801191149903</v>
+        <v>434.8929420806995</v>
       </c>
       <c r="W15" t="n">
-        <v>16.60801191149903</v>
+        <v>434.8929420806995</v>
       </c>
       <c r="X15" t="n">
-        <v>16.60801191149903</v>
+        <v>227.0414418751666</v>
       </c>
       <c r="Y15" t="n">
-        <v>16.60801191149903</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="16">
@@ -5410,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>151.1403024017698</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="C16" t="n">
-        <v>151.1403024017698</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="D16" t="n">
-        <v>151.1403024017698</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="E16" t="n">
-        <v>151.1403024017698</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="F16" t="n">
-        <v>151.1403024017698</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="G16" t="n">
-        <v>133.4046502373128</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="H16" t="n">
-        <v>133.4046502373128</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="I16" t="n">
-        <v>133.4046502373128</v>
+        <v>136.0777814360265</v>
       </c>
       <c r="J16" t="n">
-        <v>39.10244809925949</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="K16" t="n">
-        <v>16.60801191149903</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L16" t="n">
-        <v>43.92213691921201</v>
+        <v>46.5952681179257</v>
       </c>
       <c r="M16" t="n">
-        <v>83.11017511143419</v>
+        <v>85.78330631014788</v>
       </c>
       <c r="N16" t="n">
-        <v>126.8010257668705</v>
+        <v>129.4741569655842</v>
       </c>
       <c r="O16" t="n">
-        <v>151.1403024017698</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="P16" t="n">
-        <v>151.1403024017698</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="Q16" t="n">
-        <v>151.1403024017698</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="R16" t="n">
-        <v>151.1403024017698</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="S16" t="n">
-        <v>151.1403024017698</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="T16" t="n">
-        <v>151.1403024017698</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="U16" t="n">
-        <v>151.1403024017698</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="V16" t="n">
-        <v>151.1403024017698</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="W16" t="n">
-        <v>151.1403024017698</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="X16" t="n">
-        <v>151.1403024017698</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="Y16" t="n">
-        <v>151.1403024017698</v>
+        <v>151.0645035650224</v>
       </c>
     </row>
     <row r="17">
@@ -5489,76 +5491,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>238.3751212532671</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="C17" t="n">
-        <v>28.67800115858238</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="D17" t="n">
-        <v>28.67800115858238</v>
+        <v>710.516763498309</v>
       </c>
       <c r="E17" t="n">
-        <v>28.67800115858238</v>
+        <v>710.516763498309</v>
       </c>
       <c r="F17" t="n">
-        <v>28.67800115858238</v>
+        <v>467.067986854209</v>
       </c>
       <c r="G17" t="n">
-        <v>28.67800115858238</v>
+        <v>467.067986854209</v>
       </c>
       <c r="H17" t="n">
-        <v>28.67800115858238</v>
+        <v>223.6192102101089</v>
       </c>
       <c r="I17" t="n">
-        <v>28.67800115858238</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J17" t="n">
-        <v>16.60801191149903</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K17" t="n">
-        <v>16.60801191149903</v>
+        <v>122.2961490211351</v>
       </c>
       <c r="L17" t="n">
-        <v>196.6838634961576</v>
+        <v>302.3720006057937</v>
       </c>
       <c r="M17" t="n">
-        <v>402.2080109009581</v>
+        <v>519.3476278686978</v>
       </c>
       <c r="N17" t="n">
-        <v>607.7321583057586</v>
+        <v>725.2021500759372</v>
       </c>
       <c r="O17" t="n">
-        <v>756.9271084484067</v>
+        <v>874.3971002185853</v>
       </c>
       <c r="P17" t="n">
-        <v>830.4005955749516</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q17" t="n">
-        <v>820.3089802067245</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R17" t="n">
-        <v>668.9260327914218</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="S17" t="n">
-        <v>459.228912696737</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="T17" t="n">
-        <v>249.5317926020523</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="U17" t="n">
-        <v>238.3751212532671</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="V17" t="n">
-        <v>238.3751212532671</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="W17" t="n">
-        <v>238.3751212532671</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="X17" t="n">
-        <v>238.3751212532671</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="Y17" t="n">
-        <v>238.3751212532671</v>
+        <v>953.9655401424092</v>
       </c>
     </row>
     <row r="18">
@@ -5568,76 +5570,76 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>16.60801191149903</v>
+        <v>193.7341723913397</v>
       </c>
       <c r="C18" t="n">
-        <v>16.60801191149903</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D18" t="n">
-        <v>16.60801191149903</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E18" t="n">
-        <v>16.60801191149903</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F18" t="n">
-        <v>16.60801191149903</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G18" t="n">
-        <v>16.60801191149903</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H18" t="n">
-        <v>16.60801191149903</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I18" t="n">
-        <v>16.60801191149903</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J18" t="n">
-        <v>16.60801191149903</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K18" t="n">
-        <v>16.60801191149903</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L18" t="n">
-        <v>222.1321593162995</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M18" t="n">
-        <v>222.1321593162995</v>
+        <v>542.809531908403</v>
       </c>
       <c r="N18" t="n">
-        <v>372.838412043471</v>
+        <v>542.809531908403</v>
       </c>
       <c r="O18" t="n">
-        <v>578.3625594482714</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P18" t="n">
-        <v>761.0060370616222</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q18" t="n">
-        <v>830.4005955749516</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R18" t="n">
-        <v>811.6061912914336</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S18" t="n">
-        <v>638.1888467421024</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="T18" t="n">
-        <v>436.0022521008685</v>
+        <v>609.3459713618265</v>
       </c>
       <c r="U18" t="n">
-        <v>226.3051320061838</v>
+        <v>609.3459713618265</v>
       </c>
       <c r="V18" t="n">
-        <v>16.60801191149903</v>
+        <v>609.3459713618265</v>
       </c>
       <c r="W18" t="n">
-        <v>16.60801191149903</v>
+        <v>609.3459713618265</v>
       </c>
       <c r="X18" t="n">
-        <v>16.60801191149903</v>
+        <v>401.4944711562937</v>
       </c>
       <c r="Y18" t="n">
-        <v>16.60801191149903</v>
+        <v>193.7341723913397</v>
       </c>
     </row>
     <row r="19">
@@ -5647,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>16.60801191149903</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C19" t="n">
-        <v>16.60801191149903</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D19" t="n">
-        <v>16.60801191149903</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E19" t="n">
-        <v>16.60801191149903</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F19" t="n">
-        <v>16.60801191149903</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G19" t="n">
-        <v>16.60801191149903</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H19" t="n">
-        <v>16.60801191149903</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I19" t="n">
-        <v>16.60801191149903</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J19" t="n">
-        <v>16.60801191149903</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K19" t="n">
-        <v>16.60801191149903</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L19" t="n">
-        <v>43.92213691921201</v>
+        <v>46.5952681179257</v>
       </c>
       <c r="M19" t="n">
-        <v>83.11017511143419</v>
+        <v>85.78330631014788</v>
       </c>
       <c r="N19" t="n">
-        <v>126.8010257668705</v>
+        <v>129.4741569655842</v>
       </c>
       <c r="O19" t="n">
-        <v>151.1403024017698</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="P19" t="n">
-        <v>151.1403024017698</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q19" t="n">
-        <v>151.1403024017698</v>
+        <v>66.78106667958005</v>
       </c>
       <c r="R19" t="n">
-        <v>151.1403024017698</v>
+        <v>66.78106667958005</v>
       </c>
       <c r="S19" t="n">
-        <v>151.1403024017698</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="T19" t="n">
-        <v>151.1403024017698</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="U19" t="n">
-        <v>16.60801191149903</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V19" t="n">
-        <v>16.60801191149903</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W19" t="n">
-        <v>16.60801191149903</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X19" t="n">
-        <v>16.60801191149903</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y19" t="n">
-        <v>16.60801191149903</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="20">
@@ -5726,28 +5728,28 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>274.7999090013961</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="C20" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D20" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E20" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F20" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G20" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H20" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I20" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J20" t="n">
         <v>19.28114311021272</v>
@@ -5771,31 +5773,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q20" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R20" t="n">
-        <v>802.5825927271064</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S20" t="n">
-        <v>802.5825927271064</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T20" t="n">
-        <v>802.5825927271064</v>
+        <v>749.627473042513</v>
       </c>
       <c r="U20" t="n">
-        <v>802.5825927271064</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="V20" t="n">
-        <v>559.1338160830064</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="W20" t="n">
-        <v>559.1338160830064</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="X20" t="n">
-        <v>559.1338160830064</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="Y20" t="n">
-        <v>315.6850394389064</v>
+        <v>262.7299197543128</v>
       </c>
     </row>
     <row r="21">
@@ -5805,76 +5807,76 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>342.668582052591</v>
+        <v>318.0035561858384</v>
       </c>
       <c r="C21" t="n">
-        <v>168.215552771464</v>
+        <v>318.0035561858384</v>
       </c>
       <c r="D21" t="n">
-        <v>19.28114311021272</v>
+        <v>318.0035561858384</v>
       </c>
       <c r="E21" t="n">
-        <v>19.28114311021272</v>
+        <v>158.7661011803829</v>
       </c>
       <c r="F21" t="n">
-        <v>19.28114311021272</v>
+        <v>158.7661011803829</v>
       </c>
       <c r="G21" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="H21" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="I21" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J21" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="K21" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L21" t="n">
-        <v>374.6018090363993</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="M21" t="n">
-        <v>613.2059550252818</v>
+        <v>487.8483949674443</v>
       </c>
       <c r="N21" t="n">
-        <v>613.2059550252818</v>
+        <v>726.4525409563269</v>
       </c>
       <c r="O21" t="n">
-        <v>781.4136778972854</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="P21" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q21" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R21" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S21" t="n">
-        <v>790.6398109613051</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="T21" t="n">
-        <v>790.6398109613051</v>
+        <v>487.2836868729568</v>
       </c>
       <c r="U21" t="n">
-        <v>790.6398109613051</v>
+        <v>318.0035561858384</v>
       </c>
       <c r="V21" t="n">
-        <v>555.4877027295624</v>
+        <v>318.0035561858384</v>
       </c>
       <c r="W21" t="n">
-        <v>555.4877027295624</v>
+        <v>318.0035561858384</v>
       </c>
       <c r="X21" t="n">
-        <v>555.4877027295624</v>
+        <v>318.0035561858384</v>
       </c>
       <c r="Y21" t="n">
-        <v>347.7274039646085</v>
+        <v>318.0035561858384</v>
       </c>
     </row>
     <row r="22">
@@ -5884,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C22" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D22" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E22" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F22" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G22" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H22" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I22" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J22" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K22" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L22" t="n">
-        <v>856.8389900280785</v>
+        <v>46.5952681179257</v>
       </c>
       <c r="M22" t="n">
-        <v>896.0270282203006</v>
+        <v>85.78330631014788</v>
       </c>
       <c r="N22" t="n">
-        <v>939.7178788757369</v>
+        <v>129.4741569655842</v>
       </c>
       <c r="O22" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="P22" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q22" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R22" t="n">
-        <v>829.5248650203655</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S22" t="n">
-        <v>829.5248650203655</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T22" t="n">
-        <v>829.5248650203655</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U22" t="n">
-        <v>829.5248650203655</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V22" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W22" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X22" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y22" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="23">
@@ -5963,28 +5965,28 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>72.23626279480629</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="C23" t="n">
-        <v>72.23626279480629</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="D23" t="n">
-        <v>72.23626279480629</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="E23" t="n">
-        <v>72.23626279480629</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="F23" t="n">
-        <v>72.23626279480629</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="G23" t="n">
-        <v>72.23626279480629</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H23" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I23" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J23" t="n">
         <v>19.28114311021272</v>
@@ -6008,31 +6010,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q23" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R23" t="n">
-        <v>802.5825927271064</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S23" t="n">
-        <v>802.5825927271064</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T23" t="n">
-        <v>802.5825927271064</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U23" t="n">
-        <v>802.5825927271064</v>
+        <v>749.627473042513</v>
       </c>
       <c r="V23" t="n">
-        <v>802.5825927271064</v>
+        <v>749.627473042513</v>
       </c>
       <c r="W23" t="n">
-        <v>559.1338160830064</v>
+        <v>749.627473042513</v>
       </c>
       <c r="X23" t="n">
-        <v>315.6850394389064</v>
+        <v>749.627473042513</v>
       </c>
       <c r="Y23" t="n">
-        <v>315.6850394389064</v>
+        <v>749.627473042513</v>
       </c>
     </row>
     <row r="24">
@@ -6042,28 +6044,28 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>168.9696854242497</v>
+        <v>217.7978866064798</v>
       </c>
       <c r="C24" t="n">
-        <v>168.9696854242497</v>
+        <v>43.34485732535276</v>
       </c>
       <c r="D24" t="n">
-        <v>20.03527576299844</v>
+        <v>43.34485732535276</v>
       </c>
       <c r="E24" t="n">
-        <v>20.03527576299844</v>
+        <v>43.34485732535276</v>
       </c>
       <c r="F24" t="n">
-        <v>20.03527576299844</v>
+        <v>43.34485732535276</v>
       </c>
       <c r="G24" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H24" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I24" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J24" t="n">
         <v>19.28114311021272</v>
@@ -6072,46 +6074,46 @@
         <v>144.6387031680501</v>
       </c>
       <c r="L24" t="n">
-        <v>374.6018090363993</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="M24" t="n">
-        <v>374.6018090363993</v>
+        <v>304.2053859195205</v>
       </c>
       <c r="N24" t="n">
-        <v>473.4149733950735</v>
+        <v>542.809531908403</v>
       </c>
       <c r="O24" t="n">
-        <v>712.019119383956</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P24" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q24" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R24" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S24" t="n">
-        <v>964.0571555106362</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="T24" t="n">
-        <v>761.8705608694022</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="U24" t="n">
-        <v>761.8705608694022</v>
+        <v>461.2466632505798</v>
       </c>
       <c r="V24" t="n">
-        <v>761.8705608694022</v>
+        <v>461.2466632505798</v>
       </c>
       <c r="W24" t="n">
-        <v>518.4217842253022</v>
+        <v>217.7978866064798</v>
       </c>
       <c r="X24" t="n">
-        <v>310.5702840197694</v>
+        <v>217.7978866064798</v>
       </c>
       <c r="Y24" t="n">
-        <v>310.5702840197694</v>
+        <v>217.7978866064798</v>
       </c>
     </row>
     <row r="25">
@@ -6121,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="C25" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="D25" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="E25" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="F25" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="G25" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="H25" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="I25" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="J25" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="K25" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="L25" t="n">
-        <v>46.5952681179257</v>
+        <v>856.8389900280785</v>
       </c>
       <c r="M25" t="n">
-        <v>85.78330631014788</v>
+        <v>896.0270282203006</v>
       </c>
       <c r="N25" t="n">
-        <v>129.4741569655842</v>
+        <v>939.7178788757369</v>
       </c>
       <c r="O25" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P25" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q25" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R25" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S25" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T25" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U25" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V25" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W25" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X25" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Y25" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
     </row>
     <row r="26">
@@ -6200,19 +6202,19 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>587.3248651012614</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="C26" t="n">
-        <v>506.1786963984129</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="D26" t="n">
-        <v>506.1786963984129</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="E26" t="n">
-        <v>506.1786963984129</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="F26" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G26" t="n">
         <v>19.28114311021272</v>
@@ -6245,31 +6247,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q26" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R26" t="n">
-        <v>812.6742080953335</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="S26" t="n">
-        <v>812.6742080953335</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="T26" t="n">
-        <v>587.3248651012614</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="U26" t="n">
-        <v>587.3248651012614</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="V26" t="n">
-        <v>587.3248651012614</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="W26" t="n">
-        <v>587.3248651012614</v>
+        <v>559.1338160830064</v>
       </c>
       <c r="X26" t="n">
-        <v>587.3248651012614</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="Y26" t="n">
-        <v>587.3248651012614</v>
+        <v>506.1786963984129</v>
       </c>
     </row>
     <row r="27">
@@ -6279,49 +6281,49 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>249.0369177581199</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C27" t="n">
-        <v>249.0369177581199</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D27" t="n">
-        <v>249.0369177581199</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E27" t="n">
-        <v>249.0369177581199</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F27" t="n">
-        <v>249.0369177581199</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G27" t="n">
-        <v>110.3060923407354</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H27" t="n">
-        <v>110.3060923407354</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I27" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J27" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="K27" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L27" t="n">
-        <v>374.6018090363993</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="M27" t="n">
-        <v>374.6018090363993</v>
+        <v>257.8852890990952</v>
       </c>
       <c r="N27" t="n">
-        <v>542.809531908403</v>
+        <v>496.4894350879777</v>
       </c>
       <c r="O27" t="n">
-        <v>781.4136778972854</v>
+        <v>735.0935810768601</v>
       </c>
       <c r="P27" t="n">
-        <v>964.0571555106362</v>
+        <v>917.7370586902109</v>
       </c>
       <c r="Q27" t="n">
         <v>964.0571555106362</v>
@@ -6333,22 +6335,22 @@
         <v>862.8876260635219</v>
       </c>
       <c r="T27" t="n">
-        <v>660.701031422288</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="U27" t="n">
-        <v>660.701031422288</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="V27" t="n">
-        <v>660.701031422288</v>
+        <v>627.7355178317791</v>
       </c>
       <c r="W27" t="n">
-        <v>417.2522547781879</v>
+        <v>384.2867411876791</v>
       </c>
       <c r="X27" t="n">
-        <v>417.2522547781879</v>
+        <v>227.0414418751666</v>
       </c>
       <c r="Y27" t="n">
-        <v>417.2522547781879</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="28">
@@ -6400,13 +6402,13 @@
         <v>153.8134336004835</v>
       </c>
       <c r="P28" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q28" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R28" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S28" t="n">
         <v>19.28114311021272</v>
@@ -6437,28 +6439,28 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>274.7999090013961</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="C29" t="n">
-        <v>274.7999090013961</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="D29" t="n">
-        <v>274.7999090013961</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="E29" t="n">
-        <v>274.7999090013961</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="F29" t="n">
-        <v>274.7999090013961</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="G29" t="n">
-        <v>274.7999090013961</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H29" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I29" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J29" t="n">
         <v>19.28114311021272</v>
@@ -6482,31 +6484,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q29" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R29" t="n">
-        <v>964.0571555106362</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="S29" t="n">
-        <v>964.0571555106362</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="T29" t="n">
-        <v>964.0571555106362</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="U29" t="n">
-        <v>964.0571555106362</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="V29" t="n">
-        <v>964.0571555106362</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="W29" t="n">
-        <v>761.6974622895962</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="X29" t="n">
-        <v>761.6974622895962</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="Y29" t="n">
-        <v>518.2486856454962</v>
+        <v>262.7299197543128</v>
       </c>
     </row>
     <row r="30">
@@ -6516,28 +6518,28 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>593.6552238493341</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C30" t="n">
-        <v>593.6552238493341</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D30" t="n">
-        <v>593.6552238493341</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E30" t="n">
-        <v>434.4177688438786</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F30" t="n">
-        <v>362.4348659156472</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G30" t="n">
-        <v>223.7040404982626</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H30" t="n">
-        <v>110.334904905842</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I30" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J30" t="n">
         <v>19.28114311021272</v>
@@ -6546,13 +6548,13 @@
         <v>144.6387031680501</v>
       </c>
       <c r="L30" t="n">
-        <v>304.2053859195205</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M30" t="n">
-        <v>542.809531908403</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="N30" t="n">
-        <v>542.809531908403</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="O30" t="n">
         <v>781.4136778972854</v>
@@ -6570,22 +6572,22 @@
         <v>964.0571555106362</v>
       </c>
       <c r="T30" t="n">
-        <v>761.8705608694022</v>
+        <v>933.9571464551993</v>
       </c>
       <c r="U30" t="n">
-        <v>761.8705608694022</v>
+        <v>705.7335281915883</v>
       </c>
       <c r="V30" t="n">
-        <v>761.8705608694022</v>
+        <v>470.5814199598456</v>
       </c>
       <c r="W30" t="n">
-        <v>761.8705608694022</v>
+        <v>227.1326433157456</v>
       </c>
       <c r="X30" t="n">
-        <v>761.8705608694022</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y30" t="n">
-        <v>761.8705608694022</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="31">
@@ -6595,25 +6597,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C31" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D31" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E31" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F31" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G31" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H31" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I31" t="n">
         <v>19.28114311021272</v>
@@ -6640,31 +6642,31 @@
         <v>153.8134336004835</v>
       </c>
       <c r="Q31" t="n">
-        <v>153.8134336004835</v>
+        <v>66.78106667958005</v>
       </c>
       <c r="R31" t="n">
-        <v>153.8134336004835</v>
+        <v>66.78106667958005</v>
       </c>
       <c r="S31" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="T31" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="U31" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V31" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W31" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X31" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y31" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="32">
@@ -6674,22 +6676,22 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>262.7299197543128</v>
+        <v>738.7078125165641</v>
       </c>
       <c r="C32" t="n">
-        <v>262.7299197543128</v>
+        <v>738.7078125165641</v>
       </c>
       <c r="D32" t="n">
-        <v>262.7299197543128</v>
+        <v>738.7078125165641</v>
       </c>
       <c r="E32" t="n">
-        <v>262.7299197543128</v>
+        <v>738.7078125165641</v>
       </c>
       <c r="F32" t="n">
-        <v>262.7299197543128</v>
+        <v>495.259035872464</v>
       </c>
       <c r="G32" t="n">
-        <v>262.7299197543128</v>
+        <v>251.810259228364</v>
       </c>
       <c r="H32" t="n">
         <v>19.28114311021272</v>
@@ -6728,22 +6730,22 @@
         <v>964.0571555106362</v>
       </c>
       <c r="T32" t="n">
-        <v>964.0571555106362</v>
+        <v>738.7078125165641</v>
       </c>
       <c r="U32" t="n">
-        <v>749.627473042513</v>
+        <v>738.7078125165641</v>
       </c>
       <c r="V32" t="n">
-        <v>749.627473042513</v>
+        <v>738.7078125165641</v>
       </c>
       <c r="W32" t="n">
-        <v>506.1786963984129</v>
+        <v>738.7078125165641</v>
       </c>
       <c r="X32" t="n">
-        <v>262.7299197543128</v>
+        <v>738.7078125165641</v>
       </c>
       <c r="Y32" t="n">
-        <v>262.7299197543128</v>
+        <v>738.7078125165641</v>
       </c>
     </row>
     <row r="33">
@@ -6753,76 +6755,76 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>19.28114311021272</v>
+        <v>179.2727307684539</v>
       </c>
       <c r="C33" t="n">
-        <v>19.28114311021272</v>
+        <v>179.2727307684539</v>
       </c>
       <c r="D33" t="n">
-        <v>19.28114311021272</v>
+        <v>179.2727307684539</v>
       </c>
       <c r="E33" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="F33" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="G33" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="H33" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="I33" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J33" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="K33" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L33" t="n">
-        <v>19.28114311021272</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M33" t="n">
-        <v>234.810827406191</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="N33" t="n">
-        <v>473.4149733950735</v>
+        <v>851.8101010141643</v>
       </c>
       <c r="O33" t="n">
-        <v>712.019119383956</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P33" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q33" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R33" t="n">
-        <v>964.0571555106362</v>
+        <v>951.3156252426979</v>
       </c>
       <c r="S33" t="n">
-        <v>892.6949644523331</v>
+        <v>777.8982806933668</v>
       </c>
       <c r="T33" t="n">
-        <v>690.5083698110992</v>
+        <v>575.7116860521329</v>
       </c>
       <c r="U33" t="n">
-        <v>462.2847515474883</v>
+        <v>347.488067788522</v>
       </c>
       <c r="V33" t="n">
-        <v>227.1326433157456</v>
+        <v>347.488067788522</v>
       </c>
       <c r="W33" t="n">
-        <v>227.1326433157456</v>
+        <v>347.488067788522</v>
       </c>
       <c r="X33" t="n">
-        <v>19.28114311021272</v>
+        <v>347.488067788522</v>
       </c>
       <c r="Y33" t="n">
-        <v>19.28114311021272</v>
+        <v>347.488067788522</v>
       </c>
     </row>
     <row r="34">
@@ -6832,13 +6834,13 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>964.0571555106362</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="C34" t="n">
-        <v>964.0571555106362</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="D34" t="n">
-        <v>964.0571555106362</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="E34" t="n">
         <v>829.5248650203655</v>
@@ -6895,13 +6897,13 @@
         <v>964.0571555106362</v>
       </c>
       <c r="W34" t="n">
-        <v>964.0571555106362</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="X34" t="n">
-        <v>964.0571555106362</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="Y34" t="n">
-        <v>964.0571555106362</v>
+        <v>829.5248650203655</v>
       </c>
     </row>
     <row r="35">
@@ -6911,25 +6913,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>233.7108255783361</v>
+        <v>467.067986854209</v>
       </c>
       <c r="C35" t="n">
-        <v>19.28114311021272</v>
+        <v>223.6192102101089</v>
       </c>
       <c r="D35" t="n">
-        <v>19.28114311021272</v>
+        <v>223.6192102101089</v>
       </c>
       <c r="E35" t="n">
-        <v>19.28114311021272</v>
+        <v>223.6192102101089</v>
       </c>
       <c r="F35" t="n">
-        <v>19.28114311021272</v>
+        <v>223.6192102101089</v>
       </c>
       <c r="G35" t="n">
-        <v>19.28114311021272</v>
+        <v>223.6192102101089</v>
       </c>
       <c r="H35" t="n">
-        <v>19.28114311021272</v>
+        <v>223.6192102101089</v>
       </c>
       <c r="I35" t="n">
         <v>19.28114311021272</v>
@@ -6956,31 +6958,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q35" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R35" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="S35" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="T35" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="U35" t="n">
-        <v>720.6083788665362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="V35" t="n">
-        <v>477.1596022224361</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="W35" t="n">
-        <v>477.1596022224361</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="X35" t="n">
-        <v>233.7108255783361</v>
+        <v>710.516763498309</v>
       </c>
       <c r="Y35" t="n">
-        <v>233.7108255783361</v>
+        <v>710.516763498309</v>
       </c>
     </row>
     <row r="36">
@@ -6990,40 +6992,40 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>694.6722890434539</v>
+        <v>158.0119685275972</v>
       </c>
       <c r="C36" t="n">
-        <v>520.2192597623269</v>
+        <v>158.0119685275972</v>
       </c>
       <c r="D36" t="n">
-        <v>520.2192597623269</v>
+        <v>158.0119685275972</v>
       </c>
       <c r="E36" t="n">
-        <v>360.9818047568714</v>
+        <v>158.0119685275972</v>
       </c>
       <c r="F36" t="n">
-        <v>360.9818047568714</v>
+        <v>158.0119685275972</v>
       </c>
       <c r="G36" t="n">
-        <v>223.7040404982626</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H36" t="n">
-        <v>110.334904905842</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I36" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J36" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="K36" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L36" t="n">
-        <v>249.2442489785619</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M36" t="n">
-        <v>304.2053859195205</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="N36" t="n">
         <v>542.809531908403</v>
@@ -7038,28 +7040,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R36" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S36" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T36" t="n">
-        <v>862.8876260635219</v>
+        <v>761.8705608694022</v>
       </c>
       <c r="U36" t="n">
-        <v>862.8876260635219</v>
+        <v>533.6469426057913</v>
       </c>
       <c r="V36" t="n">
-        <v>862.8876260635219</v>
+        <v>298.4948343740486</v>
       </c>
       <c r="W36" t="n">
-        <v>862.8876260635219</v>
+        <v>298.4948343740486</v>
       </c>
       <c r="X36" t="n">
-        <v>862.8876260635219</v>
+        <v>158.0119685275972</v>
       </c>
       <c r="Y36" t="n">
-        <v>862.8876260635219</v>
+        <v>158.0119685275972</v>
       </c>
     </row>
     <row r="37">
@@ -7126,10 +7128,10 @@
         <v>153.8134336004835</v>
       </c>
       <c r="U37" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V37" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W37" t="n">
         <v>19.28114311021272</v>
@@ -7148,19 +7150,19 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>495.259035872464</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="C38" t="n">
-        <v>495.259035872464</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="D38" t="n">
-        <v>251.810259228364</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="E38" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="F38" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="G38" t="n">
         <v>19.28114311021272</v>
@@ -7202,22 +7204,22 @@
         <v>964.0571555106362</v>
       </c>
       <c r="T38" t="n">
-        <v>738.7078125165641</v>
+        <v>749.627473042513</v>
       </c>
       <c r="U38" t="n">
-        <v>495.259035872464</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="V38" t="n">
-        <v>495.259035872464</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="W38" t="n">
-        <v>495.259035872464</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="X38" t="n">
-        <v>495.259035872464</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="Y38" t="n">
-        <v>495.259035872464</v>
+        <v>506.1786963984129</v>
       </c>
     </row>
     <row r="39">
@@ -7227,25 +7229,25 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>19.28114311021272</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="C39" t="n">
-        <v>19.28114311021272</v>
+        <v>816.3871559026832</v>
       </c>
       <c r="D39" t="n">
-        <v>19.28114311021272</v>
+        <v>667.4527462414319</v>
       </c>
       <c r="E39" t="n">
-        <v>19.28114311021272</v>
+        <v>508.2152912359765</v>
       </c>
       <c r="F39" t="n">
-        <v>19.28114311021272</v>
+        <v>361.6807332628614</v>
       </c>
       <c r="G39" t="n">
-        <v>19.28114311021272</v>
+        <v>222.9499078454769</v>
       </c>
       <c r="H39" t="n">
-        <v>19.28114311021272</v>
+        <v>109.5807722530562</v>
       </c>
       <c r="I39" t="n">
         <v>19.28114311021272</v>
@@ -7257,46 +7259,46 @@
         <v>144.6387031680501</v>
       </c>
       <c r="L39" t="n">
-        <v>144.6387031680501</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M39" t="n">
-        <v>304.2053859195205</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="N39" t="n">
-        <v>542.809531908403</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="O39" t="n">
-        <v>781.4136778972854</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P39" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q39" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R39" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S39" t="n">
-        <v>865.3031549855443</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="T39" t="n">
-        <v>663.1165603443104</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="U39" t="n">
-        <v>434.8929420806995</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="V39" t="n">
-        <v>434.8929420806995</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="W39" t="n">
-        <v>434.8929420806995</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="X39" t="n">
-        <v>227.0414418751666</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="Y39" t="n">
-        <v>19.28114311021272</v>
+        <v>862.8876260635219</v>
       </c>
     </row>
     <row r="40">
@@ -7306,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C40" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D40" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E40" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F40" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G40" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H40" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I40" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J40" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K40" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L40" t="n">
-        <v>856.8389900280785</v>
+        <v>46.5952681179257</v>
       </c>
       <c r="M40" t="n">
-        <v>896.0270282203006</v>
+        <v>85.78330631014788</v>
       </c>
       <c r="N40" t="n">
-        <v>939.7178788757369</v>
+        <v>129.4741569655842</v>
       </c>
       <c r="O40" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="P40" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q40" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R40" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S40" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T40" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U40" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V40" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W40" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X40" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y40" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="41">
@@ -7385,28 +7387,28 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>720.6083788665362</v>
+        <v>274.7999090013961</v>
       </c>
       <c r="C41" t="n">
-        <v>720.6083788665362</v>
+        <v>274.7999090013961</v>
       </c>
       <c r="D41" t="n">
-        <v>477.1596022224361</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="E41" t="n">
-        <v>477.1596022224361</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="F41" t="n">
-        <v>477.1596022224361</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="G41" t="n">
-        <v>233.7108255783361</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="H41" t="n">
-        <v>231.8830517671884</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="I41" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="J41" t="n">
         <v>19.28114311021272</v>
@@ -7430,31 +7432,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q41" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R41" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="S41" t="n">
-        <v>964.0571555106362</v>
+        <v>743.5980286395683</v>
       </c>
       <c r="T41" t="n">
-        <v>964.0571555106362</v>
+        <v>518.2486856454962</v>
       </c>
       <c r="U41" t="n">
-        <v>964.0571555106362</v>
+        <v>274.7999090013961</v>
       </c>
       <c r="V41" t="n">
-        <v>964.0571555106362</v>
+        <v>274.7999090013961</v>
       </c>
       <c r="W41" t="n">
-        <v>964.0571555106362</v>
+        <v>274.7999090013961</v>
       </c>
       <c r="X41" t="n">
-        <v>964.0571555106362</v>
+        <v>274.7999090013961</v>
       </c>
       <c r="Y41" t="n">
-        <v>964.0571555106362</v>
+        <v>274.7999090013961</v>
       </c>
     </row>
     <row r="42">
@@ -7464,49 +7466,49 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>158.0119685275972</v>
+        <v>186.4405569126723</v>
       </c>
       <c r="C42" t="n">
-        <v>158.0119685275972</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="D42" t="n">
-        <v>158.0119685275972</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="E42" t="n">
-        <v>158.0119685275972</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="F42" t="n">
-        <v>158.0119685275972</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="G42" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="H42" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="I42" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J42" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="K42" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L42" t="n">
-        <v>374.6018090363993</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="M42" t="n">
-        <v>417.4543050195419</v>
+        <v>487.8483949674443</v>
       </c>
       <c r="N42" t="n">
-        <v>656.0584510084244</v>
+        <v>725.4530095217538</v>
       </c>
       <c r="O42" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P42" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q42" t="n">
         <v>964.0571555106362</v>
@@ -7515,25 +7517,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S42" t="n">
-        <v>964.0571555106362</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="T42" t="n">
-        <v>964.0571555106362</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="U42" t="n">
-        <v>964.0571555106362</v>
+        <v>562.4161926976942</v>
       </c>
       <c r="V42" t="n">
-        <v>964.0571555106362</v>
+        <v>562.4161926976942</v>
       </c>
       <c r="W42" t="n">
-        <v>720.6083788665362</v>
+        <v>562.4161926976942</v>
       </c>
       <c r="X42" t="n">
-        <v>512.7568786610034</v>
+        <v>562.4161926976942</v>
       </c>
       <c r="Y42" t="n">
-        <v>304.9965798960495</v>
+        <v>354.6558939327403</v>
       </c>
     </row>
     <row r="43">
@@ -7543,25 +7545,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="C43" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="D43" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="E43" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="F43" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="G43" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="H43" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="I43" t="n">
         <v>19.28114311021272</v>
@@ -7603,16 +7605,16 @@
         <v>153.8134336004835</v>
       </c>
       <c r="V43" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W43" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="X43" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Y43" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
     </row>
     <row r="44">
@@ -7622,76 +7624,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>820.3089802067245</v>
+        <v>467.067986854209</v>
       </c>
       <c r="C44" t="n">
-        <v>820.3089802067245</v>
+        <v>467.067986854209</v>
       </c>
       <c r="D44" t="n">
-        <v>610.6118601120397</v>
+        <v>467.067986854209</v>
       </c>
       <c r="E44" t="n">
-        <v>610.6118601120397</v>
+        <v>223.6192102101089</v>
       </c>
       <c r="F44" t="n">
-        <v>610.6118601120397</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G44" t="n">
-        <v>400.914740017355</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H44" t="n">
-        <v>191.2176199226702</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I44" t="n">
-        <v>16.60801191149903</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J44" t="n">
-        <v>16.60801191149903</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K44" t="n">
-        <v>16.60801191149903</v>
+        <v>122.2961490211351</v>
       </c>
       <c r="L44" t="n">
-        <v>196.6838634961576</v>
+        <v>302.3720006057937</v>
       </c>
       <c r="M44" t="n">
-        <v>402.2080109009581</v>
+        <v>519.3476278686978</v>
       </c>
       <c r="N44" t="n">
-        <v>607.7321583057586</v>
+        <v>725.2021500759372</v>
       </c>
       <c r="O44" t="n">
-        <v>756.9271084484067</v>
+        <v>874.3971002185853</v>
       </c>
       <c r="P44" t="n">
-        <v>830.4005955749516</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q44" t="n">
-        <v>820.3089802067245</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R44" t="n">
-        <v>820.3089802067245</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="S44" t="n">
-        <v>820.3089802067245</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="T44" t="n">
-        <v>820.3089802067245</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="U44" t="n">
-        <v>820.3089802067245</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="V44" t="n">
-        <v>820.3089802067245</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="W44" t="n">
-        <v>820.3089802067245</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="X44" t="n">
-        <v>820.3089802067245</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="Y44" t="n">
-        <v>820.3089802067245</v>
+        <v>710.516763498309</v>
       </c>
     </row>
     <row r="45">
@@ -7701,76 +7703,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>16.60801191149903</v>
+        <v>210.869396638348</v>
       </c>
       <c r="C45" t="n">
-        <v>16.60801191149903</v>
+        <v>210.869396638348</v>
       </c>
       <c r="D45" t="n">
-        <v>16.60801191149903</v>
+        <v>210.869396638348</v>
       </c>
       <c r="E45" t="n">
-        <v>16.60801191149903</v>
+        <v>110.334904905842</v>
       </c>
       <c r="F45" t="n">
-        <v>16.60801191149903</v>
+        <v>110.334904905842</v>
       </c>
       <c r="G45" t="n">
-        <v>16.60801191149903</v>
+        <v>110.334904905842</v>
       </c>
       <c r="H45" t="n">
-        <v>16.60801191149903</v>
+        <v>110.334904905842</v>
       </c>
       <c r="I45" t="n">
-        <v>16.60801191149903</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J45" t="n">
-        <v>16.60801191149903</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K45" t="n">
-        <v>141.9655719693364</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L45" t="n">
-        <v>141.9655719693364</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M45" t="n">
-        <v>347.4897193741369</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="N45" t="n">
-        <v>553.0138667789374</v>
+        <v>851.8101010141643</v>
       </c>
       <c r="O45" t="n">
-        <v>578.3625594482714</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="P45" t="n">
-        <v>761.0060370616222</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q45" t="n">
-        <v>830.4005955749516</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R45" t="n">
-        <v>729.2310661278373</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S45" t="n">
-        <v>643.8537523064014</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="T45" t="n">
-        <v>643.8537523064014</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="U45" t="n">
-        <v>434.1566322117166</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="V45" t="n">
-        <v>224.4595121170319</v>
+        <v>454.3181732824481</v>
       </c>
       <c r="W45" t="n">
-        <v>224.4595121170319</v>
+        <v>210.869396638348</v>
       </c>
       <c r="X45" t="n">
-        <v>16.60801191149903</v>
+        <v>210.869396638348</v>
       </c>
       <c r="Y45" t="n">
-        <v>16.60801191149903</v>
+        <v>210.869396638348</v>
       </c>
     </row>
     <row r="46">
@@ -7780,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>16.60801191149903</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C46" t="n">
-        <v>16.60801191149903</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D46" t="n">
-        <v>16.60801191149903</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E46" t="n">
-        <v>16.60801191149903</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F46" t="n">
-        <v>16.60801191149903</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G46" t="n">
-        <v>16.60801191149903</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H46" t="n">
-        <v>16.60801191149903</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I46" t="n">
-        <v>16.60801191149903</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J46" t="n">
-        <v>16.60801191149903</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K46" t="n">
-        <v>16.60801191149903</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L46" t="n">
-        <v>43.92213691921201</v>
+        <v>46.5952681179257</v>
       </c>
       <c r="M46" t="n">
-        <v>83.11017511143419</v>
+        <v>85.78330631014788</v>
       </c>
       <c r="N46" t="n">
-        <v>126.8010257668705</v>
+        <v>129.4741569655842</v>
       </c>
       <c r="O46" t="n">
-        <v>151.1403024017698</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="P46" t="n">
-        <v>151.1403024017698</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q46" t="n">
-        <v>151.1403024017698</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R46" t="n">
-        <v>151.1403024017698</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S46" t="n">
-        <v>151.1403024017698</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T46" t="n">
-        <v>151.1403024017698</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U46" t="n">
-        <v>151.1403024017698</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V46" t="n">
-        <v>16.60801191149903</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W46" t="n">
-        <v>16.60801191149903</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X46" t="n">
-        <v>16.60801191149903</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y46" t="n">
-        <v>16.60801191149903</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
   </sheetData>
@@ -7982,19 +7984,19 @@
         <v>220.0898510449805</v>
       </c>
       <c r="L2" t="n">
-        <v>417.6612145504504</v>
+        <v>289.278943979937</v>
       </c>
       <c r="M2" t="n">
-        <v>437.9463821210106</v>
+        <v>230.3462332272727</v>
       </c>
       <c r="N2" t="n">
-        <v>437.0132124903288</v>
+        <v>280.7634702223003</v>
       </c>
       <c r="O2" t="n">
-        <v>380.8001812627454</v>
+        <v>283.6107404316365</v>
       </c>
       <c r="P2" t="n">
-        <v>305.4486393174361</v>
+        <v>284.7455247652193</v>
       </c>
       <c r="Q2" t="n">
         <v>212.3149906599047</v>
@@ -8058,25 +8060,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L3" t="n">
-        <v>346.154528673612</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M3" t="n">
-        <v>349.7341828157562</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N3" t="n">
-        <v>338.9418609770712</v>
+        <v>182.6921187090427</v>
       </c>
       <c r="O3" t="n">
-        <v>142.5962444444444</v>
+        <v>196.1087734543942</v>
       </c>
       <c r="P3" t="n">
-        <v>136.4673598162336</v>
+        <v>187.48693642428</v>
       </c>
       <c r="Q3" t="n">
-        <v>210.0772877358491</v>
+        <v>193.4943030959713</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8216,16 +8218,16 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K5" t="n">
-        <v>220.0898510449805</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L5" t="n">
         <v>417.6612145504504</v>
       </c>
       <c r="M5" t="n">
-        <v>437.9463821210106</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N5" t="n">
-        <v>420.6631436362823</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O5" t="n">
         <v>380.8001812627454</v>
@@ -8301,13 +8303,13 @@
         <v>138.5543797798742</v>
       </c>
       <c r="M6" t="n">
-        <v>167.7387739920527</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N6" t="n">
-        <v>338.9418609770712</v>
+        <v>222.4246658592332</v>
       </c>
       <c r="O6" t="n">
-        <v>350.1963933381824</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P6" t="n">
         <v>318.4627686399372</v>
@@ -8453,22 +8455,22 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K8" t="n">
-        <v>294.3054946071471</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L8" t="n">
         <v>417.6612145504504</v>
       </c>
       <c r="M8" t="n">
-        <v>437.9463821210106</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N8" t="n">
-        <v>437.0132124903288</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O8" t="n">
         <v>380.8001812627454</v>
       </c>
       <c r="P8" t="n">
-        <v>231.2329957552695</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q8" t="n">
         <v>212.3149906599047</v>
@@ -8532,25 +8534,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L9" t="n">
         <v>138.5543797798742</v>
       </c>
       <c r="M9" t="n">
-        <v>349.7341828157562</v>
+        <v>359.8407857361378</v>
       </c>
       <c r="N9" t="n">
-        <v>338.9418609770712</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O9" t="n">
-        <v>238.2964981643063</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P9" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8696,10 +8698,10 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M11" t="n">
-        <v>317.5407517407799</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N11" t="n">
-        <v>437.0132124903288</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O11" t="n">
         <v>380.8001812627454</v>
@@ -8769,25 +8771,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K12" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L12" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M12" t="n">
-        <v>349.7341828157562</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N12" t="n">
-        <v>338.9418609770712</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O12" t="n">
-        <v>168.2009845144788</v>
+        <v>382.6009056104135</v>
       </c>
       <c r="P12" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q12" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R12" t="n">
         <v>45.52166981132082</v>
@@ -8927,16 +8929,16 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K14" t="n">
-        <v>220.0898510449805</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L14" t="n">
-        <v>401.3111456964039</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M14" t="n">
-        <v>437.9463821210106</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N14" t="n">
-        <v>437.0132124903288</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O14" t="n">
         <v>380.8001812627454</v>
@@ -9009,22 +9011,22 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L15" t="n">
-        <v>164.1591198499085</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M15" t="n">
-        <v>349.7341828157562</v>
+        <v>312.04082470182</v>
       </c>
       <c r="N15" t="n">
         <v>131.3417120833333</v>
       </c>
       <c r="O15" t="n">
-        <v>350.1963933381824</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P15" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q15" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R15" t="n">
         <v>45.52166981132082</v>
@@ -9164,22 +9166,22 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K17" t="n">
-        <v>220.0898510449805</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L17" t="n">
         <v>417.6612145504504</v>
       </c>
       <c r="M17" t="n">
-        <v>437.9463821210106</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N17" t="n">
-        <v>437.0132124903288</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O17" t="n">
         <v>380.8001812627454</v>
       </c>
       <c r="P17" t="n">
-        <v>305.4486393174361</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q17" t="n">
         <v>212.3149906599047</v>
@@ -9243,25 +9245,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K18" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L18" t="n">
-        <v>346.154528673612</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M18" t="n">
-        <v>142.1340339220183</v>
+        <v>312.04082470182</v>
       </c>
       <c r="N18" t="n">
-        <v>283.5702501915873</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O18" t="n">
-        <v>350.1963933381824</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P18" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q18" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R18" t="n">
         <v>45.52166981132082</v>
@@ -9480,7 +9482,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K21" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L21" t="n">
         <v>370.8403453034592</v>
@@ -9489,16 +9491,16 @@
         <v>383.1483227996774</v>
       </c>
       <c r="N21" t="n">
-        <v>131.3417120833333</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O21" t="n">
-        <v>312.5030352242461</v>
+        <v>312.5053919605859</v>
       </c>
       <c r="P21" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q21" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R21" t="n">
         <v>45.52166981132082</v>
@@ -9720,13 +9722,13 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L24" t="n">
-        <v>370.8403453034592</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M24" t="n">
-        <v>142.1340339220183</v>
+        <v>303.312501347746</v>
       </c>
       <c r="N24" t="n">
-        <v>231.1529892133073</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O24" t="n">
         <v>383.6105333221035</v>
@@ -9735,7 +9737,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q24" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
         <v>45.52166981132082</v>
@@ -9954,16 +9956,16 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K27" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L27" t="n">
-        <v>370.8403453034592</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M27" t="n">
-        <v>142.1340339220183</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N27" t="n">
-        <v>301.248502863135</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O27" t="n">
         <v>383.6105333221035</v>
@@ -9972,7 +9974,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q27" t="n">
-        <v>139.9817740860215</v>
+        <v>186.7697506723097</v>
       </c>
       <c r="R27" t="n">
         <v>45.52166981132082</v>
@@ -10194,7 +10196,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L30" t="n">
-        <v>299.7328472056018</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M30" t="n">
         <v>383.1483227996774</v>
@@ -10203,7 +10205,7 @@
         <v>131.3417120833333</v>
       </c>
       <c r="O30" t="n">
-        <v>383.6105333221035</v>
+        <v>312.5030352242461</v>
       </c>
       <c r="P30" t="n">
         <v>318.4627686399372</v>
@@ -10428,25 +10430,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K33" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L33" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M33" t="n">
-        <v>359.8407857361378</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N33" t="n">
         <v>372.3560009609923</v>
       </c>
       <c r="O33" t="n">
-        <v>383.6105333221035</v>
+        <v>255.9771075721939</v>
       </c>
       <c r="P33" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
         <v>45.52166981132082</v>
@@ -10665,16 +10667,16 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K36" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L36" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M36" t="n">
-        <v>197.6503338623806</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N36" t="n">
-        <v>372.3560009609923</v>
+        <v>301.248502863135</v>
       </c>
       <c r="O36" t="n">
         <v>383.6105333221035</v>
@@ -10905,13 +10907,13 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L39" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M39" t="n">
-        <v>303.312501347746</v>
+        <v>241.9453110519923</v>
       </c>
       <c r="N39" t="n">
-        <v>372.3560009609923</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O39" t="n">
         <v>383.6105333221035</v>
@@ -10920,7 +10922,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q39" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R39" t="n">
         <v>45.52166981132082</v>
@@ -11060,7 +11062,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K41" t="n">
-        <v>324.1454125711647</v>
+        <v>324.1454125711648</v>
       </c>
       <c r="L41" t="n">
         <v>417.6612145504504</v>
@@ -11139,16 +11141,16 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K42" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L42" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M42" t="n">
-        <v>185.4193833999402</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N42" t="n">
-        <v>372.3560009609923</v>
+        <v>371.3463732493024</v>
       </c>
       <c r="O42" t="n">
         <v>383.6105333221035</v>
@@ -11157,7 +11159,7 @@
         <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
         <v>45.52166981132082</v>
@@ -11297,22 +11299,22 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K44" t="n">
-        <v>220.0898510449805</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L44" t="n">
         <v>417.6612145504504</v>
       </c>
       <c r="M44" t="n">
-        <v>437.9463821210106</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N44" t="n">
-        <v>437.0132124903288</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O44" t="n">
         <v>380.8001812627454</v>
       </c>
       <c r="P44" t="n">
-        <v>305.4486393174361</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q44" t="n">
         <v>212.3149906599047</v>
@@ -11379,19 +11381,19 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L45" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M45" t="n">
-        <v>349.7341828157562</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N45" t="n">
-        <v>338.9418609770712</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O45" t="n">
-        <v>168.2009845144788</v>
+        <v>185.8815939223662</v>
       </c>
       <c r="P45" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
         <v>210.0772877358491</v>
@@ -22589,25 +22591,25 @@
         <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R2" t="n">
-        <v>149.8691179411497</v>
+        <v>102.735282389186</v>
       </c>
       <c r="S2" t="n">
-        <v>209.0200695862453</v>
+        <v>155.5075405762956</v>
       </c>
       <c r="T2" t="n">
-        <v>50.23233763307178</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U2" t="n">
-        <v>43.7455040140986</v>
+        <v>197.8331238978867</v>
       </c>
       <c r="V2" t="n">
-        <v>120.152109576397</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>141.6408198236751</v>
+        <v>295.7284397074633</v>
       </c>
       <c r="X2" t="n">
         <v>369.731100678469</v>
@@ -22623,16 +22625,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>113.0206546399176</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>119.195969978366</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>100.311230012675</v>
       </c>
       <c r="E3" t="n">
-        <v>10.36034193524262</v>
+        <v>104.1325514454512</v>
       </c>
       <c r="F3" t="n">
         <v>145.0692123933839</v>
@@ -22674,7 +22676,7 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T3" t="n">
         <v>200.1647286948216</v>
@@ -22720,16 +22722,16 @@
         <v>167.9909793584588</v>
       </c>
       <c r="H4" t="n">
-        <v>162.2271725074396</v>
+        <v>161.0561955029604</v>
       </c>
       <c r="I4" t="n">
-        <v>22.26350734189029</v>
+        <v>101.9379459173085</v>
       </c>
       <c r="J4" t="n">
-        <v>93.35918011667277</v>
+        <v>39.84665110672302</v>
       </c>
       <c r="K4" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -22744,7 +22746,7 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q4" t="n">
         <v>86.16204325169439</v>
@@ -22781,10 +22783,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>175.1336927697427</v>
+        <v>141.7195527858215</v>
       </c>
       <c r="C5" t="n">
-        <v>157.6727428772697</v>
+        <v>124.2586028933485</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
@@ -22847,10 +22849,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>186.8768895328647</v>
+        <v>157.445715035027</v>
       </c>
       <c r="Y5" t="n">
-        <v>178.6377897623157</v>
+        <v>145.2236497783945</v>
       </c>
     </row>
     <row r="6">
@@ -22863,13 +22865,13 @@
         <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>157.6450804554009</v>
+        <v>86.36944326294567</v>
       </c>
       <c r="F6" t="n">
         <v>145.0692123933839</v>
@@ -22884,7 +22886,7 @@
         <v>89.39663285141508</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -22908,16 +22910,16 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U6" t="n">
-        <v>59.57223318158461</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V6" t="n">
         <v>232.8005871494253</v>
@@ -22929,7 +22931,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y6" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -22960,7 +22962,7 @@
         <v>162.2271725074396</v>
       </c>
       <c r="I7" t="n">
-        <v>22.26350734189029</v>
+        <v>155.4504749272583</v>
       </c>
       <c r="J7" t="n">
         <v>93.35918011667277</v>
@@ -22993,7 +22995,7 @@
         <v>224.0165980369723</v>
       </c>
       <c r="T7" t="n">
-        <v>227.9455894282815</v>
+        <v>94.75862184291347</v>
       </c>
       <c r="U7" t="n">
         <v>286.3190293564909</v>
@@ -23018,7 +23020,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>175.1336927697427</v>
+        <v>141.7195527858215</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
@@ -23027,10 +23029,10 @@
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>174.3302211785239</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>199.2758968479735</v>
+        <v>354.4504772539638</v>
       </c>
       <c r="G8" t="n">
         <v>415.302737515135</v>
@@ -23063,13 +23065,13 @@
         <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>176.0349763817907</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T8" t="n">
         <v>223.0958495641314</v>
@@ -23081,13 +23083,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>108.226679839754</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>145.2236497783945</v>
       </c>
     </row>
     <row r="9">
@@ -23097,16 +23099,16 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C9" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E9" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F9" t="n">
         <v>145.0692123933839</v>
@@ -23151,22 +23153,22 @@
         <v>171.6831711038378</v>
       </c>
       <c r="T9" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U9" t="n">
-        <v>181.2696526108326</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V9" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W9" t="n">
-        <v>44.09483426718171</v>
+        <v>224.7091749588662</v>
       </c>
       <c r="X9" t="n">
         <v>0</v>
       </c>
       <c r="Y9" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -23197,13 +23199,13 @@
         <v>162.2271725074396</v>
       </c>
       <c r="I10" t="n">
-        <v>137.8921792844459</v>
+        <v>155.4504749272583</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K10" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -23245,7 +23247,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>85.39768576672677</v>
       </c>
     </row>
     <row r="11">
@@ -23255,13 +23257,13 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.7338416634806</v>
+        <v>141.7195527858215</v>
       </c>
       <c r="C11" t="n">
-        <v>365.2728917710076</v>
+        <v>124.2586028933485</v>
       </c>
       <c r="D11" t="n">
-        <v>354.683041620683</v>
+        <v>113.6687527430239</v>
       </c>
       <c r="E11" t="n">
         <v>381.9303700722618</v>
@@ -23270,16 +23272,16 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>207.7025886213972</v>
+        <v>203.0173518716929</v>
       </c>
       <c r="H11" t="n">
-        <v>131.8746532220293</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I11" t="n">
-        <v>39.57096777941408</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J11" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K11" t="n">
         <v>0</v>
@@ -23321,7 +23323,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
-        <v>162.1309517847311</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
         <v>386.2379386560536</v>
@@ -23337,25 +23339,25 @@
         <v>0</v>
       </c>
       <c r="C12" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D12" t="n">
         <v>0</v>
       </c>
       <c r="E12" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F12" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H12" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J12" t="n">
         <v>0.7465913262578567</v>
@@ -23400,10 +23402,10 @@
         <v>251.6949831609196</v>
       </c>
       <c r="X12" t="n">
-        <v>181.8844042082006</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y12" t="n">
-        <v>0</v>
+        <v>136.6259469638832</v>
       </c>
     </row>
     <row r="13">
@@ -23416,7 +23418,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>34.05985351325981</v>
       </c>
       <c r="D13" t="n">
         <v>148.6154730182124</v>
@@ -23455,10 +23457,10 @@
         <v>0</v>
       </c>
       <c r="P13" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q13" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R13" t="n">
         <v>177.2933913771695</v>
@@ -23473,7 +23475,7 @@
         <v>286.3190293564909</v>
       </c>
       <c r="V13" t="n">
-        <v>207.8341597252609</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
         <v>286.522998336591</v>
@@ -23504,19 +23506,19 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
-        <v>395.8309411064141</v>
+        <v>165.8617568640524</v>
       </c>
       <c r="G14" t="n">
-        <v>207.7025886213972</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H14" t="n">
-        <v>131.8746532220293</v>
+        <v>98.46051323810809</v>
       </c>
       <c r="I14" t="n">
-        <v>2.875740676668016</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K14" t="n">
         <v>0</v>
@@ -23537,16 +23539,16 @@
         <v>0</v>
       </c>
       <c r="Q14" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R14" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S14" t="n">
         <v>209.0200695862453</v>
       </c>
       <c r="T14" t="n">
-        <v>223.0958495641314</v>
+        <v>221.2863534910952</v>
       </c>
       <c r="U14" t="n">
         <v>251.3456529078365</v>
@@ -23619,28 +23621,28 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
       </c>
       <c r="T15" t="n">
-        <v>0</v>
+        <v>73.91671058399687</v>
       </c>
       <c r="U15" t="n">
-        <v>18.34123318723692</v>
+        <v>0</v>
       </c>
       <c r="V15" t="n">
-        <v>106.7518121676478</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W15" t="n">
         <v>251.6949831609196</v>
       </c>
       <c r="X15" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y15" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16">
@@ -23665,13 +23667,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>150.4326837156464</v>
+        <v>167.9909793584588</v>
       </c>
       <c r="H16" t="n">
         <v>162.2271725074396</v>
       </c>
       <c r="I16" t="n">
-        <v>155.4504749272583</v>
+        <v>140.6136200195524</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23692,7 +23694,7 @@
         <v>0</v>
       </c>
       <c r="P16" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q16" t="n">
         <v>86.16204325169439</v>
@@ -23732,28 +23734,28 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C17" t="n">
-        <v>157.6727428772697</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D17" t="n">
-        <v>354.683041620683</v>
+        <v>113.6687527430239</v>
       </c>
       <c r="E17" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
-        <v>406.8760457417114</v>
+        <v>165.8617568640524</v>
       </c>
       <c r="G17" t="n">
         <v>415.302737515135</v>
       </c>
       <c r="H17" t="n">
-        <v>339.4748021157671</v>
+        <v>98.46051323810809</v>
       </c>
       <c r="I17" t="n">
-        <v>210.4758895704059</v>
+        <v>8.181203141508689</v>
       </c>
       <c r="J17" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K17" t="n">
         <v>0</v>
@@ -23777,16 +23779,16 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S17" t="n">
-        <v>1.419920692507446</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T17" t="n">
-        <v>15.49570067039346</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U17" t="n">
-        <v>240.3005482725392</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V17" t="n">
         <v>327.7522584701349</v>
@@ -23811,7 +23813,7 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C18" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D18" t="n">
         <v>147.4450655646388</v>
@@ -23856,28 +23858,28 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>81.5513739119603</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
       </c>
       <c r="T18" t="n">
-        <v>0</v>
+        <v>120.841661643981</v>
       </c>
       <c r="U18" t="n">
-        <v>18.34123318723692</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V18" t="n">
-        <v>25.20043825568737</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W18" t="n">
         <v>251.6949831609196</v>
       </c>
       <c r="X18" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y18" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19">
@@ -23932,19 +23934,19 @@
         <v>2.721440735106512</v>
       </c>
       <c r="Q19" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R19" t="n">
         <v>177.2933913771695</v>
       </c>
       <c r="S19" t="n">
-        <v>224.0165980369723</v>
+        <v>176.9916737032986</v>
       </c>
       <c r="T19" t="n">
         <v>227.9455894282815</v>
       </c>
       <c r="U19" t="n">
-        <v>153.1320617711229</v>
+        <v>286.3190293564909</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
@@ -23966,7 +23968,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>342.2575625303455</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
         <v>124.2586028933485</v>
@@ -23990,7 +23992,7 @@
         <v>210.4758895704059</v>
       </c>
       <c r="J20" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K20" t="n">
         <v>0</v>
@@ -24011,19 +24013,19 @@
         <v>0</v>
       </c>
       <c r="Q20" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S20" t="n">
         <v>209.0200695862453</v>
       </c>
       <c r="T20" t="n">
-        <v>223.0958495641314</v>
+        <v>10.81046392068936</v>
       </c>
       <c r="U20" t="n">
-        <v>251.3456529078365</v>
+        <v>10.33136403017744</v>
       </c>
       <c r="V20" t="n">
         <v>86.73796959247585</v>
@@ -24035,7 +24037,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y20" t="n">
-        <v>145.2236497783945</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="21">
@@ -24045,22 +24047,22 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>161.52494995697</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C21" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D21" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E21" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F21" t="n">
         <v>145.0692123933839</v>
       </c>
       <c r="G21" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H21" t="n">
         <v>112.2354442364965</v>
@@ -24069,7 +24071,7 @@
         <v>89.39663285141508</v>
       </c>
       <c r="J21" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
@@ -24093,19 +24095,19 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
       </c>
       <c r="T21" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U21" t="n">
-        <v>225.9413820809748</v>
+        <v>58.35405270072761</v>
       </c>
       <c r="V21" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W21" t="n">
         <v>251.6949831609196</v>
@@ -24114,7 +24116,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y21" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="22">
@@ -24172,7 +24174,7 @@
         <v>86.16204325169439</v>
       </c>
       <c r="R22" t="n">
-        <v>44.10642379180149</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S22" t="n">
         <v>224.0165980369723</v>
@@ -24184,7 +24186,7 @@
         <v>286.3190293564909</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>118.95067573846</v>
       </c>
       <c r="W22" t="n">
         <v>286.522998336591</v>
@@ -24212,22 +24214,22 @@
         <v>354.683041620683</v>
       </c>
       <c r="E23" t="n">
-        <v>381.9303700722618</v>
+        <v>140.9160811946027</v>
       </c>
       <c r="F23" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
-        <v>415.302737515135</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H23" t="n">
-        <v>298.998522982632</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I23" t="n">
         <v>210.4758895704059</v>
       </c>
       <c r="J23" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K23" t="n">
         <v>0</v>
@@ -24248,10 +24250,10 @@
         <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S23" t="n">
         <v>209.0200695862453</v>
@@ -24260,16 +24262,16 @@
         <v>223.0958495641314</v>
       </c>
       <c r="U23" t="n">
-        <v>251.3456529078365</v>
+        <v>39.0602672643945</v>
       </c>
       <c r="V23" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W23" t="n">
-        <v>108.226679839754</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X23" t="n">
-        <v>128.71681180081</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y23" t="n">
         <v>386.2379386560536</v>
@@ -24282,13 +24284,13 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>26.34859104030286</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C24" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D24" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E24" t="n">
         <v>157.6450804554009</v>
@@ -24297,7 +24299,7 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G24" t="n">
-        <v>137.3435171632106</v>
+        <v>113.520440090222</v>
       </c>
       <c r="H24" t="n">
         <v>112.2354442364965</v>
@@ -24306,7 +24308,7 @@
         <v>89.39663285141508</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K24" t="n">
         <v>0</v>
@@ -24330,16 +24332,16 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T24" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U24" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V24" t="n">
         <v>232.8005871494253</v>
@@ -24348,7 +24350,7 @@
         <v>10.68069428326055</v>
       </c>
       <c r="X24" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y24" t="n">
         <v>205.6826957773044</v>
@@ -24361,7 +24363,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>46.6450125965693</v>
       </c>
       <c r="C25" t="n">
         <v>167.2468210986278</v>
@@ -24409,7 +24411,7 @@
         <v>86.16204325169439</v>
       </c>
       <c r="R25" t="n">
-        <v>44.10642379180146</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S25" t="n">
         <v>224.0165980369723</v>
@@ -24443,7 +24445,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C26" t="n">
-        <v>284.9381847551875</v>
+        <v>124.2586028933485</v>
       </c>
       <c r="D26" t="n">
         <v>354.683041620683</v>
@@ -24455,7 +24457,7 @@
         <v>165.8617568640524</v>
       </c>
       <c r="G26" t="n">
-        <v>174.288448637476</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H26" t="n">
         <v>339.4748021157671</v>
@@ -24485,7 +24487,7 @@
         <v>0</v>
       </c>
       <c r="Q26" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R26" t="n">
         <v>0</v>
@@ -24494,7 +24496,7 @@
         <v>209.0200695862453</v>
       </c>
       <c r="T26" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U26" t="n">
         <v>251.3456529078365</v>
@@ -24503,10 +24505,10 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W26" t="n">
-        <v>349.240968717413</v>
+        <v>108.226679839754</v>
       </c>
       <c r="X26" t="n">
-        <v>369.731100678469</v>
+        <v>317.3055321907214</v>
       </c>
       <c r="Y26" t="n">
         <v>386.2379386560536</v>
@@ -24519,7 +24521,7 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C27" t="n">
         <v>172.7084989883157</v>
@@ -24534,16 +24536,16 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G27" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H27" t="n">
         <v>112.2354442364965</v>
       </c>
       <c r="I27" t="n">
-        <v>0.02852443945548089</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K27" t="n">
         <v>0</v>
@@ -24573,22 +24575,22 @@
         <v>171.6831711038378</v>
       </c>
       <c r="T27" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U27" t="n">
         <v>225.9413820809748</v>
       </c>
       <c r="V27" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W27" t="n">
         <v>10.68069428326055</v>
       </c>
       <c r="X27" t="n">
-        <v>205.7729852034775</v>
+        <v>50.10013888409017</v>
       </c>
       <c r="Y27" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28">
@@ -24640,16 +24642,16 @@
         <v>0</v>
       </c>
       <c r="P28" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q28" t="n">
         <v>86.16204325169439</v>
       </c>
       <c r="R28" t="n">
-        <v>46.82786452690794</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S28" t="n">
-        <v>224.0165980369723</v>
+        <v>90.82963045160423</v>
       </c>
       <c r="T28" t="n">
         <v>227.9455894282815</v>
@@ -24677,7 +24679,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>141.7195527858215</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C29" t="n">
         <v>365.2728917710076</v>
@@ -24692,16 +24694,16 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
-        <v>415.302737515135</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H29" t="n">
-        <v>98.46051323810809</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I29" t="n">
         <v>210.4758895704059</v>
       </c>
       <c r="J29" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K29" t="n">
         <v>0</v>
@@ -24722,16 +24724,16 @@
         <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>223.0958495641314</v>
+        <v>138.6760617849701</v>
       </c>
       <c r="U29" t="n">
         <v>251.3456529078365</v>
@@ -24740,13 +24742,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W29" t="n">
-        <v>148.9048724285834</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X29" t="n">
-        <v>369.731100678469</v>
+        <v>128.71681180081</v>
       </c>
       <c r="Y29" t="n">
-        <v>145.2236497783945</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="30">
@@ -24756,7 +24758,7 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C30" t="n">
         <v>172.7084989883157</v>
@@ -24765,22 +24767,22 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E30" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F30" t="n">
-        <v>73.80613849443475</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G30" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H30" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K30" t="n">
         <v>0</v>
@@ -24810,19 +24812,19 @@
         <v>171.6831711038378</v>
       </c>
       <c r="T30" t="n">
-        <v>0</v>
+        <v>170.3657197299391</v>
       </c>
       <c r="U30" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V30" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W30" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X30" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y30" t="n">
         <v>205.6826957773044</v>
@@ -24856,7 +24858,7 @@
         <v>162.2271725074396</v>
       </c>
       <c r="I31" t="n">
-        <v>22.26350734189026</v>
+        <v>155.4504749272583</v>
       </c>
       <c r="J31" t="n">
         <v>93.35918011667277</v>
@@ -24880,13 +24882,13 @@
         <v>2.721440735106512</v>
       </c>
       <c r="Q31" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R31" t="n">
         <v>177.2933913771695</v>
       </c>
       <c r="S31" t="n">
-        <v>224.0165980369723</v>
+        <v>176.9916737032986</v>
       </c>
       <c r="T31" t="n">
         <v>227.9455894282815</v>
@@ -24926,13 +24928,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F32" t="n">
-        <v>406.8760457417114</v>
+        <v>165.8617568640524</v>
       </c>
       <c r="G32" t="n">
-        <v>415.302737515135</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H32" t="n">
-        <v>98.46051323810809</v>
+        <v>109.2709771587974</v>
       </c>
       <c r="I32" t="n">
         <v>210.4758895704059</v>
@@ -24968,19 +24970,19 @@
         <v>209.0200695862453</v>
       </c>
       <c r="T32" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>39.0602672643945</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V32" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W32" t="n">
-        <v>108.226679839754</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X32" t="n">
-        <v>128.71681180081</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y32" t="n">
         <v>386.2379386560536</v>
@@ -24993,7 +24995,7 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C33" t="n">
         <v>172.7084989883157</v>
@@ -25002,7 +25004,7 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E33" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F33" t="n">
         <v>145.0692123933839</v>
@@ -25017,7 +25019,7 @@
         <v>89.39663285141508</v>
       </c>
       <c r="J33" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
         <v>0</v>
@@ -25041,10 +25043,10 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>100.1578341526431</v>
+        <v>87.54371918738423</v>
       </c>
       <c r="S33" t="n">
-        <v>101.0346019561178</v>
+        <v>0</v>
       </c>
       <c r="T33" t="n">
         <v>0</v>
@@ -25053,13 +25055,13 @@
         <v>0</v>
       </c>
       <c r="V33" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W33" t="n">
         <v>251.6949831609196</v>
       </c>
       <c r="X33" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y33" t="n">
         <v>205.6826957773044</v>
@@ -25081,7 +25083,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>13.24699506120118</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
         <v>145.4210480229312</v>
@@ -25135,7 +25137,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>286.522998336591</v>
+        <v>153.336030751223</v>
       </c>
       <c r="X34" t="n">
         <v>225.7096553890372</v>
@@ -25151,10 +25153,10 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>382.7338416634806</v>
+        <v>141.7195527858215</v>
       </c>
       <c r="C35" t="n">
-        <v>152.9875061275654</v>
+        <v>124.2586028933485</v>
       </c>
       <c r="D35" t="n">
         <v>354.683041620683</v>
@@ -25172,7 +25174,7 @@
         <v>339.4748021157671</v>
       </c>
       <c r="I35" t="n">
-        <v>210.4758895704059</v>
+        <v>8.181203141508689</v>
       </c>
       <c r="J35" t="n">
         <v>11.94928935461252</v>
@@ -25196,7 +25198,7 @@
         <v>0</v>
       </c>
       <c r="Q35" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R35" t="n">
         <v>149.8691179411497</v>
@@ -25208,10 +25210,10 @@
         <v>223.0958495641314</v>
       </c>
       <c r="U35" t="n">
-        <v>10.33136403017744</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V35" t="n">
-        <v>86.73796959247585</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W35" t="n">
         <v>349.240968717413</v>
@@ -25230,31 +25232,31 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C36" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D36" t="n">
         <v>147.4450655646388</v>
       </c>
       <c r="E36" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F36" t="n">
         <v>145.0692123933839</v>
       </c>
       <c r="G36" t="n">
-        <v>1.438530547187924</v>
+        <v>0</v>
       </c>
       <c r="H36" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K36" t="n">
         <v>0</v>
@@ -25278,25 +25280,25 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S36" t="n">
         <v>171.6831711038378</v>
       </c>
       <c r="T36" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U36" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V36" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W36" t="n">
         <v>251.6949831609196</v>
       </c>
       <c r="X36" t="n">
-        <v>205.7729852034775</v>
+        <v>66.69494801549061</v>
       </c>
       <c r="Y36" t="n">
         <v>205.6826957773044</v>
@@ -25366,13 +25368,13 @@
         <v>227.9455894282815</v>
       </c>
       <c r="U37" t="n">
-        <v>153.1320617711229</v>
+        <v>286.3190293564909</v>
       </c>
       <c r="V37" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>286.522998336591</v>
+        <v>153.336030751223</v>
       </c>
       <c r="X37" t="n">
         <v>225.7096553890372</v>
@@ -25397,13 +25399,13 @@
         <v>113.6687527430239</v>
       </c>
       <c r="E38" t="n">
-        <v>151.7265451152921</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F38" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>415.302737515135</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H38" t="n">
         <v>339.4748021157671</v>
@@ -25442,7 +25444,7 @@
         <v>209.0200695862453</v>
       </c>
       <c r="T38" t="n">
-        <v>0</v>
+        <v>10.81046392068936</v>
       </c>
       <c r="U38" t="n">
         <v>10.33136403017744</v>
@@ -25470,25 +25472,25 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C39" t="n">
-        <v>172.7084989883157</v>
+        <v>126.6730335290854</v>
       </c>
       <c r="D39" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E39" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F39" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H39" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J39" t="n">
         <v>0.7465913262578567</v>
@@ -25515,16 +25517,16 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
-        <v>73.91671058399685</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T39" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U39" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V39" t="n">
         <v>232.8005871494253</v>
@@ -25533,10 +25535,10 @@
         <v>251.6949831609196</v>
       </c>
       <c r="X39" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y39" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="40">
@@ -25555,7 +25557,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>13.24699506120118</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
         <v>145.4210480229312</v>
@@ -25609,7 +25611,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>286.522998336591</v>
+        <v>153.336030751223</v>
       </c>
       <c r="X40" t="n">
         <v>225.7096553890372</v>
@@ -25625,7 +25627,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>141.7195527858215</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C41" t="n">
         <v>365.2728917710076</v>
@@ -25640,16 +25642,16 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
-        <v>174.288448637476</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H41" t="n">
-        <v>337.6653060427309</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J41" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K41" t="n">
         <v>0</v>
@@ -25670,19 +25672,19 @@
         <v>0</v>
       </c>
       <c r="Q41" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R41" t="n">
         <v>149.8691179411497</v>
       </c>
       <c r="S41" t="n">
-        <v>209.0200695862453</v>
+        <v>0.7562331984328523</v>
       </c>
       <c r="T41" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>251.3456529078365</v>
+        <v>10.33136403017744</v>
       </c>
       <c r="V41" t="n">
         <v>327.7522584701349</v>
@@ -25704,10 +25706,10 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>21.01841839509962</v>
+        <v>0</v>
       </c>
       <c r="C42" t="n">
-        <v>172.7084989883157</v>
+        <v>7.967270650138659</v>
       </c>
       <c r="D42" t="n">
         <v>147.4450655646388</v>
@@ -25719,7 +25721,7 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G42" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H42" t="n">
         <v>112.2354442364965</v>
@@ -25728,7 +25730,7 @@
         <v>89.39663285141508</v>
       </c>
       <c r="J42" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
         <v>0</v>
@@ -25755,22 +25757,22 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S42" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T42" t="n">
         <v>200.1647286948216</v>
       </c>
       <c r="U42" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V42" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W42" t="n">
-        <v>10.68069428326055</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X42" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y42" t="n">
         <v>0</v>
@@ -25804,7 +25806,7 @@
         <v>162.2271725074396</v>
       </c>
       <c r="I43" t="n">
-        <v>155.4504749272583</v>
+        <v>22.26350734189026</v>
       </c>
       <c r="J43" t="n">
         <v>93.35918011667277</v>
@@ -25843,7 +25845,7 @@
         <v>286.3190293564909</v>
       </c>
       <c r="V43" t="n">
-        <v>118.95067573846</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
         <v>286.522998336591</v>
@@ -25862,28 +25864,28 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>382.7338416634806</v>
+        <v>141.7195527858215</v>
       </c>
       <c r="C44" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D44" t="n">
-        <v>147.0828927269451</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E44" t="n">
-        <v>381.9303700722618</v>
+        <v>140.9160811946027</v>
       </c>
       <c r="F44" t="n">
-        <v>406.8760457417114</v>
+        <v>204.5813593128142</v>
       </c>
       <c r="G44" t="n">
-        <v>207.7025886213972</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H44" t="n">
-        <v>131.8746532220293</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I44" t="n">
-        <v>37.61237763934645</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J44" t="n">
         <v>11.94928935461252</v>
@@ -25931,7 +25933,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y44" t="n">
-        <v>386.2379386560536</v>
+        <v>145.2236497783945</v>
       </c>
     </row>
     <row r="45">
@@ -25950,7 +25952,7 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E45" t="n">
-        <v>157.6450804554009</v>
+        <v>58.11593364021995</v>
       </c>
       <c r="F45" t="n">
         <v>145.0692123933839</v>
@@ -25962,10 +25964,10 @@
         <v>112.2354442364965</v>
       </c>
       <c r="I45" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
         <v>0</v>
@@ -25992,22 +25994,22 @@
         <v>0</v>
       </c>
       <c r="S45" t="n">
-        <v>87.15963042061628</v>
+        <v>0</v>
       </c>
       <c r="T45" t="n">
         <v>200.1647286948216</v>
       </c>
       <c r="U45" t="n">
-        <v>18.34123318723692</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V45" t="n">
-        <v>25.20043825568737</v>
+        <v>0</v>
       </c>
       <c r="W45" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X45" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y45" t="n">
         <v>205.6826957773044</v>
@@ -26123,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>466993.76445354</v>
+        <v>359275.5867120852</v>
       </c>
     </row>
     <row r="3">
@@ -26131,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>466993.76445354</v>
+        <v>490352.6188026464</v>
       </c>
     </row>
     <row r="4">
@@ -26139,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>466993.7644535401</v>
+        <v>490352.6188026464</v>
       </c>
     </row>
     <row r="5">
@@ -26147,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>466993.7644535401</v>
+        <v>490352.6188026464</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>466993.7644535401</v>
+        <v>490352.6188026462</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>466993.7644535401</v>
+        <v>490352.6188026464</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>490352.6188026464</v>
+        <v>490352.6188026462</v>
       </c>
     </row>
     <row r="9">
@@ -26179,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>490352.6188026464</v>
+        <v>490352.6188026461</v>
       </c>
     </row>
     <row r="10">
@@ -26203,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>490352.6188026462</v>
+        <v>490352.6188026463</v>
       </c>
     </row>
     <row r="13">
@@ -26211,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>490352.6188026464</v>
+        <v>490352.6188026462</v>
       </c>
     </row>
     <row r="14">
@@ -26235,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>466993.76445354</v>
+        <v>490352.6188026464</v>
       </c>
     </row>
   </sheetData>
@@ -26311,22 +26313,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>110775.4082889347</v>
+        <v>85241.52414397302</v>
       </c>
       <c r="C2" t="n">
-        <v>110775.4082889347</v>
+        <v>116312.4707719327</v>
       </c>
       <c r="D2" t="n">
-        <v>110775.4082889347</v>
+        <v>116312.4707719327</v>
       </c>
       <c r="E2" t="n">
-        <v>110775.4082889347</v>
+        <v>116312.4707719327</v>
       </c>
       <c r="F2" t="n">
-        <v>110775.4082889347</v>
+        <v>116312.4707719327</v>
       </c>
       <c r="G2" t="n">
-        <v>110775.4082889347</v>
+        <v>116312.4707719327</v>
       </c>
       <c r="H2" t="n">
         <v>116312.4707719327</v>
@@ -26353,7 +26355,7 @@
         <v>116312.4707719327</v>
       </c>
       <c r="P2" t="n">
-        <v>110775.4082889347</v>
+        <v>116312.4707719327</v>
       </c>
     </row>
     <row r="3">
@@ -26363,10 +26365,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>69571.58469771611</v>
+        <v>17933.27925940139</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>60576.32218666811</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
@@ -26381,16 +26383,16 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>9015.435694921785</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>54317.33335715316</v>
+        <v>14001.23214027929</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>48256.95293363261</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -26415,22 +26417,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>24047.45170716255</v>
+        <v>18353.1577223226</v>
       </c>
       <c r="C4" t="n">
-        <v>24047.45170716255</v>
+        <v>25282.26821261927</v>
       </c>
       <c r="D4" t="n">
-        <v>24047.45170716255</v>
+        <v>25282.26821261927</v>
       </c>
       <c r="E4" t="n">
-        <v>24047.45170716255</v>
+        <v>25282.26821261927</v>
       </c>
       <c r="F4" t="n">
-        <v>24047.45170716255</v>
+        <v>25282.26821261927</v>
       </c>
       <c r="G4" t="n">
-        <v>24047.45170716255</v>
+        <v>25282.26821261927</v>
       </c>
       <c r="H4" t="n">
         <v>25282.26821261927</v>
@@ -26457,7 +26459,7 @@
         <v>25282.26821261927</v>
       </c>
       <c r="P4" t="n">
-        <v>24047.45170716255</v>
+        <v>25282.26821261927</v>
       </c>
     </row>
     <row r="5">
@@ -26467,22 +26469,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>46249.68905273926</v>
+        <v>36881.16176380494</v>
       </c>
       <c r="C5" t="n">
-        <v>46249.68905273926</v>
+        <v>48281.26876376167</v>
       </c>
       <c r="D5" t="n">
-        <v>46249.68905273926</v>
+        <v>48281.26876376167</v>
       </c>
       <c r="E5" t="n">
-        <v>12622.08905273926</v>
+        <v>14653.66876376167</v>
       </c>
       <c r="F5" t="n">
-        <v>12622.08905273926</v>
+        <v>14653.66876376167</v>
       </c>
       <c r="G5" t="n">
-        <v>12622.08905273926</v>
+        <v>14653.66876376167</v>
       </c>
       <c r="H5" t="n">
         <v>14653.66876376167</v>
@@ -26509,7 +26511,7 @@
         <v>14653.66876376167</v>
       </c>
       <c r="P5" t="n">
-        <v>12622.08905273926</v>
+        <v>14653.66876376167</v>
       </c>
     </row>
     <row r="6">
@@ -26519,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-29093.31716868321</v>
+        <v>12073.92539844408</v>
       </c>
       <c r="C6" t="n">
-        <v>40478.26752903291</v>
+        <v>-17827.38839111636</v>
       </c>
       <c r="D6" t="n">
-        <v>40478.26752903288</v>
+        <v>42748.93379555176</v>
       </c>
       <c r="E6" t="n">
-        <v>74105.8675290329</v>
+        <v>76376.53379555176</v>
       </c>
       <c r="F6" t="n">
-        <v>74105.86752903288</v>
+        <v>76376.53379555173</v>
       </c>
       <c r="G6" t="n">
-        <v>74105.86752903288</v>
+        <v>76376.53379555176</v>
       </c>
       <c r="H6" t="n">
-        <v>67361.09810062996</v>
+        <v>76376.53379555175</v>
       </c>
       <c r="I6" t="n">
-        <v>76376.53379555179</v>
+        <v>76376.53379555175</v>
       </c>
       <c r="J6" t="n">
-        <v>22059.20043839858</v>
+        <v>62375.30165527246</v>
       </c>
       <c r="K6" t="n">
+        <v>28119.58086191915</v>
+      </c>
+      <c r="L6" t="n">
+        <v>76376.53379555175</v>
+      </c>
+      <c r="M6" t="n">
+        <v>76376.53379555172</v>
+      </c>
+      <c r="N6" t="n">
         <v>76376.53379555178</v>
-      </c>
-      <c r="L6" t="n">
-        <v>76376.53379555173</v>
-      </c>
-      <c r="M6" t="n">
-        <v>76376.53379555176</v>
-      </c>
-      <c r="N6" t="n">
-        <v>76376.53379555175</v>
       </c>
       <c r="O6" t="n">
         <v>76376.53379555178</v>
       </c>
       <c r="P6" t="n">
-        <v>74105.8675290329</v>
+        <v>76376.53379555175</v>
       </c>
     </row>
   </sheetData>
@@ -26787,22 +26789,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>207.6001488937379</v>
+        <v>53.51252900994975</v>
       </c>
       <c r="C4" t="n">
-        <v>207.6001488937379</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="D4" t="n">
-        <v>207.6001488937379</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="E4" t="n">
-        <v>207.6001488937379</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="F4" t="n">
-        <v>207.6001488937379</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="G4" t="n">
-        <v>207.6001488937379</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="H4" t="n">
         <v>241.0142888776591</v>
@@ -26829,7 +26831,7 @@
         <v>241.0142888776591</v>
       </c>
       <c r="P4" t="n">
-        <v>207.6001488937379</v>
+        <v>241.0142888776591</v>
       </c>
     </row>
   </sheetData>
@@ -27009,10 +27011,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>207.6001488937379</v>
+        <v>53.51252900994975</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>187.5017598677093</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -27027,16 +27029,16 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>33.41413998392116</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>207.6001488937379</v>
+        <v>53.51252900994975</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>187.5017598677093</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -27255,10 +27257,10 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>207.6001488937379</v>
+        <v>53.51252900994975</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>187.5017598677093</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -27273,7 +27275,7 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>33.41413998392116</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -34702,19 +34704,19 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>181.8947995804632</v>
+        <v>53.51252900994975</v>
       </c>
       <c r="M2" t="n">
-        <v>207.6001488937379</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>207.6001488937379</v>
+        <v>51.35040662570935</v>
       </c>
       <c r="O2" t="n">
-        <v>150.7019698410586</v>
+        <v>53.51252900994975</v>
       </c>
       <c r="P2" t="n">
-        <v>74.21564356216658</v>
+        <v>53.51252900994975</v>
       </c>
       <c r="Q2" t="n">
         <v>0</v>
@@ -34778,25 +34780,25 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>207.6001488937379</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>207.6001488937379</v>
+        <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>207.6001488937379</v>
+        <v>51.35040662570935</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>53.51252900994975</v>
       </c>
       <c r="P3" t="n">
-        <v>2.492952401903357</v>
+        <v>53.51252900994975</v>
       </c>
       <c r="Q3" t="n">
-        <v>70.09551364982758</v>
+        <v>53.51252900994975</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34936,16 +34938,16 @@
         <v>0</v>
       </c>
       <c r="K5" t="n">
-        <v>0</v>
+        <v>104.0555615261842</v>
       </c>
       <c r="L5" t="n">
         <v>181.8947995804632</v>
       </c>
       <c r="M5" t="n">
-        <v>207.6001488937379</v>
+        <v>219.1673002655598</v>
       </c>
       <c r="N5" t="n">
-        <v>191.2500800396913</v>
+        <v>207.9338608153933</v>
       </c>
       <c r="O5" t="n">
         <v>150.7019698410586</v>
@@ -35021,13 +35023,13 @@
         <v>0</v>
       </c>
       <c r="M6" t="n">
-        <v>25.60474007003436</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N6" t="n">
-        <v>207.6001488937379</v>
+        <v>91.0829537758999</v>
       </c>
       <c r="O6" t="n">
-        <v>207.6001488937379</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="P6" t="n">
         <v>184.4883612256069</v>
@@ -35173,22 +35175,22 @@
         <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>74.2156435621666</v>
+        <v>104.0555615261842</v>
       </c>
       <c r="L8" t="n">
         <v>181.8947995804632</v>
       </c>
       <c r="M8" t="n">
-        <v>207.6001488937379</v>
+        <v>219.1673002655598</v>
       </c>
       <c r="N8" t="n">
-        <v>207.6001488937379</v>
+        <v>207.9338608153932</v>
       </c>
       <c r="O8" t="n">
         <v>150.7019698410586</v>
       </c>
       <c r="P8" t="n">
-        <v>0</v>
+        <v>90.5657124162131</v>
       </c>
       <c r="Q8" t="n">
         <v>0</v>
@@ -35252,25 +35254,25 @@
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
       </c>
       <c r="M9" t="n">
-        <v>207.6001488937379</v>
+        <v>217.7067518141195</v>
       </c>
       <c r="N9" t="n">
-        <v>207.6001488937379</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O9" t="n">
-        <v>95.70025371986186</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="P9" t="n">
         <v>184.4883612256069</v>
       </c>
       <c r="Q9" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35416,10 +35418,10 @@
         <v>181.8947995804632</v>
       </c>
       <c r="M11" t="n">
-        <v>87.19451851350715</v>
+        <v>219.1673002655598</v>
       </c>
       <c r="N11" t="n">
-        <v>207.6001488937379</v>
+        <v>207.9338608153932</v>
       </c>
       <c r="O11" t="n">
         <v>150.7019698410586</v>
@@ -35489,25 +35491,25 @@
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M12" t="n">
-        <v>207.6001488937379</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N12" t="n">
-        <v>207.6001488937379</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O12" t="n">
-        <v>25.60474007003436</v>
+        <v>240.0046611659691</v>
       </c>
       <c r="P12" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35647,16 +35649,16 @@
         <v>0</v>
       </c>
       <c r="K14" t="n">
-        <v>0</v>
+        <v>104.0555615261842</v>
       </c>
       <c r="L14" t="n">
-        <v>165.5447307264167</v>
+        <v>181.8947995804632</v>
       </c>
       <c r="M14" t="n">
-        <v>207.6001488937379</v>
+        <v>219.1673002655598</v>
       </c>
       <c r="N14" t="n">
-        <v>207.6001488937379</v>
+        <v>207.9338608153932</v>
       </c>
       <c r="O14" t="n">
         <v>150.7019698410586</v>
@@ -35729,22 +35731,22 @@
         <v>126.6237980382196</v>
       </c>
       <c r="L15" t="n">
-        <v>25.60474007003436</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M15" t="n">
-        <v>207.6001488937379</v>
+        <v>169.9067907798017</v>
       </c>
       <c r="N15" t="n">
         <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>207.6001488937379</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="P15" t="n">
         <v>184.4883612256069</v>
       </c>
       <c r="Q15" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35884,22 +35886,22 @@
         <v>0</v>
       </c>
       <c r="K17" t="n">
-        <v>0</v>
+        <v>104.0555615261842</v>
       </c>
       <c r="L17" t="n">
         <v>181.8947995804632</v>
       </c>
       <c r="M17" t="n">
-        <v>207.6001488937379</v>
+        <v>219.1673002655598</v>
       </c>
       <c r="N17" t="n">
-        <v>207.6001488937379</v>
+        <v>207.9338608153932</v>
       </c>
       <c r="O17" t="n">
         <v>150.7019698410586</v>
       </c>
       <c r="P17" t="n">
-        <v>74.21564356216658</v>
+        <v>90.5657124162131</v>
       </c>
       <c r="Q17" t="n">
         <v>0</v>
@@ -35963,25 +35965,25 @@
         <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L18" t="n">
-        <v>207.6001488937379</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M18" t="n">
-        <v>0</v>
+        <v>169.9067907798017</v>
       </c>
       <c r="N18" t="n">
-        <v>152.228538108254</v>
+        <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>207.6001488937379</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="P18" t="n">
         <v>184.4883612256069</v>
       </c>
       <c r="Q18" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36200,7 +36202,7 @@
         <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L21" t="n">
         <v>232.285965523585</v>
@@ -36209,16 +36211,16 @@
         <v>241.0142888776591</v>
       </c>
       <c r="N21" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O21" t="n">
-        <v>169.9067907798016</v>
+        <v>169.9091475161414</v>
       </c>
       <c r="P21" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36440,13 +36442,13 @@
         <v>126.6237980382196</v>
       </c>
       <c r="L24" t="n">
-        <v>232.285965523585</v>
+        <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>0</v>
+        <v>161.1784674257276</v>
       </c>
       <c r="N24" t="n">
-        <v>99.81127712997396</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O24" t="n">
         <v>241.0142888776591</v>
@@ -36455,7 +36457,7 @@
         <v>184.4883612256069</v>
       </c>
       <c r="Q24" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36674,16 +36676,16 @@
         <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L27" t="n">
-        <v>232.285965523585</v>
+        <v>0</v>
       </c>
       <c r="M27" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N27" t="n">
-        <v>169.9067907798017</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O27" t="n">
         <v>241.0142888776591</v>
@@ -36692,7 +36694,7 @@
         <v>184.4883612256069</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>46.78797658628819</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36914,7 +36916,7 @@
         <v>126.6237980382196</v>
       </c>
       <c r="L30" t="n">
-        <v>161.1784674257276</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M30" t="n">
         <v>241.0142888776591</v>
@@ -36923,7 +36925,7 @@
         <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>241.0142888776591</v>
+        <v>169.9067907798016</v>
       </c>
       <c r="P30" t="n">
         <v>184.4883612256069</v>
@@ -37148,25 +37150,25 @@
         <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M33" t="n">
-        <v>217.7067518141195</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N33" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="O33" t="n">
-        <v>241.0142888776591</v>
+        <v>113.3808631277494</v>
       </c>
       <c r="P33" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37385,16 +37387,16 @@
         <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L36" t="n">
         <v>232.285965523585</v>
       </c>
       <c r="M36" t="n">
-        <v>55.51629994036225</v>
+        <v>0</v>
       </c>
       <c r="N36" t="n">
-        <v>241.0142888776591</v>
+        <v>169.9067907798017</v>
       </c>
       <c r="O36" t="n">
         <v>241.0142888776591</v>
@@ -37625,13 +37627,13 @@
         <v>126.6237980382196</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M39" t="n">
-        <v>161.1784674257276</v>
+        <v>99.81127712997396</v>
       </c>
       <c r="N39" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="O39" t="n">
         <v>241.0142888776591</v>
@@ -37640,7 +37642,7 @@
         <v>184.4883612256069</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37859,16 +37861,16 @@
         <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L42" t="n">
         <v>232.285965523585</v>
       </c>
       <c r="M42" t="n">
-        <v>43.28534947792188</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N42" t="n">
-        <v>241.0142888776591</v>
+        <v>240.0046611659691</v>
       </c>
       <c r="O42" t="n">
         <v>241.0142888776591</v>
@@ -37877,7 +37879,7 @@
         <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -38017,22 +38019,22 @@
         <v>0</v>
       </c>
       <c r="K44" t="n">
-        <v>0</v>
+        <v>104.0555615261842</v>
       </c>
       <c r="L44" t="n">
         <v>181.8947995804632</v>
       </c>
       <c r="M44" t="n">
-        <v>207.6001488937379</v>
+        <v>219.1673002655598</v>
       </c>
       <c r="N44" t="n">
-        <v>207.6001488937379</v>
+        <v>207.9338608153932</v>
       </c>
       <c r="O44" t="n">
         <v>150.7019698410586</v>
       </c>
       <c r="P44" t="n">
-        <v>74.21564356216658</v>
+        <v>90.5657124162131</v>
       </c>
       <c r="Q44" t="n">
         <v>0</v>
@@ -38099,19 +38101,19 @@
         <v>126.6237980382196</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M45" t="n">
-        <v>207.6001488937379</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N45" t="n">
-        <v>207.6001488937379</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O45" t="n">
-        <v>25.60474007003436</v>
+        <v>43.28534947792182</v>
       </c>
       <c r="P45" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
         <v>70.09551364982758</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/100000/Output_3_14.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/100000/Output_3_14.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>437318.3119170755</v>
+        <v>332857.8763617341</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>1151840.918742178</v>
+        <v>1225477.018443406</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>18548951.26311751</v>
+        <v>18621122.00443467</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>5538930.577904548</v>
+        <v>5525886.182835376</v>
       </c>
     </row>
     <row r="11">
@@ -658,13 +658,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>181.0201173812374</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
@@ -706,28 +706,28 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>47.13383555196372</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>53.51252900994975</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>53.51252900994975</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>53.51252900994975</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
     </row>
     <row r="3">
@@ -737,16 +737,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>53.51252900994975</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>53.51252900994975</v>
+        <v>14.69006202085835</v>
       </c>
       <c r="D3" t="n">
-        <v>47.13383555196375</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>53.51252900994975</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -788,10 +788,10 @@
         <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T3" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U3" t="n">
         <v>0</v>
@@ -800,10 +800,10 @@
         <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="X3" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="Y3" t="n">
         <v>0</v>
@@ -834,16 +834,16 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>1.170977004479167</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>53.51252900994975</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>53.51252900994975</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -858,7 +858,7 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q4" t="n">
         <v>0</v>
@@ -885,7 +885,7 @@
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
     </row>
     <row r="5">
@@ -895,10 +895,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
@@ -940,19 +940,19 @@
         <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>171.0294181666926</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -961,10 +961,10 @@
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>212.285385643442</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="Y5" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -974,16 +974,16 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>71.27563719245528</v>
+        <v>0</v>
       </c>
       <c r="F6" t="n">
         <v>0</v>
@@ -1022,28 +1022,28 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S6" t="n">
         <v>171.6831711038378</v>
       </c>
       <c r="T6" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U6" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
       </c>
       <c r="W6" t="n">
-        <v>0</v>
+        <v>120.0500723064956</v>
       </c>
       <c r="X6" t="n">
         <v>0</v>
       </c>
       <c r="Y6" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -1098,16 +1098,16 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>47.02492433367362</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
@@ -1132,7 +1132,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>241.0142888776591</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
@@ -1144,7 +1144,7 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>52.42556848774763</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
@@ -1177,10 +1177,10 @@
         <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -1195,13 +1195,13 @@
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>241.0142888776591</v>
+        <v>181.0201173812374</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="Y8" t="n">
-        <v>241.0142888776591</v>
+        <v>205.5178444382804</v>
       </c>
     </row>
     <row r="9">
@@ -1211,16 +1211,16 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C9" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D9" t="n">
         <v>0</v>
       </c>
       <c r="E9" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F9" t="n">
         <v>0</v>
@@ -1268,19 +1268,19 @@
         <v>0</v>
       </c>
       <c r="U9" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="V9" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="W9" t="n">
-        <v>26.98580820205342</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="X9" t="n">
-        <v>205.7729852034775</v>
+        <v>181.0201173812374</v>
       </c>
       <c r="Y9" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -1347,7 +1347,7 @@
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -1359,7 +1359,7 @@
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1369,13 +1369,13 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
@@ -1384,7 +1384,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>212.2853856434421</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -1414,22 +1414,22 @@
         <v>0</v>
       </c>
       <c r="Q11" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R11" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>21.16030022554286</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="W11" t="n">
         <v>0</v>
@@ -1448,25 +1448,25 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C12" t="n">
         <v>0</v>
       </c>
       <c r="D12" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E12" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F12" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H12" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
@@ -1505,19 +1505,19 @@
         <v>0</v>
       </c>
       <c r="U12" t="n">
-        <v>0</v>
+        <v>181.0201173812374</v>
       </c>
       <c r="V12" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="W12" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="X12" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="Y12" t="n">
-        <v>69.05674881342119</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13">
@@ -1530,55 +1530,55 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
+        <v>0</v>
+      </c>
+      <c r="D13" t="n">
+        <v>0</v>
+      </c>
+      <c r="E13" t="n">
+        <v>0</v>
+      </c>
+      <c r="F13" t="n">
+        <v>0</v>
+      </c>
+      <c r="G13" t="n">
+        <v>0</v>
+      </c>
+      <c r="H13" t="n">
+        <v>0</v>
+      </c>
+      <c r="I13" t="n">
+        <v>0</v>
+      </c>
+      <c r="J13" t="n">
+        <v>0</v>
+      </c>
+      <c r="K13" t="n">
+        <v>0</v>
+      </c>
+      <c r="L13" t="n">
+        <v>0</v>
+      </c>
+      <c r="M13" t="n">
+        <v>0</v>
+      </c>
+      <c r="N13" t="n">
+        <v>0</v>
+      </c>
+      <c r="O13" t="n">
+        <v>0</v>
+      </c>
+      <c r="P13" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q13" t="n">
+        <v>0</v>
+      </c>
+      <c r="R13" t="n">
+        <v>0</v>
+      </c>
+      <c r="S13" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="D13" t="n">
-        <v>0</v>
-      </c>
-      <c r="E13" t="n">
-        <v>0</v>
-      </c>
-      <c r="F13" t="n">
-        <v>0</v>
-      </c>
-      <c r="G13" t="n">
-        <v>0</v>
-      </c>
-      <c r="H13" t="n">
-        <v>0</v>
-      </c>
-      <c r="I13" t="n">
-        <v>0</v>
-      </c>
-      <c r="J13" t="n">
-        <v>0</v>
-      </c>
-      <c r="K13" t="n">
-        <v>0</v>
-      </c>
-      <c r="L13" t="n">
-        <v>0</v>
-      </c>
-      <c r="M13" t="n">
-        <v>0</v>
-      </c>
-      <c r="N13" t="n">
-        <v>0</v>
-      </c>
-      <c r="O13" t="n">
-        <v>0</v>
-      </c>
-      <c r="P13" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q13" t="n">
-        <v>0</v>
-      </c>
-      <c r="R13" t="n">
-        <v>0</v>
-      </c>
-      <c r="S13" t="n">
-        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -1618,16 +1618,16 @@
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>241.0142888776591</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="H14" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>210.4758895704059</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1654,13 +1654,13 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>31.15099944008764</v>
       </c>
       <c r="T14" t="n">
-        <v>1.809496073036132</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="U14" t="n">
         <v>0</v>
@@ -1675,7 +1675,7 @@
         <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
     </row>
     <row r="15">
@@ -1736,25 +1736,25 @@
         <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T15" t="n">
-        <v>126.2480181108247</v>
+        <v>0</v>
       </c>
       <c r="U15" t="n">
-        <v>225.9413820809748</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="V15" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="W15" t="n">
-        <v>0</v>
+        <v>181.0201173812374</v>
       </c>
       <c r="X15" t="n">
-        <v>205.7729852034775</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="Y15" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16">
@@ -1785,13 +1785,13 @@
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>14.83685490770591</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>93.35918011667277</v>
+        <v>0</v>
       </c>
       <c r="K16" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L16" t="n">
         <v>0</v>
@@ -1806,7 +1806,7 @@
         <v>0</v>
       </c>
       <c r="P16" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q16" t="n">
         <v>0</v>
@@ -1821,7 +1821,7 @@
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -1849,7 +1849,7 @@
         <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="E17" t="n">
         <v>0</v>
@@ -1858,13 +1858,13 @@
         <v>241.0142888776591</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="H17" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>202.2946864288972</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1888,19 +1888,19 @@
         <v>0</v>
       </c>
       <c r="Q17" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>80.33470701582003</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -1925,28 +1925,28 @@
         <v>0</v>
       </c>
       <c r="C18" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D18" t="n">
         <v>0</v>
       </c>
       <c r="E18" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F18" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G18" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
@@ -1970,13 +1970,13 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
-        <v>171.6831711038378</v>
+        <v>141.2741178240104</v>
       </c>
       <c r="T18" t="n">
-        <v>79.32306705084062</v>
+        <v>0</v>
       </c>
       <c r="U18" t="n">
         <v>0</v>
@@ -1985,13 +1985,13 @@
         <v>0</v>
       </c>
       <c r="W18" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X18" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y18" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19">
@@ -2046,13 +2046,13 @@
         <v>0</v>
       </c>
       <c r="Q19" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="S19" t="n">
-        <v>47.02492433367365</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -2083,25 +2083,25 @@
         <v>0</v>
       </c>
       <c r="C20" t="n">
+        <v>0</v>
+      </c>
+      <c r="D20" t="n">
+        <v>0</v>
+      </c>
+      <c r="E20" t="n">
+        <v>0</v>
+      </c>
+      <c r="F20" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="D20" t="n">
-        <v>0</v>
-      </c>
-      <c r="E20" t="n">
-        <v>0</v>
-      </c>
-      <c r="F20" t="n">
-        <v>0</v>
-      </c>
       <c r="G20" t="n">
         <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>82.96396779500076</v>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2125,22 +2125,22 @@
         <v>0</v>
       </c>
       <c r="Q20" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>212.285385643442</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="V20" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="W20" t="n">
         <v>0</v>
@@ -2168,13 +2168,13 @@
         <v>0</v>
       </c>
       <c r="E21" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F21" t="n">
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
@@ -2183,7 +2183,7 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
@@ -2207,28 +2207,28 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>171.6831711038378</v>
       </c>
       <c r="T21" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U21" t="n">
-        <v>167.5873293802472</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V21" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W21" t="n">
-        <v>0</v>
+        <v>99.22041616487701</v>
       </c>
       <c r="X21" t="n">
         <v>0</v>
       </c>
       <c r="Y21" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="22">
@@ -2295,10 +2295,10 @@
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="V22" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
@@ -2317,19 +2317,19 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="C23" t="n">
         <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>0</v>
+        <v>200.3360962888297</v>
       </c>
       <c r="E23" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="F23" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="G23" t="n">
         <v>241.0142888776591</v>
@@ -2341,7 +2341,7 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K23" t="n">
         <v>0</v>
@@ -2374,7 +2374,7 @@
         <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>212.285385643442</v>
+        <v>0</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -2399,7 +2399,7 @@
         <v>0</v>
       </c>
       <c r="C24" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D24" t="n">
         <v>0</v>
@@ -2411,7 +2411,7 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>23.82307707298864</v>
+        <v>0</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
@@ -2444,28 +2444,28 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T24" t="n">
         <v>0</v>
       </c>
       <c r="U24" t="n">
-        <v>225.9413820809748</v>
+        <v>50.05769526855297</v>
       </c>
       <c r="V24" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W24" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="X24" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y24" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="25">
@@ -2475,67 +2475,67 @@
         </is>
       </c>
       <c r="B25" t="n">
+        <v>0</v>
+      </c>
+      <c r="C25" t="n">
+        <v>0</v>
+      </c>
+      <c r="D25" t="n">
+        <v>0</v>
+      </c>
+      <c r="E25" t="n">
+        <v>0</v>
+      </c>
+      <c r="F25" t="n">
+        <v>0</v>
+      </c>
+      <c r="G25" t="n">
+        <v>0</v>
+      </c>
+      <c r="H25" t="n">
+        <v>0</v>
+      </c>
+      <c r="I25" t="n">
+        <v>0</v>
+      </c>
+      <c r="J25" t="n">
+        <v>0</v>
+      </c>
+      <c r="K25" t="n">
+        <v>0</v>
+      </c>
+      <c r="L25" t="n">
+        <v>0</v>
+      </c>
+      <c r="M25" t="n">
+        <v>0</v>
+      </c>
+      <c r="N25" t="n">
+        <v>0</v>
+      </c>
+      <c r="O25" t="n">
+        <v>0</v>
+      </c>
+      <c r="P25" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q25" t="n">
+        <v>0</v>
+      </c>
+      <c r="R25" t="n">
+        <v>0</v>
+      </c>
+      <c r="S25" t="n">
+        <v>0</v>
+      </c>
+      <c r="T25" t="n">
+        <v>0</v>
+      </c>
+      <c r="U25" t="n">
+        <v>0</v>
+      </c>
+      <c r="V25" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="C25" t="n">
-        <v>0</v>
-      </c>
-      <c r="D25" t="n">
-        <v>0</v>
-      </c>
-      <c r="E25" t="n">
-        <v>0</v>
-      </c>
-      <c r="F25" t="n">
-        <v>0</v>
-      </c>
-      <c r="G25" t="n">
-        <v>0</v>
-      </c>
-      <c r="H25" t="n">
-        <v>0</v>
-      </c>
-      <c r="I25" t="n">
-        <v>0</v>
-      </c>
-      <c r="J25" t="n">
-        <v>0</v>
-      </c>
-      <c r="K25" t="n">
-        <v>0</v>
-      </c>
-      <c r="L25" t="n">
-        <v>0</v>
-      </c>
-      <c r="M25" t="n">
-        <v>0</v>
-      </c>
-      <c r="N25" t="n">
-        <v>0</v>
-      </c>
-      <c r="O25" t="n">
-        <v>0</v>
-      </c>
-      <c r="P25" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q25" t="n">
-        <v>0</v>
-      </c>
-      <c r="R25" t="n">
-        <v>0</v>
-      </c>
-      <c r="S25" t="n">
-        <v>0</v>
-      </c>
-      <c r="T25" t="n">
-        <v>0</v>
-      </c>
-      <c r="U25" t="n">
-        <v>0</v>
-      </c>
-      <c r="V25" t="n">
-        <v>0</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
@@ -2557,20 +2557,20 @@
         <v>0</v>
       </c>
       <c r="C26" t="n">
+        <v>0</v>
+      </c>
+      <c r="D26" t="n">
+        <v>0</v>
+      </c>
+      <c r="E26" t="n">
+        <v>0</v>
+      </c>
+      <c r="F26" t="n">
+        <v>0</v>
+      </c>
+      <c r="G26" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="D26" t="n">
-        <v>0</v>
-      </c>
-      <c r="E26" t="n">
-        <v>0</v>
-      </c>
-      <c r="F26" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="G26" t="n">
-        <v>0</v>
-      </c>
       <c r="H26" t="n">
         <v>0</v>
       </c>
@@ -2578,7 +2578,7 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K26" t="n">
         <v>0</v>
@@ -2599,28 +2599,28 @@
         <v>0</v>
       </c>
       <c r="Q26" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U26" t="n">
         <v>0</v>
       </c>
       <c r="V26" t="n">
-        <v>0</v>
+        <v>218.2545356023573</v>
       </c>
       <c r="W26" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="X26" t="n">
-        <v>52.42556848774763</v>
+        <v>0</v>
       </c>
       <c r="Y26" t="n">
         <v>0</v>
@@ -2681,25 +2681,25 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
       </c>
       <c r="T27" t="n">
-        <v>0</v>
+        <v>65.1306020652372</v>
       </c>
       <c r="U27" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V27" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W27" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X27" t="n">
-        <v>155.6728463193873</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y27" t="n">
         <v>205.6826957773044</v>
@@ -2763,19 +2763,19 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
+        <v>0</v>
+      </c>
+      <c r="T28" t="n">
+        <v>0</v>
+      </c>
+      <c r="U28" t="n">
+        <v>0</v>
+      </c>
+      <c r="V28" t="n">
+        <v>0</v>
+      </c>
+      <c r="W28" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="T28" t="n">
-        <v>0</v>
-      </c>
-      <c r="U28" t="n">
-        <v>0</v>
-      </c>
-      <c r="V28" t="n">
-        <v>0</v>
-      </c>
-      <c r="W28" t="n">
-        <v>0</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
@@ -2791,7 +2791,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="C29" t="n">
         <v>0</v>
@@ -2806,7 +2806,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -2839,25 +2839,25 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R29" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>84.41978777916125</v>
+        <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="V29" t="n">
-        <v>0</v>
+        <v>202.2946864288972</v>
       </c>
       <c r="W29" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X29" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="Y29" t="n">
         <v>0</v>
@@ -2921,10 +2921,10 @@
         <v>0</v>
       </c>
       <c r="S30" t="n">
-        <v>0</v>
+        <v>65.1306020652372</v>
       </c>
       <c r="T30" t="n">
-        <v>29.79900896488251</v>
+        <v>0</v>
       </c>
       <c r="U30" t="n">
         <v>225.9413820809748</v>
@@ -2933,13 +2933,13 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W30" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X30" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y30" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="31">
@@ -2994,13 +2994,13 @@
         <v>0</v>
       </c>
       <c r="Q31" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>47.02492433367365</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -3009,7 +3009,7 @@
         <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
@@ -3028,7 +3028,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0</v>
+        <v>11.19305615617957</v>
       </c>
       <c r="C32" t="n">
         <v>0</v>
@@ -3046,7 +3046,7 @@
         <v>241.0142888776591</v>
       </c>
       <c r="H32" t="n">
-        <v>230.2038249569697</v>
+        <v>0</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -3073,13 +3073,13 @@
         <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R32" t="n">
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T32" t="n">
         <v>223.0958495641314</v>
@@ -3107,16 +3107,16 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C33" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D33" t="n">
         <v>0</v>
       </c>
       <c r="E33" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F33" t="n">
         <v>0</v>
@@ -3131,7 +3131,7 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
         <v>0</v>
@@ -3155,28 +3155,28 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>12.6141149652589</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T33" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U33" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V33" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W33" t="n">
-        <v>0</v>
+        <v>118.3634851578964</v>
       </c>
       <c r="X33" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y33" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="34">
@@ -3240,7 +3240,7 @@
         <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
@@ -3249,7 +3249,7 @@
         <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
@@ -3265,28 +3265,28 @@
         </is>
       </c>
       <c r="B35" t="n">
+        <v>0</v>
+      </c>
+      <c r="C35" t="n">
+        <v>0</v>
+      </c>
+      <c r="D35" t="n">
+        <v>0</v>
+      </c>
+      <c r="E35" t="n">
+        <v>112.3289263072337</v>
+      </c>
+      <c r="F35" t="n">
+        <v>0</v>
+      </c>
+      <c r="G35" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="C35" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="D35" t="n">
-        <v>0</v>
-      </c>
-      <c r="E35" t="n">
-        <v>0</v>
-      </c>
-      <c r="F35" t="n">
-        <v>0</v>
-      </c>
-      <c r="G35" t="n">
-        <v>0</v>
-      </c>
       <c r="H35" t="n">
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>202.2946864288972</v>
+        <v>0</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3310,16 +3310,16 @@
         <v>0</v>
       </c>
       <c r="Q35" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T35" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U35" t="n">
         <v>0</v>
@@ -3331,7 +3331,7 @@
         <v>0</v>
       </c>
       <c r="X35" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="Y35" t="n">
         <v>0</v>
@@ -3359,7 +3359,7 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
@@ -3398,7 +3398,7 @@
         <v>0</v>
       </c>
       <c r="T36" t="n">
-        <v>200.1647286948216</v>
+        <v>29.79900896488251</v>
       </c>
       <c r="U36" t="n">
         <v>225.9413820809748</v>
@@ -3407,10 +3407,10 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W36" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X36" t="n">
-        <v>139.0780371879869</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y36" t="n">
         <v>0</v>
@@ -3508,13 +3508,13 @@
         <v>0</v>
       </c>
       <c r="D38" t="n">
+        <v>0</v>
+      </c>
+      <c r="E38" t="n">
+        <v>0</v>
+      </c>
+      <c r="F38" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="E38" t="n">
-        <v>0</v>
-      </c>
-      <c r="F38" t="n">
-        <v>0</v>
       </c>
       <c r="G38" t="n">
         <v>241.0142888776591</v>
@@ -3526,7 +3526,7 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K38" t="n">
         <v>0</v>
@@ -3550,16 +3550,16 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>212.285385643442</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U38" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -3571,7 +3571,7 @@
         <v>0</v>
       </c>
       <c r="Y38" t="n">
-        <v>0</v>
+        <v>68.38541766120755</v>
       </c>
     </row>
     <row r="39">
@@ -3584,25 +3584,25 @@
         <v>0</v>
       </c>
       <c r="C39" t="n">
-        <v>46.03546545923035</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D39" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E39" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F39" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H39" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3629,7 +3629,7 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>100.1578341526431</v>
+        <v>89.89109712599213</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -3638,16 +3638,16 @@
         <v>0</v>
       </c>
       <c r="U39" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
       </c>
       <c r="W39" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X39" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y39" t="n">
         <v>0</v>
@@ -3745,13 +3745,13 @@
         <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="E41" t="n">
         <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="G41" t="n">
         <v>0</v>
@@ -3763,7 +3763,7 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K41" t="n">
         <v>0</v>
@@ -3784,19 +3784,19 @@
         <v>0</v>
       </c>
       <c r="Q41" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S41" t="n">
-        <v>208.2638363878125</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="T41" t="n">
-        <v>223.0958495641314</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="U41" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -3808,7 +3808,7 @@
         <v>0</v>
       </c>
       <c r="Y41" t="n">
-        <v>0</v>
+        <v>31.1509994400877</v>
       </c>
     </row>
     <row r="42">
@@ -3818,10 +3818,10 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C42" t="n">
-        <v>164.7412283381771</v>
+        <v>0</v>
       </c>
       <c r="D42" t="n">
         <v>0</v>
@@ -3842,7 +3842,7 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
         <v>0</v>
@@ -3869,25 +3869,25 @@
         <v>0</v>
       </c>
       <c r="S42" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T42" t="n">
-        <v>0</v>
+        <v>181.0201173812374</v>
       </c>
       <c r="U42" t="n">
-        <v>225.9413820809748</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
       </c>
       <c r="W42" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="X42" t="n">
         <v>0</v>
       </c>
       <c r="Y42" t="n">
-        <v>205.6826957773044</v>
+        <v>205.5178444382804</v>
       </c>
     </row>
     <row r="43">
@@ -3918,49 +3918,49 @@
         <v>0</v>
       </c>
       <c r="I43" t="n">
+        <v>0</v>
+      </c>
+      <c r="J43" t="n">
+        <v>0</v>
+      </c>
+      <c r="K43" t="n">
+        <v>0</v>
+      </c>
+      <c r="L43" t="n">
+        <v>0</v>
+      </c>
+      <c r="M43" t="n">
+        <v>0</v>
+      </c>
+      <c r="N43" t="n">
+        <v>0</v>
+      </c>
+      <c r="O43" t="n">
+        <v>0</v>
+      </c>
+      <c r="P43" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q43" t="n">
+        <v>0</v>
+      </c>
+      <c r="R43" t="n">
+        <v>0</v>
+      </c>
+      <c r="S43" t="n">
+        <v>0</v>
+      </c>
+      <c r="T43" t="n">
+        <v>0</v>
+      </c>
+      <c r="U43" t="n">
+        <v>0</v>
+      </c>
+      <c r="V43" t="n">
+        <v>0</v>
+      </c>
+      <c r="W43" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="J43" t="n">
-        <v>0</v>
-      </c>
-      <c r="K43" t="n">
-        <v>0</v>
-      </c>
-      <c r="L43" t="n">
-        <v>0</v>
-      </c>
-      <c r="M43" t="n">
-        <v>0</v>
-      </c>
-      <c r="N43" t="n">
-        <v>0</v>
-      </c>
-      <c r="O43" t="n">
-        <v>0</v>
-      </c>
-      <c r="P43" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q43" t="n">
-        <v>0</v>
-      </c>
-      <c r="R43" t="n">
-        <v>0</v>
-      </c>
-      <c r="S43" t="n">
-        <v>0</v>
-      </c>
-      <c r="T43" t="n">
-        <v>0</v>
-      </c>
-      <c r="U43" t="n">
-        <v>0</v>
-      </c>
-      <c r="V43" t="n">
-        <v>0</v>
-      </c>
-      <c r="W43" t="n">
-        <v>0</v>
       </c>
       <c r="X43" t="n">
         <v>0</v>
@@ -3976,7 +3976,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="C44" t="n">
         <v>0</v>
@@ -3985,13 +3985,13 @@
         <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>202.2946864288972</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -4021,16 +4021,16 @@
         <v>0</v>
       </c>
       <c r="Q44" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="U44" t="n">
         <v>0</v>
@@ -4045,7 +4045,7 @@
         <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>241.0142888776591</v>
+        <v>31.1509994400877</v>
       </c>
     </row>
     <row r="45">
@@ -4064,7 +4064,7 @@
         <v>0</v>
       </c>
       <c r="E45" t="n">
-        <v>99.52914681518099</v>
+        <v>0</v>
       </c>
       <c r="F45" t="n">
         <v>0</v>
@@ -4076,10 +4076,10 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
         <v>0</v>
@@ -4103,25 +4103,25 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T45" t="n">
         <v>0</v>
       </c>
       <c r="U45" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="V45" t="n">
-        <v>232.8005871494253</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="W45" t="n">
-        <v>241.0142888776591</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="X45" t="n">
-        <v>0</v>
+        <v>181.0201173812374</v>
       </c>
       <c r="Y45" t="n">
         <v>0</v>
@@ -4194,10 +4194,10 @@
         <v>0</v>
       </c>
       <c r="V46" t="n">
+        <v>0</v>
+      </c>
+      <c r="W46" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="W46" t="n">
-        <v>0</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
@@ -4306,76 +4306,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>4.28100232079598</v>
+        <v>406.8838132313431</v>
       </c>
       <c r="C2" t="n">
-        <v>4.28100232079598</v>
+        <v>199.2900309704538</v>
       </c>
       <c r="D2" t="n">
-        <v>4.28100232079598</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="E2" t="n">
-        <v>4.28100232079598</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="F2" t="n">
-        <v>4.28100232079598</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="G2" t="n">
-        <v>4.28100232079598</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="H2" t="n">
-        <v>4.28100232079598</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="I2" t="n">
-        <v>4.28100232079598</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="J2" t="n">
-        <v>4.28100232079598</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="K2" t="n">
-        <v>4.28100232079598</v>
+        <v>119.4564334659848</v>
       </c>
       <c r="L2" t="n">
-        <v>57.25840604064623</v>
+        <v>299.5322850506434</v>
       </c>
       <c r="M2" t="n">
-        <v>57.25840604064623</v>
+        <v>469.413761616576</v>
       </c>
       <c r="N2" t="n">
-        <v>108.0953086000985</v>
+        <v>672.8764276104736</v>
       </c>
       <c r="O2" t="n">
-        <v>161.0727123199487</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="P2" t="n">
-        <v>214.050116039799</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="Q2" t="n">
-        <v>214.050116039799</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="R2" t="n">
-        <v>166.4401811388256</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="S2" t="n">
-        <v>112.3871215328157</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="T2" t="n">
-        <v>112.3871215328157</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="U2" t="n">
-        <v>58.33406192680583</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="V2" t="n">
-        <v>58.33406192680583</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="W2" t="n">
-        <v>4.28100232079598</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="X2" t="n">
-        <v>4.28100232079598</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="Y2" t="n">
-        <v>4.28100232079598</v>
+        <v>614.4775954922324</v>
       </c>
     </row>
     <row r="3">
@@ -4385,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>159.9970564337892</v>
+        <v>31.27987404077794</v>
       </c>
       <c r="C3" t="n">
-        <v>105.9439968277793</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="D3" t="n">
-        <v>58.33406192680583</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="E3" t="n">
-        <v>4.28100232079598</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="F3" t="n">
-        <v>4.28100232079598</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="G3" t="n">
-        <v>4.28100232079598</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="H3" t="n">
-        <v>4.28100232079598</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="I3" t="n">
-        <v>4.28100232079598</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="J3" t="n">
-        <v>4.28100232079598</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="K3" t="n">
-        <v>4.28100232079598</v>
+        <v>141.7989876128999</v>
       </c>
       <c r="L3" t="n">
-        <v>4.28100232079598</v>
+        <v>345.2616536067974</v>
       </c>
       <c r="M3" t="n">
-        <v>4.28100232079598</v>
+        <v>435.9652341458732</v>
       </c>
       <c r="N3" t="n">
-        <v>55.11790488024824</v>
+        <v>639.4279001397708</v>
       </c>
       <c r="O3" t="n">
-        <v>108.0953086000985</v>
+        <v>639.4279001397708</v>
       </c>
       <c r="P3" t="n">
-        <v>161.0727123199487</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="Q3" t="n">
-        <v>214.050116039799</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="R3" t="n">
-        <v>214.050116039799</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="S3" t="n">
-        <v>214.050116039799</v>
+        <v>648.6540332037905</v>
       </c>
       <c r="T3" t="n">
-        <v>214.050116039799</v>
+        <v>446.4674385625565</v>
       </c>
       <c r="U3" t="n">
-        <v>214.050116039799</v>
+        <v>446.4674385625565</v>
       </c>
       <c r="V3" t="n">
-        <v>214.050116039799</v>
+        <v>446.4674385625565</v>
       </c>
       <c r="W3" t="n">
-        <v>214.050116039799</v>
+        <v>238.8736563016672</v>
       </c>
       <c r="X3" t="n">
-        <v>214.050116039799</v>
+        <v>31.27987404077794</v>
       </c>
       <c r="Y3" t="n">
-        <v>214.050116039799</v>
+        <v>31.27987404077794</v>
       </c>
     </row>
     <row r="4">
@@ -4464,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>136.0643627756056</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="C4" t="n">
-        <v>136.0643627756056</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="D4" t="n">
-        <v>136.0643627756056</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="E4" t="n">
-        <v>136.0643627756056</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="F4" t="n">
-        <v>136.0643627756056</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="G4" t="n">
-        <v>136.0643627756056</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="H4" t="n">
-        <v>134.8815577205762</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="I4" t="n">
-        <v>80.82849811456629</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="J4" t="n">
-        <v>26.77543850855644</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="K4" t="n">
-        <v>4.28100232079598</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="L4" t="n">
-        <v>31.59512732850896</v>
+        <v>43.75555256277541</v>
       </c>
       <c r="M4" t="n">
-        <v>70.78316552073113</v>
+        <v>82.94359075499759</v>
       </c>
       <c r="N4" t="n">
-        <v>114.4740161761674</v>
+        <v>126.6344414104339</v>
       </c>
       <c r="O4" t="n">
-        <v>138.8132928110667</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="P4" t="n">
-        <v>136.0643627756056</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="Q4" t="n">
-        <v>136.0643627756056</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="R4" t="n">
-        <v>136.0643627756056</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="S4" t="n">
-        <v>136.0643627756056</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="T4" t="n">
-        <v>136.0643627756056</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="U4" t="n">
-        <v>136.0643627756056</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="V4" t="n">
-        <v>136.0643627756056</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="W4" t="n">
-        <v>136.0643627756056</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="X4" t="n">
-        <v>136.0643627756056</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="Y4" t="n">
-        <v>136.0643627756056</v>
+        <v>16.44142755506243</v>
       </c>
     </row>
     <row r="5">
@@ -4543,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>262.7299197543128</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="C5" t="n">
-        <v>19.28114311021272</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="D5" t="n">
-        <v>19.28114311021272</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="E5" t="n">
-        <v>19.28114311021272</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="F5" t="n">
-        <v>19.28114311021272</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="G5" t="n">
-        <v>19.28114311021272</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="H5" t="n">
-        <v>19.28114311021272</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="I5" t="n">
-        <v>19.28114311021272</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="J5" t="n">
-        <v>19.28114311021272</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="K5" t="n">
-        <v>122.2961490211351</v>
+        <v>119.4564334659848</v>
       </c>
       <c r="L5" t="n">
-        <v>302.3720006057937</v>
+        <v>176.2910403306274</v>
       </c>
       <c r="M5" t="n">
-        <v>519.3476278686978</v>
+        <v>379.753706324525</v>
       </c>
       <c r="N5" t="n">
-        <v>725.2021500759372</v>
+        <v>583.2163723184226</v>
       </c>
       <c r="O5" t="n">
-        <v>874.3971002185853</v>
+        <v>732.4113224610707</v>
       </c>
       <c r="P5" t="n">
-        <v>964.0571555106362</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="Q5" t="n">
-        <v>964.0571555106362</v>
+        <v>811.9797623848946</v>
       </c>
       <c r="R5" t="n">
-        <v>964.0571555106362</v>
+        <v>811.9797623848946</v>
       </c>
       <c r="S5" t="n">
-        <v>964.0571555106362</v>
+        <v>604.3859801240053</v>
       </c>
       <c r="T5" t="n">
-        <v>964.0571555106362</v>
+        <v>431.628992076841</v>
       </c>
       <c r="U5" t="n">
-        <v>964.0571555106362</v>
+        <v>224.0352098159517</v>
       </c>
       <c r="V5" t="n">
-        <v>964.0571555106362</v>
+        <v>224.0352098159517</v>
       </c>
       <c r="W5" t="n">
-        <v>964.0571555106362</v>
+        <v>224.0352098159517</v>
       </c>
       <c r="X5" t="n">
-        <v>749.627473042513</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="Y5" t="n">
-        <v>506.1786963984129</v>
+        <v>16.44142755506243</v>
       </c>
     </row>
     <row r="6">
@@ -4622,76 +4622,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>414.6641751762832</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="C6" t="n">
-        <v>240.2111458951562</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="D6" t="n">
-        <v>91.27673623390493</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="E6" t="n">
-        <v>19.28114311021272</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="F6" t="n">
-        <v>19.28114311021272</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="G6" t="n">
-        <v>19.28114311021272</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="H6" t="n">
-        <v>19.28114311021272</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="I6" t="n">
-        <v>19.28114311021272</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="J6" t="n">
-        <v>19.28114311021272</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="K6" t="n">
-        <v>144.6387031680501</v>
+        <v>141.7989876128999</v>
       </c>
       <c r="L6" t="n">
-        <v>144.6387031680501</v>
+        <v>232.5025681519757</v>
       </c>
       <c r="M6" t="n">
-        <v>383.2428491569326</v>
+        <v>435.9652341458732</v>
       </c>
       <c r="N6" t="n">
-        <v>473.4149733950735</v>
+        <v>435.9652341458732</v>
       </c>
       <c r="O6" t="n">
-        <v>712.019119383956</v>
+        <v>639.4279001397708</v>
       </c>
       <c r="P6" t="n">
-        <v>894.6625969973069</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="Q6" t="n">
-        <v>964.0571555106362</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="R6" t="n">
-        <v>964.0571555106362</v>
+        <v>720.9018483060073</v>
       </c>
       <c r="S6" t="n">
-        <v>790.6398109613051</v>
+        <v>547.4845037566762</v>
       </c>
       <c r="T6" t="n">
-        <v>790.6398109613051</v>
+        <v>345.2979091154422</v>
       </c>
       <c r="U6" t="n">
-        <v>790.6398109613051</v>
+        <v>137.7041268545529</v>
       </c>
       <c r="V6" t="n">
-        <v>790.6398109613051</v>
+        <v>137.7041268545529</v>
       </c>
       <c r="W6" t="n">
-        <v>790.6398109613051</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="X6" t="n">
-        <v>790.6398109613051</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="Y6" t="n">
-        <v>582.8795121963512</v>
+        <v>16.44142755506243</v>
       </c>
     </row>
     <row r="7">
@@ -4701,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>19.28114311021272</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="C7" t="n">
-        <v>19.28114311021272</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="D7" t="n">
-        <v>19.28114311021272</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="E7" t="n">
-        <v>19.28114311021272</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="F7" t="n">
-        <v>19.28114311021272</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="G7" t="n">
-        <v>19.28114311021272</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="H7" t="n">
-        <v>19.28114311021272</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="I7" t="n">
-        <v>19.28114311021272</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="J7" t="n">
-        <v>19.28114311021272</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="K7" t="n">
-        <v>19.28114311021272</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="L7" t="n">
-        <v>46.5952681179257</v>
+        <v>43.75555256277541</v>
       </c>
       <c r="M7" t="n">
-        <v>85.78330631014788</v>
+        <v>82.94359075499759</v>
       </c>
       <c r="N7" t="n">
-        <v>129.4741569655842</v>
+        <v>126.6344414104339</v>
       </c>
       <c r="O7" t="n">
-        <v>153.8134336004835</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="P7" t="n">
-        <v>153.8134336004835</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="Q7" t="n">
-        <v>153.8134336004835</v>
+        <v>63.94135112442973</v>
       </c>
       <c r="R7" t="n">
-        <v>153.8134336004835</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="S7" t="n">
-        <v>153.8134336004835</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="T7" t="n">
-        <v>19.28114311021272</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="U7" t="n">
-        <v>19.28114311021272</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="V7" t="n">
-        <v>19.28114311021272</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="W7" t="n">
-        <v>19.28114311021272</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="X7" t="n">
-        <v>19.28114311021272</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="Y7" t="n">
-        <v>19.28114311021272</v>
+        <v>16.44142755506243</v>
       </c>
     </row>
     <row r="8">
@@ -4780,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>72.23626279480629</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="C8" t="n">
-        <v>72.23626279480629</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="D8" t="n">
-        <v>72.23626279480629</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="E8" t="n">
-        <v>72.23626279480629</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="F8" t="n">
-        <v>19.28114311021272</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="G8" t="n">
-        <v>19.28114311021272</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="H8" t="n">
-        <v>19.28114311021272</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="I8" t="n">
-        <v>19.28114311021272</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="J8" t="n">
-        <v>19.28114311021272</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="K8" t="n">
-        <v>122.2961490211351</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="L8" t="n">
-        <v>302.3720006057937</v>
+        <v>196.517279139721</v>
       </c>
       <c r="M8" t="n">
-        <v>519.3476278686978</v>
+        <v>399.9799451336186</v>
       </c>
       <c r="N8" t="n">
-        <v>725.2021500759372</v>
+        <v>603.4426111275161</v>
       </c>
       <c r="O8" t="n">
-        <v>874.3971002185853</v>
+        <v>752.6375612701642</v>
       </c>
       <c r="P8" t="n">
-        <v>964.0571555106362</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="Q8" t="n">
-        <v>953.9655401424092</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="R8" t="n">
-        <v>802.5825927271064</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="S8" t="n">
-        <v>802.5825927271064</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="T8" t="n">
-        <v>802.5825927271064</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="U8" t="n">
-        <v>802.5825927271064</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="V8" t="n">
-        <v>802.5825927271064</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="W8" t="n">
-        <v>559.1338160830064</v>
+        <v>639.2227743377304</v>
       </c>
       <c r="X8" t="n">
-        <v>559.1338160830064</v>
+        <v>431.628992076841</v>
       </c>
       <c r="Y8" t="n">
-        <v>315.6850394389064</v>
+        <v>224.0352098159517</v>
       </c>
     </row>
     <row r="9">
@@ -4859,76 +4859,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>352.9716273967953</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="C9" t="n">
-        <v>178.5185981156682</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="D9" t="n">
-        <v>178.5185981156682</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="E9" t="n">
-        <v>19.28114311021272</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="F9" t="n">
-        <v>19.28114311021272</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="G9" t="n">
-        <v>19.28114311021272</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="H9" t="n">
-        <v>19.28114311021272</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="I9" t="n">
-        <v>19.28114311021272</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="J9" t="n">
-        <v>19.28114311021272</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="K9" t="n">
-        <v>19.28114311021272</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="L9" t="n">
-        <v>19.28114311021272</v>
+        <v>219.90409354896</v>
       </c>
       <c r="M9" t="n">
-        <v>234.810827406191</v>
+        <v>423.3667595428576</v>
       </c>
       <c r="N9" t="n">
-        <v>473.4149733950735</v>
+        <v>626.8294255367553</v>
       </c>
       <c r="O9" t="n">
-        <v>712.019119383956</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="P9" t="n">
-        <v>894.6625969973069</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="Q9" t="n">
-        <v>964.0571555106362</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="R9" t="n">
-        <v>964.0571555106362</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="S9" t="n">
-        <v>964.0571555106362</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="T9" t="n">
-        <v>964.0571555106362</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="U9" t="n">
-        <v>964.0571555106362</v>
+        <v>614.4775954922324</v>
       </c>
       <c r="V9" t="n">
-        <v>964.0571555106362</v>
+        <v>406.8838132313431</v>
       </c>
       <c r="W9" t="n">
-        <v>936.7987633873499</v>
+        <v>199.2900309704538</v>
       </c>
       <c r="X9" t="n">
-        <v>728.9472631818171</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="Y9" t="n">
-        <v>521.1869644168632</v>
+        <v>16.44142755506243</v>
       </c>
     </row>
     <row r="10">
@@ -4938,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>19.28114311021272</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="C10" t="n">
-        <v>19.28114311021272</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="D10" t="n">
-        <v>19.28114311021272</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="E10" t="n">
-        <v>19.28114311021272</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="F10" t="n">
-        <v>19.28114311021272</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="G10" t="n">
-        <v>19.28114311021272</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="H10" t="n">
-        <v>19.28114311021272</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="I10" t="n">
-        <v>19.28114311021272</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="J10" t="n">
-        <v>19.28114311021272</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="K10" t="n">
-        <v>19.28114311021272</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="L10" t="n">
-        <v>46.5952681179257</v>
+        <v>43.75555256277541</v>
       </c>
       <c r="M10" t="n">
-        <v>85.78330631014788</v>
+        <v>82.94359075499759</v>
       </c>
       <c r="N10" t="n">
-        <v>129.4741569655842</v>
+        <v>126.6344414104339</v>
       </c>
       <c r="O10" t="n">
-        <v>153.8134336004835</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="P10" t="n">
-        <v>153.8134336004835</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="Q10" t="n">
-        <v>153.8134336004835</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="R10" t="n">
-        <v>153.8134336004835</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="S10" t="n">
-        <v>153.8134336004835</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="T10" t="n">
-        <v>153.8134336004835</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="U10" t="n">
-        <v>153.8134336004835</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="V10" t="n">
-        <v>153.8134336004835</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="W10" t="n">
-        <v>153.8134336004835</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="X10" t="n">
-        <v>153.8134336004835</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="Y10" t="n">
-        <v>19.28114311021272</v>
+        <v>16.44142755506243</v>
       </c>
     </row>
     <row r="11">
@@ -5017,76 +5017,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>720.6083788665362</v>
+        <v>224.0352098159517</v>
       </c>
       <c r="C11" t="n">
-        <v>477.1596022224361</v>
+        <v>224.0352098159517</v>
       </c>
       <c r="D11" t="n">
-        <v>233.7108255783361</v>
+        <v>224.0352098159517</v>
       </c>
       <c r="E11" t="n">
-        <v>233.7108255783361</v>
+        <v>224.0352098159517</v>
       </c>
       <c r="F11" t="n">
-        <v>233.7108255783361</v>
+        <v>224.0352098159517</v>
       </c>
       <c r="G11" t="n">
-        <v>19.28114311021272</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="H11" t="n">
-        <v>19.28114311021272</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="I11" t="n">
-        <v>19.28114311021272</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="J11" t="n">
-        <v>19.28114311021272</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="K11" t="n">
-        <v>122.2961490211351</v>
+        <v>119.4564334659848</v>
       </c>
       <c r="L11" t="n">
-        <v>302.3720006057937</v>
+        <v>299.5322850506434</v>
       </c>
       <c r="M11" t="n">
-        <v>519.3476278686978</v>
+        <v>502.994951044541</v>
       </c>
       <c r="N11" t="n">
-        <v>725.2021500759372</v>
+        <v>706.4576170384386</v>
       </c>
       <c r="O11" t="n">
-        <v>874.3971002185853</v>
+        <v>732.4113224610707</v>
       </c>
       <c r="P11" t="n">
-        <v>964.0571555106362</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="Q11" t="n">
-        <v>964.0571555106362</v>
+        <v>811.9797623848946</v>
       </c>
       <c r="R11" t="n">
-        <v>964.0571555106362</v>
+        <v>660.5968149695918</v>
       </c>
       <c r="S11" t="n">
-        <v>964.0571555106362</v>
+        <v>660.5968149695918</v>
       </c>
       <c r="T11" t="n">
-        <v>964.0571555106362</v>
+        <v>639.2227743377304</v>
       </c>
       <c r="U11" t="n">
-        <v>964.0571555106362</v>
+        <v>431.628992076841</v>
       </c>
       <c r="V11" t="n">
-        <v>964.0571555106362</v>
+        <v>224.0352098159517</v>
       </c>
       <c r="W11" t="n">
-        <v>964.0571555106362</v>
+        <v>224.0352098159517</v>
       </c>
       <c r="X11" t="n">
-        <v>964.0571555106362</v>
+        <v>224.0352098159517</v>
       </c>
       <c r="Y11" t="n">
-        <v>964.0571555106362</v>
+        <v>224.0352098159517</v>
       </c>
     </row>
     <row r="12">
@@ -5096,76 +5096,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>726.0875267598396</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="C12" t="n">
-        <v>726.0875267598396</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="D12" t="n">
-        <v>577.1531170985884</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="E12" t="n">
-        <v>417.9156620931329</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="F12" t="n">
-        <v>271.3811041200179</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="G12" t="n">
-        <v>132.6502787026334</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="H12" t="n">
-        <v>19.28114311021272</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="I12" t="n">
-        <v>19.28114311021272</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="J12" t="n">
-        <v>19.28114311021272</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="K12" t="n">
-        <v>19.28114311021272</v>
+        <v>141.7989876128999</v>
       </c>
       <c r="L12" t="n">
-        <v>249.2442489785619</v>
+        <v>345.2616536067974</v>
       </c>
       <c r="M12" t="n">
-        <v>487.8483949674443</v>
+        <v>345.2616536067974</v>
       </c>
       <c r="N12" t="n">
-        <v>726.4525409563269</v>
+        <v>366.5706756325438</v>
       </c>
       <c r="O12" t="n">
-        <v>964.0571555106362</v>
+        <v>570.0333416264414</v>
       </c>
       <c r="P12" t="n">
-        <v>964.0571555106362</v>
+        <v>752.6768192397923</v>
       </c>
       <c r="Q12" t="n">
-        <v>964.0571555106362</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="R12" t="n">
-        <v>964.0571555106362</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="S12" t="n">
-        <v>964.0571555106362</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="T12" t="n">
-        <v>964.0571555106362</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="U12" t="n">
-        <v>964.0571555106362</v>
+        <v>639.2227743377304</v>
       </c>
       <c r="V12" t="n">
-        <v>964.0571555106362</v>
+        <v>431.628992076841</v>
       </c>
       <c r="W12" t="n">
-        <v>964.0571555106362</v>
+        <v>224.0352098159517</v>
       </c>
       <c r="X12" t="n">
-        <v>964.0571555106362</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="Y12" t="n">
-        <v>894.3028637799077</v>
+        <v>16.44142755506243</v>
       </c>
     </row>
     <row r="13">
@@ -5175,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>153.8134336004835</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="C13" t="n">
-        <v>19.28114311021272</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="D13" t="n">
-        <v>19.28114311021272</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="E13" t="n">
-        <v>19.28114311021272</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="F13" t="n">
-        <v>19.28114311021272</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="G13" t="n">
-        <v>19.28114311021272</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="H13" t="n">
-        <v>19.28114311021272</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="I13" t="n">
-        <v>19.28114311021272</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="J13" t="n">
-        <v>19.28114311021272</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="K13" t="n">
-        <v>19.28114311021272</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="L13" t="n">
-        <v>46.5952681179257</v>
+        <v>43.75555256277541</v>
       </c>
       <c r="M13" t="n">
-        <v>85.78330631014788</v>
+        <v>82.94359075499759</v>
       </c>
       <c r="N13" t="n">
-        <v>129.4741569655842</v>
+        <v>126.6344414104339</v>
       </c>
       <c r="O13" t="n">
-        <v>153.8134336004835</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="P13" t="n">
-        <v>153.8134336004835</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="Q13" t="n">
-        <v>153.8134336004835</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="R13" t="n">
-        <v>153.8134336004835</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="S13" t="n">
-        <v>153.8134336004835</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="T13" t="n">
-        <v>153.8134336004835</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="U13" t="n">
-        <v>153.8134336004835</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="V13" t="n">
-        <v>153.8134336004835</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="W13" t="n">
-        <v>153.8134336004835</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="X13" t="n">
-        <v>153.8134336004835</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="Y13" t="n">
-        <v>153.8134336004835</v>
+        <v>16.44142755506243</v>
       </c>
     </row>
     <row r="14">
@@ -5254,76 +5254,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>962.2293816994886</v>
+        <v>224.0352098159517</v>
       </c>
       <c r="C14" t="n">
-        <v>962.2293816994886</v>
+        <v>224.0352098159517</v>
       </c>
       <c r="D14" t="n">
-        <v>962.2293816994886</v>
+        <v>224.0352098159517</v>
       </c>
       <c r="E14" t="n">
-        <v>962.2293816994886</v>
+        <v>224.0352098159517</v>
       </c>
       <c r="F14" t="n">
-        <v>718.7806050553886</v>
+        <v>224.0352098159517</v>
       </c>
       <c r="G14" t="n">
-        <v>475.3318284112885</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="H14" t="n">
-        <v>231.8830517671884</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="I14" t="n">
-        <v>19.28114311021272</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="J14" t="n">
-        <v>19.28114311021272</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="K14" t="n">
-        <v>122.2961490211351</v>
+        <v>119.4564334659848</v>
       </c>
       <c r="L14" t="n">
-        <v>302.3720006057937</v>
+        <v>299.5322850506434</v>
       </c>
       <c r="M14" t="n">
-        <v>519.3476278686978</v>
+        <v>379.753706324525</v>
       </c>
       <c r="N14" t="n">
-        <v>725.2021500759372</v>
+        <v>583.2163723184226</v>
       </c>
       <c r="O14" t="n">
-        <v>874.3971002185853</v>
+        <v>732.4113224610707</v>
       </c>
       <c r="P14" t="n">
-        <v>964.0571555106362</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="Q14" t="n">
-        <v>964.0571555106362</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="R14" t="n">
-        <v>964.0571555106362</v>
+        <v>670.6884303378189</v>
       </c>
       <c r="S14" t="n">
-        <v>964.0571555106362</v>
+        <v>639.2227743377304</v>
       </c>
       <c r="T14" t="n">
-        <v>962.2293816994886</v>
+        <v>431.628992076841</v>
       </c>
       <c r="U14" t="n">
-        <v>962.2293816994886</v>
+        <v>431.628992076841</v>
       </c>
       <c r="V14" t="n">
-        <v>962.2293816994886</v>
+        <v>431.628992076841</v>
       </c>
       <c r="W14" t="n">
-        <v>962.2293816994886</v>
+        <v>431.628992076841</v>
       </c>
       <c r="X14" t="n">
-        <v>962.2293816994886</v>
+        <v>431.628992076841</v>
       </c>
       <c r="Y14" t="n">
-        <v>962.2293816994886</v>
+        <v>224.0352098159517</v>
       </c>
     </row>
     <row r="15">
@@ -5333,76 +5333,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>19.28114311021272</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="C15" t="n">
-        <v>19.28114311021272</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="D15" t="n">
-        <v>19.28114311021272</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="E15" t="n">
-        <v>19.28114311021272</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="F15" t="n">
-        <v>19.28114311021272</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="G15" t="n">
-        <v>19.28114311021272</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="H15" t="n">
-        <v>19.28114311021272</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="I15" t="n">
-        <v>19.28114311021272</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="J15" t="n">
-        <v>19.28114311021272</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="K15" t="n">
-        <v>144.6387031680501</v>
+        <v>141.7989876128999</v>
       </c>
       <c r="L15" t="n">
-        <v>374.6018090363993</v>
+        <v>345.2616536067974</v>
       </c>
       <c r="M15" t="n">
-        <v>542.809531908403</v>
+        <v>548.724319600695</v>
       </c>
       <c r="N15" t="n">
-        <v>542.809531908403</v>
+        <v>548.724319600695</v>
       </c>
       <c r="O15" t="n">
-        <v>781.4136778972854</v>
+        <v>639.4279001397708</v>
       </c>
       <c r="P15" t="n">
-        <v>964.0571555106362</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="Q15" t="n">
-        <v>964.0571555106362</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="R15" t="n">
-        <v>964.0571555106362</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="S15" t="n">
-        <v>790.6398109613051</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="T15" t="n">
-        <v>663.1165603443104</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="U15" t="n">
-        <v>434.8929420806995</v>
+        <v>614.4775954922324</v>
       </c>
       <c r="V15" t="n">
-        <v>434.8929420806995</v>
+        <v>406.8838132313431</v>
       </c>
       <c r="W15" t="n">
-        <v>434.8929420806995</v>
+        <v>224.0352098159517</v>
       </c>
       <c r="X15" t="n">
-        <v>227.0414418751666</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="Y15" t="n">
-        <v>19.28114311021272</v>
+        <v>16.44142755506243</v>
       </c>
     </row>
     <row r="16">
@@ -5412,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>151.0645035650224</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="C16" t="n">
-        <v>151.0645035650224</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="D16" t="n">
-        <v>151.0645035650224</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="E16" t="n">
-        <v>151.0645035650224</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="F16" t="n">
-        <v>151.0645035650224</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="G16" t="n">
-        <v>151.0645035650224</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="H16" t="n">
-        <v>151.0645035650224</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="I16" t="n">
-        <v>136.0777814360265</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="J16" t="n">
-        <v>41.77557929797318</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="K16" t="n">
-        <v>19.28114311021272</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="L16" t="n">
-        <v>46.5952681179257</v>
+        <v>43.75555256277541</v>
       </c>
       <c r="M16" t="n">
-        <v>85.78330631014788</v>
+        <v>82.94359075499759</v>
       </c>
       <c r="N16" t="n">
-        <v>129.4741569655842</v>
+        <v>126.6344414104339</v>
       </c>
       <c r="O16" t="n">
-        <v>153.8134336004835</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="P16" t="n">
-        <v>151.0645035650224</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="Q16" t="n">
-        <v>151.0645035650224</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="R16" t="n">
-        <v>151.0645035650224</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="S16" t="n">
-        <v>151.0645035650224</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="T16" t="n">
-        <v>151.0645035650224</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="U16" t="n">
-        <v>151.0645035650224</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="V16" t="n">
-        <v>151.0645035650224</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="W16" t="n">
-        <v>151.0645035650224</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="X16" t="n">
-        <v>151.0645035650224</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="Y16" t="n">
-        <v>151.0645035650224</v>
+        <v>16.44142755506243</v>
       </c>
     </row>
     <row r="17">
@@ -5491,25 +5491,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>953.9655401424092</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="C17" t="n">
-        <v>953.9655401424092</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="D17" t="n">
-        <v>710.516763498309</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="E17" t="n">
-        <v>710.516763498309</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="F17" t="n">
-        <v>467.067986854209</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="G17" t="n">
-        <v>467.067986854209</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H17" t="n">
-        <v>223.6192102101089</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I17" t="n">
         <v>19.28114311021272</v>
@@ -5536,31 +5536,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q17" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R17" t="n">
-        <v>953.9655401424092</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="S17" t="n">
-        <v>953.9655401424092</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="T17" t="n">
-        <v>953.9655401424092</v>
+        <v>587.3248651012614</v>
       </c>
       <c r="U17" t="n">
-        <v>953.9655401424092</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="V17" t="n">
-        <v>953.9655401424092</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="W17" t="n">
-        <v>953.9655401424092</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="X17" t="n">
-        <v>953.9655401424092</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="Y17" t="n">
-        <v>953.9655401424092</v>
+        <v>506.1786963984129</v>
       </c>
     </row>
     <row r="18">
@@ -5570,28 +5570,28 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>193.7341723913397</v>
+        <v>577.9072497513741</v>
       </c>
       <c r="C18" t="n">
-        <v>19.28114311021272</v>
+        <v>577.9072497513741</v>
       </c>
       <c r="D18" t="n">
-        <v>19.28114311021272</v>
+        <v>577.9072497513741</v>
       </c>
       <c r="E18" t="n">
-        <v>19.28114311021272</v>
+        <v>418.6697947459187</v>
       </c>
       <c r="F18" t="n">
-        <v>19.28114311021272</v>
+        <v>272.1352367728036</v>
       </c>
       <c r="G18" t="n">
-        <v>19.28114311021272</v>
+        <v>133.4044113554191</v>
       </c>
       <c r="H18" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="I18" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J18" t="n">
         <v>19.28114311021272</v>
@@ -5603,43 +5603,43 @@
         <v>374.6018090363993</v>
       </c>
       <c r="M18" t="n">
-        <v>542.809531908403</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="N18" t="n">
-        <v>542.809531908403</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="O18" t="n">
-        <v>781.4136778972854</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P18" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q18" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R18" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S18" t="n">
-        <v>689.4702815141908</v>
+        <v>821.3560263954741</v>
       </c>
       <c r="T18" t="n">
-        <v>609.3459713618265</v>
+        <v>821.3560263954741</v>
       </c>
       <c r="U18" t="n">
-        <v>609.3459713618265</v>
+        <v>821.3560263954741</v>
       </c>
       <c r="V18" t="n">
-        <v>609.3459713618265</v>
+        <v>821.3560263954741</v>
       </c>
       <c r="W18" t="n">
-        <v>609.3459713618265</v>
+        <v>577.9072497513741</v>
       </c>
       <c r="X18" t="n">
-        <v>401.4944711562937</v>
+        <v>577.9072497513741</v>
       </c>
       <c r="Y18" t="n">
-        <v>193.7341723913397</v>
+        <v>577.9072497513741</v>
       </c>
     </row>
     <row r="19">
@@ -5694,10 +5694,10 @@
         <v>153.8134336004835</v>
       </c>
       <c r="Q19" t="n">
-        <v>66.78106667958005</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R19" t="n">
-        <v>66.78106667958005</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="S19" t="n">
         <v>19.28114311021272</v>
@@ -5728,25 +5728,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>262.7299197543128</v>
+        <v>559.1338160830064</v>
       </c>
       <c r="C20" t="n">
-        <v>19.28114311021272</v>
+        <v>559.1338160830064</v>
       </c>
       <c r="D20" t="n">
-        <v>19.28114311021272</v>
+        <v>559.1338160830064</v>
       </c>
       <c r="E20" t="n">
-        <v>19.28114311021272</v>
+        <v>559.1338160830064</v>
       </c>
       <c r="F20" t="n">
-        <v>19.28114311021272</v>
+        <v>315.6850394389064</v>
       </c>
       <c r="G20" t="n">
-        <v>19.28114311021272</v>
+        <v>315.6850394389064</v>
       </c>
       <c r="H20" t="n">
-        <v>19.28114311021272</v>
+        <v>231.8830517671884</v>
       </c>
       <c r="I20" t="n">
         <v>19.28114311021272</v>
@@ -5773,31 +5773,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q20" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R20" t="n">
-        <v>964.0571555106362</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="S20" t="n">
-        <v>964.0571555106362</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="T20" t="n">
-        <v>749.627473042513</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="U20" t="n">
-        <v>506.1786963984129</v>
+        <v>559.1338160830064</v>
       </c>
       <c r="V20" t="n">
-        <v>262.7299197543128</v>
+        <v>559.1338160830064</v>
       </c>
       <c r="W20" t="n">
-        <v>262.7299197543128</v>
+        <v>559.1338160830064</v>
       </c>
       <c r="X20" t="n">
-        <v>262.7299197543128</v>
+        <v>559.1338160830064</v>
       </c>
       <c r="Y20" t="n">
-        <v>262.7299197543128</v>
+        <v>559.1338160830064</v>
       </c>
     </row>
     <row r="21">
@@ -5807,76 +5807,76 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>318.0035561858384</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C21" t="n">
-        <v>318.0035561858384</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D21" t="n">
-        <v>318.0035561858384</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E21" t="n">
-        <v>158.7661011803829</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F21" t="n">
-        <v>158.7661011803829</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G21" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H21" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I21" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J21" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="K21" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L21" t="n">
-        <v>249.2442489785619</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M21" t="n">
-        <v>487.8483949674443</v>
+        <v>542.809531908403</v>
       </c>
       <c r="N21" t="n">
-        <v>726.4525409563269</v>
+        <v>542.809531908403</v>
       </c>
       <c r="O21" t="n">
-        <v>894.6625969973069</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P21" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q21" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R21" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S21" t="n">
-        <v>689.4702815141908</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="T21" t="n">
-        <v>487.2836868729568</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="U21" t="n">
-        <v>318.0035561858384</v>
+        <v>562.4161926976942</v>
       </c>
       <c r="V21" t="n">
-        <v>318.0035561858384</v>
+        <v>327.2640844659515</v>
       </c>
       <c r="W21" t="n">
-        <v>318.0035561858384</v>
+        <v>227.0414418751666</v>
       </c>
       <c r="X21" t="n">
-        <v>318.0035561858384</v>
+        <v>227.0414418751666</v>
       </c>
       <c r="Y21" t="n">
-        <v>318.0035561858384</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="22">
@@ -5943,7 +5943,7 @@
         <v>153.8134336004835</v>
       </c>
       <c r="U22" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V22" t="n">
         <v>19.28114311021272</v>
@@ -5965,28 +5965,28 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>506.1786963984129</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="C23" t="n">
-        <v>506.1786963984129</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="D23" t="n">
-        <v>506.1786963984129</v>
+        <v>761.6974622895962</v>
       </c>
       <c r="E23" t="n">
-        <v>262.7299197543128</v>
+        <v>518.2486856454962</v>
       </c>
       <c r="F23" t="n">
-        <v>262.7299197543128</v>
+        <v>274.7999090013961</v>
       </c>
       <c r="G23" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="H23" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="I23" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="J23" t="n">
         <v>19.28114311021272</v>
@@ -6022,19 +6022,19 @@
         <v>964.0571555106362</v>
       </c>
       <c r="U23" t="n">
-        <v>749.627473042513</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V23" t="n">
-        <v>749.627473042513</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W23" t="n">
-        <v>749.627473042513</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X23" t="n">
-        <v>749.627473042513</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Y23" t="n">
-        <v>749.627473042513</v>
+        <v>964.0571555106362</v>
       </c>
     </row>
     <row r="24">
@@ -6044,19 +6044,19 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>217.7978866064798</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C24" t="n">
-        <v>43.34485732535276</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D24" t="n">
-        <v>43.34485732535276</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E24" t="n">
-        <v>43.34485732535276</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F24" t="n">
-        <v>43.34485732535276</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G24" t="n">
         <v>19.28114311021272</v>
@@ -6071,13 +6071,13 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K24" t="n">
-        <v>144.6387031680501</v>
+        <v>74.24228005117135</v>
       </c>
       <c r="L24" t="n">
-        <v>144.6387031680501</v>
+        <v>304.2053859195205</v>
       </c>
       <c r="M24" t="n">
-        <v>304.2053859195205</v>
+        <v>542.809531908403</v>
       </c>
       <c r="N24" t="n">
         <v>542.809531908403</v>
@@ -6092,28 +6092,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R24" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S24" t="n">
-        <v>689.4702815141908</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T24" t="n">
-        <v>689.4702815141908</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U24" t="n">
-        <v>461.2466632505798</v>
+        <v>913.4938269565423</v>
       </c>
       <c r="V24" t="n">
-        <v>461.2466632505798</v>
+        <v>678.3417187247995</v>
       </c>
       <c r="W24" t="n">
-        <v>217.7978866064798</v>
+        <v>434.8929420806995</v>
       </c>
       <c r="X24" t="n">
-        <v>217.7978866064798</v>
+        <v>227.0414418751666</v>
       </c>
       <c r="Y24" t="n">
-        <v>217.7978866064798</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="25">
@@ -6123,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C25" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D25" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E25" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F25" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G25" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H25" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I25" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J25" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K25" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L25" t="n">
-        <v>856.8389900280785</v>
+        <v>46.5952681179257</v>
       </c>
       <c r="M25" t="n">
-        <v>896.0270282203006</v>
+        <v>85.78330631014788</v>
       </c>
       <c r="N25" t="n">
-        <v>939.7178788757369</v>
+        <v>129.4741569655842</v>
       </c>
       <c r="O25" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="P25" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q25" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R25" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S25" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T25" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U25" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V25" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W25" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X25" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y25" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="26">
@@ -6202,28 +6202,28 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>506.1786963984129</v>
+        <v>274.7999090013961</v>
       </c>
       <c r="C26" t="n">
-        <v>262.7299197543128</v>
+        <v>274.7999090013961</v>
       </c>
       <c r="D26" t="n">
-        <v>262.7299197543128</v>
+        <v>274.7999090013961</v>
       </c>
       <c r="E26" t="n">
-        <v>262.7299197543128</v>
+        <v>274.7999090013961</v>
       </c>
       <c r="F26" t="n">
-        <v>19.28114311021272</v>
+        <v>274.7999090013961</v>
       </c>
       <c r="G26" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="H26" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="I26" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="J26" t="n">
         <v>19.28114311021272</v>
@@ -6247,31 +6247,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q26" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R26" t="n">
-        <v>802.5825927271064</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S26" t="n">
-        <v>802.5825927271064</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T26" t="n">
-        <v>802.5825927271064</v>
+        <v>738.7078125165641</v>
       </c>
       <c r="U26" t="n">
-        <v>802.5825927271064</v>
+        <v>738.7078125165641</v>
       </c>
       <c r="V26" t="n">
-        <v>802.5825927271064</v>
+        <v>518.2486856454962</v>
       </c>
       <c r="W26" t="n">
-        <v>559.1338160830064</v>
+        <v>274.7999090013961</v>
       </c>
       <c r="X26" t="n">
-        <v>506.1786963984129</v>
+        <v>274.7999090013961</v>
       </c>
       <c r="Y26" t="n">
-        <v>506.1786963984129</v>
+        <v>274.7999090013961</v>
       </c>
     </row>
     <row r="27">
@@ -6311,40 +6311,40 @@
         <v>19.28114311021272</v>
       </c>
       <c r="L27" t="n">
-        <v>19.28114311021272</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="M27" t="n">
-        <v>257.8852890990952</v>
+        <v>487.8483949674443</v>
       </c>
       <c r="N27" t="n">
-        <v>496.4894350879777</v>
+        <v>726.4525409563269</v>
       </c>
       <c r="O27" t="n">
-        <v>735.0935810768601</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P27" t="n">
-        <v>917.7370586902109</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q27" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R27" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S27" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T27" t="n">
-        <v>862.8876260635219</v>
+        <v>898.2686685760532</v>
       </c>
       <c r="U27" t="n">
-        <v>862.8876260635219</v>
+        <v>670.0450503124422</v>
       </c>
       <c r="V27" t="n">
-        <v>627.7355178317791</v>
+        <v>434.8929420806995</v>
       </c>
       <c r="W27" t="n">
-        <v>384.2867411876791</v>
+        <v>434.8929420806995</v>
       </c>
       <c r="X27" t="n">
         <v>227.0414418751666</v>
@@ -6411,16 +6411,16 @@
         <v>153.8134336004835</v>
       </c>
       <c r="S28" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T28" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U28" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V28" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W28" t="n">
         <v>19.28114311021272</v>
@@ -6439,19 +6439,19 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C29" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D29" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E29" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F29" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G29" t="n">
         <v>19.28114311021272</v>
@@ -6487,22 +6487,22 @@
         <v>953.9655401424092</v>
       </c>
       <c r="R29" t="n">
-        <v>802.5825927271064</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="S29" t="n">
-        <v>591.4512093066566</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="T29" t="n">
-        <v>506.1786963984129</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="U29" t="n">
-        <v>506.1786963984129</v>
+        <v>710.516763498309</v>
       </c>
       <c r="V29" t="n">
         <v>506.1786963984129</v>
       </c>
       <c r="W29" t="n">
-        <v>506.1786963984129</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="X29" t="n">
         <v>262.7299197543128</v>
@@ -6554,13 +6554,13 @@
         <v>613.2059550252818</v>
       </c>
       <c r="N30" t="n">
-        <v>613.2059550252818</v>
+        <v>656.0584510084244</v>
       </c>
       <c r="O30" t="n">
-        <v>781.4136778972854</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="P30" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q30" t="n">
         <v>964.0571555106362</v>
@@ -6569,22 +6569,22 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S30" t="n">
-        <v>964.0571555106362</v>
+        <v>898.2686685760532</v>
       </c>
       <c r="T30" t="n">
-        <v>933.9571464551993</v>
+        <v>898.2686685760532</v>
       </c>
       <c r="U30" t="n">
-        <v>705.7335281915883</v>
+        <v>670.0450503124422</v>
       </c>
       <c r="V30" t="n">
-        <v>470.5814199598456</v>
+        <v>434.8929420806995</v>
       </c>
       <c r="W30" t="n">
-        <v>227.1326433157456</v>
+        <v>434.8929420806995</v>
       </c>
       <c r="X30" t="n">
-        <v>19.28114311021272</v>
+        <v>227.0414418751666</v>
       </c>
       <c r="Y30" t="n">
         <v>19.28114311021272</v>
@@ -6642,19 +6642,19 @@
         <v>153.8134336004835</v>
       </c>
       <c r="Q31" t="n">
-        <v>66.78106667958005</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R31" t="n">
-        <v>66.78106667958005</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S31" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T31" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U31" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V31" t="n">
         <v>19.28114311021272</v>
@@ -6676,22 +6676,22 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>738.7078125165641</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="C32" t="n">
-        <v>738.7078125165641</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="D32" t="n">
-        <v>738.7078125165641</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="E32" t="n">
-        <v>738.7078125165641</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="F32" t="n">
-        <v>495.259035872464</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="G32" t="n">
-        <v>251.810259228364</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H32" t="n">
         <v>19.28114311021272</v>
@@ -6721,31 +6721,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q32" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R32" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="S32" t="n">
-        <v>964.0571555106362</v>
+        <v>742.8341567219593</v>
       </c>
       <c r="T32" t="n">
-        <v>738.7078125165641</v>
+        <v>517.4848137278872</v>
       </c>
       <c r="U32" t="n">
-        <v>738.7078125165641</v>
+        <v>517.4848137278872</v>
       </c>
       <c r="V32" t="n">
-        <v>738.7078125165641</v>
+        <v>517.4848137278872</v>
       </c>
       <c r="W32" t="n">
-        <v>738.7078125165641</v>
+        <v>517.4848137278872</v>
       </c>
       <c r="X32" t="n">
-        <v>738.7078125165641</v>
+        <v>517.4848137278872</v>
       </c>
       <c r="Y32" t="n">
-        <v>738.7078125165641</v>
+        <v>517.4848137278872</v>
       </c>
     </row>
     <row r="33">
@@ -6755,28 +6755,28 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>179.2727307684539</v>
+        <v>193.7341723913397</v>
       </c>
       <c r="C33" t="n">
-        <v>179.2727307684539</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D33" t="n">
-        <v>179.2727307684539</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E33" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F33" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G33" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H33" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I33" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J33" t="n">
         <v>19.28114311021272</v>
@@ -6788,43 +6788,43 @@
         <v>374.6018090363993</v>
       </c>
       <c r="M33" t="n">
-        <v>613.2059550252818</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="N33" t="n">
-        <v>851.8101010141643</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="O33" t="n">
-        <v>964.0571555106362</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P33" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q33" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R33" t="n">
-        <v>951.3156252426979</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S33" t="n">
-        <v>777.8982806933668</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T33" t="n">
-        <v>575.7116860521329</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U33" t="n">
-        <v>347.488067788522</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V33" t="n">
-        <v>347.488067788522</v>
+        <v>728.9050472788936</v>
       </c>
       <c r="W33" t="n">
-        <v>347.488067788522</v>
+        <v>609.3459713618265</v>
       </c>
       <c r="X33" t="n">
-        <v>347.488067788522</v>
+        <v>401.4944711562937</v>
       </c>
       <c r="Y33" t="n">
-        <v>347.488067788522</v>
+        <v>193.7341723913397</v>
       </c>
     </row>
     <row r="34">
@@ -6834,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C34" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D34" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E34" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F34" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G34" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H34" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I34" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J34" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K34" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L34" t="n">
-        <v>856.8389900280785</v>
+        <v>46.5952681179257</v>
       </c>
       <c r="M34" t="n">
-        <v>896.0270282203006</v>
+        <v>85.78330631014788</v>
       </c>
       <c r="N34" t="n">
-        <v>939.7178788757369</v>
+        <v>129.4741569655842</v>
       </c>
       <c r="O34" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="P34" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q34" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R34" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S34" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T34" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="U34" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V34" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W34" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X34" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y34" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="35">
@@ -6913,25 +6913,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>467.067986854209</v>
+        <v>376.1934816808115</v>
       </c>
       <c r="C35" t="n">
-        <v>223.6192102101089</v>
+        <v>376.1934816808115</v>
       </c>
       <c r="D35" t="n">
-        <v>223.6192102101089</v>
+        <v>376.1934816808115</v>
       </c>
       <c r="E35" t="n">
-        <v>223.6192102101089</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="F35" t="n">
-        <v>223.6192102101089</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="G35" t="n">
-        <v>223.6192102101089</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H35" t="n">
-        <v>223.6192102101089</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I35" t="n">
         <v>19.28114311021272</v>
@@ -6958,31 +6958,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q35" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R35" t="n">
-        <v>953.9655401424092</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="S35" t="n">
-        <v>953.9655401424092</v>
+        <v>601.5428246748836</v>
       </c>
       <c r="T35" t="n">
-        <v>953.9655401424092</v>
+        <v>376.1934816808115</v>
       </c>
       <c r="U35" t="n">
-        <v>953.9655401424092</v>
+        <v>376.1934816808115</v>
       </c>
       <c r="V35" t="n">
-        <v>953.9655401424092</v>
+        <v>376.1934816808115</v>
       </c>
       <c r="W35" t="n">
-        <v>953.9655401424092</v>
+        <v>376.1934816808115</v>
       </c>
       <c r="X35" t="n">
-        <v>710.516763498309</v>
+        <v>376.1934816808115</v>
       </c>
       <c r="Y35" t="n">
-        <v>710.516763498309</v>
+        <v>376.1934816808115</v>
       </c>
     </row>
     <row r="36">
@@ -6992,19 +6992,19 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>158.0119685275972</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C36" t="n">
-        <v>158.0119685275972</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D36" t="n">
-        <v>158.0119685275972</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E36" t="n">
-        <v>158.0119685275972</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F36" t="n">
-        <v>158.0119685275972</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G36" t="n">
         <v>19.28114311021272</v>
@@ -7019,19 +7019,19 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K36" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L36" t="n">
-        <v>374.6018090363993</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="M36" t="n">
-        <v>374.6018090363993</v>
+        <v>486.8488635328713</v>
       </c>
       <c r="N36" t="n">
-        <v>542.809531908403</v>
+        <v>725.4530095217538</v>
       </c>
       <c r="O36" t="n">
-        <v>781.4136778972854</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P36" t="n">
         <v>964.0571555106362</v>
@@ -7046,22 +7046,22 @@
         <v>964.0571555106362</v>
       </c>
       <c r="T36" t="n">
-        <v>761.8705608694022</v>
+        <v>933.9571464551993</v>
       </c>
       <c r="U36" t="n">
-        <v>533.6469426057913</v>
+        <v>705.7335281915883</v>
       </c>
       <c r="V36" t="n">
-        <v>298.4948343740486</v>
+        <v>470.5814199598456</v>
       </c>
       <c r="W36" t="n">
-        <v>298.4948343740486</v>
+        <v>227.1326433157456</v>
       </c>
       <c r="X36" t="n">
-        <v>158.0119685275972</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y36" t="n">
-        <v>158.0119685275972</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="37">
@@ -7150,28 +7150,28 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>506.1786963984129</v>
+        <v>518.2486856454962</v>
       </c>
       <c r="C38" t="n">
-        <v>506.1786963984129</v>
+        <v>518.2486856454962</v>
       </c>
       <c r="D38" t="n">
-        <v>262.7299197543128</v>
+        <v>518.2486856454962</v>
       </c>
       <c r="E38" t="n">
-        <v>262.7299197543128</v>
+        <v>518.2486856454962</v>
       </c>
       <c r="F38" t="n">
-        <v>262.7299197543128</v>
+        <v>274.7999090013961</v>
       </c>
       <c r="G38" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="H38" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="I38" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="J38" t="n">
         <v>19.28114311021272</v>
@@ -7198,28 +7198,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R38" t="n">
-        <v>964.0571555106362</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="S38" t="n">
-        <v>964.0571555106362</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="T38" t="n">
-        <v>749.627473042513</v>
+        <v>587.3248651012614</v>
       </c>
       <c r="U38" t="n">
-        <v>506.1786963984129</v>
+        <v>587.3248651012614</v>
       </c>
       <c r="V38" t="n">
-        <v>506.1786963984129</v>
+        <v>587.3248651012614</v>
       </c>
       <c r="W38" t="n">
-        <v>506.1786963984129</v>
+        <v>587.3248651012614</v>
       </c>
       <c r="X38" t="n">
-        <v>506.1786963984129</v>
+        <v>587.3248651012614</v>
       </c>
       <c r="Y38" t="n">
-        <v>506.1786963984129</v>
+        <v>518.2486856454962</v>
       </c>
     </row>
     <row r="39">
@@ -7229,25 +7229,25 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>862.8876260635219</v>
+        <v>193.7341723913397</v>
       </c>
       <c r="C39" t="n">
-        <v>816.3871559026832</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D39" t="n">
-        <v>667.4527462414319</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E39" t="n">
-        <v>508.2152912359765</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F39" t="n">
-        <v>361.6807332628614</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G39" t="n">
-        <v>222.9499078454769</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H39" t="n">
-        <v>109.5807722530562</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I39" t="n">
         <v>19.28114311021272</v>
@@ -7256,49 +7256,49 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K39" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L39" t="n">
-        <v>374.6018090363993</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="M39" t="n">
-        <v>473.4149733950735</v>
+        <v>486.8488635328713</v>
       </c>
       <c r="N39" t="n">
-        <v>473.4149733950735</v>
+        <v>725.4530095217538</v>
       </c>
       <c r="O39" t="n">
-        <v>712.019119383956</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P39" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q39" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R39" t="n">
-        <v>862.8876260635219</v>
+        <v>873.2580675045836</v>
       </c>
       <c r="S39" t="n">
-        <v>862.8876260635219</v>
+        <v>873.2580675045836</v>
       </c>
       <c r="T39" t="n">
-        <v>862.8876260635219</v>
+        <v>873.2580675045836</v>
       </c>
       <c r="U39" t="n">
-        <v>862.8876260635219</v>
+        <v>645.0344492409727</v>
       </c>
       <c r="V39" t="n">
-        <v>862.8876260635219</v>
+        <v>645.0344492409727</v>
       </c>
       <c r="W39" t="n">
-        <v>862.8876260635219</v>
+        <v>401.5856725968725</v>
       </c>
       <c r="X39" t="n">
-        <v>862.8876260635219</v>
+        <v>193.7341723913397</v>
       </c>
       <c r="Y39" t="n">
-        <v>862.8876260635219</v>
+        <v>193.7341723913397</v>
       </c>
     </row>
     <row r="40">
@@ -7387,76 +7387,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>274.7999090013961</v>
+        <v>224.0352098159517</v>
       </c>
       <c r="C41" t="n">
-        <v>274.7999090013961</v>
+        <v>224.0352098159517</v>
       </c>
       <c r="D41" t="n">
-        <v>31.35113235729608</v>
+        <v>224.0352098159517</v>
       </c>
       <c r="E41" t="n">
-        <v>31.35113235729608</v>
+        <v>224.0352098159517</v>
       </c>
       <c r="F41" t="n">
-        <v>31.35113235729608</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="G41" t="n">
-        <v>31.35113235729608</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="H41" t="n">
-        <v>31.35113235729608</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="I41" t="n">
-        <v>31.35113235729608</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="J41" t="n">
-        <v>19.28114311021272</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="K41" t="n">
-        <v>122.2961490211351</v>
+        <v>119.4564334659848</v>
       </c>
       <c r="L41" t="n">
-        <v>302.3720006057937</v>
+        <v>299.5322850506434</v>
       </c>
       <c r="M41" t="n">
-        <v>519.3476278686978</v>
+        <v>502.994951044541</v>
       </c>
       <c r="N41" t="n">
-        <v>725.2021500759372</v>
+        <v>706.4576170384386</v>
       </c>
       <c r="O41" t="n">
-        <v>874.3971002185853</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="P41" t="n">
-        <v>964.0571555106362</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="Q41" t="n">
-        <v>953.9655401424092</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="R41" t="n">
-        <v>953.9655401424092</v>
+        <v>670.6884303378189</v>
       </c>
       <c r="S41" t="n">
-        <v>743.5980286395683</v>
+        <v>463.0946480769296</v>
       </c>
       <c r="T41" t="n">
-        <v>518.2486856454962</v>
+        <v>255.5008658160403</v>
       </c>
       <c r="U41" t="n">
-        <v>274.7999090013961</v>
+        <v>255.5008658160403</v>
       </c>
       <c r="V41" t="n">
-        <v>274.7999090013961</v>
+        <v>255.5008658160403</v>
       </c>
       <c r="W41" t="n">
-        <v>274.7999090013961</v>
+        <v>255.5008658160403</v>
       </c>
       <c r="X41" t="n">
-        <v>274.7999090013961</v>
+        <v>255.5008658160403</v>
       </c>
       <c r="Y41" t="n">
-        <v>274.7999090013961</v>
+        <v>224.0352098159517</v>
       </c>
     </row>
     <row r="42">
@@ -7466,76 +7466,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>186.4405569126723</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="C42" t="n">
-        <v>20.03527576299844</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="D42" t="n">
-        <v>20.03527576299844</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="E42" t="n">
-        <v>20.03527576299844</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="F42" t="n">
-        <v>20.03527576299844</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="G42" t="n">
-        <v>20.03527576299844</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="H42" t="n">
-        <v>20.03527576299844</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="I42" t="n">
-        <v>20.03527576299844</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="J42" t="n">
-        <v>19.28114311021272</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="K42" t="n">
-        <v>19.28114311021272</v>
+        <v>141.7989876128999</v>
       </c>
       <c r="L42" t="n">
-        <v>249.2442489785619</v>
+        <v>345.2616536067974</v>
       </c>
       <c r="M42" t="n">
-        <v>487.8483949674443</v>
+        <v>345.2616536067974</v>
       </c>
       <c r="N42" t="n">
-        <v>725.4530095217538</v>
+        <v>548.724319600695</v>
       </c>
       <c r="O42" t="n">
-        <v>964.0571555106362</v>
+        <v>752.1869855945927</v>
       </c>
       <c r="P42" t="n">
-        <v>964.0571555106362</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="Q42" t="n">
-        <v>964.0571555106362</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="R42" t="n">
-        <v>964.0571555106362</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="S42" t="n">
-        <v>790.6398109613051</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="T42" t="n">
-        <v>790.6398109613051</v>
+        <v>639.2227743377304</v>
       </c>
       <c r="U42" t="n">
-        <v>562.4161926976942</v>
+        <v>431.628992076841</v>
       </c>
       <c r="V42" t="n">
-        <v>562.4161926976942</v>
+        <v>431.628992076841</v>
       </c>
       <c r="W42" t="n">
-        <v>562.4161926976942</v>
+        <v>224.0352098159517</v>
       </c>
       <c r="X42" t="n">
-        <v>562.4161926976942</v>
+        <v>224.0352098159517</v>
       </c>
       <c r="Y42" t="n">
-        <v>354.6558939327403</v>
+        <v>16.44142755506243</v>
       </c>
     </row>
     <row r="43">
@@ -7545,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>153.8134336004835</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="C43" t="n">
-        <v>153.8134336004835</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="D43" t="n">
-        <v>153.8134336004835</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="E43" t="n">
-        <v>153.8134336004835</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="F43" t="n">
-        <v>153.8134336004835</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="G43" t="n">
-        <v>153.8134336004835</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="H43" t="n">
-        <v>153.8134336004835</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="I43" t="n">
-        <v>19.28114311021272</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="J43" t="n">
-        <v>19.28114311021272</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="K43" t="n">
-        <v>19.28114311021272</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="L43" t="n">
-        <v>46.5952681179257</v>
+        <v>43.75555256277541</v>
       </c>
       <c r="M43" t="n">
-        <v>85.78330631014788</v>
+        <v>82.94359075499759</v>
       </c>
       <c r="N43" t="n">
-        <v>129.4741569655842</v>
+        <v>126.6344414104339</v>
       </c>
       <c r="O43" t="n">
-        <v>153.8134336004835</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="P43" t="n">
-        <v>153.8134336004835</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="Q43" t="n">
-        <v>153.8134336004835</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="R43" t="n">
-        <v>153.8134336004835</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="S43" t="n">
-        <v>153.8134336004835</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="T43" t="n">
-        <v>153.8134336004835</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="U43" t="n">
-        <v>153.8134336004835</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="V43" t="n">
-        <v>153.8134336004835</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="W43" t="n">
-        <v>153.8134336004835</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="X43" t="n">
-        <v>153.8134336004835</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="Y43" t="n">
-        <v>153.8134336004835</v>
+        <v>16.44142755506243</v>
       </c>
     </row>
     <row r="44">
@@ -7624,76 +7624,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>467.067986854209</v>
+        <v>431.628992076841</v>
       </c>
       <c r="C44" t="n">
-        <v>467.067986854209</v>
+        <v>431.628992076841</v>
       </c>
       <c r="D44" t="n">
-        <v>467.067986854209</v>
+        <v>431.628992076841</v>
       </c>
       <c r="E44" t="n">
-        <v>223.6192102101089</v>
+        <v>431.628992076841</v>
       </c>
       <c r="F44" t="n">
-        <v>19.28114311021272</v>
+        <v>224.0352098159517</v>
       </c>
       <c r="G44" t="n">
-        <v>19.28114311021272</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="H44" t="n">
-        <v>19.28114311021272</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="I44" t="n">
-        <v>19.28114311021272</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="J44" t="n">
-        <v>19.28114311021272</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="K44" t="n">
-        <v>122.2961490211351</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="L44" t="n">
-        <v>302.3720006057937</v>
+        <v>196.517279139721</v>
       </c>
       <c r="M44" t="n">
-        <v>519.3476278686978</v>
+        <v>399.9799451336186</v>
       </c>
       <c r="N44" t="n">
-        <v>725.2021500759372</v>
+        <v>583.2163723184226</v>
       </c>
       <c r="O44" t="n">
-        <v>874.3971002185853</v>
+        <v>732.4113224610707</v>
       </c>
       <c r="P44" t="n">
-        <v>964.0571555106362</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="Q44" t="n">
-        <v>953.9655401424092</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="R44" t="n">
-        <v>953.9655401424092</v>
+        <v>670.6884303378189</v>
       </c>
       <c r="S44" t="n">
-        <v>953.9655401424092</v>
+        <v>670.6884303378189</v>
       </c>
       <c r="T44" t="n">
-        <v>953.9655401424092</v>
+        <v>463.0946480769296</v>
       </c>
       <c r="U44" t="n">
-        <v>953.9655401424092</v>
+        <v>463.0946480769296</v>
       </c>
       <c r="V44" t="n">
-        <v>953.9655401424092</v>
+        <v>463.0946480769296</v>
       </c>
       <c r="W44" t="n">
-        <v>953.9655401424092</v>
+        <v>463.0946480769296</v>
       </c>
       <c r="X44" t="n">
-        <v>953.9655401424092</v>
+        <v>463.0946480769296</v>
       </c>
       <c r="Y44" t="n">
-        <v>710.516763498309</v>
+        <v>431.628992076841</v>
       </c>
     </row>
     <row r="45">
@@ -7703,76 +7703,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>210.869396638348</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="C45" t="n">
-        <v>210.869396638348</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="D45" t="n">
-        <v>210.869396638348</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="E45" t="n">
-        <v>110.334904905842</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="F45" t="n">
-        <v>110.334904905842</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="G45" t="n">
-        <v>110.334904905842</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="H45" t="n">
-        <v>110.334904905842</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="I45" t="n">
-        <v>20.03527576299844</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="J45" t="n">
-        <v>19.28114311021272</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="K45" t="n">
-        <v>144.6387031680501</v>
+        <v>141.7989876128999</v>
       </c>
       <c r="L45" t="n">
-        <v>374.6018090363993</v>
+        <v>345.2616536067974</v>
       </c>
       <c r="M45" t="n">
-        <v>613.2059550252818</v>
+        <v>435.9652341458732</v>
       </c>
       <c r="N45" t="n">
-        <v>851.8101010141643</v>
+        <v>435.9652341458732</v>
       </c>
       <c r="O45" t="n">
-        <v>894.6625969973069</v>
+        <v>639.4279001397708</v>
       </c>
       <c r="P45" t="n">
-        <v>894.6625969973069</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="Q45" t="n">
-        <v>964.0571555106362</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="R45" t="n">
-        <v>862.8876260635219</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="S45" t="n">
-        <v>689.4702815141908</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="T45" t="n">
-        <v>689.4702815141908</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="U45" t="n">
-        <v>689.4702815141908</v>
+        <v>614.4775954922324</v>
       </c>
       <c r="V45" t="n">
-        <v>454.3181732824481</v>
+        <v>406.8838132313431</v>
       </c>
       <c r="W45" t="n">
-        <v>210.869396638348</v>
+        <v>199.2900309704538</v>
       </c>
       <c r="X45" t="n">
-        <v>210.869396638348</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="Y45" t="n">
-        <v>210.869396638348</v>
+        <v>16.44142755506243</v>
       </c>
     </row>
     <row r="46">
@@ -7782,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>19.28114311021272</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="C46" t="n">
-        <v>19.28114311021272</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="D46" t="n">
-        <v>19.28114311021272</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="E46" t="n">
-        <v>19.28114311021272</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="F46" t="n">
-        <v>19.28114311021272</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="G46" t="n">
-        <v>19.28114311021272</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="H46" t="n">
-        <v>19.28114311021272</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="I46" t="n">
-        <v>19.28114311021272</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="J46" t="n">
-        <v>19.28114311021272</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="K46" t="n">
-        <v>19.28114311021272</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="L46" t="n">
-        <v>46.5952681179257</v>
+        <v>43.75555256277541</v>
       </c>
       <c r="M46" t="n">
-        <v>85.78330631014788</v>
+        <v>82.94359075499759</v>
       </c>
       <c r="N46" t="n">
-        <v>129.4741569655842</v>
+        <v>126.6344414104339</v>
       </c>
       <c r="O46" t="n">
-        <v>153.8134336004835</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="P46" t="n">
-        <v>153.8134336004835</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="Q46" t="n">
-        <v>153.8134336004835</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="R46" t="n">
-        <v>153.8134336004835</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="S46" t="n">
-        <v>153.8134336004835</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="T46" t="n">
-        <v>153.8134336004835</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="U46" t="n">
-        <v>153.8134336004835</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="V46" t="n">
-        <v>19.28114311021272</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="W46" t="n">
-        <v>19.28114311021272</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="X46" t="n">
-        <v>19.28114311021272</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="Y46" t="n">
-        <v>19.28114311021272</v>
+        <v>16.44142755506243</v>
       </c>
     </row>
   </sheetData>
@@ -7981,22 +7981,22 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K2" t="n">
-        <v>220.0898510449805</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L2" t="n">
-        <v>289.278943979937</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M2" t="n">
-        <v>230.3462332272727</v>
+        <v>401.9436843039723</v>
       </c>
       <c r="N2" t="n">
-        <v>280.7634702223003</v>
+        <v>434.9309080348713</v>
       </c>
       <c r="O2" t="n">
-        <v>283.6107404316365</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P2" t="n">
-        <v>284.7455247652193</v>
+        <v>231.2329957552695</v>
       </c>
       <c r="Q2" t="n">
         <v>212.3149906599047</v>
@@ -8060,25 +8060,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L3" t="n">
-        <v>138.5543797798742</v>
+        <v>344.0722242181546</v>
       </c>
       <c r="M3" t="n">
-        <v>142.1340339220183</v>
+        <v>233.7538122443171</v>
       </c>
       <c r="N3" t="n">
-        <v>182.6921187090427</v>
+        <v>336.8595565216137</v>
       </c>
       <c r="O3" t="n">
-        <v>196.1087734543942</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P3" t="n">
-        <v>187.48693642428</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>193.4943030959713</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8221,13 +8221,13 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L5" t="n">
-        <v>417.6612145504504</v>
+        <v>293.1751087726566</v>
       </c>
       <c r="M5" t="n">
-        <v>449.5135334928325</v>
+        <v>435.8640776655532</v>
       </c>
       <c r="N5" t="n">
-        <v>437.3469244119842</v>
+        <v>434.9309080348713</v>
       </c>
       <c r="O5" t="n">
         <v>380.8001812627454</v>
@@ -8300,22 +8300,22 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L6" t="n">
-        <v>138.5543797798742</v>
+        <v>230.174158102173</v>
       </c>
       <c r="M6" t="n">
-        <v>383.1483227996774</v>
+        <v>347.6518783602987</v>
       </c>
       <c r="N6" t="n">
-        <v>222.4246658592332</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O6" t="n">
-        <v>383.6105333221035</v>
+        <v>348.1140888827248</v>
       </c>
       <c r="P6" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8455,22 +8455,22 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K8" t="n">
-        <v>324.1454125711647</v>
+        <v>220.0898510449805</v>
       </c>
       <c r="L8" t="n">
         <v>417.6612145504504</v>
       </c>
       <c r="M8" t="n">
-        <v>449.5135334928325</v>
+        <v>435.8640776655532</v>
       </c>
       <c r="N8" t="n">
-        <v>437.3469244119842</v>
+        <v>434.9309080348713</v>
       </c>
       <c r="O8" t="n">
         <v>380.8001812627454</v>
       </c>
       <c r="P8" t="n">
-        <v>321.7987081714826</v>
+        <v>301.368163919873</v>
       </c>
       <c r="Q8" t="n">
         <v>212.3149906599047</v>
@@ -8537,22 +8537,22 @@
         <v>137.841438974359</v>
       </c>
       <c r="L9" t="n">
-        <v>138.5543797798742</v>
+        <v>344.0722242181546</v>
       </c>
       <c r="M9" t="n">
-        <v>359.8407857361378</v>
+        <v>347.6518783602987</v>
       </c>
       <c r="N9" t="n">
-        <v>372.3560009609923</v>
+        <v>336.8595565216137</v>
       </c>
       <c r="O9" t="n">
-        <v>383.6105333221035</v>
+        <v>339.8103375922893</v>
       </c>
       <c r="P9" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q9" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8698,13 +8698,13 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M11" t="n">
-        <v>449.5135334928325</v>
+        <v>435.8640776655532</v>
       </c>
       <c r="N11" t="n">
-        <v>437.3469244119842</v>
+        <v>434.9309080348713</v>
       </c>
       <c r="O11" t="n">
-        <v>380.8001812627454</v>
+        <v>256.3140754849514</v>
       </c>
       <c r="P11" t="n">
         <v>321.7987081714826</v>
@@ -8771,25 +8771,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K12" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L12" t="n">
-        <v>370.8403453034592</v>
+        <v>344.0722242181546</v>
       </c>
       <c r="M12" t="n">
-        <v>383.1483227996774</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N12" t="n">
-        <v>372.3560009609923</v>
+        <v>152.8659767558044</v>
       </c>
       <c r="O12" t="n">
-        <v>382.6009056104135</v>
+        <v>348.1140888827248</v>
       </c>
       <c r="P12" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q12" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R12" t="n">
         <v>45.52166981132082</v>
@@ -8935,10 +8935,10 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M14" t="n">
-        <v>449.5135334928325</v>
+        <v>311.3779718877592</v>
       </c>
       <c r="N14" t="n">
-        <v>437.3469244119842</v>
+        <v>434.9309080348713</v>
       </c>
       <c r="O14" t="n">
         <v>380.8001812627454</v>
@@ -9011,16 +9011,16 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L15" t="n">
-        <v>370.8403453034592</v>
+        <v>344.0722242181546</v>
       </c>
       <c r="M15" t="n">
-        <v>312.04082470182</v>
+        <v>347.6518783602987</v>
       </c>
       <c r="N15" t="n">
         <v>131.3417120833333</v>
       </c>
       <c r="O15" t="n">
-        <v>383.6105333221035</v>
+        <v>234.2160227667432</v>
       </c>
       <c r="P15" t="n">
         <v>318.4627686399372</v>
@@ -9251,19 +9251,19 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M18" t="n">
-        <v>312.04082470182</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N18" t="n">
-        <v>131.3417120833333</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O18" t="n">
-        <v>383.6105333221035</v>
+        <v>242.4075215744184</v>
       </c>
       <c r="P18" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q18" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R18" t="n">
         <v>45.52166981132082</v>
@@ -9403,7 +9403,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K20" t="n">
-        <v>324.1454125711647</v>
+        <v>324.1454125711648</v>
       </c>
       <c r="L20" t="n">
         <v>417.6612145504504</v>
@@ -9482,25 +9482,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K21" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L21" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M21" t="n">
-        <v>383.1483227996774</v>
+        <v>312.04082470182</v>
       </c>
       <c r="N21" t="n">
-        <v>372.3560009609923</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O21" t="n">
-        <v>312.5053919605859</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P21" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q21" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R21" t="n">
         <v>45.52166981132082</v>
@@ -9719,16 +9719,16 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K24" t="n">
-        <v>264.4652370125786</v>
+        <v>193.3577389147212</v>
       </c>
       <c r="L24" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M24" t="n">
-        <v>303.312501347746</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N24" t="n">
-        <v>372.3560009609923</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O24" t="n">
         <v>383.6105333221035</v>
@@ -9959,7 +9959,7 @@
         <v>137.841438974359</v>
       </c>
       <c r="L27" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M27" t="n">
         <v>383.1483227996774</v>
@@ -9968,13 +9968,13 @@
         <v>372.3560009609923</v>
       </c>
       <c r="O27" t="n">
-        <v>383.6105333221035</v>
+        <v>382.6009056104135</v>
       </c>
       <c r="P27" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
-        <v>186.7697506723097</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R27" t="n">
         <v>45.52166981132082</v>
@@ -10202,16 +10202,16 @@
         <v>383.1483227996774</v>
       </c>
       <c r="N30" t="n">
-        <v>131.3417120833333</v>
+        <v>174.6270615612551</v>
       </c>
       <c r="O30" t="n">
-        <v>312.5030352242461</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P30" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R30" t="n">
         <v>45.52166981132082</v>
@@ -10436,19 +10436,19 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M33" t="n">
-        <v>383.1483227996774</v>
+        <v>241.9453110519923</v>
       </c>
       <c r="N33" t="n">
-        <v>372.3560009609923</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O33" t="n">
-        <v>255.9771075721939</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P33" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q33" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R33" t="n">
         <v>45.52166981132082</v>
@@ -10667,22 +10667,22 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K36" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L36" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M36" t="n">
-        <v>142.1340339220183</v>
+        <v>382.1386950879875</v>
       </c>
       <c r="N36" t="n">
-        <v>301.248502863135</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O36" t="n">
         <v>383.6105333221035</v>
       </c>
       <c r="P36" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
         <v>139.9817740860215</v>
@@ -10904,25 +10904,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K39" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L39" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M39" t="n">
-        <v>241.9453110519923</v>
+        <v>382.1386950879875</v>
       </c>
       <c r="N39" t="n">
-        <v>131.3417120833333</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O39" t="n">
         <v>383.6105333221035</v>
       </c>
       <c r="P39" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
         <v>45.52166981132082</v>
@@ -11062,22 +11062,22 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K41" t="n">
-        <v>324.1454125711648</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L41" t="n">
         <v>417.6612145504504</v>
       </c>
       <c r="M41" t="n">
-        <v>449.5135334928325</v>
+        <v>435.8640776655532</v>
       </c>
       <c r="N41" t="n">
-        <v>437.3469244119842</v>
+        <v>434.9309080348713</v>
       </c>
       <c r="O41" t="n">
-        <v>380.8001812627454</v>
+        <v>346.8797879011645</v>
       </c>
       <c r="P41" t="n">
-        <v>321.7987081714826</v>
+        <v>231.2329957552695</v>
       </c>
       <c r="Q41" t="n">
         <v>212.3149906599047</v>
@@ -11141,22 +11141,22 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K42" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L42" t="n">
-        <v>370.8403453034592</v>
+        <v>344.0722242181546</v>
       </c>
       <c r="M42" t="n">
-        <v>383.1483227996774</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N42" t="n">
-        <v>371.3463732493024</v>
+        <v>336.8595565216137</v>
       </c>
       <c r="O42" t="n">
-        <v>383.6105333221035</v>
+        <v>348.1140888827248</v>
       </c>
       <c r="P42" t="n">
-        <v>133.9744074143302</v>
+        <v>204.5647025239554</v>
       </c>
       <c r="Q42" t="n">
         <v>139.9817740860215</v>
@@ -11299,16 +11299,16 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K44" t="n">
-        <v>324.1454125711647</v>
+        <v>220.0898510449805</v>
       </c>
       <c r="L44" t="n">
         <v>417.6612145504504</v>
       </c>
       <c r="M44" t="n">
-        <v>449.5135334928325</v>
+        <v>435.8640776655532</v>
       </c>
       <c r="N44" t="n">
-        <v>437.3469244119842</v>
+        <v>414.5003637832617</v>
       </c>
       <c r="O44" t="n">
         <v>380.8001812627454</v>
@@ -11381,22 +11381,22 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L45" t="n">
-        <v>370.8403453034592</v>
+        <v>344.0722242181546</v>
       </c>
       <c r="M45" t="n">
-        <v>383.1483227996774</v>
+        <v>233.7538122443171</v>
       </c>
       <c r="N45" t="n">
-        <v>372.3560009609923</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O45" t="n">
-        <v>185.8815939223662</v>
+        <v>348.1140888827248</v>
       </c>
       <c r="P45" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q45" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
         <v>45.52166981132082</v>
@@ -22546,13 +22546,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>177.2159972252002</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>159.7550473327271</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>173.6629242394455</v>
       </c>
       <c r="E2" t="n">
         <v>381.9303700722618</v>
@@ -22594,28 +22594,28 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R2" t="n">
-        <v>102.735282389186</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S2" t="n">
-        <v>155.5075405762956</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T2" t="n">
         <v>223.0958495641314</v>
       </c>
       <c r="U2" t="n">
-        <v>197.8331238978867</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>295.7284397074633</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>180.7200942177732</v>
       </c>
     </row>
     <row r="3">
@@ -22625,16 +22625,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>113.0206546399176</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C3" t="n">
-        <v>119.195969978366</v>
+        <v>158.0184369674574</v>
       </c>
       <c r="D3" t="n">
-        <v>100.311230012675</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E3" t="n">
-        <v>104.1325514454512</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F3" t="n">
         <v>145.0692123933839</v>
@@ -22676,10 +22676,10 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S3" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U3" t="n">
         <v>225.9413820809748</v>
@@ -22688,10 +22688,10 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W3" t="n">
-        <v>251.6949831609196</v>
+        <v>46.1771387226392</v>
       </c>
       <c r="X3" t="n">
-        <v>205.7729852034775</v>
+        <v>0.2551407651970692</v>
       </c>
       <c r="Y3" t="n">
         <v>205.6826957773044</v>
@@ -22722,16 +22722,16 @@
         <v>167.9909793584588</v>
       </c>
       <c r="H4" t="n">
-        <v>161.0561955029604</v>
+        <v>162.2271725074396</v>
       </c>
       <c r="I4" t="n">
-        <v>101.9379459173085</v>
+        <v>155.4504749272583</v>
       </c>
       <c r="J4" t="n">
-        <v>39.84665110672302</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -22746,7 +22746,7 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q4" t="n">
         <v>86.16204325169439</v>
@@ -22773,7 +22773,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>85.3976857667268</v>
       </c>
     </row>
     <row r="5">
@@ -22783,10 +22783,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>141.7195527858215</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>124.2586028933485</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
@@ -22828,19 +22828,19 @@
         <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R5" t="n">
         <v>149.8691179411497</v>
       </c>
       <c r="S5" t="n">
-        <v>209.0200695862453</v>
+        <v>3.502225147964936</v>
       </c>
       <c r="T5" t="n">
-        <v>223.0958495641314</v>
+        <v>52.06643139743875</v>
       </c>
       <c r="U5" t="n">
-        <v>251.3456529078365</v>
+        <v>45.82780846955609</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
@@ -22849,10 +22849,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>157.445715035027</v>
+        <v>164.2132562401886</v>
       </c>
       <c r="Y5" t="n">
-        <v>145.2236497783945</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -22862,16 +22862,16 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E6" t="n">
-        <v>86.36944326294567</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F6" t="n">
         <v>145.0692123933839</v>
@@ -22910,28 +22910,28 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U6" t="n">
-        <v>225.9413820809748</v>
+        <v>20.42353764269441</v>
       </c>
       <c r="V6" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W6" t="n">
-        <v>251.6949831609196</v>
+        <v>131.644910854424</v>
       </c>
       <c r="X6" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y6" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="7">
@@ -22986,16 +22986,16 @@
         <v>2.721440735106512</v>
       </c>
       <c r="Q7" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>177.2933913771695</v>
+        <v>130.2684670434959</v>
       </c>
       <c r="S7" t="n">
         <v>224.0165980369723</v>
       </c>
       <c r="T7" t="n">
-        <v>94.75862184291347</v>
+        <v>227.9455894282815</v>
       </c>
       <c r="U7" t="n">
         <v>286.3190293564909</v>
@@ -23020,7 +23020,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>141.7195527858215</v>
+        <v>177.2159972252002</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
@@ -23032,7 +23032,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>354.4504772539638</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
         <v>415.302737515135</v>
@@ -23065,10 +23065,10 @@
         <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S8" t="n">
         <v>209.0200695862453</v>
@@ -23083,13 +23083,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>108.226679839754</v>
+        <v>168.2208513361757</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>164.2132562401886</v>
       </c>
       <c r="Y8" t="n">
-        <v>145.2236497783945</v>
+        <v>180.7200942177732</v>
       </c>
     </row>
     <row r="9">
@@ -23099,16 +23099,16 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C9" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D9" t="n">
         <v>147.4450655646388</v>
       </c>
       <c r="E9" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F9" t="n">
         <v>145.0692123933839</v>
@@ -23156,19 +23156,19 @@
         <v>200.1647286948216</v>
       </c>
       <c r="U9" t="n">
-        <v>225.9413820809748</v>
+        <v>20.42353764269441</v>
       </c>
       <c r="V9" t="n">
-        <v>232.8005871494253</v>
+        <v>27.28274271114486</v>
       </c>
       <c r="W9" t="n">
-        <v>224.7091749588662</v>
+        <v>46.1771387226392</v>
       </c>
       <c r="X9" t="n">
-        <v>0</v>
+        <v>24.75286782224003</v>
       </c>
       <c r="Y9" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="10">
@@ -23235,7 +23235,7 @@
         <v>227.9455894282815</v>
       </c>
       <c r="U10" t="n">
-        <v>286.3190293564909</v>
+        <v>153.1320617711229</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
@@ -23247,7 +23247,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>85.39768576672677</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -23257,13 +23257,13 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>141.7195527858215</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
-        <v>124.2586028933485</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
-        <v>113.6687527430239</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
         <v>381.9303700722618</v>
@@ -23272,7 +23272,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>203.0173518716929</v>
+        <v>209.7848930768546</v>
       </c>
       <c r="H11" t="n">
         <v>339.4748021157671</v>
@@ -23302,22 +23302,22 @@
         <v>0</v>
       </c>
       <c r="Q11" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S11" t="n">
         <v>209.0200695862453</v>
       </c>
       <c r="T11" t="n">
-        <v>223.0958495641314</v>
+        <v>201.9355493385885</v>
       </c>
       <c r="U11" t="n">
-        <v>251.3456529078365</v>
+        <v>45.82780846955609</v>
       </c>
       <c r="V11" t="n">
-        <v>327.7522584701349</v>
+        <v>122.2344140318545</v>
       </c>
       <c r="W11" t="n">
         <v>349.240968717413</v>
@@ -23336,25 +23336,25 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C12" t="n">
         <v>172.7084989883157</v>
       </c>
       <c r="D12" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E12" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F12" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G12" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I12" t="n">
         <v>89.39663285141508</v>
@@ -23393,19 +23393,19 @@
         <v>200.1647286948216</v>
       </c>
       <c r="U12" t="n">
-        <v>225.9413820809748</v>
+        <v>44.92126469973746</v>
       </c>
       <c r="V12" t="n">
-        <v>232.8005871494253</v>
+        <v>27.28274271114486</v>
       </c>
       <c r="W12" t="n">
-        <v>251.6949831609196</v>
+        <v>46.1771387226392</v>
       </c>
       <c r="X12" t="n">
-        <v>205.7729852034775</v>
+        <v>0.2551407651970692</v>
       </c>
       <c r="Y12" t="n">
-        <v>136.6259469638832</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="13">
@@ -23418,7 +23418,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>34.05985351325981</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
         <v>148.6154730182124</v>
@@ -23466,7 +23466,7 @@
         <v>177.2933913771695</v>
       </c>
       <c r="S13" t="n">
-        <v>224.0165980369723</v>
+        <v>90.82963045160426</v>
       </c>
       <c r="T13" t="n">
         <v>227.9455894282815</v>
@@ -23506,16 +23506,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
-        <v>165.8617568640524</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>174.288448637476</v>
+        <v>209.7848930768546</v>
       </c>
       <c r="H14" t="n">
-        <v>98.46051323810809</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J14" t="n">
         <v>11.94928935461252</v>
@@ -23542,13 +23542,13 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R14" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>209.0200695862453</v>
+        <v>177.8690701461577</v>
       </c>
       <c r="T14" t="n">
-        <v>221.2863534910952</v>
+        <v>17.57800512585095</v>
       </c>
       <c r="U14" t="n">
         <v>251.3456529078365</v>
@@ -23563,7 +23563,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
-        <v>386.2379386560536</v>
+        <v>180.7200942177732</v>
       </c>
     </row>
     <row r="15">
@@ -23624,25 +23624,25 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S15" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T15" t="n">
-        <v>73.91671058399687</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U15" t="n">
-        <v>0</v>
+        <v>20.42353764269441</v>
       </c>
       <c r="V15" t="n">
-        <v>232.8005871494253</v>
+        <v>27.28274271114486</v>
       </c>
       <c r="W15" t="n">
-        <v>251.6949831609196</v>
+        <v>70.67486577968216</v>
       </c>
       <c r="X15" t="n">
-        <v>0</v>
+        <v>0.2551407651970692</v>
       </c>
       <c r="Y15" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="16">
@@ -23673,13 +23673,13 @@
         <v>162.2271725074396</v>
       </c>
       <c r="I16" t="n">
-        <v>140.6136200195524</v>
+        <v>155.4504749272583</v>
       </c>
       <c r="J16" t="n">
-        <v>0</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K16" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L16" t="n">
         <v>0</v>
@@ -23694,7 +23694,7 @@
         <v>0</v>
       </c>
       <c r="P16" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q16" t="n">
         <v>86.16204325169439</v>
@@ -23709,7 +23709,7 @@
         <v>227.9455894282815</v>
       </c>
       <c r="U16" t="n">
-        <v>286.3190293564909</v>
+        <v>153.1320617711229</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
@@ -23737,7 +23737,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D17" t="n">
-        <v>113.6687527430239</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E17" t="n">
         <v>381.9303700722618</v>
@@ -23746,13 +23746,13 @@
         <v>165.8617568640524</v>
       </c>
       <c r="G17" t="n">
-        <v>415.302737515135</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H17" t="n">
-        <v>98.46051323810809</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I17" t="n">
-        <v>8.181203141508689</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J17" t="n">
         <v>11.94928935461252</v>
@@ -23776,19 +23776,19 @@
         <v>0</v>
       </c>
       <c r="Q17" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R17" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S17" t="n">
         <v>209.0200695862453</v>
       </c>
       <c r="T17" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>251.3456529078365</v>
+        <v>171.0109458920165</v>
       </c>
       <c r="V17" t="n">
         <v>327.7522584701349</v>
@@ -23813,28 +23813,28 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C18" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D18" t="n">
         <v>147.4450655646388</v>
       </c>
       <c r="E18" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F18" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H18" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I18" t="n">
         <v>89.39663285141508</v>
       </c>
       <c r="J18" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
@@ -23858,13 +23858,13 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S18" t="n">
-        <v>0</v>
+        <v>30.40905327982739</v>
       </c>
       <c r="T18" t="n">
-        <v>120.841661643981</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U18" t="n">
         <v>225.9413820809748</v>
@@ -23873,13 +23873,13 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W18" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X18" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y18" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="19">
@@ -23934,13 +23934,13 @@
         <v>2.721440735106512</v>
       </c>
       <c r="Q19" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R19" t="n">
-        <v>177.2933913771695</v>
+        <v>44.10642379180146</v>
       </c>
       <c r="S19" t="n">
-        <v>176.9916737032986</v>
+        <v>224.0165980369723</v>
       </c>
       <c r="T19" t="n">
         <v>227.9455894282815</v>
@@ -23971,7 +23971,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
-        <v>124.2586028933485</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D20" t="n">
         <v>354.683041620683</v>
@@ -23980,16 +23980,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F20" t="n">
-        <v>406.8760457417114</v>
+        <v>165.8617568640524</v>
       </c>
       <c r="G20" t="n">
         <v>415.302737515135</v>
       </c>
       <c r="H20" t="n">
-        <v>339.4748021157671</v>
+        <v>256.5108343207664</v>
       </c>
       <c r="I20" t="n">
-        <v>210.4758895704059</v>
+        <v>0</v>
       </c>
       <c r="J20" t="n">
         <v>11.94928935461252</v>
@@ -24013,22 +24013,22 @@
         <v>0</v>
       </c>
       <c r="Q20" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S20" t="n">
         <v>209.0200695862453</v>
       </c>
       <c r="T20" t="n">
-        <v>10.81046392068936</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U20" t="n">
         <v>10.33136403017744</v>
       </c>
       <c r="V20" t="n">
-        <v>86.73796959247585</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W20" t="n">
         <v>349.240968717413</v>
@@ -24056,13 +24056,13 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E21" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F21" t="n">
         <v>145.0692123933839</v>
       </c>
       <c r="G21" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H21" t="n">
         <v>112.2354442364965</v>
@@ -24071,7 +24071,7 @@
         <v>89.39663285141508</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
@@ -24095,28 +24095,28 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
       </c>
       <c r="T21" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U21" t="n">
-        <v>58.35405270072761</v>
+        <v>0</v>
       </c>
       <c r="V21" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W21" t="n">
-        <v>251.6949831609196</v>
+        <v>152.4745669960426</v>
       </c>
       <c r="X21" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y21" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22">
@@ -24183,10 +24183,10 @@
         <v>227.9455894282815</v>
       </c>
       <c r="U22" t="n">
-        <v>286.3190293564909</v>
+        <v>153.1320617711229</v>
       </c>
       <c r="V22" t="n">
-        <v>118.95067573846</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
         <v>286.522998336591</v>
@@ -24205,19 +24205,19 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>141.7195527858215</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C23" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D23" t="n">
-        <v>354.683041620683</v>
+        <v>154.3469453318533</v>
       </c>
       <c r="E23" t="n">
         <v>140.9160811946027</v>
       </c>
       <c r="F23" t="n">
-        <v>406.8760457417114</v>
+        <v>165.8617568640524</v>
       </c>
       <c r="G23" t="n">
         <v>174.288448637476</v>
@@ -24229,7 +24229,7 @@
         <v>210.4758895704059</v>
       </c>
       <c r="J23" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K23" t="n">
         <v>0</v>
@@ -24262,7 +24262,7 @@
         <v>223.0958495641314</v>
       </c>
       <c r="U23" t="n">
-        <v>39.0602672643945</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V23" t="n">
         <v>327.7522584701349</v>
@@ -24287,7 +24287,7 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C24" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D24" t="n">
         <v>147.4450655646388</v>
@@ -24299,7 +24299,7 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G24" t="n">
-        <v>113.520440090222</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H24" t="n">
         <v>112.2354442364965</v>
@@ -24332,28 +24332,28 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S24" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T24" t="n">
         <v>200.1647286948216</v>
       </c>
       <c r="U24" t="n">
-        <v>0</v>
+        <v>175.8836868124218</v>
       </c>
       <c r="V24" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W24" t="n">
         <v>10.68069428326055</v>
       </c>
       <c r="X24" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y24" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25">
@@ -24363,7 +24363,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>46.6450125965693</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
         <v>167.2468210986278</v>
@@ -24423,7 +24423,7 @@
         <v>286.3190293564909</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>118.95067573846</v>
       </c>
       <c r="W25" t="n">
         <v>286.522998336591</v>
@@ -24445,7 +24445,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C26" t="n">
-        <v>124.2586028933485</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D26" t="n">
         <v>354.683041620683</v>
@@ -24454,10 +24454,10 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F26" t="n">
-        <v>165.8617568640524</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>415.302737515135</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H26" t="n">
         <v>339.4748021157671</v>
@@ -24466,7 +24466,7 @@
         <v>210.4758895704059</v>
       </c>
       <c r="J26" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K26" t="n">
         <v>0</v>
@@ -24487,28 +24487,28 @@
         <v>0</v>
       </c>
       <c r="Q26" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S26" t="n">
         <v>209.0200695862453</v>
       </c>
       <c r="T26" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U26" t="n">
         <v>251.3456529078365</v>
       </c>
       <c r="V26" t="n">
-        <v>327.7522584701349</v>
+        <v>109.4977228677776</v>
       </c>
       <c r="W26" t="n">
         <v>108.226679839754</v>
       </c>
       <c r="X26" t="n">
-        <v>317.3055321907214</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y26" t="n">
         <v>386.2379386560536</v>
@@ -24569,25 +24569,25 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S27" t="n">
         <v>171.6831711038378</v>
       </c>
       <c r="T27" t="n">
-        <v>200.1647286948216</v>
+        <v>135.0341266295844</v>
       </c>
       <c r="U27" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
       </c>
       <c r="W27" t="n">
-        <v>10.68069428326055</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X27" t="n">
-        <v>50.10013888409017</v>
+        <v>0</v>
       </c>
       <c r="Y27" t="n">
         <v>0</v>
@@ -24651,7 +24651,7 @@
         <v>177.2933913771695</v>
       </c>
       <c r="S28" t="n">
-        <v>90.82963045160423</v>
+        <v>224.0165980369723</v>
       </c>
       <c r="T28" t="n">
         <v>227.9455894282815</v>
@@ -24663,7 +24663,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>153.336030751223</v>
       </c>
       <c r="X28" t="n">
         <v>225.7096553890372</v>
@@ -24679,7 +24679,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>382.7338416634806</v>
+        <v>141.7195527858215</v>
       </c>
       <c r="C29" t="n">
         <v>365.2728917710076</v>
@@ -24694,7 +24694,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
-        <v>174.288448637476</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H29" t="n">
         <v>339.4748021157671</v>
@@ -24727,25 +24727,25 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S29" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T29" t="n">
-        <v>138.6760617849701</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U29" t="n">
-        <v>251.3456529078365</v>
+        <v>10.33136403017744</v>
       </c>
       <c r="V29" t="n">
-        <v>327.7522584701349</v>
+        <v>125.4575720412377</v>
       </c>
       <c r="W29" t="n">
-        <v>349.240968717413</v>
+        <v>108.226679839754</v>
       </c>
       <c r="X29" t="n">
-        <v>128.71681180081</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y29" t="n">
         <v>386.2379386560536</v>
@@ -24809,10 +24809,10 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S30" t="n">
-        <v>171.6831711038378</v>
+        <v>106.5525690386006</v>
       </c>
       <c r="T30" t="n">
-        <v>170.3657197299391</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U30" t="n">
         <v>0</v>
@@ -24821,13 +24821,13 @@
         <v>0</v>
       </c>
       <c r="W30" t="n">
-        <v>10.68069428326055</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X30" t="n">
         <v>0</v>
       </c>
       <c r="Y30" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31">
@@ -24882,13 +24882,13 @@
         <v>2.721440735106512</v>
       </c>
       <c r="Q31" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R31" t="n">
         <v>177.2933913771695</v>
       </c>
       <c r="S31" t="n">
-        <v>176.9916737032986</v>
+        <v>224.0165980369723</v>
       </c>
       <c r="T31" t="n">
         <v>227.9455894282815</v>
@@ -24897,7 +24897,7 @@
         <v>286.3190293564909</v>
       </c>
       <c r="V31" t="n">
-        <v>252.137643323828</v>
+        <v>118.95067573846</v>
       </c>
       <c r="W31" t="n">
         <v>286.522998336591</v>
@@ -24916,7 +24916,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>382.7338416634806</v>
+        <v>371.540785507301</v>
       </c>
       <c r="C32" t="n">
         <v>365.2728917710076</v>
@@ -24934,7 +24934,7 @@
         <v>174.288448637476</v>
       </c>
       <c r="H32" t="n">
-        <v>109.2709771587974</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I32" t="n">
         <v>210.4758895704059</v>
@@ -24961,13 +24961,13 @@
         <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R32" t="n">
         <v>149.8691179411497</v>
       </c>
       <c r="S32" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T32" t="n">
         <v>0</v>
@@ -24995,16 +24995,16 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C33" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D33" t="n">
         <v>147.4450655646388</v>
       </c>
       <c r="E33" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F33" t="n">
         <v>145.0692123933839</v>
@@ -25019,7 +25019,7 @@
         <v>89.39663285141508</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K33" t="n">
         <v>0</v>
@@ -25043,28 +25043,28 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>87.54371918738423</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S33" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T33" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U33" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V33" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W33" t="n">
-        <v>251.6949831609196</v>
+        <v>133.3314980030232</v>
       </c>
       <c r="X33" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y33" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34">
@@ -25128,7 +25128,7 @@
         <v>224.0165980369723</v>
       </c>
       <c r="T34" t="n">
-        <v>227.9455894282815</v>
+        <v>94.75862184291347</v>
       </c>
       <c r="U34" t="n">
         <v>286.3190293564909</v>
@@ -25137,7 +25137,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>153.336030751223</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
         <v>225.7096553890372</v>
@@ -25153,28 +25153,28 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>141.7195527858215</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C35" t="n">
-        <v>124.2586028933485</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D35" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E35" t="n">
-        <v>381.9303700722618</v>
+        <v>269.6014437650281</v>
       </c>
       <c r="F35" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>415.302737515135</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H35" t="n">
         <v>339.4748021157671</v>
       </c>
       <c r="I35" t="n">
-        <v>8.181203141508689</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J35" t="n">
         <v>11.94928935461252</v>
@@ -25198,16 +25198,16 @@
         <v>0</v>
       </c>
       <c r="Q35" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R35" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U35" t="n">
         <v>251.3456529078365</v>
@@ -25219,7 +25219,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X35" t="n">
-        <v>128.71681180081</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y35" t="n">
         <v>386.2379386560536</v>
@@ -25247,7 +25247,7 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G36" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H36" t="n">
         <v>112.2354442364965</v>
@@ -25286,7 +25286,7 @@
         <v>171.6831711038378</v>
       </c>
       <c r="T36" t="n">
-        <v>0</v>
+        <v>170.3657197299391</v>
       </c>
       <c r="U36" t="n">
         <v>0</v>
@@ -25295,10 +25295,10 @@
         <v>0</v>
       </c>
       <c r="W36" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X36" t="n">
-        <v>66.69494801549061</v>
+        <v>0</v>
       </c>
       <c r="Y36" t="n">
         <v>205.6826957773044</v>
@@ -25396,13 +25396,13 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D38" t="n">
-        <v>113.6687527430239</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E38" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F38" t="n">
-        <v>406.8760457417114</v>
+        <v>165.8617568640524</v>
       </c>
       <c r="G38" t="n">
         <v>174.288448637476</v>
@@ -25414,7 +25414,7 @@
         <v>210.4758895704059</v>
       </c>
       <c r="J38" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K38" t="n">
         <v>0</v>
@@ -25438,16 +25438,16 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R38" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S38" t="n">
         <v>209.0200695862453</v>
       </c>
       <c r="T38" t="n">
-        <v>10.81046392068936</v>
+        <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>10.33136403017744</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V38" t="n">
         <v>327.7522584701349</v>
@@ -25459,7 +25459,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y38" t="n">
-        <v>386.2379386560536</v>
+        <v>317.852520994846</v>
       </c>
     </row>
     <row r="39">
@@ -25472,25 +25472,25 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C39" t="n">
-        <v>126.6730335290854</v>
+        <v>0</v>
       </c>
       <c r="D39" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E39" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F39" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G39" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H39" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J39" t="n">
         <v>0.7465913262578567</v>
@@ -25517,7 +25517,7 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>10.266737026651</v>
       </c>
       <c r="S39" t="n">
         <v>171.6831711038378</v>
@@ -25526,16 +25526,16 @@
         <v>200.1647286948216</v>
       </c>
       <c r="U39" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V39" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W39" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X39" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y39" t="n">
         <v>205.6826957773044</v>
@@ -25633,13 +25633,13 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D41" t="n">
-        <v>113.6687527430239</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E41" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F41" t="n">
-        <v>406.8760457417114</v>
+        <v>201.358201303431</v>
       </c>
       <c r="G41" t="n">
         <v>415.302737515135</v>
@@ -25651,7 +25651,7 @@
         <v>210.4758895704059</v>
       </c>
       <c r="J41" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K41" t="n">
         <v>0</v>
@@ -25672,19 +25672,19 @@
         <v>0</v>
       </c>
       <c r="Q41" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R41" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>0.7562331984328523</v>
+        <v>3.502225147964936</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>17.57800512585095</v>
       </c>
       <c r="U41" t="n">
-        <v>10.33136403017744</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V41" t="n">
         <v>327.7522584701349</v>
@@ -25696,7 +25696,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y41" t="n">
-        <v>386.2379386560536</v>
+        <v>355.0869392159659</v>
       </c>
     </row>
     <row r="42">
@@ -25706,10 +25706,10 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C42" t="n">
-        <v>7.967270650138659</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D42" t="n">
         <v>147.4450655646388</v>
@@ -25730,7 +25730,7 @@
         <v>89.39663285141508</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K42" t="n">
         <v>0</v>
@@ -25757,25 +25757,25 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S42" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T42" t="n">
-        <v>200.1647286948216</v>
+        <v>19.14461131358425</v>
       </c>
       <c r="U42" t="n">
-        <v>0</v>
+        <v>20.42353764269441</v>
       </c>
       <c r="V42" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W42" t="n">
-        <v>251.6949831609196</v>
+        <v>46.1771387226392</v>
       </c>
       <c r="X42" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y42" t="n">
-        <v>0</v>
+        <v>0.1648513390239543</v>
       </c>
     </row>
     <row r="43">
@@ -25806,7 +25806,7 @@
         <v>162.2271725074396</v>
       </c>
       <c r="I43" t="n">
-        <v>22.26350734189026</v>
+        <v>155.4504749272583</v>
       </c>
       <c r="J43" t="n">
         <v>93.35918011667277</v>
@@ -25848,7 +25848,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>286.522998336591</v>
+        <v>153.336030751223</v>
       </c>
       <c r="X43" t="n">
         <v>225.7096553890372</v>
@@ -25864,7 +25864,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>141.7195527858215</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C44" t="n">
         <v>365.2728917710076</v>
@@ -25873,13 +25873,13 @@
         <v>354.683041620683</v>
       </c>
       <c r="E44" t="n">
-        <v>140.9160811946027</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F44" t="n">
-        <v>204.5813593128142</v>
+        <v>201.358201303431</v>
       </c>
       <c r="G44" t="n">
-        <v>415.302737515135</v>
+        <v>209.7848930768546</v>
       </c>
       <c r="H44" t="n">
         <v>339.4748021157671</v>
@@ -25909,16 +25909,16 @@
         <v>0</v>
       </c>
       <c r="Q44" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R44" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S44" t="n">
         <v>209.0200695862453</v>
       </c>
       <c r="T44" t="n">
-        <v>223.0958495641314</v>
+        <v>17.57800512585095</v>
       </c>
       <c r="U44" t="n">
         <v>251.3456529078365</v>
@@ -25933,7 +25933,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y44" t="n">
-        <v>145.2236497783945</v>
+        <v>355.0869392159659</v>
       </c>
     </row>
     <row r="45">
@@ -25952,7 +25952,7 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E45" t="n">
-        <v>58.11593364021995</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F45" t="n">
         <v>145.0692123933839</v>
@@ -25964,10 +25964,10 @@
         <v>112.2354442364965</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K45" t="n">
         <v>0</v>
@@ -25991,25 +25991,25 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S45" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T45" t="n">
         <v>200.1647286948216</v>
       </c>
       <c r="U45" t="n">
-        <v>225.9413820809748</v>
+        <v>20.42353764269441</v>
       </c>
       <c r="V45" t="n">
-        <v>0</v>
+        <v>27.28274271114486</v>
       </c>
       <c r="W45" t="n">
-        <v>10.68069428326055</v>
+        <v>46.1771387226392</v>
       </c>
       <c r="X45" t="n">
-        <v>205.7729852034775</v>
+        <v>24.75286782224003</v>
       </c>
       <c r="Y45" t="n">
         <v>205.6826957773044</v>
@@ -26082,10 +26082,10 @@
         <v>286.3190293564909</v>
       </c>
       <c r="V46" t="n">
-        <v>118.95067573846</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>286.522998336591</v>
+        <v>153.336030751223</v>
       </c>
       <c r="X46" t="n">
         <v>225.7096553890372</v>
@@ -26125,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>359275.5867120852</v>
+        <v>465538.0859141874</v>
       </c>
     </row>
     <row r="3">
@@ -26133,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>490352.6188026464</v>
+        <v>465538.0859141872</v>
       </c>
     </row>
     <row r="4">
@@ -26141,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>490352.6188026464</v>
+        <v>465538.0859141872</v>
       </c>
     </row>
     <row r="5">
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>490352.6188026464</v>
+        <v>465538.0859141871</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>490352.6188026462</v>
+        <v>465538.0859141872</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>490352.6188026464</v>
+        <v>490352.6188026462</v>
       </c>
     </row>
     <row r="8">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>490352.6188026461</v>
+        <v>490352.6188026462</v>
       </c>
     </row>
     <row r="10">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>490352.6188026462</v>
+        <v>490352.6188026463</v>
       </c>
     </row>
     <row r="11">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>490352.6188026463</v>
+        <v>490352.6188026462</v>
       </c>
     </row>
     <row r="13">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>490352.6188026464</v>
+        <v>465538.0859141872</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>490352.6188026464</v>
+        <v>465538.0859141872</v>
       </c>
     </row>
   </sheetData>
@@ -26313,19 +26313,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>85241.52414397302</v>
+        <v>110430.3492844522</v>
       </c>
       <c r="C2" t="n">
-        <v>116312.4707719327</v>
+        <v>110430.3492844521</v>
       </c>
       <c r="D2" t="n">
-        <v>116312.4707719327</v>
+        <v>110430.3492844522</v>
       </c>
       <c r="E2" t="n">
-        <v>116312.4707719327</v>
+        <v>110430.3492844521</v>
       </c>
       <c r="F2" t="n">
-        <v>116312.4707719327</v>
+        <v>110430.3492844521</v>
       </c>
       <c r="G2" t="n">
         <v>116312.4707719327</v>
@@ -26352,10 +26352,10 @@
         <v>116312.4707719327</v>
       </c>
       <c r="O2" t="n">
-        <v>116312.4707719327</v>
+        <v>110430.3492844521</v>
       </c>
       <c r="P2" t="n">
-        <v>116312.4707719327</v>
+        <v>110430.3492844522</v>
       </c>
     </row>
     <row r="3">
@@ -26365,10 +26365,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>17933.27925940139</v>
+        <v>68873.75658168984</v>
       </c>
       <c r="C3" t="n">
-        <v>60576.32218666811</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
@@ -26380,7 +26380,7 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>9729.042974167098</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26389,10 +26389,10 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>14001.23214027929</v>
+        <v>53772.51089020943</v>
       </c>
       <c r="K3" t="n">
-        <v>48256.95293363261</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -26417,19 +26417,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>18353.1577223226</v>
+        <v>23970.50033531152</v>
       </c>
       <c r="C4" t="n">
-        <v>25282.26821261927</v>
+        <v>23970.50033531152</v>
       </c>
       <c r="D4" t="n">
-        <v>25282.26821261927</v>
+        <v>23970.50033531152</v>
       </c>
       <c r="E4" t="n">
-        <v>25282.26821261927</v>
+        <v>23970.50033531152</v>
       </c>
       <c r="F4" t="n">
-        <v>25282.26821261927</v>
+        <v>23970.50033531152</v>
       </c>
       <c r="G4" t="n">
         <v>25282.26821261927</v>
@@ -26456,10 +26456,10 @@
         <v>25282.26821261927</v>
       </c>
       <c r="O4" t="n">
-        <v>25282.26821261927</v>
+        <v>23970.50033531152</v>
       </c>
       <c r="P4" t="n">
-        <v>25282.26821261927</v>
+        <v>23970.50033531152</v>
       </c>
     </row>
     <row r="5">
@@ -26469,19 +26469,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>36881.16176380494</v>
+        <v>46123.08494184745</v>
       </c>
       <c r="C5" t="n">
-        <v>48281.26876376167</v>
+        <v>46123.08494184745</v>
       </c>
       <c r="D5" t="n">
-        <v>48281.26876376167</v>
+        <v>46123.08494184745</v>
       </c>
       <c r="E5" t="n">
-        <v>14653.66876376167</v>
+        <v>12495.48494184745</v>
       </c>
       <c r="F5" t="n">
-        <v>14653.66876376167</v>
+        <v>12495.48494184745</v>
       </c>
       <c r="G5" t="n">
         <v>14653.66876376167</v>
@@ -26508,10 +26508,10 @@
         <v>14653.66876376167</v>
       </c>
       <c r="O5" t="n">
-        <v>14653.66876376167</v>
+        <v>12495.48494184745</v>
       </c>
       <c r="P5" t="n">
-        <v>14653.66876376167</v>
+        <v>12495.48494184745</v>
       </c>
     </row>
     <row r="6">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>12073.92539844408</v>
+        <v>-41175.15472925716</v>
       </c>
       <c r="C6" t="n">
-        <v>-17827.38839111636</v>
+        <v>27698.60185243266</v>
       </c>
       <c r="D6" t="n">
-        <v>42748.93379555176</v>
+        <v>27698.60185243269</v>
       </c>
       <c r="E6" t="n">
-        <v>76376.53379555176</v>
+        <v>61326.20185243266</v>
       </c>
       <c r="F6" t="n">
-        <v>76376.53379555173</v>
+        <v>61326.20185243266</v>
       </c>
       <c r="G6" t="n">
-        <v>76376.53379555176</v>
+        <v>54429.48020134415</v>
       </c>
       <c r="H6" t="n">
-        <v>76376.53379555175</v>
+        <v>64158.52317551129</v>
       </c>
       <c r="I6" t="n">
-        <v>76376.53379555175</v>
+        <v>64158.52317551128</v>
       </c>
       <c r="J6" t="n">
-        <v>62375.30165527246</v>
+        <v>10386.01228530187</v>
       </c>
       <c r="K6" t="n">
-        <v>28119.58086191915</v>
+        <v>64158.52317551125</v>
       </c>
       <c r="L6" t="n">
-        <v>76376.53379555175</v>
+        <v>64158.5231755113</v>
       </c>
       <c r="M6" t="n">
-        <v>76376.53379555172</v>
+        <v>64158.52317551129</v>
       </c>
       <c r="N6" t="n">
-        <v>76376.53379555178</v>
+        <v>64158.52317551131</v>
       </c>
       <c r="O6" t="n">
-        <v>76376.53379555178</v>
+        <v>61326.20185243266</v>
       </c>
       <c r="P6" t="n">
-        <v>76376.53379555175</v>
+        <v>61326.20185243268</v>
       </c>
     </row>
   </sheetData>
@@ -26789,19 +26789,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>53.51252900994975</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="C4" t="n">
-        <v>241.0142888776591</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="D4" t="n">
-        <v>241.0142888776591</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="E4" t="n">
-        <v>241.0142888776591</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="F4" t="n">
-        <v>241.0142888776591</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="G4" t="n">
         <v>241.0142888776591</v>
@@ -26828,10 +26828,10 @@
         <v>241.0142888776591</v>
       </c>
       <c r="O4" t="n">
-        <v>241.0142888776591</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="P4" t="n">
-        <v>241.0142888776591</v>
+        <v>205.5178444382804</v>
       </c>
     </row>
   </sheetData>
@@ -27011,10 +27011,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>53.51252900994975</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="C4" t="n">
-        <v>187.5017598677093</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -27026,7 +27026,7 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>35.49644443937865</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -27035,10 +27035,10 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>53.51252900994975</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="K4" t="n">
-        <v>187.5017598677093</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -27257,10 +27257,10 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>53.51252900994975</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="K4" t="n">
-        <v>187.5017598677093</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -27272,7 +27272,7 @@
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>0</v>
+        <v>35.49644443937865</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -34701,22 +34701,22 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>104.0555615261842</v>
       </c>
       <c r="L2" t="n">
-        <v>53.51252900994975</v>
+        <v>181.8947995804632</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>171.5974510766996</v>
       </c>
       <c r="N2" t="n">
-        <v>51.35040662570935</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="O2" t="n">
-        <v>53.51252900994975</v>
+        <v>150.7019698410586</v>
       </c>
       <c r="P2" t="n">
-        <v>53.51252900994975</v>
+        <v>0</v>
       </c>
       <c r="Q2" t="n">
         <v>0</v>
@@ -34780,25 +34780,25 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>91.61977832229879</v>
       </c>
       <c r="N3" t="n">
-        <v>51.35040662570935</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="O3" t="n">
-        <v>53.51252900994975</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>53.51252900994975</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q3" t="n">
-        <v>53.51252900994975</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34941,13 +34941,13 @@
         <v>104.0555615261842</v>
       </c>
       <c r="L5" t="n">
-        <v>181.8947995804632</v>
+        <v>57.40869380266933</v>
       </c>
       <c r="M5" t="n">
-        <v>219.1673002655598</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="N5" t="n">
-        <v>207.9338608153933</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="O5" t="n">
         <v>150.7019698410586</v>
@@ -35020,22 +35020,22 @@
         <v>126.6237980382196</v>
       </c>
       <c r="L6" t="n">
-        <v>0</v>
+        <v>91.61977832229879</v>
       </c>
       <c r="M6" t="n">
-        <v>241.0142888776591</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="N6" t="n">
-        <v>91.0829537758999</v>
+        <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>241.0142888776591</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="P6" t="n">
         <v>184.4883612256069</v>
       </c>
       <c r="Q6" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35175,22 +35175,22 @@
         <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>104.0555615261842</v>
+        <v>0</v>
       </c>
       <c r="L8" t="n">
         <v>181.8947995804632</v>
       </c>
       <c r="M8" t="n">
-        <v>219.1673002655598</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="N8" t="n">
-        <v>207.9338608153932</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="O8" t="n">
         <v>150.7019698410586</v>
       </c>
       <c r="P8" t="n">
-        <v>90.5657124162131</v>
+        <v>70.1351681646035</v>
       </c>
       <c r="Q8" t="n">
         <v>0</v>
@@ -35257,22 +35257,22 @@
         <v>0</v>
       </c>
       <c r="L9" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="M9" t="n">
-        <v>217.7067518141195</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="N9" t="n">
-        <v>241.0142888776591</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="O9" t="n">
-        <v>241.0142888776591</v>
+        <v>197.2140931478448</v>
       </c>
       <c r="P9" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35418,13 +35418,13 @@
         <v>181.8947995804632</v>
       </c>
       <c r="M11" t="n">
-        <v>219.1673002655598</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="N11" t="n">
-        <v>207.9338608153932</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="O11" t="n">
-        <v>150.7019698410586</v>
+        <v>26.21586406326473</v>
       </c>
       <c r="P11" t="n">
         <v>90.5657124162131</v>
@@ -35491,25 +35491,25 @@
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L12" t="n">
-        <v>232.285965523585</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="M12" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>241.0142888776591</v>
+        <v>21.52426467247106</v>
       </c>
       <c r="O12" t="n">
-        <v>240.0046611659691</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35655,10 +35655,10 @@
         <v>181.8947995804632</v>
       </c>
       <c r="M14" t="n">
-        <v>219.1673002655598</v>
+        <v>81.03173866048648</v>
       </c>
       <c r="N14" t="n">
-        <v>207.9338608153932</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="O14" t="n">
         <v>150.7019698410586</v>
@@ -35731,16 +35731,16 @@
         <v>126.6237980382196</v>
       </c>
       <c r="L15" t="n">
-        <v>232.285965523585</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="M15" t="n">
-        <v>169.9067907798017</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="N15" t="n">
         <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>241.0142888776591</v>
+        <v>91.61977832229879</v>
       </c>
       <c r="P15" t="n">
         <v>184.4883612256069</v>
@@ -35892,7 +35892,7 @@
         <v>181.8947995804632</v>
       </c>
       <c r="M17" t="n">
-        <v>219.1673002655598</v>
+        <v>219.1673002655597</v>
       </c>
       <c r="N17" t="n">
         <v>207.9338608153932</v>
@@ -35971,19 +35971,19 @@
         <v>232.285965523585</v>
       </c>
       <c r="M18" t="n">
-        <v>169.9067907798017</v>
+        <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O18" t="n">
-        <v>241.0142888776591</v>
+        <v>99.8112771299739</v>
       </c>
       <c r="P18" t="n">
         <v>184.4883612256069</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36202,25 +36202,25 @@
         <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L21" t="n">
         <v>232.285965523585</v>
       </c>
       <c r="M21" t="n">
+        <v>169.9067907798017</v>
+      </c>
+      <c r="N21" t="n">
+        <v>0</v>
+      </c>
+      <c r="O21" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="N21" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="O21" t="n">
-        <v>169.9091475161414</v>
-      </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q21" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36439,16 +36439,16 @@
         <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>126.6237980382196</v>
+        <v>55.51629994036225</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M24" t="n">
-        <v>161.1784674257276</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N24" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
         <v>241.0142888776591</v>
@@ -36679,7 +36679,7 @@
         <v>0</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M27" t="n">
         <v>241.0142888776591</v>
@@ -36688,13 +36688,13 @@
         <v>241.0142888776591</v>
       </c>
       <c r="O27" t="n">
-        <v>241.0142888776591</v>
+        <v>240.0046611659691</v>
       </c>
       <c r="P27" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>46.78797658628819</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36922,16 +36922,16 @@
         <v>241.0142888776591</v>
       </c>
       <c r="N30" t="n">
-        <v>0</v>
+        <v>43.28534947792182</v>
       </c>
       <c r="O30" t="n">
-        <v>169.9067907798016</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="P30" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -37156,19 +37156,19 @@
         <v>232.285965523585</v>
       </c>
       <c r="M33" t="n">
+        <v>99.81127712997396</v>
+      </c>
+      <c r="N33" t="n">
+        <v>0</v>
+      </c>
+      <c r="O33" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="N33" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="O33" t="n">
-        <v>113.3808631277494</v>
-      </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37387,22 +37387,22 @@
         <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L36" t="n">
         <v>232.285965523585</v>
       </c>
       <c r="M36" t="n">
-        <v>0</v>
+        <v>240.0046611659691</v>
       </c>
       <c r="N36" t="n">
-        <v>169.9067907798017</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O36" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="P36" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
         <v>0</v>
@@ -37624,25 +37624,25 @@
         <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L39" t="n">
         <v>232.285965523585</v>
       </c>
       <c r="M39" t="n">
-        <v>99.81127712997396</v>
+        <v>240.0046611659691</v>
       </c>
       <c r="N39" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O39" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="P39" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37788,16 +37788,16 @@
         <v>181.8947995804632</v>
       </c>
       <c r="M41" t="n">
-        <v>219.1673002655598</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="N41" t="n">
-        <v>207.9338608153932</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="O41" t="n">
-        <v>150.7019698410586</v>
+        <v>116.7815764794778</v>
       </c>
       <c r="P41" t="n">
-        <v>90.5657124162131</v>
+        <v>0</v>
       </c>
       <c r="Q41" t="n">
         <v>0</v>
@@ -37861,22 +37861,22 @@
         <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L42" t="n">
-        <v>232.285965523585</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="M42" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="N42" t="n">
-        <v>240.0046611659691</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="O42" t="n">
-        <v>241.0142888776591</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>70.5902951096252</v>
       </c>
       <c r="Q42" t="n">
         <v>0</v>
@@ -38019,16 +38019,16 @@
         <v>0</v>
       </c>
       <c r="K44" t="n">
-        <v>104.0555615261842</v>
+        <v>0</v>
       </c>
       <c r="L44" t="n">
         <v>181.8947995804632</v>
       </c>
       <c r="M44" t="n">
-        <v>219.1673002655598</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="N44" t="n">
-        <v>207.9338608153932</v>
+        <v>185.0873001866707</v>
       </c>
       <c r="O44" t="n">
         <v>150.7019698410586</v>
@@ -38101,22 +38101,22 @@
         <v>126.6237980382196</v>
       </c>
       <c r="L45" t="n">
-        <v>232.285965523585</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="M45" t="n">
-        <v>241.0142888776591</v>
+        <v>91.61977832229879</v>
       </c>
       <c r="N45" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>43.28534947792182</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q45" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
